--- a/results/dwave_pegasus/spreadsheet25_annealing2.xlsx
+++ b/results/dwave_pegasus/spreadsheet25_annealing2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,31 +432,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{0: [2544, 2604, 4707, 4708], 6: [2527, 2530, 2529, 2528], 10: [4498, 4213, 2543, 2542], 16: [4633, 2603, 2602, 4318, 4316, 4317], 17: [2274, 4693, 2349, 4692], 19: [4722, 2259, 2256, 2257, 2258], 20: [4452, 2319, 2317, 2318], 21: [2379, 4496, 2377, 2378, 4497], 35: [4630, 2139, 2304, 4631], 40: [2228, 4588, 4587], 41: [2451, 2454, 2453, 2452], 43: [4602, 2288, 2289], 1: [2408, 4648, 4646, 4647], 3: [2184, 4198, 2183, 4197, 4196, 2182], 14: [2273, 2272, 4363, 4362], 26: [4528, 4558, 2484, 2483], 28: [4333, 2438, 2437], 33: [4736, 2468, 2469, 4737, 4738], 37: [4392, 2467, 4393], 45: [4423, 2227, 4421, 4422], 49: [2242, 2243, 4513, 4512, 4511], 8: [2559, 2558, 4376, 4377, 4378], 9: [4288, 2436, 2302, 4287, 4286], 11: [2512, 4752, 4753, 2513, 2514], 15: [4273, 2212, 2241, 4272, 4271], 34: [4303, 4301, 2482, 4302], 39: [4483, 4481, 4482], 42: [4212, 2199, 2197, 2198], 12: [2137, 4451, 2138], 27: [4723, 2499, 2498], 30: [2406, 4438, 2407], 32: [4617, 4618, 4619], 44: [4436, 2152, 2153], 47: [2572, 2573, 4663, 2574], 7: [4601, 2154, 4676], 22: [4409, 2287, 4408, 2348, 4407], 36: [2303, 4557], 38: [2588, 4542, 4543], 46: [4572, 4573, 2392, 2393, 2394], 18: [4526, 2333, 4527], 24: [2497, 4258, 2347, 4257], 25: [4167, 2423, 2422, 2421], 48: [4437, 2362, 2364, 2363], 13: [4751, 2170, 2167, 2168, 2169], 29: [4348, 4346, 4347], 4: [4661, 4662], 31: [4586, 2093, 4467, 2092, 4465, 4466], 23: [4480, 2122, 2123, 2214, 4541], 5: [2213, 4361], 2: [4332, 4331]}</t>
+          <t>{0: [3238], 1: [2656], 2: [1644]}</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.008618899273104882</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01336690229176919</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.039</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{0: [2544, 2604, 4707, 4708], 6: [2527, 2530, 2529, 2528], 10: [4498, 4213, 2543, 2542], 16: [4633, 2603, 2602, 4318, 4316, 4317], 17: [2274, 4693, 2349, 4692], 19: [4722, 2259, 2256, 2257, 2258], 20: [4452, 2319, 2317, 2318], 21: [2379, 4496, 2377, 2378, 4497], 35: [4630, 2139, 2304, 4631], 40: [2228, 4588, 4587], 41: [2451, 2454, 2453, 2452], 43: [4602, 2288, 2289], 1: [2408, 4648, 4646, 4647], 3: [2184, 4198, 2183, 4197, 4196, 2182], 14: [2273, 2272, 4363, 4362], 26: [4528, 4558, 2484, 2483], 28: [4333, 2438, 2437], 33: [4736, 2468, 2469, 4737, 4738], 37: [4392, 2467, 4393], 45: [4423, 2227, 4421, 4422], 49: [2242, 2243, 4513, 4512, 4511], 8: [2559, 2558, 4376, 4377, 4378], 9: [4288, 2436, 2302, 4287, 4286], 11: [2512, 4752, 4753, 2513, 2514], 15: [4273, 2212, 2241, 4272, 4271], 34: [4303, 4301, 2482, 4302], 39: [4483, 4481, 4482], 42: [4212, 2199, 2197, 2198], 12: [2137, 4451, 2138], 27: [4723, 2499, 2498], 30: [2406, 4438, 2407], 32: [4617, 4618, 4619], 44: [4436, 2152, 2153], 47: [2572, 2573, 4663, 2574], 7: [4601, 2154, 4676], 22: [4409, 2287, 4408, 2348, 4407], 36: [2303, 4557], 38: [2588, 4542, 4543], 46: [4572, 4573, 2392, 2393, 2394], 18: [4526, 2333, 4527], 24: [2497, 4258, 2347, 4257], 25: [4167, 2423, 2422, 2421], 48: [4437, 2362, 2364, 2363], 13: [4751, 2170, 2167, 2168, 2169], 29: [4348, 4346, 4347], 4: [4661, 4662], 31: [4586, 2093, 4467, 2092, 4465, 4466], 23: [4480, 2122, 2123, 2214, 4541], 5: [2213, 4361], 2: [4332, 4331]}</t>
+          <t>{0: [3238], 1: [2656], 2: [1644]}</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.008618899273104882</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01336690229176919</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -473,30 +473,3884 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>{0: [5462], 1: [5477], 's_0_1': [523], 's_0_0': [404], 's_1_1': [448], 2: [1207], 's_2_2': [4326]}</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{0: [5462], 1: [5477], 's_0_1': [523], 's_0_0': [404], 's_1_1': [448], 2: [1207], 's_2_2': [4326]}</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.987</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{2: [3048], 3: [750], 0: [4438], 1: [4171]}</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{2: [3048], 3: [750], 0: [4438], 1: [4171]}</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{2: [5552], 3: [5567], 's_2_3': [569], 's_2_2': [644], 's_3_3': [674], 0: [3882], 's_0_0': [2345], 1: [667], 's_1_1': [4338]}</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{2: [5552], 3: [5567], 's_2_3': [569], 's_2_2': [644], 's_3_3': [674], 0: [3882], 's_0_0': [2345], 1: [667], 's_1_1': [4338]}</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.979</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{0: [473], 1: [4562], 2: [488], 3: [487], 4: [1587]}</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{0: [473], 1: [4562], 2: [488], 3: [487], 4: [1587]}</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{0: [3270], 1: [3285], 's_0_1': [151], 's_0_0': [212], 2: [197], 's_1_2': [182], 's_1_1': [166], 3: [3405], 's_2_3': [3390], 's_2_2': [3435], 's_3_3': [272], 4: [334], 's_4_4': [3736]}</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{0: [3270], 1: [3285], 's_0_1': [151], 's_0_0': [212], 2: [197], 's_1_2': [182], 's_1_1': [166], 3: [3405], 's_2_3': [3390], 's_2_2': [3435], 's_3_3': [272], 4: [334], 's_4_4': [3736]}</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{0: [4040], 1: [1010], 2: [995], 4: [3934], 5: [3949], 3: [980]}</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{0: [4040], 1: [1010], 2: [995], 4: [3934], 5: [3949], 3: [980]}</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.988</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{0: [3775], 1: [3761, 3760], 's_0_1': [3776], 2: [3866, 2089], 's_0_2': [2074], 's_0_0': [3774], 's_1_2': [2119], 4: [2134], 's_1_4': [2149], 5: [2104, 3716], 's_1_5': [2014], 's_1_1': [2239], 's_2_5': [3821], 's_2_2': [3881], 3: [3806], 's_4_3': [3791], 's_4_4': [3731], 's_5_3': [2179], 's_5_5': [2073], 's_3_3': [2209]}</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{0: [3775], 1: [3761, 3760], 's_0_1': [3776], 2: [3866, 2089], 's_0_2': [2074], 's_0_0': [3774], 's_1_2': [2119], 4: [2134], 's_1_4': [2149], 5: [2104, 3716], 's_1_5': [2014], 's_1_1': [2239], 's_2_5': [3821], 's_2_2': [3881], 3: [3806], 's_4_3': [3791], 's_4_4': [3731], 's_5_3': [2179], 's_5_5': [2073], 's_3_3': [2209]}</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>{0: [5207], 2: [552], 6: [522], 1: [533], 4: [4502], 3: [4500], 5: [707]}</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{0: [5207], 2: [552], 6: [522], 1: [533], 4: [4502], 3: [4500], 5: [707]}</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{0: [2154], 2: [4691], 's_0_2': [2139], 6: [4676], 's_0_6': [4661], 's_0_0': [4751], 's_2_2': [2184], 's_6_6': [2259], 1: [2341], 4: [2356], 's_1_4': [3147], 's_1_1': [3132], 's_4_4': [3162], 3: [3761], 's_3_3': [2149], 5: [4768], 's_5_5': [2530]}</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{0: [2154], 2: [4691], 's_0_2': [2139], 6: [4676], 's_0_6': [4661], 's_0_0': [4751], 's_2_2': [2184], 's_6_6': [2259], 1: [2341], 4: [2356], 's_1_4': [3147], 's_1_1': [3132], 's_4_4': [3162], 3: [3761], 's_3_3': [2149], 5: [4768], 's_5_5': [2530]}</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.762</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{0: [4553], 2: [1598], 3: [1613], 6: [4538], 7: [4478], 4: [3829], 5: [964], 1: [4154]}</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{0: [4553], 2: [1598], 3: [1613], 6: [4538], 7: [4478], 4: [3829], 5: [964], 1: [4154]}</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>{0: [1864], 2: [3834, 1850], 's_0_2': [3865], 3: [3804], 's_0_3': [3789], 6: [1879], 's_0_6': [3895], 's_0_0': [3819], 's_2_6': [3924], 7: [3939], 's_2_7': [1820], 's_2_2': [3984], 's_3_3': [1714], 's_6_6': [3774], 's_7_7': [3940], 4: [863], 5: [4564], 's_4_5': [848], 's_4_4': [4429], 's_5_5': [924], 1: [1751], 's_1_1': [5018]}</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{0: [1864], 2: [3834, 1850], 's_0_2': [3865], 3: [3804], 's_0_3': [3789], 6: [1879], 's_0_6': [3895], 's_0_0': [3819], 's_2_6': [3924], 7: [3939], 's_2_7': [1820], 's_2_2': [3984], 's_3_3': [1714], 's_6_6': [3774], 's_7_7': [3940], 4: [863], 5: [4564], 's_4_5': [848], 's_4_4': [4429], 's_5_5': [924], 1: [1751], 's_1_1': [5018]}</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.297</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>{0: [2975], 1: [1065], 2: [3080], 5: [3065], 8: [1050], 6: [1005], 7: [1020], 4: [3005], 3: [5209]}</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{0: [2975], 1: [1065], 2: [3080], 5: [3065], 8: [1050], 6: [1005], 7: [1020], 4: [3005], 3: [5209]}</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.991</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>{0: [1899], 1: [4659], 's_0_1': [1914], 's_0_0': [4780], 2: [1944, 4705], 's_1_2': [4674], 's_1_1': [4660], 5: [4615], 's_2_5': [2004], 8: [2034], 's_2_8': [2019], 's_2_2': [4644], 6: [1839], 's_5_6': [1854], 7: [1868], 's_5_7': [4600], 's_5_5': [1883], 4: [4540], 's_8_4': [4555], 's_8_8': [4690], 's_6_6': [4689], 's_7_7': [4554], 's_4_4': [2063], 3: [3631], 's_3_3': [3646]}</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{0: [1899], 1: [4659], 's_0_1': [1914], 's_0_0': [4780], 2: [1944, 4705], 's_1_2': [4674], 's_1_1': [4660], 5: [4615], 's_2_5': [2004], 8: [2034], 's_2_8': [2019], 's_2_2': [4644], 6: [1839], 's_5_6': [1854], 7: [1868], 's_5_7': [4600], 's_5_5': [1883], 4: [4540], 's_8_4': [4555], 's_8_8': [4690], 's_6_6': [4689], 's_7_7': [4554], 's_4_4': [2063], 3: [3631], 's_3_3': [3646]}</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.244</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>{0: [744], 5: [4683], 6: [699, 4638], 7: [729], 9: [4578], 1: [759], 3: [774], 4: [4653], 2: [4623], 8: [4668]}</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.843</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{0: [744], 5: [4683], 6: [699, 4638], 7: [729], 9: [4578], 1: [759], 3: [774], 4: [4653], 2: [4623], 8: [4668]}</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.843</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{0: [1714, 1715], 5: [3983, 3984], 's_0_5': [3969], 6: [1775, 3894], 's_0_6': [1729], 7: [1684, 4074, 1685], 's_0_7': [3864], 9: [4088], 's_0_9': [4103], 's_0_0': [3819], 1: [1760], 's_5_1': [1745], 3: [1640], 's_5_3': [3968], 's_5_6': [1820], 's_5_5': [1835], 's_6_1': [3999], 4: [1699, 3818], 's_6_4': [1655], 's_6_7': [1776], 's_6_6': [3939], 2: [4044], 's_7_2': [1821], 's_7_4': [3788], 's_7_9': [1746], 's_7_7': [3758], 's_9_9': [1626], 's_1_2': [4029], 8: [3938, 1670], 's_1_8': [3923], 's_1_1': [4014], 's_3_8': [3908], 's_3_4': [1625], 's_3_3': [3863], 's_4_8': [3849], 's_4_4': [1534], 's_2_2': [1806], 's_8_8': [1671]}</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>7.199942400460795e-05</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.001374604585789962</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{0: [1714, 1715], 5: [3983, 3984], 's_0_5': [3969], 6: [1775, 3894], 's_0_6': [1729], 7: [1684, 4074, 1685], 's_0_7': [3864], 9: [4088], 's_0_9': [4103], 's_0_0': [3819], 1: [1760], 's_5_1': [1745], 3: [1640], 's_5_3': [3968], 's_5_6': [1820], 's_5_5': [1835], 's_6_1': [3999], 4: [1699, 3818], 's_6_4': [1655], 's_6_7': [1776], 's_6_6': [3939], 2: [4044], 's_7_2': [1821], 's_7_4': [3788], 's_7_9': [1746], 's_7_7': [3758], 's_9_9': [1626], 's_1_2': [4029], 8: [3938, 1670], 's_1_8': [3923], 's_1_1': [4014], 's_3_8': [3908], 's_3_4': [1625], 's_3_3': [3863], 's_4_8': [3849], 's_4_4': [1534], 's_2_2': [1806], 's_8_8': [1671]}</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>7.199942400460795e-05</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.001374604585789962</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>{0: [5457], 5: [2338], 2: [2337], 3: [5397], 6: [5472], 9: [2443], 8: [2413], 7: [2369], 1: [5532], 10: [2442], 4: [5308]}</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{0: [5457], 5: [2338], 2: [2337], 3: [5397], 6: [5472], 9: [2443], 8: [2413], 7: [2369], 1: [5532], 10: [2442], 4: [5308]}</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.962</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>{0: [3089], 5: [3044, 2730], 's_0_5': [2760], 's_0_0': [3088], 2: [2924], 's_5_2': [2939], 3: [2715], 's_5_3': [3029], 6: [2670, 3059], 's_5_6': [2805], 's_5_5': [3043], 's_2_2': [2923], 9: [2969, 2968], 's_3_9': [2954], 8: [2700], 's_3_8': [3074], 's_3_3': [2716], 7: [3058, 2610], 's_6_7': [3119], 's_6_6': [2790], 1: [2520], 's_9_1': [2953], 10: [2370], 's_9_10': [2385], 's_9_9': [2565], 's_8_8': [2701], 's_7_1': [2535], 's_7_7': [2625], 's_1_1': [3028], 4: [2998], 's_10_4': [2983], 's_10_10': [2371], 's_4_4': [2490]}</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{0: [3089], 5: [3044, 2730], 's_0_5': [2760], 's_0_0': [3088], 2: [2924], 's_5_2': [2939], 3: [2715], 's_5_3': [3029], 6: [2670, 3059], 's_5_6': [2805], 's_5_5': [3043], 's_2_2': [2923], 9: [2969, 2968], 's_3_9': [2954], 8: [2700], 's_3_8': [3074], 's_3_3': [2716], 7: [3058, 2610], 's_6_7': [3119], 's_6_6': [2790], 1: [2520], 's_9_1': [2953], 10: [2370], 's_9_10': [2385], 's_9_9': [2565], 's_8_8': [2701], 's_7_1': [2535], 's_7_7': [2625], 's_1_1': [3028], 4: [2998], 's_10_4': [2983], 's_10_10': [2371], 's_4_4': [2490]}</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>{0: [3602], 2: [528], 3: [3603], 5: [618], 10: [3632], 11: [513], 4: [3617, 453], 8: [3647], 9: [3693], 1: [574], 7: [3677], 6: [3678]}</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{0: [3602], 2: [528], 3: [3603], 5: [618], 10: [3632], 11: [513], 4: [3617, 453], 8: [3647], 9: [3693], 1: [574], 7: [3677], 6: [3678]}</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.822</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>{0: [5422, 5423], 2: [5498, 1558], 's_0_2': [1528], 3: [1378], 's_0_3': [1363], 5: [1708, 1709], 's_0_5': [1693], 's_0_0': [5407], 10: [5542, 5543], 's_2_10': [1484], 11: [1603, 5438], 's_2_11': [5408], 's_2_2': [1557], 's_3_3': [1379], 4: [1648, 5558, 1649], 's_5_4': [5588], 8: [5603, 1634], 's_5_8': [5573], 9: [5633], 's_5_9': [5618], 's_5_10': [5528], 's_5_5': [5664], 1: [1574, 5649, 5648], 's_10_1': [1604], 's_10_8': [1619], 's_10_4': [1769], 's_10_10': [1454], 's_11_8': [5468], 's_11_4': [5363], 7: [5378], 's_11_7': [1618], 's_11_11': [1573], 's_4_8': [1694], 's_4_7': [1633], 's_4_4': [5288], 's_8_1': [5513], 's_8_8': [5602], 's_9_1': [1559], 's_9_9': [1544], 6: [1738, 1739], 's_1_6': [1724], 's_1_1': [1514], 's_7_6': [1723], 's_7_7': [5379], 's_6_6': [5723]}</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>{0: [5422, 5423], 2: [5498, 1558], 's_0_2': [1528], 3: [1378], 's_0_3': [1363], 5: [1708, 1709], 's_0_5': [1693], 's_0_0': [5407], 10: [5542, 5543], 's_2_10': [1484], 11: [1603, 5438], 's_2_11': [5408], 's_2_2': [1557], 's_3_3': [1379], 4: [1648, 5558, 1649], 's_5_4': [5588], 8: [5603, 1634], 's_5_8': [5573], 9: [5633], 's_5_9': [5618], 's_5_10': [5528], 's_5_5': [5664], 1: [1574, 5649, 5648], 's_10_1': [1604], 's_10_8': [1619], 's_10_4': [1769], 's_10_10': [1454], 's_11_8': [5468], 's_11_4': [5363], 7: [5378], 's_11_7': [1618], 's_11_11': [1573], 's_4_8': [1694], 's_4_7': [1633], 's_4_4': [5288], 's_8_1': [5513], 's_8_8': [5602], 's_9_1': [1559], 's_9_9': [1544], 6: [1738, 1739], 's_1_6': [1724], 's_1_1': [1514], 's_7_6': [1723], 's_7_7': [5379], 's_6_6': [5723]}</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.079</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>{0: [5619], 3: [1754, 5664], 7: [1739], 8: [5634], 6: [1709, 5558], 9: [1724], 11: [5665], 12: [5573], 1: [5649], 5: [5633], 10: [5589], 4: [5588], 2: [321]}</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.007692307692307693</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.02307692307692308</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>{0: [5619], 3: [1754, 5664], 7: [1739], 8: [5634], 6: [1709, 5558], 9: [1724], 11: [5665], 12: [5573], 1: [5649], 5: [5633], 10: [5589], 4: [5588], 2: [321]}</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.007692307692307693</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.02307692307692308</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.841</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>{0: [3723, 3722], 3: [3693, 618], 's_0_3': [679], 7: [3648, 3647, 559], 's_0_7': [754], 8: [648, 3603], 's_0_8': [798], 's_0_0': [514], 6: [574, 3663], 's_3_6': [3632], 's_3_7': [724], 's_3_8': [633], 9: [603, 604], 's_3_9': [619], 11: [709], 's_3_11': [694], 12: [3662, 513, 3602], 's_3_12': [3572], 's_3_3': [3694], 1: [739], 's_7_1': [3633], 's_7_6': [708], 's_7_9': [3797], 's_7_7': [663], 5: [693], 's_8_5': [3618], 's_8_8': [768], 's_6_1': [3708], 's_6_5': [3678], 's_6_12': [573], 's_6_6': [575], 10: [725, 3858], 's_9_10': [3888], 's_9_12': [3587], 's_9_9': [3752], 's_11_11': [3753], 's_12_12': [588], 's_1_1': [3783], 's_5_5': [3513], 4: [3903], 's_10_4': [740], 's_10_10': [3933], 's_4_4': [784], 2: [3614], 's_2_2': [2673]}</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6.459948320413438e-05</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.001196399171670034</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>{0: [3723, 3722], 3: [3693, 618], 's_0_3': [679], 7: [3648, 3647, 559], 's_0_7': [754], 8: [648, 3603], 's_0_8': [798], 's_0_0': [514], 6: [574, 3663], 's_3_6': [3632], 's_3_7': [724], 's_3_8': [633], 9: [603, 604], 's_3_9': [619], 11: [709], 's_3_11': [694], 12: [3662, 513, 3602], 's_3_12': [3572], 's_3_3': [3694], 1: [739], 's_7_1': [3633], 's_7_6': [708], 's_7_9': [3797], 's_7_7': [663], 5: [693], 's_8_5': [3618], 's_8_8': [768], 's_6_1': [3708], 's_6_5': [3678], 's_6_12': [573], 's_6_6': [575], 10: [725, 3858], 's_9_10': [3888], 's_9_12': [3587], 's_9_9': [3752], 's_11_11': [3753], 's_12_12': [588], 's_1_1': [3783], 's_5_5': [3513], 4: [3903], 's_10_4': [740], 's_10_10': [3933], 's_4_4': [784], 2: [3614], 's_2_2': [2673]}</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>6.459948320413438e-05</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.001196399171670034</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.079</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>{0: [494], 1: [5597], 11: [5551], 3: [479], 5: [614], 6: [5582], 12: [629], 13: [464], 8: [509], 9: [5566], 10: [5612], 2: [5567], 7: [449], 4: [2944]}</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>{0: [494], 1: [5597], 11: [5551], 3: [479], 5: [614], 6: [5582], 12: [629], 13: [464], 8: [509], 9: [5566], 10: [5612], 2: [5567], 7: [449], 4: [2944]}</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.855</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>{0: [3917], 1: [560, 3962], 's_0_1': [530], 11: [3858, 634], 's_0_11': [649], 's_0_0': [3916], 3: [620, 515, 3947], 's_1_3': [3872], 5: [3842], 's_1_5': [3857], 6: [3813, 3812], 's_1_6': [545], 12: [469, 470], 's_1_12': [3827], 13: [575], 's_1_13': [3932], 's_1_1': [485], 8: [3828], 's_11_8': [694], 's_11_13': [3873], 's_11_11': [633], 9: [4023, 726], 's_3_9': [4053], 10: [514], 's_3_10': [619, 3782], 's_3_13': [3977], 's_3_3': [4097], 's_5_10': [529], 's_5_12': [454], 's_5_5': [395], 's_6_8': [740], 's_6_13': [590], 's_6_6': [499], 2: [4007, 605], 's_12_2': [455], 's_12_12': [3901], 's_13_13': [576], 's_8_8': [725], 's_9_2': [4068], 7: [4098], 's_9_7': [4083], 's_9_9': [710], 's_10_10': [3692], 's_2_2': [606], 's_7_7': [785], 4: [760], 's_4_4': [4744]}</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>{0: [3917], 1: [560, 3962], 's_0_1': [530], 11: [3858, 634], 's_0_11': [649], 's_0_0': [3916], 3: [620, 515, 3947], 's_1_3': [3872], 5: [3842], 's_1_5': [3857], 6: [3813, 3812], 's_1_6': [545], 12: [469, 470], 's_1_12': [3827], 13: [575], 's_1_13': [3932], 's_1_1': [485], 8: [3828], 's_11_8': [694], 's_11_13': [3873], 's_11_11': [633], 9: [4023, 726], 's_3_9': [4053], 10: [514], 's_3_10': [619, 3782], 's_3_13': [3977], 's_3_3': [4097], 's_5_10': [529], 's_5_12': [454], 's_5_5': [395], 's_6_8': [740], 's_6_13': [590], 's_6_6': [499], 2: [4007, 605], 's_12_2': [455], 's_12_12': [3901], 's_13_13': [576], 's_8_8': [725], 's_9_2': [4068], 7: [4098], 's_9_7': [4083], 's_9_9': [710], 's_10_10': [3692], 's_2_2': [606], 's_7_7': [785], 4: [760], 's_4_4': [4744]}</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>{0: [3510], 1: [3525], 4: [198], 7: [48], 9: [62], 11: [107], 12: [33], 14: [183], 5: [92], 3: [3495], 8: [47], 6: [3420], 2: [34], 10: [35], 13: [524]}</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>{0: [3510], 1: [3525], 4: [198], 7: [48], 9: [62], 11: [107], 12: [33], 14: [183], 5: [92], 3: [3495], 8: [47], 6: [3420], 2: [34], 10: [35], 13: [524]}</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>{0: [2963, 2961, 2962], 1: [1125], 's_0_1': [1110], 4: [1275, 2931], 's_0_4': [1260], 7: [1485, 3052], 's_0_7': [1455], 9: [1620], 's_0_9': [1635], 11: [2945, 2960], 's_0_11': [2946], 12: [3066, 1470, 3067], 's_0_12': [1305], 14: [2977, 1290], 's_0_14': [2947], 's_0_0': [2964], 5: [3065], 's_1_5': [3080], 's_1_1': [2915], 's_4_14': [2916], 's_4_4': [2991], 3: [1410], 's_7_3': [3082], 8: [1575], 's_7_8': [3022], 's_7_7': [1530], 's_9_9': [1621], 6: [3064, 930], 's_11_6': [945], 's_11_11': [2959], 2: [1170], 's_12_2': [3081], 's_12_12': [1200], 's_14_3': [2992], 's_14_14': [3021], 's_5_6': [2990, 1080], 's_5_5': [1155], 's_3_3': [3112], 's_8_8': [3113], 's_6_6': [825], 10: [3185], 's_2_10': [3200], 's_2_2': [1171], 's_10_10': [1126], 13: [5335], 's_13_13': [1933]}</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>5.859603890776983e-05</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.00112711731288359</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>{0: [2963, 2961, 2962], 1: [1125], 's_0_1': [1110], 4: [1275, 2931], 's_0_4': [1260], 7: [1485, 3052], 's_0_7': [1455], 9: [1620], 's_0_9': [1635], 11: [2945, 2960], 's_0_11': [2946], 12: [3066, 1470, 3067], 's_0_12': [1305], 14: [2977, 1290], 's_0_14': [2947], 's_0_0': [2964], 5: [3065], 's_1_5': [3080], 's_1_1': [2915], 's_4_14': [2916], 's_4_4': [2991], 3: [1410], 's_7_3': [3082], 8: [1575], 's_7_8': [3022], 's_7_7': [1530], 's_9_9': [1621], 6: [3064, 930], 's_11_6': [945], 's_11_11': [2959], 2: [1170], 's_12_2': [3081], 's_12_12': [1200], 's_14_3': [2992], 's_14_14': [3021], 's_5_6': [2990, 1080], 's_5_5': [1155], 's_3_3': [3112], 's_8_8': [3113], 's_6_6': [825], 10: [3185], 's_2_10': [3200], 's_2_2': [1171], 's_10_10': [1126], 13: [5335], 's_13_13': [1933]}</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>5.859603890776983e-05</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.00112711731288359</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.061</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>{0: [5543], 1: [1634], 5: [5528, 5527], 11: [1604], 4: [5558], 8: [5588], 14: [1528, 5513], 3: [1558], 6: [5542], 10: [1424], 13: [5603, 1619], 15: [1574], 7: [5648], 12: [5453, 1649], 9: [1589], 2: [5663]}</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0143163389778391</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>{0: [5543], 1: [1634], 5: [5528, 5527], 11: [1604], 4: [5558], 8: [5588], 14: [1528, 5513], 3: [1558], 6: [5542], 10: [1424], 13: [5603, 1619], 15: [1574], 7: [5648], 12: [5453, 1649], 9: [1589], 2: [5663]}</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0143163389778391</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.775</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>{0: [4607], 1: [4592, 4593], 's_0_1': [428], 5: [4667, 4666, 489], 's_0_5': [534], 11: [550, 4652, 549], 's_0_11': [519], 's_0_0': [4606], 4: [579], 's_1_4': [4608], 's_1_5': [414], 8: [4637, 669], 's_1_8': [684], 14: [4758, 504, 4757], 's_1_14': [714], 's_1_1': [4591], 3: [624], 's_5_3': [609], 6: [4622, 4621], 's_5_6': [399], 10: [4636], 's_5_10': [369], 13: [744, 4697, 4698], 's_5_13': [654], 's_5_14': [4727], 15: [384, 4651], 's_5_15': [429], 's_5_5': [490], 's_11_4': [4532], 7: [4548, 4546, 4547], 's_11_7': [774, 4653], 's_11_14': [565], 's_11_11': [4577], 12: [4682, 459], 's_4_12': [594], 's_4_4': [580], 9: [638, 4563], 's_8_9': [608], 's_8_13': [4683], 's_8_8': [670], 's_14_3': [4743], 's_14_12': [4742], 's_14_13': [745], 's_14_15': [444], 's_14_14': [505], 's_3_12': [4712], 's_3_3': [625], 's_6_9': [653], 's_6_10': [473], 's_6_6': [4623], 's_10_10': [443], 2: [4533], 's_13_2': [759], 's_13_9': [4578], 's_13_12': [564], 's_13_13': [789], 's_15_7': [4531], 's_15_15': [4561], 's_7_2': [713], 's_7_9': [623], 's_7_7': [503], 's_12_12': [4801], 's_9_2': [698], 's_9_9': [4472], 's_2_2': [803]}</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>4.81270554263255e-05</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0008591274782382857</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>{0: [4607], 1: [4592, 4593], 's_0_1': [428], 5: [4667, 4666, 489], 's_0_5': [534], 11: [550, 4652, 549], 's_0_11': [519], 's_0_0': [4606], 4: [579], 's_1_4': [4608], 's_1_5': [414], 8: [4637, 669], 's_1_8': [684], 14: [4758, 504, 4757], 's_1_14': [714], 's_1_1': [4591], 3: [624], 's_5_3': [609], 6: [4622, 4621], 's_5_6': [399], 10: [4636], 's_5_10': [369], 13: [744, 4697, 4698], 's_5_13': [654], 's_5_14': [4727], 15: [384, 4651], 's_5_15': [429], 's_5_5': [490], 's_11_4': [4532], 7: [4548, 4546, 4547], 's_11_7': [774, 4653], 's_11_14': [565], 's_11_11': [4577], 12: [4682, 459], 's_4_12': [594], 's_4_4': [580], 9: [638, 4563], 's_8_9': [608], 's_8_13': [4683], 's_8_8': [670], 's_14_3': [4743], 's_14_12': [4742], 's_14_13': [745], 's_14_15': [444], 's_14_14': [505], 's_3_12': [4712], 's_3_3': [625], 's_6_9': [653], 's_6_10': [473], 's_6_6': [4623], 's_10_10': [443], 2: [4533], 's_13_2': [759], 's_13_9': [4578], 's_13_12': [564], 's_13_13': [789], 's_15_7': [4531], 's_15_15': [4561], 's_7_2': [713], 's_7_9': [623], 's_7_7': [503], 's_12_12': [4801], 's_9_2': [698], 's_9_9': [4472], 's_2_2': [803]}</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>4.81270554263255e-05</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.0008591274782382857</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>{0: [3957], 4: [3912, 2480], 5: [2315], 7: [3942], 9: [2330], 10: [2465], 11: [2420], 3: [3883, 3882], 14: [2360], 16: [3972], 1: [2345], 8: [2405], 13: [3897], 12: [4048], 2: [2300], 15: [2390], 6: [2344]}</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>{0: [3957], 4: [3912, 2480], 5: [2315], 7: [3942], 9: [2330], 10: [2465], 11: [2420], 3: [3883, 3882], 14: [2360], 16: [3972], 1: [2345], 8: [2405], 13: [3897], 12: [4048], 2: [2300], 15: [2390], 6: [2344]}</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.714</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>{0: [4595, 1074], 4: [1044, 4654], 's_0_4': [4760], 5: [4580, 939], 's_0_5': [1104], 7: [4729, 1149, 4730], 's_0_7': [4700], 9: [4624, 983], 's_0_9': [4625], 10: [1014, 1013], 's_0_10': [998], 11: [1060, 1059], 's_0_11': [1075], 's_0_0': [4640], 3: [4669, 4579, 924], 's_4_3': [984], 's_4_5': [1043], 's_4_7': [4655], 's_4_9': [4639], 's_4_10': [4745], 14: [1164, 4715], 's_4_14': [1029], 's_4_4': [1045], 's_5_3': [4684], 's_5_9': [968], 16: [4534], 's_5_16': [954], 's_5_5': [940], 1: [4776], 's_7_1': [1120], 8: [848, 849], 's_7_8': [864], 's_7_11': [4805], 's_7_14': [4746], 's_7_7': [1148], 13: [4519, 833], 's_9_13': [4504], 's_9_9': [4489], 's_10_3': [999], 's_10_10': [4520], 12: [4880], 's_11_12': [4865], 's_11_11': [4775], 2: [4594], 's_3_2': [774], 's_3_13': [878], 's_3_3': [4699], 's_14_1': [1135], 's_14_14': [4716], 's_16_8': [863], 15: [818], 's_16_15': [4549], 's_16_16': [909], 6: [1240], 's_1_6': [1255], 's_1_1': [1285], 's_8_8': [4638], 's_13_2': [4609], 's_13_13': [832], 's_12_12': [1000], 's_2_2': [894], 's_15_15': [817], 's_6_6': [4896]}</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3.252667187093417e-05</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0007178010828361276</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>{0: [4595, 1074], 4: [1044, 4654], 's_0_4': [4760], 5: [4580, 939], 's_0_5': [1104], 7: [4729, 1149, 4730], 's_0_7': [4700], 9: [4624, 983], 's_0_9': [4625], 10: [1014, 1013], 's_0_10': [998], 11: [1060, 1059], 's_0_11': [1075], 's_0_0': [4640], 3: [4669, 4579, 924], 's_4_3': [984], 's_4_5': [1043], 's_4_7': [4655], 's_4_9': [4639], 's_4_10': [4745], 14: [1164, 4715], 's_4_14': [1029], 's_4_4': [1045], 's_5_3': [4684], 's_5_9': [968], 16: [4534], 's_5_16': [954], 's_5_5': [940], 1: [4776], 's_7_1': [1120], 8: [848, 849], 's_7_8': [864], 's_7_11': [4805], 's_7_14': [4746], 's_7_7': [1148], 13: [4519, 833], 's_9_13': [4504], 's_9_9': [4489], 's_10_3': [999], 's_10_10': [4520], 12: [4880], 's_11_12': [4865], 's_11_11': [4775], 2: [4594], 's_3_2': [774], 's_3_13': [878], 's_3_3': [4699], 's_14_1': [1135], 's_14_14': [4716], 's_16_8': [863], 15: [818], 's_16_15': [4549], 's_16_16': [909], 6: [1240], 's_1_6': [1255], 's_1_1': [1285], 's_8_8': [4638], 's_13_2': [4609], 's_13_13': [832], 's_12_12': [1000], 's_2_2': [894], 's_15_15': [817], 's_6_6': [4896]}</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>3.252667187093417e-05</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0007178010828361276</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>{0: [1611, 4148], 1: [4223], 5: [4163], 8: [4133], 9: [1626], 12: [4103], 16: [1610, 1595], 17: [4178], 4: [1492], 6: [1596], 2: [4028], 7: [4073], 10: [4058], 11: [4043], 13: [1625], 14: [3998, 1535], 15: [1761], 3: [1491]}</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0008960573476702509</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.006998431609235354</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>{0: [1611, 4148], 1: [4223], 5: [4163], 8: [4133], 9: [1626], 12: [4103], 16: [1610, 1595], 17: [4178], 4: [1492], 6: [1596], 2: [4028], 7: [4073], 10: [4058], 11: [4043], 13: [1625], 14: [3998, 1535], 15: [1761], 3: [1491]}</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0008960573476702509</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.006998431609235354</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.656</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>{0: [686, 4996, 4997], 1: [506], 's_0_1': [4981], 5: [536], 's_0_5': [4982], 8: [5073], 's_0_8': [5088], 9: [475, 340, 4846], 's_0_9': [341], 12: [5118], 's_0_12': [5103], 16: [4831, 460], 's_0_16': [430], 17: [386], 's_0_17': [371], 's_0_0': [640], 4: [5057], 's_1_4': [5042], 6: [4952], 's_1_6': [491], 's_1_1': [5011], 's_5_6': [521], 's_5_5': [5102], 's_8_8': [5074], 2: [415], 's_9_2': [4876], 7: [4922], 's_9_7': [490], 10: [4937, 535], 's_9_10': [4936], 11: [4907, 610], 's_9_11': [4906], 13: [4801], 's_9_13': [385], 14: [4862], 's_9_14': [4861], 's_9_9': [4845], 15: [747], 's_12_15': [732], 's_12_12': [701], 's_16_6': [445], 's_16_11': [4832], 's_16_14': [505], 's_16_16': [459], 's_17_17': [5041], 3: [5027, 566], 's_4_3': [581], 's_4_4': [5056], 's_6_6': [4951], 's_2_2': [4757], 's_7_3': [551], 's_7_10': [401], 's_7_7': [416], 's_10_3': [4892], 's_10_14': [4877], 's_10_10': [534], 's_11_3': [611], 's_11_11': [596], 's_13_13': [4802], 's_14_14': [580], 's_15_15': [5178], 's_3_3': [641]}</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>3.640865069540523e-05</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0007654480463711002</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>{0: [686, 4996, 4997], 1: [506], 's_0_1': [4981], 5: [536], 's_0_5': [4982], 8: [5073], 's_0_8': [5088], 9: [475, 340, 4846], 's_0_9': [341], 12: [5118], 's_0_12': [5103], 16: [4831, 460], 's_0_16': [430], 17: [386], 's_0_17': [371], 's_0_0': [640], 4: [5057], 's_1_4': [5042], 6: [4952], 's_1_6': [491], 's_1_1': [5011], 's_5_6': [521], 's_5_5': [5102], 's_8_8': [5074], 2: [415], 's_9_2': [4876], 7: [4922], 's_9_7': [490], 10: [4937, 535], 's_9_10': [4936], 11: [4907, 610], 's_9_11': [4906], 13: [4801], 's_9_13': [385], 14: [4862], 's_9_14': [4861], 's_9_9': [4845], 15: [747], 's_12_15': [732], 's_12_12': [701], 's_16_6': [445], 's_16_11': [4832], 's_16_14': [505], 's_16_16': [459], 's_17_17': [5041], 3: [5027, 566], 's_4_3': [581], 's_4_4': [5056], 's_6_6': [4951], 's_2_2': [4757], 's_7_3': [551], 's_7_10': [401], 's_7_7': [416], 's_10_3': [4892], 's_10_14': [4877], 's_10_10': [534], 's_11_3': [611], 's_11_11': [596], 's_13_13': [4802], 's_14_14': [580], 's_15_15': [5178], 's_3_3': [641]}</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>3.640865069540523e-05</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0007654480463711002</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>{0: [2468], 2: [4573], 4: [2483, 2484], 7: [4528], 16: [4588, 4587], 8: [2513, 4513], 13: [2408], 18: [2379], 5: [2438, 4647], 10: [4497], 11: [4662, 2394], 15: [4618], 3: [4527, 2303], 6: [4482, 2453], 12: [4572], 14: [2333], 17: [2288], 1: [4542], 9: [4557]}</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.003508771929824561</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.01312862240973313</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>{0: [2468], 2: [4573], 4: [2483, 2484], 7: [4528], 16: [4588, 4587], 8: [2513, 4513], 13: [2408], 18: [2379], 5: [2438, 4647], 10: [4497], 11: [4662, 2394], 15: [4618], 3: [4527, 2303], 6: [4482, 2453], 12: [4572], 14: [2333], 17: [2288], 1: [4542], 9: [4557]}</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0.003508771929824561</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.01312862240973313</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.599</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>{0: [4128, 4127], 2: [591, 590], 's_0_2': [546, 4007], 4: [785, 4220, 4219, 786], 's_0_4': [846], 7: [665, 666], 's_0_7': [4112], 16: [4188, 681], 's_0_16': [636], 's_0_0': [516], 8: [3873], 's_2_8': [3888], 13: [4083, 4082, 561], 's_2_13': [4142], 18: [4157, 620, 621], 's_2_18': [3932], 's_2_2': [589], 5: [800, 3994, 3993], 's_4_5': [3933], 10: [4113, 996, 4114], 's_4_10': [1026], 11: [4204, 4202, 4203], 's_4_11': [4205], 15: [891, 4054], 's_4_15': [876], 's_4_16': [757], 's_4_4': [1087], 3: [4053, 501, 4052], 's_7_3': [4173, 4172], 's_7_5': [3978], 6: [710, 771, 4008], 's_7_6': [3963], 's_7_8': [680], 's_7_7': [3917], 's_16_3': [4187], 12: [742], 's_16_12': [727], 's_16_13': [4097], 14: [711, 4278, 712], 's_16_14': [801], 17: [651, 726, 4143], 's_16_17': [4158], 's_16_16': [682], 's_8_6': [695], 's_8_8': [649], 1: [4038, 605], 's_13_1': [576], 's_13_5': [830], 's_13_6': [741], 9: [4098, 861], 's_13_9': [696], 's_13_13': [562], 's_18_1': [606], 's_18_11': [456], 's_18_18': [4156], 's_5_6': [4024], 's_5_15': [906], 's_5_5': [965], 's_10_6': [756], 's_10_14': [4279], 's_10_10': [4129], 's_11_9': [4174, 816], 's_11_15': [4189, 922], 's_11_11': [4201], 's_15_6': [4069], 's_15_15': [4084], 's_3_1': [4068], 's_3_17': [531, 532, 4262], 's_3_3': [440], 's_6_14': [772], 's_6_6': [3918], 's_12_14': [4248], 's_12_12': [4323], 's_14_9': [862], 's_14_14': [4368], 's_17_1': [4023], 's_17_17': [4233], 's_1_1': [3992], 's_9_9': [860]}</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>6.373730034290668e-05</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0008959569335120824</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>{0: [4128, 4127], 2: [591, 590], 's_0_2': [546, 4007], 4: [785, 4220, 4219, 786], 's_0_4': [846], 7: [665, 666], 's_0_7': [4112], 16: [4188, 681], 's_0_16': [636], 's_0_0': [516], 8: [3873], 's_2_8': [3888], 13: [4083, 4082, 561], 's_2_13': [4142], 18: [4157, 620, 621], 's_2_18': [3932], 's_2_2': [589], 5: [800, 3994, 3993], 's_4_5': [3933], 10: [4113, 996, 4114], 's_4_10': [1026], 11: [4204, 4202, 4203], 's_4_11': [4205], 15: [891, 4054], 's_4_15': [876], 's_4_16': [757], 's_4_4': [1087], 3: [4053, 501, 4052], 's_7_3': [4173, 4172], 's_7_5': [3978], 6: [710, 771, 4008], 's_7_6': [3963], 's_7_8': [680], 's_7_7': [3917], 's_16_3': [4187], 12: [742], 's_16_12': [727], 's_16_13': [4097], 14: [711, 4278, 712], 's_16_14': [801], 17: [651, 726, 4143], 's_16_17': [4158], 's_16_16': [682], 's_8_6': [695], 's_8_8': [649], 1: [4038, 605], 's_13_1': [576], 's_13_5': [830], 's_13_6': [741], 9: [4098, 861], 's_13_9': [696], 's_13_13': [562], 's_18_1': [606], 's_18_11': [456], 's_18_18': [4156], 's_5_6': [4024], 's_5_15': [906], 's_5_5': [965], 's_10_6': [756], 's_10_14': [4279], 's_10_10': [4129], 's_11_9': [4174, 816], 's_11_15': [4189, 922], 's_11_11': [4201], 's_15_6': [4069], 's_15_15': [4084], 's_3_1': [4068], 's_3_17': [531, 532, 4262], 's_3_3': [440], 's_6_14': [772], 's_6_6': [3918], 's_12_14': [4248], 's_12_12': [4323], 's_14_9': [862], 's_14_14': [4368], 's_17_1': [4023], 's_17_17': [4233], 's_1_1': [3992], 's_9_9': [860]}</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>6.373730034290668e-05</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.0008959569335120824</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>{0: [5600], 12: [1109, 5465], 14: [1139], 16: [5525, 1094], 17: [1154], 18: [5585, 1049], 19: [1079, 5570], 1: [1078], 5: [5466, 1168], 10: [1064, 1063], 15: [5435], 2: [5555], 4: [5510], 6: [5540], 8: [5615], 11: [5705], 7: [1169], 3: [1033], 13: [5450], 9: [5389]}</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.002777777777777778</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.01145307118227128</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>{0: [5600], 12: [1109, 5465], 14: [1139], 16: [5525, 1094], 17: [1154], 18: [5585, 1049], 19: [1079, 5570], 1: [1078], 5: [5466, 1168], 10: [1064, 1063], 15: [5435], 2: [5555], 4: [5510], 6: [5540], 8: [5615], 11: [5705], 7: [1169], 3: [1033], 13: [5450], 9: [5389]}</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0.002777777777777778</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01145307118227128</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.707</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>{0: [5453, 1634], 12: [5498, 1362, 1363, 5497], 's_0_12': [1558], 14: [5572, 5573], 's_0_14': [1649], 16: [5543, 5482, 1454, 5542], 's_0_16': [1693], 17: [5348, 1603], 's_0_17': [5438], 18: [1723, 1724, 5558, 1604], 's_0_18': [5513], 19: [1557, 1618, 5333], 's_0_19': [5468], 's_0_0': [5454], 1: [1394], 's_12_1': [5541], 5: [5317, 1438], 's_12_5': [5332], 10: [5663, 5662, 1409], 's_12_10': [1589], 15: [1304, 5526, 1333], 's_12_15': [5376], 's_12_16': [1528], 's_12_18': [5499], 's_12_12': [5227], 's_14_16': [1664], 's_14_18': [1694], 's_14_14': [1769, 5634], 2: [1483, 1484], 's_16_2': [5437], 4: [1619, 5618], 's_16_4': [5528], 's_16_5': [1423], 6: [5602, 5467, 1469], 's_16_6': [1424], 's_16_15': [5527], 's_16_18': [5557], 's_16_16': [5544], 8: [1514, 5378, 5377, 1513], 's_17_8': [1678], 11: [1737], 's_17_11': [1722, 5198], 's_17_18': [5409, 5408], 's_17_19': [5318], 's_17_17': [1602], 's_18_4': [5633], 's_18_8': [5648], 's_18_10': [5664], 's_18_18': [5679], 's_19_2': [5362], 's_19_4': [1574, 1573], 7: [5347, 1453], 's_19_7': [1498], 's_19_19': [5197], 's_1_10': [5617], 's_1_15': [5556], 's_1_1': [5647], 's_5_7': [5392], 's_5_6': [1393], 's_5_5': [1332], 's_10_4': [1559], 's_10_6': [1364], 's_10_8': [5632], 's_10_15': [5571], 's_10_10': [1349], 3: [5512, 5511], 's_15_3': [1274], 13: [1259], 's_15_13': [5601], 's_15_15': [1334], 's_2_7': [5272], 's_2_2': [5257], 's_4_4': [1544], 's_6_6': [1319], 's_8_7': [5422], 's_8_8': [1663], 's_11_11': [1736], 's_7_7': [5287], 9: [1124], 's_3_9': [1139], 's_3_13': [1244], 's_3_3': [1183], 's_13_13': [5586], 's_9_9': [5435]}</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0001556960812494012</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.001352510076510399</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>{0: [5453, 1634], 12: [5498, 1362, 1363, 5497], 's_0_12': [1558], 14: [5572, 5573], 's_0_14': [1649], 16: [5543, 5482, 1454, 5542], 's_0_16': [1693], 17: [5348, 1603], 's_0_17': [5438], 18: [1723, 1724, 5558, 1604], 's_0_18': [5513], 19: [1557, 1618, 5333], 's_0_19': [5468], 's_0_0': [5454], 1: [1394], 's_12_1': [5541], 5: [5317, 1438], 's_12_5': [5332], 10: [5663, 5662, 1409], 's_12_10': [1589], 15: [1304, 5526, 1333], 's_12_15': [5376], 's_12_16': [1528], 's_12_18': [5499], 's_12_12': [5227], 's_14_16': [1664], 's_14_18': [1694], 's_14_14': [1769, 5634], 2: [1483, 1484], 's_16_2': [5437], 4: [1619, 5618], 's_16_4': [5528], 's_16_5': [1423], 6: [5602, 5467, 1469], 's_16_6': [1424], 's_16_15': [5527], 's_16_18': [5557], 's_16_16': [5544], 8: [1514, 5378, 5377, 1513], 's_17_8': [1678], 11: [1737], 's_17_11': [1722, 5198], 's_17_18': [5409, 5408], 's_17_19': [5318], 's_17_17': [1602], 's_18_4': [5633], 's_18_8': [5648], 's_18_10': [5664], 's_18_18': [5679], 's_19_2': [5362], 's_19_4': [1574, 1573], 7: [5347, 1453], 's_19_7': [1498], 's_19_19': [5197], 's_1_10': [5617], 's_1_15': [5556], 's_1_1': [5647], 's_5_7': [5392], 's_5_6': [1393], 's_5_5': [1332], 's_10_4': [1559], 's_10_6': [1364], 's_10_8': [5632], 's_10_15': [5571], 's_10_10': [1349], 3: [5512, 5511], 's_15_3': [1274], 13: [1259], 's_15_13': [5601], 's_15_15': [1334], 's_2_7': [5272], 's_2_2': [5257], 's_4_4': [1544], 's_6_6': [1319], 's_8_7': [5422], 's_8_8': [1663], 's_11_11': [1736], 's_7_7': [5287], 9: [1124], 's_3_9': [1139], 's_3_13': [1244], 's_3_3': [1183], 's_13_13': [5586], 's_9_9': [5435]}</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0001556960812494012</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.001352510076510399</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>{0: [1576], 6: [3158], 10: [1516, 3323], 12: [3232, 1486], 20: [3263], 2: [3173], 3: [1606], 4: [1561, 3308], 1: [3277], 7: [3322, 1426], 14: [1531], 15: [1591], 18: [1546], 13: [3367, 1487], 17: [3247, 3248], 5: [3172], 9: [3293], 19: [3278], 11: [1442], 8: [3353, 1637], 16: [1622]}</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.003201280512204882</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.01192450134113753</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>{0: [1576], 6: [3158], 10: [1516, 3323], 12: [3232, 1486], 20: [3263], 2: [3173], 3: [1606], 4: [1561, 3308], 1: [3277], 7: [3322, 1426], 14: [1531], 15: [1591], 18: [1546], 13: [3367, 1487], 17: [3247, 3248], 5: [3172], 9: [3293], 19: [3278], 11: [1442], 8: [3353, 1637], 16: [1622]}</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0.003201280512204882</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.01192450134113753</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.465</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>{0: [3430, 2012, 2011], 6: [3294, 3295], 's_0_6': [1951, 3190], 10: [1833, 1967, 3505], 's_0_10': [3370], 12: [1816, 1817, 1712, 3429], 's_0_12': [3100, 3099], 20: [1982, 1876, 3325], 's_0_20': [3326], 's_0_0': [3431], 2: [3324, 3189, 1786], 's_6_2': [1726], 3: [1907, 3265, 1906], 's_6_3': [2056], 4: [1937, 3160, 1936], 's_6_4': [3280], 's_6_12': [1711], 's_6_6': [3293], 1: [3624, 3490, 1848], 's_10_1': [1998], 's_10_3': [1966], 7: [3535, 3534], 's_10_7': [3520], 14: [1787, 3415, 3414], 's_10_14': [1952], 15: [3340, 2086, 3341], 's_10_15': [3385], 18: [3459, 3369, 1772], 's_10_18': [3504], 's_10_10': [1834], 's_12_7': [1727], 13: [3564, 1862], 's_12_13': [3563], 17: [3235, 1771, 3234], 's_12_17': [1801], 's_12_12': [3114], 's_20_14': [1847], 's_20_15': [1832], 's_20_17': [3264], 's_20_18': [1861], 's_20_20': [3279], 's_2_4': [1831], 5: [1653, 1652], 's_2_5': [3309], 's_2_2': [1890], 's_3_4': [1921], 9: [3250, 3251], 's_3_9': [2026], 's_3_15': [3266], 's_3_17': [3219], 's_3_3': [1908], 19: [1922, 2057, 3445], 's_4_19': [3355], 's_4_9': [1996], 's_4_14': [3384], 's_4_18': [3460], 's_4_4': [3161], 's_1_7': [1877], 11: [1818], 's_1_11': [3474], 's_1_13': [1803], 's_1_19': [3491], 's_1_1': [1849], 's_7_5': [1668, 3623], 's_7_7': [1953], 's_14_13': [1788], 's_14_19': [2027], 8: [3399, 3401, 3400], 's_14_8': [2102], 's_14_18': [3444], 's_14_14': [2117], 's_15_19': [1997], 's_15_9': [2041], 's_15_17': [3220], 's_15_15': [3342], 's_18_13': [1773], 's_18_17': [1891], 's_18_8': [1802], 's_18_18': [3458], 's_13_11': [3549], 's_13_8': [1892], 's_13_13': [1863], 's_17_17': [3236], 's_5_5': [3443], 16: [2237, 2236], 's_9_16': [2221], 's_9_9': [2191], 's_19_8': [2042], 's_19_19': [3521], 's_11_11': [1819], 's_8_16': [2222], 's_8_8': [3402], 's_16_16': [3507]}</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5.38711832266684e-05</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0007591824091172805</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>{0: [3430, 2012, 2011], 6: [3294, 3295], 's_0_6': [1951, 3190], 10: [1833, 1967, 3505], 's_0_10': [3370], 12: [1816, 1817, 1712, 3429], 's_0_12': [3100, 3099], 20: [1982, 1876, 3325], 's_0_20': [3326], 's_0_0': [3431], 2: [3324, 3189, 1786], 's_6_2': [1726], 3: [1907, 3265, 1906], 's_6_3': [2056], 4: [1937, 3160, 1936], 's_6_4': [3280], 's_6_12': [1711], 's_6_6': [3293], 1: [3624, 3490, 1848], 's_10_1': [1998], 's_10_3': [1966], 7: [3535, 3534], 's_10_7': [3520], 14: [1787, 3415, 3414], 's_10_14': [1952], 15: [3340, 2086, 3341], 's_10_15': [3385], 18: [3459, 3369, 1772], 's_10_18': [3504], 's_10_10': [1834], 's_12_7': [1727], 13: [3564, 1862], 's_12_13': [3563], 17: [3235, 1771, 3234], 's_12_17': [1801], 's_12_12': [3114], 's_20_14': [1847], 's_20_15': [1832], 's_20_17': [3264], 's_20_18': [1861], 's_20_20': [3279], 's_2_4': [1831], 5: [1653, 1652], 's_2_5': [3309], 's_2_2': [1890], 's_3_4': [1921], 9: [3250, 3251], 's_3_9': [2026], 's_3_15': [3266], 's_3_17': [3219], 's_3_3': [1908], 19: [1922, 2057, 3445], 's_4_19': [3355], 's_4_9': [1996], 's_4_14': [3384], 's_4_18': [3460], 's_4_4': [3161], 's_1_7': [1877], 11: [1818], 's_1_11': [3474], 's_1_13': [1803], 's_1_19': [3491], 's_1_1': [1849], 's_7_5': [1668, 3623], 's_7_7': [1953], 's_14_13': [1788], 's_14_19': [2027], 8: [3399, 3401, 3400], 's_14_8': [2102], 's_14_18': [3444], 's_14_14': [2117], 's_15_19': [1997], 's_15_9': [2041], 's_15_17': [3220], 's_15_15': [3342], 's_18_13': [1773], 's_18_17': [1891], 's_18_8': [1802], 's_18_18': [3458], 's_13_11': [3549], 's_13_8': [1892], 's_13_13': [1863], 's_17_17': [3236], 's_5_5': [3443], 16: [2237, 2236], 's_9_16': [2221], 's_9_9': [2191], 's_19_8': [2042], 's_19_19': [3521], 's_11_11': [1819], 's_8_16': [2222], 's_8_8': [3402], 's_16_16': [3507]}</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>5.38711832266684e-05</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.0007591824091172805</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>{0: [3809, 2614], 2: [3778, 2629], 4: [2659], 6: [2613], 8: [3914, 2735, 3839], 14: [2779], 15: [2688, 3869, 2689], 21: [3644, 2749], 1: [2628], 18: [3779], 5: [2658, 2719, 3674], 12: [3748, 3749], 7: [3689, 2704], 11: [2673, 2674], 16: [2793, 2794], 19: [2733, 2734], 20: [2643, 2644], 9: [2839, 3764], 13: [2764, 3794], 3: [3659], 10: [3598, 3599], 17: [3734]}</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.008809020436927415</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.01796694684141221</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>{0: [3809, 2614], 2: [3778, 2629], 4: [2659], 6: [2613], 8: [3914, 2735, 3839], 14: [2779], 15: [2688, 3869, 2689], 21: [3644, 2749], 1: [2628], 18: [3779], 5: [2658, 2719, 3674], 12: [3748, 3749], 7: [3689, 2704], 11: [2673, 2674], 16: [2793, 2794], 19: [2733, 2734], 20: [2643, 2644], 9: [2839, 3764], 13: [2764, 3794], 3: [3659], 10: [3598, 3599], 17: [3734]}</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0.008809020436927415</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.01796694684141221</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>{0: [1290, 1621, 1620, 2978, 2977], 2: [1260, 2976, 1201, 1200], 's_0_2': [3081], 4: [1756, 3022, 1755, 3021, 3023], 's_0_4': [3188], 6: [3158], 's_0_6': [1636], 8: [1276, 1275, 3037, 3036], 's_0_8': [3038], 14: [1457, 1455, 1456], 's_0_14': [2947], 15: [1231, 3052, 3051, 1230], 's_0_15': [3053], 21: [3366, 3367, 1546, 3263], 's_0_21': [3248], 's_0_0': [2916], 1: [3277, 3276], 's_2_1': [3291], 's_2_15': [3321], 18: [3171, 1262, 3426, 1261], 's_2_18': [3306], 's_2_2': [3020], 5: [3200, 3201, 3203, 3202], 's_4_5': [3099, 1710], 's_4_8': [1470], 12: [3129, 1500, 3127, 3128], 's_4_12': [1605], 's_4_15': [1485], 's_4_4': [3249], 7: [1426, 1471, 3232], 's_6_7': [1486], 's_6_12': [3173], 's_6_6': [1576], 11: [1307, 3247, 3246, 1306], 's_8_11': [1305], 's_8_14': [1440], 's_8_15': [2991], 16: [1170, 3067, 3066], 's_8_16': [3156], 19: [1575, 1652, 3113, 1651], 's_8_19': [1560], 20: [3261, 1382, 3262, 1381], 's_8_20': [1380], 's_8_8': [3035], 9: [3218, 3172, 1441, 3217], 's_14_9': [3187], 13: [3381, 3383, 1442, 3382], 's_14_13': [3352], 's_14_14': [1458], 3: [1366, 3216], 's_15_3': [1246], 's_15_5': [1530], 10: [3112, 3308, 1516, 1515], 's_15_10': [1410], 's_15_11': [3396, 1232], 17: [1350, 3186, 3185], 's_15_17': [1111, 3126], 's_15_15': [1245], 's_21_3': [1336], 's_21_7': [1427], 's_21_9': [1696], 's_21_13': [1577], 's_21_19': [3293], 's_21_20': [1397], 's_21_21': [3264], 's_1_3': [1351], 's_1_10': [1487], 's_1_1': [1277], 's_18_5': [1126], 's_18_9': [3096, 3097], 's_18_11': [1292], 's_18_13': [3427, 1412], 's_18_16': [3111], 's_18_18': [1187], 's_5_10': [1606], 's_5_9': [1396], 's_5_17': [1096], 's_5_5': [1066], 's_12_11': [1291], 's_12_9': [3142], 's_12_16': [1335], 's_12_17': [3082], 's_12_19': [1545], 's_12_12': [1770], 's_7_11': [3322], 's_7_20': [3307], 's_7_9': [1531], 's_7_7': [3143], 's_11_3': [1321], 's_11_9': [1411], 's_11_17': [1216], 's_11_11': [1501], 's_16_10': [1425], 's_16_17': [1320], 's_16_16': [3065], 's_19_10': [3323, 3324], 's_19_9': [3233], 's_19_13': [1667], 's_19_19': [3354], 's_20_3': [3231], 's_20_10': [1517, 3472], 's_20_20': [3442], 's_9_13': [1681], 's_9_9': [1741], 's_13_13': [1592], 's_3_3': [3337], 's_10_10': [3353], 's_17_17': [1051]}</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>6.487969450932414e-05</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0007723525991176233</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>{0: [1290, 1621, 1620, 2978, 2977], 2: [1260, 2976, 1201, 1200], 's_0_2': [3081], 4: [1756, 3022, 1755, 3021, 3023], 's_0_4': [3188], 6: [3158], 's_0_6': [1636], 8: [1276, 1275, 3037, 3036], 's_0_8': [3038], 14: [1457, 1455, 1456], 's_0_14': [2947], 15: [1231, 3052, 3051, 1230], 's_0_15': [3053], 21: [3366, 3367, 1546, 3263], 's_0_21': [3248], 's_0_0': [2916], 1: [3277, 3276], 's_2_1': [3291], 's_2_15': [3321], 18: [3171, 1262, 3426, 1261], 's_2_18': [3306], 's_2_2': [3020], 5: [3200, 3201, 3203, 3202], 's_4_5': [3099, 1710], 's_4_8': [1470], 12: [3129, 1500, 3127, 3128], 's_4_12': [1605], 's_4_15': [1485], 's_4_4': [3249], 7: [1426, 1471, 3232], 's_6_7': [1486], 's_6_12': [3173], 's_6_6': [1576], 11: [1307, 3247, 3246, 1306], 's_8_11': [1305], 's_8_14': [1440], 's_8_15': [2991], 16: [1170, 3067, 3066], 's_8_16': [3156], 19: [1575, 1652, 3113, 1651], 's_8_19': [1560], 20: [3261, 1382, 3262, 1381], 's_8_20': [1380], 's_8_8': [3035], 9: [3218, 3172, 1441, 3217], 's_14_9': [3187], 13: [3381, 3383, 1442, 3382], 's_14_13': [3352], 's_14_14': [1458], 3: [1366, 3216], 's_15_3': [1246], 's_15_5': [1530], 10: [3112, 3308, 1516, 1515], 's_15_10': [1410], 's_15_11': [3396, 1232], 17: [1350, 3186, 3185], 's_15_17': [1111, 3126], 's_15_15': [1245], 's_21_3': [1336], 's_21_7': [1427], 's_21_9': [1696], 's_21_13': [1577], 's_21_19': [3293], 's_21_20': [1397], 's_21_21': [3264], 's_1_3': [1351], 's_1_10': [1487], 's_1_1': [1277], 's_18_5': [1126], 's_18_9': [3096, 3097], 's_18_11': [1292], 's_18_13': [3427, 1412], 's_18_16': [3111], 's_18_18': [1187], 's_5_10': [1606], 's_5_9': [1396], 's_5_17': [1096], 's_5_5': [1066], 's_12_11': [1291], 's_12_9': [3142], 's_12_16': [1335], 's_12_17': [3082], 's_12_19': [1545], 's_12_12': [1770], 's_7_11': [3322], 's_7_20': [3307], 's_7_9': [1531], 's_7_7': [3143], 's_11_3': [1321], 's_11_9': [1411], 's_11_17': [1216], 's_11_11': [1501], 's_16_10': [1425], 's_16_17': [1320], 's_16_16': [3065], 's_19_10': [3323, 3324], 's_19_9': [3233], 's_19_13': [1667], 's_19_19': [3354], 's_20_3': [3231], 's_20_10': [1517, 3472], 's_20_20': [3442], 's_9_13': [1681], 's_9_9': [1741], 's_13_13': [1592], 's_3_3': [3337], 's_10_10': [3353], 's_17_17': [1051]}</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>6.487969450932414e-05</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0007723525991176233</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>{0: [2083, 5380], 1: [2008], 5: [5471, 2053], 8: [2038], 9: [5410, 2068], 11: [2082], 13: [2113, 5336], 22: [5320, 1963], 2: [5365], 6: [5290], 16: [5425, 1978], 18: [1917, 5335], 15: [2052, 5230], 19: [2127, 2128], 20: [5440], 4: [5275, 1962], 17: [2023, 5291], 21: [5260], 10: [5395], 3: [5350], 12: [5321, 2067], 14: [1993], 7: [5261]}</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.002934115764203787</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.01090693427594605</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>{0: [2083, 5380], 1: [2008], 5: [5471, 2053], 8: [2038], 9: [5410, 2068], 11: [2082], 13: [2113, 5336], 22: [5320, 1963], 2: [5365], 6: [5290], 16: [5425, 1978], 18: [1917, 5335], 15: [2052, 5230], 19: [2127, 2128], 20: [5440], 4: [5275, 1962], 17: [2023, 5291], 21: [5260], 10: [5395], 3: [5350], 12: [5321, 2067], 14: [1993], 7: [5261]}</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0.002934115764203787</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.01090693427594605</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.394</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>{0: [998, 4429, 4430, 4610, 997], 1: [847, 4443, 848], 's_0_1': [802], 5: [4729, 1059, 4731, 4730], 's_0_5': [1074], 8: [4474, 1088, 4475], 's_0_8': [4400], 9: [4596, 4505, 1148], 's_0_9': [4611], 11: [4580, 4579], 's_0_11': [1073], 13: [863, 4413, 4414], 's_0_13': [4428], 22: [4353, 939, 4354, 938], 's_0_22': [967], 's_0_0': [4431], 2: [4533, 4535, 4534, 968], 's_1_2': [698], 6: [4264, 922, 4399, 923], 's_1_6': [773], 16: [4640, 4639, 4503, 4504, 983], 's_1_16': [728], 18: [4369, 954, 952, 953], 's_1_18': [4324], 's_1_22': [862], 's_1_1': [758], 15: [4549, 834, 4488, 833], 's_5_15': [4714], 's_5_16': [984], 19: [4655, 1194, 1269, 4701], 's_5_19': [1179], 20: [4625, 4624], 's_5_20': [879], 's_5_5': [999, 1000], 's_8_2': [1223, 4536], 4: [4460, 1012, 4459], 's_8_4': [1133], 's_8_9': [1028], 17: [1164, 1043, 4550, 1042, 1163], 's_8_17': [1089], 21: [4278, 4279, 4356, 4355, 1027], 's_8_21': [1118], 's_8_8': [1087], 10: [4761, 1149, 1208, 1209], 's_9_10': [1254], 's_9_17': [4520], 's_9_20': [1119], 's_9_9': [4597], 's_11_2': [818], 's_11_13': [878], 's_11_17': [4581], 's_11_11': [774], 's_13_2': [683], 3: [4566, 4565, 4563, 4564], 's_13_3': [668], 's_13_15': [743], 's_13_13': [578], 's_22_4': [4385], 12: [712, 713], 's_22_12': [4368], 's_22_18': [937], 's_22_20': [909, 4684], 's_22_22': [940], 's_2_3': [759], 's_2_12': [4548], 's_2_16': [4519], 's_2_17': [1013], 's_2_2': [744], 's_6_4': [1011], 14: [893, 1103, 4444, 4445], 's_6_14': [892], 's_6_17': [4309], 's_6_6': [4174], 's_16_3': [653], 's_16_10': [1224], 's_16_14': [894], 's_16_18': [982], 's_16_20': [1178], 's_16_16': [4641], 's_18_4': [4294], 's_18_14': [4415], 's_18_15': [832], 's_18_21': [4250], 's_18_18': [955], 's_15_3': [803], 's_15_12': [4473], 's_15_17': [4489], 's_15_15': [4759], 's_19_3': [1104], 's_19_17': [4700], 7: [1268], 's_19_7': [1193, 4506], 's_19_10': [4686], 's_19_19': [1314, 4626], 's_20_20': [924, 925], 's_4_17': [1162], 's_4_14': [908], 's_4_21': [4325], 's_4_4': [1177, 4371, 4370], 's_17_3': [1058], 's_17_10': [4715], 's_17_21': [4235], 's_17_17': [4670], 's_21_12': [4263], 's_21_14': [1147], 's_21_7': [1283], 's_21_21': [981], 's_10_14': [4490], 's_10_10': [4762], 's_3_12': [4578], 's_3_3': [623], 's_12_12': [4338], 's_14_14': [1102], 's_7_7': [1267]}</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0001491228070175438</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.00113395643074446</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>{0: [998, 4429, 4430, 4610, 997], 1: [847, 4443, 848], 's_0_1': [802], 5: [4729, 1059, 4731, 4730], 's_0_5': [1074], 8: [4474, 1088, 4475], 's_0_8': [4400], 9: [4596, 4505, 1148], 's_0_9': [4611], 11: [4580, 4579], 's_0_11': [1073], 13: [863, 4413, 4414], 's_0_13': [4428], 22: [4353, 939, 4354, 938], 's_0_22': [967], 's_0_0': [4431], 2: [4533, 4535, 4534, 968], 's_1_2': [698], 6: [4264, 922, 4399, 923], 's_1_6': [773], 16: [4640, 4639, 4503, 4504, 983], 's_1_16': [728], 18: [4369, 954, 952, 953], 's_1_18': [4324], 's_1_22': [862], 's_1_1': [758], 15: [4549, 834, 4488, 833], 's_5_15': [4714], 's_5_16': [984], 19: [4655, 1194, 1269, 4701], 's_5_19': [1179], 20: [4625, 4624], 's_5_20': [879], 's_5_5': [999, 1000], 's_8_2': [1223, 4536], 4: [4460, 1012, 4459], 's_8_4': [1133], 's_8_9': [1028], 17: [1164, 1043, 4550, 1042, 1163], 's_8_17': [1089], 21: [4278, 4279, 4356, 4355, 1027], 's_8_21': [1118], 's_8_8': [1087], 10: [4761, 1149, 1208, 1209], 's_9_10': [1254], 's_9_17': [4520], 's_9_20': [1119], 's_9_9': [4597], 's_11_2': [818], 's_11_13': [878], 's_11_17': [4581], 's_11_11': [774], 's_13_2': [683], 3: [4566, 4565, 4563, 4564], 's_13_3': [668], 's_13_15': [743], 's_13_13': [578], 's_22_4': [4385], 12: [712, 713], 's_22_12': [4368], 's_22_18': [937], 's_22_20': [909, 4684], 's_22_22': [940], 's_2_3': [759], 's_2_12': [4548], 's_2_16': [4519], 's_2_17': [1013], 's_2_2': [744], 's_6_4': [1011], 14: [893, 1103, 4444, 4445], 's_6_14': [892], 's_6_17': [4309], 's_6_6': [4174], 's_16_3': [653], 's_16_10': [1224], 's_16_14': [894], 's_16_18': [982], 's_16_20': [1178], 's_16_16': [4641], 's_18_4': [4294], 's_18_14': [4415], 's_18_15': [832], 's_18_21': [4250], 's_18_18': [955], 's_15_3': [803], 's_15_12': [4473], 's_15_17': [4489], 's_15_15': [4759], 's_19_3': [1104], 's_19_17': [4700], 7: [1268], 's_19_7': [1193, 4506], 's_19_10': [4686], 's_19_19': [1314, 4626], 's_20_20': [924, 925], 's_4_17': [1162], 's_4_14': [908], 's_4_21': [4325], 's_4_4': [1177, 4371, 4370], 's_17_3': [1058], 's_17_10': [4715], 's_17_21': [4235], 's_17_17': [4670], 's_21_12': [4263], 's_21_14': [1147], 's_21_7': [1283], 's_21_21': [981], 's_10_14': [4490], 's_10_10': [4762], 's_3_12': [4578], 's_3_3': [623], 's_12_12': [4338], 's_14_14': [1102], 's_7_7': [1267]}</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0001491228070175438</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.00113395643074446</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>{0: [5003, 5004], 5: [1705, 4959], 6: [1915, 4929, 4930], 9: [1841, 1842], 11: [1751], 14: [1735], 15: [1870, 4899], 16: [1827, 1826], 17: [5109, 1931, 5110], 21: [1780, 1781], 2: [4960, 1946], 13: [1811, 5049], 18: [1661, 5124, 1662], 23: [1720, 1721], 3: [4944], 20: [1856], 4: [5019, 5018], 8: [5094, 5095], 22: [5034], 12: [1796, 5064], 10: [1736], 7: [5079], 19: [1916], 1: [1857]}</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.005177514792899408</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.01447303759510766</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>{0: [5003, 5004], 5: [1705, 4959], 6: [1915, 4929, 4930], 9: [1841, 1842], 11: [1751], 14: [1735], 15: [1870, 4899], 16: [1827, 1826], 17: [5109, 1931, 5110], 21: [1780, 1781], 2: [4960, 1946], 13: [1811, 5049], 18: [1661, 5124, 1662], 23: [1720, 1721], 3: [4944], 20: [1856], 4: [5019, 5018], 8: [5094, 5095], 22: [5034], 12: [1796, 5064], 10: [1736], 7: [5079], 19: [1916], 1: [1857]}</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0.005177514792899408</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.01447303759510766</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.403</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>{0: [245, 246, 4277, 4276, 4275], 5: [350, 233, 232, 231, 4036], 's_0_5': [3990], 6: [289, 292, 291, 290], 's_0_6': [4125], 9: [4321, 487, 4322], 's_0_9': [502], 11: [3962, 3960, 3961], 's_0_11': [260], 14: [200, 4080, 201], 's_0_14': [3975], 15: [620, 622, 621], 's_0_15': [4262], 16: [4187, 4186, 412], 's_0_16': [276], 17: [426, 4202], 's_0_17': [471], 21: [4170, 262, 261], 's_0_21': [202], 's_0_0': [682], 2: [427, 4350, 4351], 's_5_2': [4365], 's_5_6': [3976], 's_5_11': [305], 13: [4200, 4201, 4307, 4306, 382], 's_5_13': [4305], 's_5_14': [4005], 18: [4142, 381, 4141], 's_5_18': [4006], 's_5_21': [4320], 23: [365, 367, 366], 's_5_23': [3886], 's_5_5': [4485], 's_6_2': [4366], 3: [3871, 171, 170, 3870], 's_6_3': [274], 's_6_9': [277], 's_6_14': [3945], 's_6_16': [4336], 's_6_18': [4066], 20: [3991, 3992], 's_6_20': [275], 's_6_6': [3826], 4: [322, 4247, 4246], 's_9_4': [307], 8: [4352, 457, 455, 456], 's_9_8': [472], 's_9_15': [4367], 22: [4396, 4397], 's_9_22': [337], 's_9_9': [4323], 's_11_8': [470], 12: [532, 530, 531], 's_11_12': [3977], 's_11_11': [110], 's_14_3': [4065], 10: [4112, 4110, 4111, 336], 's_14_10': [156], 's_14_14': [199], 's_15_13': [607], 's_15_16': [4172], 's_15_20': [605], 's_15_15': [4383], 's_16_4': [321], 7: [411, 396, 4096], 's_16_7': [501], 's_16_8': [4291], 's_16_16': [4188], 's_17_4': [4232], 's_17_10': [4171], 's_17_12': [516], 's_17_18': [441], 19: [397, 4217], 's_17_19': [547], 's_17_17': [4203], 's_21_3': [4155], 's_21_4': [4260], 's_21_13': [96], 's_21_22': [247], 's_21_21': [263], 's_2_4': [352], 's_2_8': [4441], 's_2_22': [383], 's_2_2': [368], 's_13_3': [140, 141], 's_13_10': [306], 's_13_12': [4292], 's_13_13': [637], 's_18_23': [4051], 's_18_10': [546], 's_18_12': [4157], 's_18_18': [591], 's_23_7': [4081], 's_23_4': [4231], 's_23_3': [380], 's_23_23': [364], 's_3_3': [3872], 's_20_12': [515], 's_20_20': [561], 's_4_19': [562], 's_4_4': [4248], 's_8_7': [4022], 's_8_10': [4126], 's_8_19': [4261], 's_8_8': [593], 's_22_12': [4382], 's_22_22': [548], 's_12_10': [4127], 's_12_12': [3887], 's_10_7': [4156], 's_10_10': [666], 1: [440], 's_7_1': [4067], 's_7_7': [395], 's_19_19': [398], 's_1_1': [3946]}</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>5.172413793103448e-05</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0006657494681485456</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>{0: [245, 246, 4277, 4276, 4275], 5: [350, 233, 232, 231, 4036], 's_0_5': [3990], 6: [289, 292, 291, 290], 's_0_6': [4125], 9: [4321, 487, 4322], 's_0_9': [502], 11: [3962, 3960, 3961], 's_0_11': [260], 14: [200, 4080, 201], 's_0_14': [3975], 15: [620, 622, 621], 's_0_15': [4262], 16: [4187, 4186, 412], 's_0_16': [276], 17: [426, 4202], 's_0_17': [471], 21: [4170, 262, 261], 's_0_21': [202], 's_0_0': [682], 2: [427, 4350, 4351], 's_5_2': [4365], 's_5_6': [3976], 's_5_11': [305], 13: [4200, 4201, 4307, 4306, 382], 's_5_13': [4305], 's_5_14': [4005], 18: [4142, 381, 4141], 's_5_18': [4006], 's_5_21': [4320], 23: [365, 367, 366], 's_5_23': [3886], 's_5_5': [4485], 's_6_2': [4366], 3: [3871, 171, 170, 3870], 's_6_3': [274], 's_6_9': [277], 's_6_14': [3945], 's_6_16': [4336], 's_6_18': [4066], 20: [3991, 3992], 's_6_20': [275], 's_6_6': [3826], 4: [322, 4247, 4246], 's_9_4': [307], 8: [4352, 457, 455, 456], 's_9_8': [472], 's_9_15': [4367], 22: [4396, 4397], 's_9_22': [337], 's_9_9': [4323], 's_11_8': [470], 12: [532, 530, 531], 's_11_12': [3977], 's_11_11': [110], 's_14_3': [4065], 10: [4112, 4110, 4111, 336], 's_14_10': [156], 's_14_14': [199], 's_15_13': [607], 's_15_16': [4172], 's_15_20': [605], 's_15_15': [4383], 's_16_4': [321], 7: [411, 396, 4096], 's_16_7': [501], 's_16_8': [4291], 's_16_16': [4188], 's_17_4': [4232], 's_17_10': [4171], 's_17_12': [516], 's_17_18': [441], 19: [397, 4217], 's_17_19': [547], 's_17_17': [4203], 's_21_3': [4155], 's_21_4': [4260], 's_21_13': [96], 's_21_22': [247], 's_21_21': [263], 's_2_4': [352], 's_2_8': [4441], 's_2_22': [383], 's_2_2': [368], 's_13_3': [140, 141], 's_13_10': [306], 's_13_12': [4292], 's_13_13': [637], 's_18_23': [4051], 's_18_10': [546], 's_18_12': [4157], 's_18_18': [591], 's_23_7': [4081], 's_23_4': [4231], 's_23_3': [380], 's_23_23': [364], 's_3_3': [3872], 's_20_12': [515], 's_20_20': [561], 's_4_19': [562], 's_4_4': [4248], 's_8_7': [4022], 's_8_10': [4126], 's_8_19': [4261], 's_8_8': [593], 's_22_12': [4382], 's_22_22': [548], 's_12_10': [4127], 's_12_12': [3887], 's_10_7': [4156], 's_10_10': [666], 1: [440], 's_7_1': [4067], 's_7_7': [395], 's_19_19': [398], 's_1_1': [3946]}</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>5.172413793103448e-05</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.0006657494681485456</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>{0: [3310, 1832], 3: [3385, 1982], 5: [3414], 10: [3415, 1997], 21: [3355], 22: [3370, 1876, 3369], 23: [1772, 3444], 24: [3400, 3399], 2: [3325, 1907, 1906], 4: [3384], 8: [3295, 3294, 1802], 17: [1953, 1952], 1: [1803, 3564, 1892], 13: [1937, 3445], 15: [1848, 1847], 20: [1877, 3535], 11: [3340, 1861], 16: [3491, 2042], 18: [3430, 3429], 7: [1967], 9: [1998, 1922, 3460], 6: [3474], 19: [1787, 3459], 12: [3505, 1833], 14: [1862, 3490]}</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0127007299270073</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.02041552470798248</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>{0: [3310, 1832], 3: [3385, 1982], 5: [3414], 10: [3415, 1997], 21: [3355], 22: [3370, 1876, 3369], 23: [1772, 3444], 24: [3400, 3399], 2: [3325, 1907, 1906], 4: [3384], 8: [3295, 3294, 1802], 17: [1953, 1952], 1: [1803, 3564, 1892], 13: [1937, 3445], 15: [1848, 1847], 20: [1877, 3535], 11: [3340, 1861], 16: [3491, 2042], 18: [3430, 3429], 7: [1967], 9: [1998, 1922, 3460], 6: [3474], 19: [1787, 3459], 12: [3505, 1833], 14: [1862, 3490]}</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0.0127007299270073</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.02041552470798248</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.263</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>{0: [5559, 1694, 5558], 3: [5633, 1769, 5634, 5636, 5635], 's_0_3': [1619], 5: [1662, 1664, 1663], 's_0_5': [5573], 10: [5365, 5364, 1799, 5469, 1798], 's_0_10': [1814], 21: [1904, 5426, 5425, 1903], 's_0_21': [1919], 22: [5531, 5530, 5529, 5528, 1634], 's_0_22': [1604], 23: [2022, 1934, 5306, 5590, 2024, 2023], 's_0_23': [5560], 24: [1706, 1709, 1707, 1708], 's_0_24': [5679], 's_0_0': [5557], 2: [5513, 5514], 's_3_2': [1589], 4: [2142, 5591, 2143, 2144], 's_3_4': [2234], 8: [2114, 2113, 2112, 5139, 5140, 5141], 's_3_8': [2129], 17: [5198, 1739, 1737, 1738], 's_3_17': [1724], 's_3_21': [5620], 's_3_3': [5632], 1: [5289, 5124, 1827, 1828], 's_5_1': [5109], 's_5_2': [5499], 's_5_8': [5154], 13: [2068, 5259, 5260, 5258, 2067], 's_5_13': [5273], 15: [5666, 5334, 1753, 1754, 5664, 5665], 's_5_15': [5363], 20: [1649, 1648, 1647, 5213, 5214, 5215], 's_5_20': [5093], 's_5_5': [5423], 11: [2082, 2084, 5501, 2083], 's_10_11': [5350], 16: [5471, 5470], 's_10_16': [1933], 's_10_17': [5619], 18: [1977, 5454, 5455, 1978], 's_10_18': [1829], 's_10_22': [1693], 's_10_10': [5544], 7: [5378, 5381, 5380, 1843, 5379], 's_21_7': [2218], 9: [2173, 2097, 5320, 5321, 5336], 's_21_9': [2188], 's_21_11': [2098], 's_21_13': [1902], 's_21_22': [2233], 's_21_21': [5427], 's_22_4': [2219], 's_22_8': [5545], 's_22_11': [2159], 's_22_13': [2053], 's_22_15': [1979], 's_22_20': [5588], 's_22_23': [2039], 's_22_22': [5453], 's_23_4': [2157], 6: [5095, 5125, 1994, 1992, 1993], 's_23_6': [5605], 's_23_8': [5156], 's_23_13': [5275], 's_23_15': [5589], 's_23_18': [5245], 19: [5228, 5229, 1888, 5305, 1887], 's_23_19': [5230], 's_23_23': [5307], 's_24_7': [5393], 's_24_8': [1691], 's_24_13': [1542, 5243], 's_24_15': [5649], 's_24_17': [5543], 's_24_19': [5304], 's_24_24': [5063], 's_2_15': [1784], 's_2_20': [5498], 's_2_2': [1484], 's_4_8': [5231], 's_4_9': [5366], 's_4_11': [5411], 's_4_4': [5576], 's_8_1': [1721], 's_8_18': [5456], 's_8_8': [5138], 's_17_13': [1617], 's_17_20': [1632], 12: [5290, 5394, 1857, 5409, 1858], 's_17_12': [5244], 's_17_18': [1723], 's_17_17': [5708], 's_1_6': [5094], 's_1_13': [1722], 's_1_15': [5319], 's_1_19': [1752], 's_1_1': [5123], 's_13_7': [1633], 's_13_11': [5291], 's_13_12': [1917], 14: [1873, 5500, 5441, 5440, 1918], 's_13_14': [1872], 's_13_16': [5486], 's_13_13': [5257], 's_15_11': [2099], 's_15_18': [1768], 's_15_15': [5663], 's_20_6': [5200], 's_20_19': [5199], 's_20_9': [2052], 's_20_12': [5408], 's_20_20': [5183], 's_11_9': [5261], 's_11_14': [2189], 's_11_11': [5725], 's_16_14': [2158], 's_16_18': [2009], 's_16_16': [1963], 's_18_19': [1962], 's_18_14': [1859], 's_18_18': [1976], 's_7_9': [5396], 's_7_12': [5395], 's_7_14': [2248], 's_7_7': [5382], 's_9_19': [5335], 's_9_12': [2008], 's_9_9': [5337], 's_6_12': [5110], 's_6_14': [5410], 's_6_19': [1842], 's_6_6': [1931], 's_19_12': [1932], 's_19_14': [5515], 's_19_19': [5227], 's_12_14': [5424], 's_12_12': [1856], 's_14_14': [5442]}</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>9.219858156028368e-05</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0008033617310539417</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>{0: [5559, 1694, 5558], 3: [5633, 1769, 5634, 5636, 5635], 's_0_3': [1619], 5: [1662, 1664, 1663], 's_0_5': [5573], 10: [5365, 5364, 1799, 5469, 1798], 's_0_10': [1814], 21: [1904, 5426, 5425, 1903], 's_0_21': [1919], 22: [5531, 5530, 5529, 5528, 1634], 's_0_22': [1604], 23: [2022, 1934, 5306, 5590, 2024, 2023], 's_0_23': [5560], 24: [1706, 1709, 1707, 1708], 's_0_24': [5679], 's_0_0': [5557], 2: [5513, 5514], 's_3_2': [1589], 4: [2142, 5591, 2143, 2144], 's_3_4': [2234], 8: [2114, 2113, 2112, 5139, 5140, 5141], 's_3_8': [2129], 17: [5198, 1739, 1737, 1738], 's_3_17': [1724], 's_3_21': [5620], 's_3_3': [5632], 1: [5289, 5124, 1827, 1828], 's_5_1': [5109], 's_5_2': [5499], 's_5_8': [5154], 13: [2068, 5259, 5260, 5258, 2067], 's_5_13': [5273], 15: [5666, 5334, 1753, 1754, 5664, 5665], 's_5_15': [5363], 20: [1649, 1648, 1647, 5213, 5214, 5215], 's_5_20': [5093], 's_5_5': [5423], 11: [2082, 2084, 5501, 2083], 's_10_11': [5350], 16: [5471, 5470], 's_10_16': [1933], 's_10_17': [5619], 18: [1977, 5454, 5455, 1978], 's_10_18': [1829], 's_10_22': [1693], 's_10_10': [5544], 7: [5378, 5381, 5380, 1843, 5379], 's_21_7': [2218], 9: [2173, 2097, 5320, 5321, 5336], 's_21_9': [2188], 's_21_11': [2098], 's_21_13': [1902], 's_21_22': [2233], 's_21_21': [5427], 's_22_4': [2219], 's_22_8': [5545], 's_22_11': [2159], 's_22_13': [2053], 's_22_15': [1979], 's_22_20': [5588], 's_22_23': [2039], 's_22_22': [5453], 's_23_4': [2157], 6: [5095, 5125, 1994, 1992, 1993], 's_23_6': [5605], 's_23_8': [5156], 's_23_13': [5275], 's_23_15': [5589], 's_23_18': [5245], 19: [5228, 5229, 1888, 5305, 1887], 's_23_19': [5230], 's_23_23': [5307], 's_24_7': [5393], 's_24_8': [1691], 's_24_13': [1542, 5243], 's_24_15': [5649], 's_24_17': [5543], 's_24_19': [5304], 's_24_24': [5063], 's_2_15': [1784], 's_2_20': [5498], 's_2_2': [1484], 's_4_8': [5231], 's_4_9': [5366], 's_4_11': [5411], 's_4_4': [5576], 's_8_1': [1721], 's_8_18': [5456], 's_8_8': [5138], 's_17_13': [1617], 's_17_20': [1632], 12: [5290, 5394, 1857, 5409, 1858], 's_17_12': [5244], 's_17_18': [1723], 's_17_17': [5708], 's_1_6': [5094], 's_1_13': [1722], 's_1_15': [5319], 's_1_19': [1752], 's_1_1': [5123], 's_13_7': [1633], 's_13_11': [5291], 's_13_12': [1917], 14: [1873, 5500, 5441, 5440, 1918], 's_13_14': [1872], 's_13_16': [5486], 's_13_13': [5257], 's_15_11': [2099], 's_15_18': [1768], 's_15_15': [5663], 's_20_6': [5200], 's_20_19': [5199], 's_20_9': [2052], 's_20_12': [5408], 's_20_20': [5183], 's_11_9': [5261], 's_11_14': [2189], 's_11_11': [5725], 's_16_14': [2158], 's_16_18': [2009], 's_16_16': [1963], 's_18_19': [1962], 's_18_14': [1859], 's_18_18': [1976], 's_7_9': [5396], 's_7_12': [5395], 's_7_14': [2248], 's_7_7': [5382], 's_9_19': [5335], 's_9_12': [2008], 's_9_9': [5337], 's_6_12': [5110], 's_6_14': [5410], 's_6_19': [1842], 's_6_6': [1931], 's_19_12': [1932], 's_19_14': [5515], 's_19_19': [5227], 's_12_14': [5424], 's_12_12': [1856], 's_14_14': [5442]}</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>9.219858156028368e-05</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0008033617310539417</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>{0: [1222, 4251], 1: [1237], 9: [4327, 4326], 24: [1282, 4206], 4: [4311, 1342], 7: [4356], 21: [4341, 4342], 22: [4296, 1372], 2: [4237, 1417], 8: [4176, 1312], 15: [1192, 4386], 19: [1357, 1356], 20: [4116, 1267, 1266], 3: [4191, 1297], 5: [4207], 6: [4281], 25: [1341], 10: [1251, 1252], 12: [4357], 17: [4280, 1207], 11: [1447, 4222], 14: [4282, 1432], 13: [4252], 18: [4266], 16: [1371], 23: [4131]}</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.006800445930880715</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.01552534474486714</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>{0: [1222, 4251], 1: [1237], 9: [4327, 4326], 24: [1282, 4206], 4: [4311, 1342], 7: [4356], 21: [4341, 4342], 22: [4296, 1372], 2: [4237, 1417], 8: [4176, 1312], 15: [1192, 4386], 19: [1357, 1356], 20: [4116, 1267, 1266], 3: [4191, 1297], 5: [4207], 6: [4281], 25: [1341], 10: [1251, 1252], 12: [4357], 17: [4280, 1207], 11: [1447, 4222], 14: [4282, 1432], 13: [4252], 18: [4266], 16: [1371], 23: [4131]}</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0.006800445930880715</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.01552534474486714</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>{0: [1570], 1: [4898, 4823, 4897, 1600], 's_0_1': [4883], 9: [4851, 1540, 4852], 's_0_9': [4913], 24: [1554, 1406, 1405, 4778, 4777], 's_0_24': [4793], 's_0_0': [1571], 4: [1495, 4808, 4806, 4807], 's_1_4': [1675], 7: [1210, 4820, 1390, 4821], 's_1_7': [4822], 21: [4958, 4957, 1359, 1360], 's_1_21': [1601], 22: [4838, 4837, 1451, 1450], 's_1_22': [1660], 's_1_1': [1631], 2: [1344, 1345], 's_9_2': [1330], 's_9_4': [1480], 8: [4747, 4612, 1419, 1420, 4927, 4928], 's_9_8': [4943], 15: [1240], 's_9_15': [4836], 19: [1586, 1524, 5002, 1525], 's_9_19': [4987], 20: [1508, 1509, 1510, 1511, 5092], 's_9_20': [4973], 's_9_22': [4853], 's_9_9': [4850], 3: [1599, 4763, 4761, 1465, 4762], 's_24_3': [4792], 5: [4642, 1404, 4641], 's_24_5': [1553], 6: [1391, 5001, 1375, 1120, 1121, 5000], 's_24_6': [5122], 's_24_8': [1374], 's_24_21': [4986], 's_24_22': [1615], 's_24_24': [1435], 's_4_3': [1300], 's_4_7': [1270], 's_4_22': [1645], 25: [4730, 4733, 1614, 4731, 4732], 's_4_25': [1539, 4688], 's_4_4': [1719], 10: [4866, 4867, 1706, 1705, 4868], 's_7_10': [1285], 12: [1179, 4686], 's_7_12': [4791], 17: [4941], 's_7_17': [1225], 's_7_7': [1105], 's_21_8': [1481], 's_21_10': [1646, 5018], 11: [1434, 4702], 's_21_11': [4687], 14: [1316, 4896], 's_21_14': [4972], 's_21_22': [1555], 's_21_21': [4956], 's_22_3': [4717], 's_22_8': [1449], 's_22_10': [1690], 's_22_20': [5032], 's_22_22': [1735], 's_2_8': [1343], 's_2_12': [1329], 's_2_14': [4911], 's_2_2': [1346], 's_8_10': [4929], 13: [1014, 1315, 4715, 4716], 's_8_13': [1314], 18: [1584, 4672], 's_8_18': [4627], 's_8_8': [1373], 's_15_10': [4881], 's_15_17': [1255], 's_15_15': [4776], 's_19_6': [4912], 's_19_11': [4657], 16: [1090, 1091, 5017, 5016, 5015], 's_19_16': [1496], 's_19_20': [5123], 23: [5077, 5078], 's_19_23': [1436], 's_19_19': [5108], 's_20_6': [5062], 's_20_18': [4598], 's_20_25': [4613], 's_20_16': [1421], 's_20_23': [1467], 's_20_20': [4568], 's_3_5': [1464], 's_3_6': [1135, 1136], 's_3_11': [4703], 's_3_13': [1149], 's_3_18': [4718], 's_3_25': [4658], 's_3_3': [1239], 's_5_11': [1494], 's_5_25': [4643], 's_5_5': [1299], 's_6_14': [4895], 's_6_10': [4882], 's_6_16': [1076], 's_6_17': [1165], 's_6_25': [4746, 1209], 's_6_6': [1301, 1302], 's_25_11': [4701, 1254], 's_25_13': [999], 's_25_18': [4673], 's_25_25': [4734], 's_10_23': [1691], 's_10_10': [5124], 's_12_12': [1284], 's_17_17': [4940], 's_11_11': [1433], 's_14_14': [1317], 's_13_16': [4745], 's_13_13': [4654], 's_18_18': [4671], 's_16_16': [4790], 's_23_23': [1616]}</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0001532258064516129</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.001101005830933815</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>{0: [1570], 1: [4898, 4823, 4897, 1600], 's_0_1': [4883], 9: [4851, 1540, 4852], 's_0_9': [4913], 24: [1554, 1406, 1405, 4778, 4777], 's_0_24': [4793], 's_0_0': [1571], 4: [1495, 4808, 4806, 4807], 's_1_4': [1675], 7: [1210, 4820, 1390, 4821], 's_1_7': [4822], 21: [4958, 4957, 1359, 1360], 's_1_21': [1601], 22: [4838, 4837, 1451, 1450], 's_1_22': [1660], 's_1_1': [1631], 2: [1344, 1345], 's_9_2': [1330], 's_9_4': [1480], 8: [4747, 4612, 1419, 1420, 4927, 4928], 's_9_8': [4943], 15: [1240], 's_9_15': [4836], 19: [1586, 1524, 5002, 1525], 's_9_19': [4987], 20: [1508, 1509, 1510, 1511, 5092], 's_9_20': [4973], 's_9_22': [4853], 's_9_9': [4850], 3: [1599, 4763, 4761, 1465, 4762], 's_24_3': [4792], 5: [4642, 1404, 4641], 's_24_5': [1553], 6: [1391, 5001, 1375, 1120, 1121, 5000], 's_24_6': [5122], 's_24_8': [1374], 's_24_21': [4986], 's_24_22': [1615], 's_24_24': [1435], 's_4_3': [1300], 's_4_7': [1270], 's_4_22': [1645], 25: [4730, 4733, 1614, 4731, 4732], 's_4_25': [1539, 4688], 's_4_4': [1719], 10: [4866, 4867, 1706, 1705, 4868], 's_7_10': [1285], 12: [1179, 4686], 's_7_12': [4791], 17: [4941], 's_7_17': [1225], 's_7_7': [1105], 's_21_8': [1481], 's_21_10': [1646, 5018], 11: [1434, 4702], 's_21_11': [4687], 14: [1316, 4896], 's_21_14': [4972], 's_21_22': [1555], 's_21_21': [4956], 's_22_3': [4717], 's_22_8': [1449], 's_22_10': [1690], 's_22_20': [5032], 's_22_22': [1735], 's_2_8': [1343], 's_2_12': [1329], 's_2_14': [4911], 's_2_2': [1346], 's_8_10': [4929], 13: [1014, 1315, 4715, 4716], 's_8_13': [1314], 18: [1584, 4672], 's_8_18': [4627], 's_8_8': [1373], 's_15_10': [4881], 's_15_17': [1255], 's_15_15': [4776], 's_19_6': [4912], 's_19_11': [4657], 16: [1090, 1091, 5017, 5016, 5015], 's_19_16': [1496], 's_19_20': [5123], 23: [5077, 5078], 's_19_23': [1436], 's_19_19': [5108], 's_20_6': [5062], 's_20_18': [4598], 's_20_25': [4613], 's_20_16': [1421], 's_20_23': [1467], 's_20_20': [4568], 's_3_5': [1464], 's_3_6': [1135, 1136], 's_3_11': [4703], 's_3_13': [1149], 's_3_18': [4718], 's_3_25': [4658], 's_3_3': [1239], 's_5_11': [1494], 's_5_25': [4643], 's_5_5': [1299], 's_6_14': [4895], 's_6_10': [4882], 's_6_16': [1076], 's_6_17': [1165], 's_6_25': [4746, 1209], 's_6_6': [1301, 1302], 's_25_11': [4701, 1254], 's_25_13': [999], 's_25_18': [4673], 's_25_25': [4734], 's_10_23': [1691], 's_10_10': [5124], 's_12_12': [1284], 's_17_17': [4940], 's_11_11': [1433], 's_14_14': [1317], 's_13_16': [4745], 's_13_13': [4654], 's_18_18': [4671], 's_16_16': [4790], 's_23_23': [1616]}</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0001532258064516129</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.001101005830933815</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>{0: [1450, 1451], 2: [1510, 4838, 4837], 6: [4807, 4808], 16: [5032, 1586], 17: [4957], 19: [1481, 5003, 5002], 20: [1600, 4897, 4898], 22: [4942, 4943], 4: [1555, 1571, 4987], 8: [1706, 1705], 9: [4974, 4973], 12: [4958, 4959], 13: [1540, 4868], 15: [1630, 4988, 1631], 25: [1660, 4913, 1661], 1: [4793, 1570], 11: [1675, 1676], 14: [1615, 1616, 5018], 3: [1601, 5093], 5: [1496], 7: [5017, 1541], 18: [1646], 26: [1645, 4883], 10: [4929, 4928], 23: [4852, 4853], 21: [5063], 24: [4944, 1690]}</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0.006233956729006233</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.01418024940341647</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>{0: [1450, 1451], 2: [1510, 4838, 4837], 6: [4807, 4808], 16: [5032, 1586], 17: [4957], 19: [1481, 5003, 5002], 20: [1600, 4897, 4898], 22: [4942, 4943], 4: [1555, 1571, 4987], 8: [1706, 1705], 9: [4974, 4973], 12: [4958, 4959], 13: [1540, 4868], 15: [1630, 4988, 1631], 25: [1660, 4913, 1661], 1: [4793, 1570], 11: [1675, 1676], 14: [1615, 1616, 5018], 3: [1601, 5093], 5: [1496], 7: [5017, 1541], 18: [1646], 26: [1645, 4883], 10: [4929, 4928], 23: [4852, 4853], 21: [5063], 24: [4944, 1690]}</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0.006233956729006233</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.01418024940341647</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.231</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>{0: [235, 4905, 236], 2: [579, 580, 5040, 5041, 5042, 581], 's_0_2': [5055], 6: [520, 4921, 4922], 's_0_6': [221], 16: [160], 's_0_16': [4800], 17: [4710], 's_0_17': [4725], 19: [324, 325, 4951, 5101, 326], 's_0_19': [237], 20: [655, 4906, 445, 4981, 4982], 's_0_20': [4980], 22: [507, 506, 5025, 5026], 's_0_22': [206], 's_0_0': [145], 4: [491, 489, 490], 's_2_4': [4682], 8: [730, 4953, 732, 731], 's_2_8': [5043], 9: [4832, 565, 4667, 564], 's_2_9': [4547], 12: [190, 5070, 4845, 266, 265], 's_2_12': [131], 13: [4892, 597, 596], 's_2_13': [5057], 15: [4966, 609, 610, 4967, 4968], 's_2_15': [4652], 's_2_20': [356], 's_2_22': [161], 25: [387, 5175, 5176, 431, 5177], 's_2_25': [281], 's_2_2': [4532], 1: [552, 550, 4952, 551], 's_6_1': [4817], 11: [672, 671, 670, 4772, 4773], 's_6_11': [535], 14: [4998, 4997, 5146, 5147, 567, 566], 's_6_14': [4937], 's_6_20': [310], 's_6_6': [4920], 3: [4860, 4861, 4862, 4863, 806, 805], 's_16_3': [4875], 's_16_12': [4770], 's_16_16': [159], 's_17_12': [220], 's_17_17': [114], 5: [4606, 4936, 4831, 354, 355], 's_19_5': [309], 7: [5086, 5087], 's_19_7': [296], 's_19_12': [4995], 's_19_15': [250], 18: [492, 5161, 372], 's_19_18': [5116], 's_19_20': [341], 's_19_22': [5010], 's_19_19': [4711], 's_20_1': [536], 's_20_3': [295], 's_20_5': [371], 's_20_8': [4908], 's_20_11': [444], 's_20_13': [4891], 26: [415, 370, 386, 385, 4816], 's_20_26': [340], 's_20_20': [4878], 's_22_1': [401], 10: [402, 5103, 5102], 's_22_10': [5206], 's_22_15': [416], 's_22_18': [446], 's_22_22': [5267], 's_4_1': [4877], 's_4_3': [505], 's_4_5': [4636], 's_4_10': [5117], 23: [595, 4757, 4758], 's_4_23': [504], 's_4_26': [4996], 's_4_4': [488], 's_8_14': [640], 's_8_23': [745], 's_8_10': [701], 's_8_13': [5148], 's_8_15': [746], 21: [611, 522, 5162, 5163], 's_8_21': [747], 's_8_8': [5028], 's_9_14': [625], 's_9_3': [4833], 's_9_5': [4607], 's_9_11': [669], 's_9_15': [4727], 's_9_9': [684], 's_12_14': [251], 's_12_25': [207], 's_12_5': [4830], 's_12_12': [146], 's_13_14': [5012], 's_13_25': [582], 's_13_7': [5072], 's_13_10': [5118], 's_13_15': [4938], 24: [460, 4742, 4697, 459], 's_13_24': [475], 's_13_13': [598], 's_15_23': [4712], 's_15_3': [280], 's_15_24': [624], 's_15_26': [4876, 430], 's_15_15': [4965], 's_25_1': [5132], 's_25_14': [342], 's_25_10': [641], 's_25_18': [5236], 's_25_21': [537], 's_25_26': [5011], 's_25_25': [177], 's_1_14': [521], 's_1_23': [4802], 's_1_1': [549], 's_11_14': [5192], 's_11_23': [4788], 's_11_21': [687], 's_11_10': [686], 's_11_26': [429], 's_11_24': [654, 4698], 's_11_11': [5268], 's_14_18': [5131], 's_14_21': [5027], 's_14_14': [776], 's_3_21': [791], 's_3_3': [4864], 's_5_5': [4741], 's_7_21': [626], 's_7_7': [5088], 's_18_21': [5222], 's_18_10': [5191], 's_18_18': [493], 's_26_23': [400], 's_26_24': [4846], 's_26_26': [4771], 's_10_10': [5104], 's_23_24': [534], 's_23_23': [594], 's_21_21': [717], 's_24_24': [519]}</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0001351351351351351</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0009459459459459459</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>{0: [235, 4905, 236], 2: [579, 580, 5040, 5041, 5042, 581], 's_0_2': [5055], 6: [520, 4921, 4922], 's_0_6': [221], 16: [160], 's_0_16': [4800], 17: [4710], 's_0_17': [4725], 19: [324, 325, 4951, 5101, 326], 's_0_19': [237], 20: [655, 4906, 445, 4981, 4982], 's_0_20': [4980], 22: [507, 506, 5025, 5026], 's_0_22': [206], 's_0_0': [145], 4: [491, 489, 490], 's_2_4': [4682], 8: [730, 4953, 732, 731], 's_2_8': [5043], 9: [4832, 565, 4667, 564], 's_2_9': [4547], 12: [190, 5070, 4845, 266, 265], 's_2_12': [131], 13: [4892, 597, 596], 's_2_13': [5057], 15: [4966, 609, 610, 4967, 4968], 's_2_15': [4652], 's_2_20': [356], 's_2_22': [161], 25: [387, 5175, 5176, 431, 5177], 's_2_25': [281], 's_2_2': [4532], 1: [552, 550, 4952, 551], 's_6_1': [4817], 11: [672, 671, 670, 4772, 4773], 's_6_11': [535], 14: [4998, 4997, 5146, 5147, 567, 566], 's_6_14': [4937], 's_6_20': [310], 's_6_6': [4920], 3: [4860, 4861, 4862, 4863, 806, 805], 's_16_3': [4875], 's_16_12': [4770], 's_16_16': [159], 's_17_12': [220], 's_17_17': [114], 5: [4606, 4936, 4831, 354, 355], 's_19_5': [309], 7: [5086, 5087], 's_19_7': [296], 's_19_12': [4995], 's_19_15': [250], 18: [492, 5161, 372], 's_19_18': [5116], 's_19_20': [341], 's_19_22': [5010], 's_19_19': [4711], 's_20_1': [536], 's_20_3': [295], 's_20_5': [371], 's_20_8': [4908], 's_20_11': [444], 's_20_13': [4891], 26: [415, 370, 386, 385, 4816], 's_20_26': [340], 's_20_20': [4878], 's_22_1': [401], 10: [402, 5103, 5102], 's_22_10': [5206], 's_22_15': [416], 's_22_18': [446], 's_22_22': [5267], 's_4_1': [4877], 's_4_3': [505], 's_4_5': [4636], 's_4_10': [5117], 23: [595, 4757, 4758], 's_4_23': [504], 's_4_26': [4996], 's_4_4': [488], 's_8_14': [640], 's_8_23': [745], 's_8_10': [701], 's_8_13': [5148], 's_8_15': [746], 21: [611, 522, 5162, 5163], 's_8_21': [747], 's_8_8': [5028], 's_9_14': [625], 's_9_3': [4833], 's_9_5': [4607], 's_9_11': [669], 's_9_15': [4727], 's_9_9': [684], 's_12_14': [251], 's_12_25': [207], 's_12_5': [4830], 's_12_12': [146], 's_13_14': [5012], 's_13_25': [582], 's_13_7': [5072], 's_13_10': [5118], 's_13_15': [4938], 24: [460, 4742, 4697, 459], 's_13_24': [475], 's_13_13': [598], 's_15_23': [4712], 's_15_3': [280], 's_15_24': [624], 's_15_26': [4876, 430], 's_15_15': [4965], 's_25_1': [5132], 's_25_14': [342], 's_25_10': [641], 's_25_18': [5236], 's_25_21': [537], 's_25_26': [5011], 's_25_25': [177], 's_1_14': [521], 's_1_23': [4802], 's_1_1': [549], 's_11_14': [5192], 's_11_23': [4788], 's_11_21': [687], 's_11_10': [686], 's_11_26': [429], 's_11_24': [654, 4698], 's_11_11': [5268], 's_14_18': [5131], 's_14_21': [5027], 's_14_14': [776], 's_3_21': [791], 's_3_3': [4864], 's_5_5': [4741], 's_7_21': [626], 's_7_7': [5088], 's_18_21': [5222], 's_18_10': [5191], 's_18_18': [493], 's_26_23': [400], 's_26_24': [4846], 's_26_26': [4771], 's_10_10': [5104], 's_23_24': [534], 's_23_23': [594], 's_21_21': [717], 's_24_24': [519]}</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0001351351351351351</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.0009459459459459459</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>{0: [118, 5445], 4: [5536, 209, 5535], 5: [5446, 329, 328, 5385], 13: [5520, 268], 17: [448, 5430, 5431], 20: [238, 239], 23: [5625, 178, 179], 26: [119, 5655], 2: [223, 208, 5355], 6: [314, 313, 5400, 5401], 11: [359, 5640, 5641], 21: [284, 5565, 224], 25: [299, 5581, 5580], 27: [5460, 5461], 1: [254, 253], 3: [344, 5505, 5506], 7: [374, 5476], 9: [5551, 5550], 10: [164, 163], 15: [5656], 19: [5492, 5491], 24: [403, 5596, 404], 18: [5610, 269], 22: [5371, 5370], 8: [5595, 194], 14: [5475, 104, 103], 12: [5490, 5415, 133, 134], 16: [149]}</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.01243386243386243</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.01809028676960715</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>{0: [118, 5445], 4: [5536, 209, 5535], 5: [5446, 329, 328, 5385], 13: [5520, 268], 17: [448, 5430, 5431], 20: [238, 239], 23: [5625, 178, 179], 26: [119, 5655], 2: [223, 208, 5355], 6: [314, 313, 5400, 5401], 11: [359, 5640, 5641], 21: [284, 5565, 224], 25: [299, 5581, 5580], 27: [5460, 5461], 1: [254, 253], 3: [344, 5505, 5506], 7: [374, 5476], 9: [5551, 5550], 10: [164, 163], 15: [5656], 19: [5492, 5491], 24: [403, 5596, 404], 18: [5610, 269], 22: [5371, 5370], 8: [5595, 194], 14: [5475, 104, 103], 12: [5490, 5415, 133, 134], 16: [149]}</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0.01243386243386243</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.01809028676960715</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.342</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>{0: [311, 5463, 5462, 5461, 313, 312], 4: [5265, 5267, 5266, 418, 419], 's_0_4': [5446], 5: [654, 4832, 5536, 5537, 658, 657, 656, 655], 's_0_5': [554], 13: [477, 5237, 5356, 5355], 's_0_13': [493], 17: [687, 5208, 4951, 4952, 520, 5207, 522, 521], 's_0_17': [688], 20: [146, 431, 5100, 5102, 5101], 's_0_20': [5146, 387], 23: [5086, 372, 373, 5403, 5401, 5402], 's_0_23': [673], 26: [282, 5311, 5310, 208, 206, 5175, 207], 's_0_26': [5160], 's_0_0': [718], 2: [494, 5492], 's_4_2': [5551], 's_4_5': [5268], 6: [613, 612, 611, 5042, 5041, 5040, 221], 's_4_6': [627], 11: [268, 267, 4862, 4861, 4860, 265, 266], 's_4_11': [5250], 21: [5370, 448, 402, 403, 5371], 's_4_21': [5477], 25: [132, 5130, 5131, 281, 4907, 4906, 280], 's_4_25': [147], 27: [553, 5327, 446, 447], 's_4_27': [5251], 's_4_4': [5431], 1: [5312, 643, 5313, 641, 642], 's_5_1': [5162], 3: [252, 251, 250, 4845, 4846, 4847], 's_5_3': [595], 7: [4802, 4801, 161, 160, 4800], 's_5_7': [535], 9: [536, 732, 5118, 5115, 326, 5116, 5117], 's_5_9': [5027], 10: [5283, 5280, 5281, 5282], 's_5_10': [5298], 15: [5506, 5508, 5507], 's_5_15': [359], 19: [429, 4817, 459, 385, 4816], 's_5_19': [670], 's_5_23': [374], 24: [4727, 550, 4982, 4967, 551], 's_5_24': [4728], 's_5_5': [653], 's_13_1': [5357], 's_13_3': [5340], 18: [567, 5088, 505, 506, 5087], 's_13_18': [507], 's_13_21': [178], 22: [4997, 5206, 4996, 356, 357], 's_13_22': [492], 's_13_23': [328], 's_13_27': [297, 5221], 's_13_13': [5222, 5223, 5224], 's_17_1': [5253], 's_17_7': [4950], 8: [5149, 5147, 5148], 's_17_8': [702], 14: [416, 4890, 4891], 's_17_14': [295], 's_17_19': [4772], 's_17_22': [386], 's_17_24': [4922], 's_17_17': [822], 's_20_3': [5055], 's_20_6': [116], 's_20_7': [5070], 's_20_9': [5056], 's_20_21': [5161], 's_20_25': [86], 's_20_27': [5071], 's_20_20': [145], 's_23_10': [733], 12: [463, 5417, 580, 581, 582, 583], 's_23_12': [538], 16: [748, 747, 610, 4938, 746], 's_23_16': [778, 5193, 777], 's_23_18': [568], 's_23_21': [5341], 's_23_22': [5176], 's_23_25': [296], 's_23_26': [388], 's_23_23': [703], 's_26_10': [87], 's_26_11': [5415], 's_26_14': [4905], 's_26_25': [222], 's_26_26': [5325], 's_2_12': [478], 's_2_21': [404], 's_2_2': [539], 's_6_1': [5043], 's_6_3': [220], 's_6_12': [5447], 's_6_14': [401], 's_6_15': [628], 's_6_22': [341], 's_6_25': [4995], 's_6_6': [614], 's_11_9': [325], 's_11_15': [5491], 's_11_18': [490], 's_11_21': [5385], 's_11_14': [130], 's_11_19': [4876], 's_11_11': [235], 's_21_15': [253], 's_21_27': [5236], 's_21_8': [5132], 's_21_10': [193], 's_21_21': [449], 's_25_9': [192], 's_25_12': [596], 's_25_18': [4892], 's_25_3': [4921], 's_25_14': [371], 's_25_16': [4908], 's_25_24': [445], 's_25_25': [4966], 's_27_1': [5372], 's_27_12': [508], 's_27_8': [552], 's_27_10': [432], 's_27_27': [5026], 's_1_9': [537, 5177], 's_1_12': [5328], 's_1_15': [5493], 's_1_18': [5192], 's_1_1': [5314], 's_3_9': [5010], 's_3_14': [355], 's_3_16': [640], 's_3_19': [415], 's_3_24': [4936, 4937, 566], 's_3_3': [5235], 's_7_9': [5025], 's_7_14': [310], 's_7_19': [4815], 's_7_24': [565], 's_7_7': [159], 's_9_8': [5133], 's_9_24': [4981, 4980], 's_9_9': [701], 's_10_12': [5252, 462], 's_10_22': [342], 's_10_10': [72], 's_15_15': [734], 's_19_12': [4712], 's_19_24': [609], 's_19_19': [4756], 's_24_22': [491], 's_24_24': [5012], 's_18_12': [5057], 's_18_8': [791], 's_18_16': [4877], 's_18_18': [716], 's_22_22': [5011], 's_8_12': [597], 's_8_16': [5028, 761, 762], 's_8_8': [821], 's_14_14': [115], 's_12_12': [4743], 's_16_16': [4939]}</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.000155688622754491</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0009529051657261127</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>{0: [311, 5463, 5462, 5461, 313, 312], 4: [5265, 5267, 5266, 418, 419], 's_0_4': [5446], 5: [654, 4832, 5536, 5537, 658, 657, 656, 655], 's_0_5': [554], 13: [477, 5237, 5356, 5355], 's_0_13': [493], 17: [687, 5208, 4951, 4952, 520, 5207, 522, 521], 's_0_17': [688], 20: [146, 431, 5100, 5102, 5101], 's_0_20': [5146, 387], 23: [5086, 372, 373, 5403, 5401, 5402], 's_0_23': [673], 26: [282, 5311, 5310, 208, 206, 5175, 207], 's_0_26': [5160], 's_0_0': [718], 2: [494, 5492], 's_4_2': [5551], 's_4_5': [5268], 6: [613, 612, 611, 5042, 5041, 5040, 221], 's_4_6': [627], 11: [268, 267, 4862, 4861, 4860, 265, 266], 's_4_11': [5250], 21: [5370, 448, 402, 403, 5371], 's_4_21': [5477], 25: [132, 5130, 5131, 281, 4907, 4906, 280], 's_4_25': [147], 27: [553, 5327, 446, 447], 's_4_27': [5251], 's_4_4': [5431], 1: [5312, 643, 5313, 641, 642], 's_5_1': [5162], 3: [252, 251, 250, 4845, 4846, 4847], 's_5_3': [595], 7: [4802, 4801, 161, 160, 4800], 's_5_7': [535], 9: [536, 732, 5118, 5115, 326, 5116, 5117], 's_5_9': [5027], 10: [5283, 5280, 5281, 5282], 's_5_10': [5298], 15: [5506, 5508, 5507], 's_5_15': [359], 19: [429, 4817, 459, 385, 4816], 's_5_19': [670], 's_5_23': [374], 24: [4727, 550, 4982, 4967, 551], 's_5_24': [4728], 's_5_5': [653], 's_13_1': [5357], 's_13_3': [5340], 18: [567, 5088, 505, 506, 5087], 's_13_18': [507], 's_13_21': [178], 22: [4997, 5206, 4996, 356, 357], 's_13_22': [492], 's_13_23': [328], 's_13_27': [297, 5221], 's_13_13': [5222, 5223, 5224], 's_17_1': [5253], 's_17_7': [4950], 8: [5149, 5147, 5148], 's_17_8': [702], 14: [416, 4890, 4891], 's_17_14': [295], 's_17_19': [4772], 's_17_22': [386], 's_17_24': [4922], 's_17_17': [822], 's_20_3': [5055], 's_20_6': [116], 's_20_7': [5070], 's_20_9': [5056], 's_20_21': [5161], 's_20_25': [86], 's_20_27': [5071], 's_20_20': [145], 's_23_10': [733], 12: [463, 5417, 580, 581, 582, 583], 's_23_12': [538], 16: [748, 747, 610, 4938, 746], 's_23_16': [778, 5193, 777], 's_23_18': [568], 's_23_21': [5341], 's_23_22': [5176], 's_23_25': [296], 's_23_26': [388], 's_23_23': [703], 's_26_10': [87], 's_26_11': [5415], 's_26_14': [4905], 's_26_25': [222], 's_26_26': [5325], 's_2_12': [478], 's_2_21': [404], 's_2_2': [539], 's_6_1': [5043], 's_6_3': [220], 's_6_12': [5447], 's_6_14': [401], 's_6_15': [628], 's_6_22': [341], 's_6_25': [4995], 's_6_6': [614], 's_11_9': [325], 's_11_15': [5491], 's_11_18': [490], 's_11_21': [5385], 's_11_14': [130], 's_11_19': [4876], 's_11_11': [235], 's_21_15': [253], 's_21_27': [5236], 's_21_8': [5132], 's_21_10': [193], 's_21_21': [449], 's_25_9': [192], 's_25_12': [596], 's_25_18': [4892], 's_25_3': [4921], 's_25_14': [371], 's_25_16': [4908], 's_25_24': [445], 's_25_25': [4966], 's_27_1': [5372], 's_27_12': [508], 's_27_8': [552], 's_27_10': [432], 's_27_27': [5026], 's_1_9': [537, 5177], 's_1_12': [5328], 's_1_15': [5493], 's_1_18': [5192], 's_1_1': [5314], 's_3_9': [5010], 's_3_14': [355], 's_3_16': [640], 's_3_19': [415], 's_3_24': [4936, 4937, 566], 's_3_3': [5235], 's_7_9': [5025], 's_7_14': [310], 's_7_19': [4815], 's_7_24': [565], 's_7_7': [159], 's_9_8': [5133], 's_9_24': [4981, 4980], 's_9_9': [701], 's_10_12': [5252, 462], 's_10_22': [342], 's_10_10': [72], 's_15_15': [734], 's_19_12': [4712], 's_19_24': [609], 's_19_19': [4756], 's_24_22': [491], 's_24_24': [5012], 's_18_12': [5057], 's_18_8': [791], 's_18_16': [4877], 's_18_18': [716], 's_22_22': [5011], 's_8_12': [597], 's_8_16': [5028, 761, 762], 's_8_8': [821], 's_14_14': [115], 's_12_12': [4743], 's_16_16': [4939]}</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0.000155688622754491</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.0009529051657261127</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>{0: [3465, 3466], 2: [213, 3450], 3: [182, 183], 5: [3346, 347], 14: [3435, 152], 19: [257, 256], 21: [317, 3436], 25: [3451], 4: [198, 197], 15: [3331, 212], 17: [242, 3406, 3405], 7: [3555, 272], 9: [227, 3361, 3360], 27: [3540, 287], 28: [3345], 10: [3421, 3420], 18: [303, 302], 26: [3301, 377], 12: [168, 167, 3480], 16: [3390], 20: [3585, 153], 22: [3496, 3495], 11: [3525, 3526, 378], 13: [286, 3375], 23: [3511], 8: [3270, 407, 3271], 1: [228, 3615], 24: [3391, 363, 362], 6: [332, 3481]}</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.004542638860210613</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.01166221040383476</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>{0: [3465, 3466], 2: [213, 3450], 3: [182, 183], 5: [3346, 347], 14: [3435, 152], 19: [257, 256], 21: [317, 3436], 25: [3451], 4: [198, 197], 15: [3331, 212], 17: [242, 3406, 3405], 7: [3555, 272], 9: [227, 3361, 3360], 27: [3540, 287], 28: [3345], 10: [3421, 3420], 18: [303, 302], 26: [3301, 377], 12: [168, 167, 3480], 16: [3390], 20: [3585, 153], 22: [3496, 3495], 11: [3525, 3526, 378], 13: [286, 3375], 23: [3511], 8: [3270, 407, 3271], 1: [228, 3615], 24: [3391, 363, 362], 6: [332, 3481]}</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0.004542638860210613</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.01166221040383476</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>{0: [3722, 3723, 3724, 1024, 1025, 1026], 2: [1010, 4070, 4068, 4069], 's_0_2': [4040], 3: [559, 3887, 560], 's_0_3': [544], 5: [4129, 891], 's_0_5': [4174, 4175], 14: [606, 603, 3843, 605, 604], 's_0_14': [618], 19: [1054, 830, 1055, 4025, 4024], 's_0_19': [934, 3710], 21: [3754, 3933, 740, 739, 3753], 's_0_21': [949], 25: [965, 4055], 's_0_25': [1041], 's_0_0': [993], 4: [3947, 575, 4111, 4112, 576], 's_2_4': [666], 's_2_14': [620], 15: [815, 3785, 3784, 814], 's_2_15': [4054], 17: [4053, 3812, 590, 591], 's_2_17': [681], 's_2_19': [1056], 's_2_25': [1071], 's_2_2': [861], 7: [3961, 3963, 470, 3962], 's_3_7': [485], 9: [3860, 922, 921, 920, 3859, 3858, 3857], 's_3_9': [424], 's_3_17': [3797, 484], 27: [3976, 3979, 3978, 455, 3977], 's_3_27': [410], 28: [501, 500], 's_3_28': [3872], 's_3_3': [3886], 's_5_9': [4204], 10: [4249, 4127, 785, 786, 4128], 's_5_10': [892], 18: [936, 935, 3827, 3828, 3829], 's_5_18': [4114], 26: [4084, 696, 4083], 's_5_26': [876], 's_5_5': [4159], 's_14_10': [4248], 12: [4023, 396, 4022], 's_14_12': [4038], 16: [724, 3948, 725], 's_14_16': [3693], 's_14_17': [3767, 514], 20: [3842, 546, 545], 's_14_20': [4082], 's_14_21': [3678], 22: [3932, 3917, 531, 530], 's_14_22': [4187], 's_14_14': [4262], 's_19_9': [4039], 11: [4006, 4009, 4007, 726, 4008], 's_19_11': [4010], 13: [1009, 3845], 's_19_13': [3815], 's_19_15': [3800], 23: [890], 's_19_23': [3964], 's_19_26': [995], 's_19_27': [845], 's_19_19': [3935], 8: [3904, 3902, 3903], 's_21_8': [829], 's_21_9': [3934], 's_21_10': [784], 's_21_13': [3769], 's_21_15': [919], 's_21_22': [529, 3752], 's_21_21': [738], 's_25_11': [980], 's_25_25': [1086], 1: [516, 426, 4052, 425], 's_4_1': [441, 4217], 's_4_8': [515], 's_4_10': [621], 's_4_11': [366], 's_4_12': [561], 's_4_16': [3888], 's_4_20': [4097], 's_4_28': [3946], 's_4_4': [471], 's_15_13': [964], 's_15_16': [3783], 24: [770, 860, 3889], 's_15_24': [859], 's_15_26': [4098], 's_15_15': [1159], 's_17_22': [4142], 's_17_8': [619], 's_17_18': [499], 's_17_26': [741], 's_17_17': [4157], 's_7_1': [3931], 's_7_11': [335], 's_7_12': [395], 's_7_16': [695], 's_7_20': [469], 's_7_22': [680], 's_7_27': [305], 's_7_7': [3960], 6: [3844, 799, 800, 3993, 3991, 3992], 's_9_6': [844], 's_9_10': [4219], 's_9_13': [950], 's_9_16': [3873, 649], 's_9_18': [709], 's_9_9': [4294], 's_27_1': [4081], 's_27_6': [350], 's_27_11': [320], 's_27_10': [456, 4126], 's_27_12': [4096], 's_27_18': [905], 's_27_27': [365], 's_28_12': [4037], 's_28_28': [3916], 's_10_6': [801], 's_10_26': [4173], 's_10_10': [787], 's_18_6': [874], 's_18_20': [454], 's_18_16': [3813, 3814], 's_18_13': [979], 's_18_18': [694], 's_26_11': [4143], 's_26_26': [4085], 's_12_6': [710], 's_12_12': [397], 's_16_24': [755], 's_16_16': [723], 's_20_1': [4067], 's_20_20': [547], 's_22_1': [4202], 's_22_6': [665], 's_22_22': [532], 's_11_1': [440], 's_11_23': [875], 's_11_24': [771], 's_11_11': [4158], 's_13_8': [3919], 's_13_13': [1008], 's_23_24': [3994], 's_23_23': [3949], 's_8_8': [634], 's_1_6': [411], 's_1_1': [427], 's_24_6': [3918], 's_24_24': [3890], 's_6_6': [798]}</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>9.03225806451613e-05</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0007580027428502975</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>{0: [3722, 3723, 3724, 1024, 1025, 1026], 2: [1010, 4070, 4068, 4069], 's_0_2': [4040], 3: [559, 3887, 560], 's_0_3': [544], 5: [4129, 891], 's_0_5': [4174, 4175], 14: [606, 603, 3843, 605, 604], 's_0_14': [618], 19: [1054, 830, 1055, 4025, 4024], 's_0_19': [934, 3710], 21: [3754, 3933, 740, 739, 3753], 's_0_21': [949], 25: [965, 4055], 's_0_25': [1041], 's_0_0': [993], 4: [3947, 575, 4111, 4112, 576], 's_2_4': [666], 's_2_14': [620], 15: [815, 3785, 3784, 814], 's_2_15': [4054], 17: [4053, 3812, 590, 591], 's_2_17': [681], 's_2_19': [1056], 's_2_25': [1071], 's_2_2': [861], 7: [3961, 3963, 470, 3962], 's_3_7': [485], 9: [3860, 922, 921, 920, 3859, 3858, 3857], 's_3_9': [424], 's_3_17': [3797, 484], 27: [3976, 3979, 3978, 455, 3977], 's_3_27': [410], 28: [501, 500], 's_3_28': [3872], 's_3_3': [3886], 's_5_9': [4204], 10: [4249, 4127, 785, 786, 4128], 's_5_10': [892], 18: [936, 935, 3827, 3828, 3829], 's_5_18': [4114], 26: [4084, 696, 4083], 's_5_26': [876], 's_5_5': [4159], 's_14_10': [4248], 12: [4023, 396, 4022], 's_14_12': [4038], 16: [724, 3948, 725], 's_14_16': [3693], 's_14_17': [3767, 514], 20: [3842, 546, 545], 's_14_20': [4082], 's_14_21': [3678], 22: [3932, 3917, 531, 530], 's_14_22': [4187], 's_14_14': [4262], 's_19_9': [4039], 11: [4006, 4009, 4007, 726, 4008], 's_19_11': [4010], 13: [1009, 3845], 's_19_13': [3815], 's_19_15': [3800], 23: [890], 's_19_23': [3964], 's_19_26': [995], 's_19_27': [845], 's_19_19': [3935], 8: [3904, 3902, 3903], 's_21_8': [829], 's_21_9': [3934], 's_21_10': [784], 's_21_13': [3769], 's_21_15': [919], 's_21_22': [529, 3752], 's_21_21': [738], 's_25_11': [980], 's_25_25': [1086], 1: [516, 426, 4052, 425], 's_4_1': [441, 4217], 's_4_8': [515], 's_4_10': [621], 's_4_11': [366], 's_4_12': [561], 's_4_16': [3888], 's_4_20': [4097], 's_4_28': [3946], 's_4_4': [471], 's_15_13': [964], 's_15_16': [3783], 24: [770, 860, 3889], 's_15_24': [859], 's_15_26': [4098], 's_15_15': [1159], 's_17_22': [4142], 's_17_8': [619], 's_17_18': [499], 's_17_26': [741], 's_17_17': [4157], 's_7_1': [3931], 's_7_11': [335], 's_7_12': [395], 's_7_16': [695], 's_7_20': [469], 's_7_22': [680], 's_7_27': [305], 's_7_7': [3960], 6: [3844, 799, 800, 3993, 3991, 3992], 's_9_6': [844], 's_9_10': [4219], 's_9_13': [950], 's_9_16': [3873, 649], 's_9_18': [709], 's_9_9': [4294], 's_27_1': [4081], 's_27_6': [350], 's_27_11': [320], 's_27_10': [456, 4126], 's_27_12': [4096], 's_27_18': [905], 's_27_27': [365], 's_28_12': [4037], 's_28_28': [3916], 's_10_6': [801], 's_10_26': [4173], 's_10_10': [787], 's_18_6': [874], 's_18_20': [454], 's_18_16': [3813, 3814], 's_18_13': [979], 's_18_18': [694], 's_26_11': [4143], 's_26_26': [4085], 's_12_6': [710], 's_12_12': [397], 's_16_24': [755], 's_16_16': [723], 's_20_1': [4067], 's_20_20': [547], 's_22_1': [4202], 's_22_6': [665], 's_22_22': [532], 's_11_1': [440], 's_11_23': [875], 's_11_24': [771], 's_11_11': [4158], 's_13_8': [3919], 's_13_13': [1008], 's_23_24': [3994], 's_23_23': [3949], 's_8_8': [634], 's_1_6': [411], 's_1_1': [427], 's_24_6': [3918], 's_24_24': [3890], 's_6_6': [798]}</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>9.03225806451613e-05</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0007580027428502975</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>{0: [1013, 4474], 13: [968, 967], 14: [4339, 952, 953], 15: [4444, 1043], 16: [4490, 4489], 20: [983, 4566, 4565], 6: [1042, 4400], 8: [1192, 4294, 4295], 19: [4430], 26: [4415], 28: [4354, 4355], 29: [966, 4250], 10: [4386, 1072, 4385], 18: [4309, 982], 2: [938, 937, 4235], 11: [4520], 21: [1118, 4505], 27: [4459, 4460], 5: [1088], 24: [1102, 1103], 1: [1162, 1163], 7: [1148, 1147], 17: [1133, 1073, 4445], 3: [4340], 22: [4325, 1012], 9: [4550, 997, 998], 25: [1027, 4535, 1028], 23: [4370, 1057], 12: [1058], 4: [4310, 1087]}</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.01786941580756014</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.02122365258074918</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>{0: [1013, 4474], 13: [968, 967], 14: [4339, 952, 953], 15: [4444, 1043], 16: [4490, 4489], 20: [983, 4566, 4565], 6: [1042, 4400], 8: [1192, 4294, 4295], 19: [4430], 26: [4415], 28: [4354, 4355], 29: [966, 4250], 10: [4386, 1072, 4385], 18: [4309, 982], 2: [938, 937, 4235], 11: [4520], 21: [1118, 4505], 27: [4459, 4460], 5: [1088], 24: [1102, 1103], 1: [1162, 1163], 7: [1148, 1147], 17: [1133, 1073, 4445], 3: [4340], 22: [4325, 1012], 9: [4550, 997, 998], 25: [1027, 4535, 1028], 23: [4370, 1057], 12: [1058], 4: [4310, 1087]}</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0.01786941580756014</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.02122365258074918</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>{0: [2073, 3729, 3731, 3730], 13: [1774, 2075, 1775, 3939, 3941, 2076, 3940], 's_0_13': [3744], 14: [2088, 2091, 2090, 2089], 's_0_14': [3656], 15: [3849, 3852, 3851, 1924, 3850], 's_0_15': [1789], 16: [3627, 3625, 3626], 's_0_16': [2238], 20: [2301, 2299, 2300], 's_0_20': [2284], 's_0_0': [3728], 6: [2226, 2225, 2223, 3761, 2224], 's_13_6': [4196], 8: [1863, 1864, 2166, 4046, 4045, 1865], 's_13_8': [3954], 's_13_14': [4256], 19: [4000, 4135, 4134, 3970, 1940, 1941], 's_13_19': [3999], 's_13_20': [3956], 26: [4090, 2122, 2121], 's_13_26': [4151], 28: [3565, 1971, 4030, 3595, 1968, 1969, 1970], 's_13_28': [4029], 29: [2271, 4002, 2270], 's_13_29': [2255], 's_13_13': [1790], 's_14_8': [4031], 10: [4092, 4091, 2136, 2135, 2134, 2043, 3716], 's_14_10': [3701], 's_14_15': [2074], 's_14_16': [3611], 18: [4166, 4227, 2241], 's_14_18': [4271, 4270], 's_14_19': [4001], 's_14_26': [4226], 's_14_28': [2087], 's_14_14': [3641], 2: [2283, 2346, 3685, 3686, 2345, 2344, 3687], 's_15_2': [2328, 2329], 's_15_6': [2254], 11: [1744, 1746, 1745], 's_15_11': [1759], 21: [2180, 3866, 1909, 3865], 's_15_21': [1835], 27: [3821, 1729, 2000, 3820, 3819], 's_15_27': [1879], 's_15_15': [1655], 's_16_2': [3612], 5: [1908, 3714, 3715], 's_16_5': [1893], 24: [1956, 1955, 3880, 3883, 2269, 3882, 2268, 3881], 's_16_24': [2253], 's_16_16': [3628], 1: [1926, 1925, 2360, 3897, 3896, 3895], 's_20_1': [2285], 7: [4062, 4061, 4152, 2315, 2316], 's_20_7': [4182], 17: [4209, 4212, 2046, 4210, 4211], 's_20_17': [2286], 's_20_18': [4167], 's_20_20': [4197], 3: [2239, 3790, 3792, 3791], 's_6_3': [2164], 22: [2029, 3971, 2120, 2119, 3775], 's_6_22': [3836], 's_6_2': [3672], 9: [2240, 3984, 3985, 2150, 3986], 's_6_9': [3926], 's_6_24': [3581], 25: [4122, 1985, 1986, 2196, 4121, 4120], 's_6_25': [4047], 's_6_6': [3760], 's_8_7': [2181], 's_8_22': [2165], 23: [3640, 2058, 4078, 4077, 2059, 4076, 2061, 2060], 's_8_23': [3639], 's_8_27': [3789], 's_8_2': [1878], 's_8_9': [2045], 's_8_18': [4136], 's_8_25': [2016], 's_8_8': [1851], 's_19_17': [1911], 's_19_22': [2030], 's_19_25': [4119], 's_19_24': [4075], 12: [1894, 3925, 3924], 's_19_12': [1895], 's_19_26': [4089], 's_19_19': [1806], 's_26_17': [2167, 4241], 's_26_25': [4105], 's_26_18': [4181], 's_26_26': [4346], 's_28_1': [4180], 's_28_17': [4165], 's_28_22': [2028], 's_28_2': [3670], 's_28_5': [3700], 's_28_9': [1880], 's_28_10': [2042], 's_28_24': [4015], 's_28_25': [3745, 1984], 's_28_28': [2057], 's_29_25': [4032], 's_29_10': [2405], 's_29_24': [2330], 's_29_29': [4003], 's_10_3': [2179], 's_10_7': [2376], 's_10_22': [3671], 's_10_23': [2420], 4: [3793, 2435, 3912, 2434], 's_10_4': [3911], 's_10_5': [3655], 's_10_9': [4106], 's_10_18': [2211], 's_10_10': [3580], 's_18_25': [2256], 's_18_9': [2151], 's_18_18': [2362], 's_2_23': [1999], 's_2_4': [3777], 's_2_25': [4137], 's_2_2': [1834], 's_11_17': [1761], 's_11_5': [3699], 's_11_11': [4164], 's_21_1': [2015], 's_21_5': [1939], 's_21_9': [1910], 's_21_12': [3759], 's_21_24': [1954], 's_21_27': [1850], 's_21_21': [3909], 's_27_1': [3894], 's_27_22': [2195], 's_27_12': [3923], 's_27_24': [3879], 's_27_25': [3835], 's_27_27': [3834], 's_5_5': [1819], 's_24_17': [4225], 's_24_4': [2419], 's_24_24': [2267], 's_1_3': [2359], 's_1_7': [3927], 's_1_17': [4195], 's_1_22': [2105], 's_1_23': [2361], 's_1_1': [3898], 's_7_4': [3942], 's_7_9': [3987], 's_7_23': [4153, 2511], 's_7_25': [4060], 's_7_7': [2317], 's_17_23': [2106], 's_17_25': [4150], 's_17_17': [1716], 's_3_4': [2404], 's_3_22': [3806], 's_3_23': [2014], 's_3_3': [2314], 's_22_9': [3776, 2149], 's_22_22': [3972], 's_9_9': [1760], 's_25_23': [2031], 's_25_12': [3910], 's_25_25': [2421], 's_23_4': [2450], 's_23_12': [3805], 's_23_23': [2062], 's_12_12': [1805], 's_4_4': [2569]}</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0001314285714285715</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0009297091930670953</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>{0: [2073, 3729, 3731, 3730], 13: [1774, 2075, 1775, 3939, 3941, 2076, 3940], 's_0_13': [3744], 14: [2088, 2091, 2090, 2089], 's_0_14': [3656], 15: [3849, 3852, 3851, 1924, 3850], 's_0_15': [1789], 16: [3627, 3625, 3626], 's_0_16': [2238], 20: [2301, 2299, 2300], 's_0_20': [2284], 's_0_0': [3728], 6: [2226, 2225, 2223, 3761, 2224], 's_13_6': [4196], 8: [1863, 1864, 2166, 4046, 4045, 1865], 's_13_8': [3954], 's_13_14': [4256], 19: [4000, 4135, 4134, 3970, 1940, 1941], 's_13_19': [3999], 's_13_20': [3956], 26: [4090, 2122, 2121], 's_13_26': [4151], 28: [3565, 1971, 4030, 3595, 1968, 1969, 1970], 's_13_28': [4029], 29: [2271, 4002, 2270], 's_13_29': [2255], 's_13_13': [1790], 's_14_8': [4031], 10: [4092, 4091, 2136, 2135, 2134, 2043, 3716], 's_14_10': [3701], 's_14_15': [2074], 's_14_16': [3611], 18: [4166, 4227, 2241], 's_14_18': [4271, 4270], 's_14_19': [4001], 's_14_26': [4226], 's_14_28': [2087], 's_14_14': [3641], 2: [2283, 2346, 3685, 3686, 2345, 2344, 3687], 's_15_2': [2328, 2329], 's_15_6': [2254], 11: [1744, 1746, 1745], 's_15_11': [1759], 21: [2180, 3866, 1909, 3865], 's_15_21': [1835], 27: [3821, 1729, 2000, 3820, 3819], 's_15_27': [1879], 's_15_15': [1655], 's_16_2': [3612], 5: [1908, 3714, 3715], 's_16_5': [1893], 24: [1956, 1955, 3880, 3883, 2269, 3882, 2268, 3881], 's_16_24': [2253], 's_16_16': [3628], 1: [1926, 1925, 2360, 3897, 3896, 3895], 's_20_1': [2285], 7: [4062, 4061, 4152, 2315, 2316], 's_20_7': [4182], 17: [4209, 4212, 2046, 4210, 4211], 's_20_17': [2286], 's_20_18': [4167], 's_20_20': [4197], 3: [2239, 3790, 3792, 3791], 's_6_3': [2164], 22: [2029, 3971, 2120, 2119, 3775], 's_6_22': [3836], 's_6_2': [3672], 9: [2240, 3984, 3985, 2150, 3986], 's_6_9': [3926], 's_6_24': [3581], 25: [4122, 1985, 1986, 2196, 4121, 4120], 's_6_25': [4047], 's_6_6': [3760], 's_8_7': [2181], 's_8_22': [2165], 23: [3640, 2058, 4078, 4077, 2059, 4076, 2061, 2060], 's_8_23': [3639], 's_8_27': [3789], 's_8_2': [1878], 's_8_9': [2045], 's_8_18': [4136], 's_8_25': [2016], 's_8_8': [1851], 's_19_17': [1911], 's_19_22': [2030], 's_19_25': [4119], 's_19_24': [4075], 12: [1894, 3925, 3924], 's_19_12': [1895], 's_19_26': [4089], 's_19_19': [1806], 's_26_17': [2167, 4241], 's_26_25': [4105], 's_26_18': [4181], 's_26_26': [4346], 's_28_1': [4180], 's_28_17': [4165], 's_28_22': [2028], 's_28_2': [3670], 's_28_5': [3700], 's_28_9': [1880], 's_28_10': [2042], 's_28_24': [4015], 's_28_25': [3745, 1984], 's_28_28': [2057], 's_29_25': [4032], 's_29_10': [2405], 's_29_24': [2330], 's_29_29': [4003], 's_10_3': [2179], 's_10_7': [2376], 's_10_22': [3671], 's_10_23': [2420], 4: [3793, 2435, 3912, 2434], 's_10_4': [3911], 's_10_5': [3655], 's_10_9': [4106], 's_10_18': [2211], 's_10_10': [3580], 's_18_25': [2256], 's_18_9': [2151], 's_18_18': [2362], 's_2_23': [1999], 's_2_4': [3777], 's_2_25': [4137], 's_2_2': [1834], 's_11_17': [1761], 's_11_5': [3699], 's_11_11': [4164], 's_21_1': [2015], 's_21_5': [1939], 's_21_9': [1910], 's_21_12': [3759], 's_21_24': [1954], 's_21_27': [1850], 's_21_21': [3909], 's_27_1': [3894], 's_27_22': [2195], 's_27_12': [3923], 's_27_24': [3879], 's_27_25': [3835], 's_27_27': [3834], 's_5_5': [1819], 's_24_17': [4225], 's_24_4': [2419], 's_24_24': [2267], 's_1_3': [2359], 's_1_7': [3927], 's_1_17': [4195], 's_1_22': [2105], 's_1_23': [2361], 's_1_1': [3898], 's_7_4': [3942], 's_7_9': [3987], 's_7_23': [4153, 2511], 's_7_25': [4060], 's_7_7': [2317], 's_17_23': [2106], 's_17_25': [4150], 's_17_17': [1716], 's_3_4': [2404], 's_3_22': [3806], 's_3_23': [2014], 's_3_3': [2314], 's_22_9': [3776, 2149], 's_22_22': [3972], 's_9_9': [1760], 's_25_23': [2031], 's_25_12': [3910], 's_25_25': [2421], 's_23_4': [2450], 's_23_12': [3805], 's_23_23': [2062], 's_12_12': [1805], 's_4_4': [2569]}</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0001314285714285715</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0009297091930670953</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>{0: [2281, 3252], 5: [3190, 3191], 12: [3176, 3177], 15: [3206], 16: [2357, 3281, 3282], 18: [2341, 2342], 20: [3056, 3162, 2220], 21: [2251, 2250], 22: [2296, 3327], 29: [2325, 2326], 1: [2161, 3117, 3116], 23: [2115, 2116], 3: [2191, 3266, 2236], 14: [3207, 3312, 2311], 24: [3101, 3102, 2356], 26: [2071, 2070, 3071], 17: [3311, 2131], 25: [3131, 2176, 2175], 28: [3132, 2206], 2: [2266, 3341, 3342], 11: [2371, 2416, 3267], 19: [3296, 3297], 7: [2310, 3146, 3147], 8: [3161], 9: [2130, 3086], 4: [2146, 3221], 10: [2221, 3251], 30: [3236], 27: [2162, 2177, 3326], 6: [2192], 13: [2101, 2100]}</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.007163044537569436</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.01431456536047219</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>{0: [2281, 3252], 5: [3190, 3191], 12: [3176, 3177], 15: [3206], 16: [2357, 3281, 3282], 18: [2341, 2342], 20: [3056, 3162, 2220], 21: [2251, 2250], 22: [2296, 3327], 29: [2325, 2326], 1: [2161, 3117, 3116], 23: [2115, 2116], 3: [2191, 3266, 2236], 14: [3207, 3312, 2311], 24: [3101, 3102, 2356], 26: [2071, 2070, 3071], 17: [3311, 2131], 25: [3131, 2176, 2175], 28: [3132, 2206], 2: [2266, 3341, 3342], 11: [2371, 2416, 3267], 19: [3296, 3297], 7: [2310, 3146, 3147], 8: [3161], 9: [2130, 3086], 4: [2146, 3221], 10: [2221, 3251], 30: [3236], 27: [2162, 2177, 3326], 6: [2192], 13: [2101, 2100]}</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0.007163044537569436</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.01431456536047219</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>{0: [1335, 1336, 1458, 1457, 3322], 5: [1367, 1202, 3410, 1307, 3411], 's_0_5': [3457], 12: [3111, 3110, 795, 3154, 3155, 1096], 's_0_12': [3096], 15: [3231, 3230, 1068, 1067, 1066], 's_0_15': [1366], 16: [3185, 3306, 3278, 3277, 3276, 1200, 1201], 's_0_16': [1396], 18: [3007, 1442, 1441, 1440], 's_0_18': [3352], 20: [3319, 3363, 3532, 3531, 3530, 3529, 797, 796], 's_0_20': [1443], 21: [3560, 3562, 3561], 's_0_21': [1337], 22: [3246, 1186, 3379, 3380], 's_0_22': [3321], 29: [3126, 3128, 3127, 1293, 1292, 1291], 's_0_29': [3142], 's_0_0': [3472], 1: [3456, 1247, 990, 1246, 3202, 3201, 3200, 3199], 's_5_1': [1172], 's_5_15': [1052], 's_5_21': [1187], 's_5_22': [3351], 23: [1278, 3471, 1322, 1321, 3036, 1320], 's_5_23': [3502], 's_5_5': [1382], 's_12_1': [3125], 3: [3289, 885, 3184, 887, 886], 's_12_3': [3124], 14: [3215, 3140, 1082, 3139, 1081], 's_12_14': [766], 's_12_20': [871], 24: [3079, 1155, 870, 3081, 3080], 's_12_24': [1095], 26: [1230, 2991, 2990, 857, 856, 855, 2989], 's_12_26': [3048], 's_12_29': [1126], 's_12_12': [3078], 's_15_1': [1051], 's_15_14': [1065], 17: [1157, 3426, 962, 932, 3425, 3424], 's_15_17': [3350], 's_15_20': [3515], 's_15_21': [3545], 's_15_22': [3365], 25: [1110, 1113, 1112, 3259, 3260, 1111], 's_15_25': [3590], 28: [1248, 1264, 3665, 3666], 's_15_28': [1053], 's_15_15': [3232], 2: [3049, 3050, 3051, 3052, 1545, 1547, 1546], 's_16_2': [3293], 's_16_3': [3290, 3291], 11: [1576, 1575], 's_16_11': [1561], 's_16_14': [1141], 19: [1395, 916, 915, 3006, 3005, 3004], 's_16_19': [3020], 's_16_22': [1171], 's_16_23': [3035], 's_16_24': [1140], 's_16_29': [1170], 's_16_16': [1637], 's_18_1': [1456], 's_18_2': [3397], 7: [1411, 3172, 3171, 1218, 1217, 1216], 's_18_7': [3307], 's_18_19': [2992], 's_18_18': [2917], 's_20_3': [3288, 752], 's_20_7': [1203], 8: [888, 3544], 's_20_8': [873], 9: [3484, 3485, 3486], 's_20_9': [768], 's_20_25': [811], 's_20_26': [858], 's_20_29': [3517], 's_20_20': [3243], 's_21_2': [1531, 1532], 's_21_28': [1233], 's_21_21': [1428], 's_22_3': [917], 4: [1035, 1038, 1037, 1036], 's_22_4': [1022], 10: [2945, 2946, 1276, 1275], 's_22_10': [3261], 30: [3229, 3680, 991, 993, 992], 's_22_30': [1006], 's_22_22': [3247], 's_29_1': [3441], 's_29_11': [3143], 's_29_24': [1215], 's_29_29': [1471], 's_1_4': [3095], 's_1_10': [3156], 's_1_11': [3187], 's_1_23': [3381], 's_1_24': [975], 27: [3214, 930, 931], 's_1_27': [1021], 's_1_28': [1261, 1262, 1263, 3576], 's_1_30': [3455], 's_1_1': [3203], 's_23_10': [3186], 's_23_9': [3487], 's_23_17': [3516], 's_23_19': [1290], 's_23_24': [1305], 's_23_26': [1245], 's_23_23': [3396], 's_3_4': [3409], 's_3_30': [3364], 's_3_2': [960], 6: [3169, 780], 's_3_6': [3183], 13: [945, 948, 947, 946], 's_3_13': [3394], 's_3_17': [3274], 's_3_3': [3334], 's_14_24': [1050], 's_14_6': [751], 's_14_17': [3320], 's_14_7': [3170], 's_14_19': [901], 's_14_14': [3138], 's_24_13': [3109], 's_24_25': [3065], 's_24_24': [2974], 's_26_10': [1125], 's_26_2': [900], 's_26_9': [842], 's_26_13': [3439], 's_26_25': [841], 's_26_26': [3393], 's_17_27': [961], 's_17_30': [3305], 's_17_8': [1007], 's_17_9': [933], 's_17_17': [3470], 's_25_27': [976], 's_25_13': [3244], 's_25_7': [3575], 's_25_25': [2961], 's_28_4': [1023], 's_28_30': [934], 's_28_28': [3711], 's_2_4': [1020], 's_2_11': [3098], 's_2_27': [3034], 's_2_2': [1470], 's_11_11': [3113], 's_19_10': [2944], 's_19_27': [2929], 's_19_6': [3063, 3064], 's_19_19': [2959], 's_7_9': [3501], 's_7_7': [1412], 's_8_4': [3574], 's_8_13': [3619], 's_8_8': [3649], 's_9_9': [1232], 's_4_27': [2975], 's_4_30': [3245], 's_4_4': [3019], 's_10_13': [2960], 's_10_10': [2931], 's_30_30': [1008], 's_27_27': [3213], 's_6_6': [3093], 's_13_13': [3604]}</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0001445086705202312</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0009024563581500574</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>{0: [1335, 1336, 1458, 1457, 3322], 5: [1367, 1202, 3410, 1307, 3411], 's_0_5': [3457], 12: [3111, 3110, 795, 3154, 3155, 1096], 's_0_12': [3096], 15: [3231, 3230, 1068, 1067, 1066], 's_0_15': [1366], 16: [3185, 3306, 3278, 3277, 3276, 1200, 1201], 's_0_16': [1396], 18: [3007, 1442, 1441, 1440], 's_0_18': [3352], 20: [3319, 3363, 3532, 3531, 3530, 3529, 797, 796], 's_0_20': [1443], 21: [3560, 3562, 3561], 's_0_21': [1337], 22: [3246, 1186, 3379, 3380], 's_0_22': [3321], 29: [3126, 3128, 3127, 1293, 1292, 1291], 's_0_29': [3142], 's_0_0': [3472], 1: [3456, 1247, 990, 1246, 3202, 3201, 3200, 3199], 's_5_1': [1172], 's_5_15': [1052], 's_5_21': [1187], 's_5_22': [3351], 23: [1278, 3471, 1322, 1321, 3036, 1320], 's_5_23': [3502], 's_5_5': [1382], 's_12_1': [3125], 3: [3289, 885, 3184, 887, 886], 's_12_3': [3124], 14: [3215, 3140, 1082, 3139, 1081], 's_12_14': [766], 's_12_20': [871], 24: [3079, 1155, 870, 3081, 3080], 's_12_24': [1095], 26: [1230, 2991, 2990, 857, 856, 855, 2989], 's_12_26': [3048], 's_12_29': [1126], 's_12_12': [3078], 's_15_1': [1051], 's_15_14': [1065], 17: [1157, 3426, 962, 932, 3425, 3424], 's_15_17': [3350], 's_15_20': [3515], 's_15_21': [3545], 's_15_22': [3365], 25: [1110, 1113, 1112, 3259, 3260, 1111], 's_15_25': [3590], 28: [1248, 1264, 3665, 3666], 's_15_28': [1053], 's_15_15': [3232], 2: [3049, 3050, 3051, 3052, 1545, 1547, 1546], 's_16_2': [3293], 's_16_3': [3290, 3291], 11: [1576, 1575], 's_16_11': [1561], 's_16_14': [1141], 19: [1395, 916, 915, 3006, 3005, 3004], 's_16_19': [3020], 's_16_22': [1171], 's_16_23': [3035], 's_16_24': [1140], 's_16_29': [1170], 's_16_16': [1637], 's_18_1': [1456], 's_18_2': [3397], 7: [1411, 3172, 3171, 1218, 1217, 1216], 's_18_7': [3307], 's_18_19': [2992], 's_18_18': [2917], 's_20_3': [3288, 752], 's_20_7': [1203], 8: [888, 3544], 's_20_8': [873], 9: [3484, 3485, 3486], 's_20_9': [768], 's_20_25': [811], 's_20_26': [858], 's_20_29': [3517], 's_20_20': [3243], 's_21_2': [1531, 1532], 's_21_28': [1233], 's_21_21': [1428], 's_22_3': [917], 4: [1035, 1038, 1037, 1036], 's_22_4': [1022], 10: [2945, 2946, 1276, 1275], 's_22_10': [3261], 30: [3229, 3680, 991, 993, 992], 's_22_30': [1006], 's_22_22': [3247], 's_29_1': [3441], 's_29_11': [3143], 's_29_24': [1215], 's_29_29': [1471], 's_1_4': [3095], 's_1_10': [3156], 's_1_11': [3187], 's_1_23': [3381], 's_1_24': [975], 27: [3214, 930, 931], 's_1_27': [1021], 's_1_28': [1261, 1262, 1263, 3576], 's_1_30': [3455], 's_1_1': [3203], 's_23_10': [3186], 's_23_9': [3487], 's_23_17': [3516], 's_23_19': [1290], 's_23_24': [1305], 's_23_26': [1245], 's_23_23': [3396], 's_3_4': [3409], 's_3_30': [3364], 's_3_2': [960], 6: [3169, 780], 's_3_6': [3183], 13: [945, 948, 947, 946], 's_3_13': [3394], 's_3_17': [3274], 's_3_3': [3334], 's_14_24': [1050], 's_14_6': [751], 's_14_17': [3320], 's_14_7': [3170], 's_14_19': [901], 's_14_14': [3138], 's_24_13': [3109], 's_24_25': [3065], 's_24_24': [2974], 's_26_10': [1125], 's_26_2': [900], 's_26_9': [842], 's_26_13': [3439], 's_26_25': [841], 's_26_26': [3393], 's_17_27': [961], 's_17_30': [3305], 's_17_8': [1007], 's_17_9': [933], 's_17_17': [3470], 's_25_27': [976], 's_25_13': [3244], 's_25_7': [3575], 's_25_25': [2961], 's_28_4': [1023], 's_28_30': [934], 's_28_28': [3711], 's_2_4': [1020], 's_2_11': [3098], 's_2_27': [3034], 's_2_2': [1470], 's_11_11': [3113], 's_19_10': [2944], 's_19_27': [2929], 's_19_6': [3063, 3064], 's_19_19': [2959], 's_7_9': [3501], 's_7_7': [1412], 's_8_4': [3574], 's_8_13': [3619], 's_8_8': [3649], 's_9_9': [1232], 's_4_27': [2975], 's_4_30': [3245], 's_4_4': [3019], 's_10_13': [2960], 's_10_10': [2931], 's_30_30': [1008], 's_27_27': [3213], 's_6_6': [3093], 's_13_13': [3604]}</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0001445086705202312</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.0009024563581500574</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>{0: [4558, 2438], 2: [2603, 4453, 2602], 7: [2588, 2587], 9: [2407, 4603, 2408], 17: [2544, 4542, 4543], 21: [2498, 4423], 24: [4482, 2423], 27: [4588], 4: [4467, 2573, 4468], 11: [2542, 2543], 12: [4362, 4363], 13: [2468, 4333, 2467], 18: [2557, 4318], 20: [4527, 4528], 23: [2617], 30: [4512, 4513], 3: [2632, 4303, 4302], 8: [4317], 10: [4437, 2513, 4438], 14: [2453, 2452], 16: [4394, 4393, 2422], 22: [2379, 4408, 2378], 1: [4452, 2333], 25: [4332, 2318, 2317], 5: [2558, 4498], 19: [4422], 26: [4573, 4572], 6: [2347, 2348], 29: [2482, 2483], 31: [2528], 15: [2364, 4497, 2363], 28: [4378, 2437]}</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.008495145631067961</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.01435086713193104</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>{0: [4558, 2438], 2: [2603, 4453, 2602], 7: [2588, 2587], 9: [2407, 4603, 2408], 17: [2544, 4542, 4543], 21: [2498, 4423], 24: [4482, 2423], 27: [4588], 4: [4467, 2573, 4468], 11: [2542, 2543], 12: [4362, 4363], 13: [2468, 4333, 2467], 18: [2557, 4318], 20: [4527, 4528], 23: [2617], 30: [4512, 4513], 3: [2632, 4303, 4302], 8: [4317], 10: [4437, 2513, 4438], 14: [2453, 2452], 16: [4394, 4393, 2422], 22: [2379, 4408, 2378], 1: [4452, 2333], 25: [4332, 2318, 2317], 5: [2558, 4498], 19: [4422], 26: [4573, 4572], 6: [2347, 2348], 29: [2482, 2483], 31: [2528], 15: [2364, 4497, 2363], 28: [4378, 2437]}</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0.008495145631067961</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.01435086713193104</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>{0: [1498, 1497, 1496, 1301, 4927, 4928], 2: [1199, 1196, 1197, 5423, 5422, 5421, 1198], 's_0_2': [5046], 7: [5407, 5408, 1782, 1783, 5409], 's_0_7': [1781, 4929, 1780], 9: [5274, 5270, 5273, 5272, 5271], 's_0_9': [1587, 5138], 17: [1842, 1467, 5214, 5212, 5213], 's_0_17': [1466], 21: [1409, 1150, 5016, 5015, 5512, 5511, 1153, 1152, 1151], 's_0_21': [4926], 24: [5318, 1648, 1647, 5061, 5062, 4943, 1646, 5063], 's_0_24': [1615], 27: [1360, 5107, 1361], 's_0_27': [1525, 4897], 's_0_0': [1300], 4: [1798, 5454, 5453, 5525, 5526, 1363, 5452], 's_2_4': [5540], 11: [5482, 1378, 1722, 1723, 1724, 5679, 5678, 5677, 1379], 's_2_11': [5481], 12: [1244, 1109, 5570, 5571, 1394, 1392, 1393], 's_2_12': [5646], 13: [5166, 1334, 5497, 1331, 1332, 1333], 's_2_13': [5616], 18: [1693, 1694], 's_2_18': [5603, 5601, 5602], 20: [5075, 5364, 5363, 5076, 5077, 5078, 1662, 1663], 's_2_20': [5091], 's_2_21': [5195], 23: [5555, 1229], 's_2_23': [1184], 30: [5543, 5573, 5288, 5498, 1632, 1633, 1634], 's_2_30': [1528], 's_2_2': [5720], 3: [5198, 1709, 1708, 1706, 1707], 's_7_3': [5199], 's_7_4': [1888, 5394], 's_7_12': [5406, 1243], 's_7_20': [1813], 's_7_7': [5169], 8: [1242, 5181, 1556, 5182], 's_9_8': [5256], 10: [1767, 1768, 5375, 5376, 5377, 5378], 's_9_10': [1227, 1228, 5390], 's_9_12': [1108], 14: [5136, 1272, 5317, 5316, 1273], 's_9_14': [1138, 5405], 16: [5348, 5347, 5586, 5587, 1482, 1483, 1484], 's_9_16': [1678], 22: [4986, 5121, 5122, 1454, 1453, 1391, 1452], 's_9_22': [5257], 's_9_9': [1032], 1: [1318, 5183, 1617, 5302, 5303], 's_17_1': [5184], 's_17_11': [5244], 's_17_22': [5152], 25: [1752, 5229, 5227, 5228], 's_17_25': [1887], 's_17_27': [5092], 's_17_17': [1902], 5: [1826, 1827, 1828, 1829, 1769, 5499, 5513, 5514, 1664], 's_21_5': [5019, 5017, 5018], 's_21_10': [1183], 's_21_11': [1469], 's_21_16': [1289], 19: [4972, 1407, 1406], 's_21_19': [4971], 's_21_22': [4985], 26: [5226, 1316, 1317], 's_21_26': [5225], 's_21_21': [1076], 's_24_1': [1691], 6: [5258, 4988, 1603, 1602, 1601], 's_24_6': [1676], 's_24_14': [1181], 's_24_16': [1557], 's_24_20': [1211], 's_24_26': [4942], 's_24_27': [1376], 's_24_24': [5064], 's_27_13': [1346], 29: [5197, 1347, 1586, 5002, 5287, 1422, 1421], 's_27_29': [5047], 's_27_27': [4836], 's_4_6': [1618], 's_4_3': [5484], 's_4_12': [1094], 's_4_13': [5451, 1304], 's_4_20': [5334], 's_4_22': [5437], 's_4_23': [1079], 31: [1513, 1288, 5391, 5392], 's_4_31': [1558], 's_4_4': [5455], 's_11_16': [5617, 1514], 's_11_5': [5634], 's_11_12': [1364], 's_11_13': [5721], 's_11_18': [5723], 's_11_20': [5319], 's_11_22': [5467], 's_11_30': [1738], 's_11_31': [1423], 's_11_11': [1739], 15: [1362, 5211, 1257, 1258, 1259, 5556, 5557, 5558], 's_12_15': [1274], 's_12_29': [5137], 's_12_12': [5465], 's_13_15': [5541], 's_13_16': [1349], 's_13_14': [5241], 's_13_22': [1330], 's_13_30': [1424, 5572], 's_13_13': [5647], 's_18_3': [5649], 's_18_5': [5664], 's_18_18': [5633], 's_20_6': [1661], 's_20_14': [1166], 's_20_22': [1241], 's_20_20': [1872], 's_23_16': [1214], 's_23_23': [1169], 's_30_25': [1542], 's_30_29': [5108], 's_30_5': [5544], 's_30_10': [5289], 's_30_31': [5468], 's_30_30': [1631], 's_3_6': [5243], 's_3_16': [5588], 's_3_25': [5154], 's_3_29': [5093], 's_3_3': [5124], 's_8_16': [5123], 28: [4958, 1573, 1572, 4959, 1571], 's_8_28': [1511, 1510], 's_8_29': [1555], 's_8_14': [5151], 's_8_8': [1541], 's_10_6': [5393], 's_10_28': [5168, 5167], 's_10_5': [5259], 's_10_10': [5379], 's_14_22': [5332], 's_14_26': [1287], 's_14_14': [1123, 1122], 's_16_1': [5346], 's_16_5': [1499], 's_16_25': [1737], 's_16_28': [1481], 's_16_16': [5585, 1034], 's_22_15': [1256], 's_22_29': [1451, 4987], 's_22_26': [4957], 's_22_31': [5542], 's_22_22': [1390], 's_1_6': [1616], 's_1_15': [1319], 's_1_19': [1436, 1437], 's_1_25': [5304], 's_1_28': [5153], 's_1_29': [1303], 's_1_1': [1736], 's_25_6': [1751], 's_25_15': [1753, 1754], 's_25_26': [1377, 5196], 's_25_25': [1797], 's_5_15': [1619], 's_5_28': [4973, 4974], 's_5_31': [5527, 5528], 's_5_5': [5619], 's_19_15': [5242], 's_19_19': [1405], 's_26_15': [1302], 's_26_29': [5032, 5031], 's_26_26': [1212], 's_6_6': [1720], 's_29_15': [5286], 's_29_29': [5003], 's_31_28': [5362, 5361], 's_31_31': [5301], 's_15_15': [5331], 's_28_28': [1690]}</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.00025</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.001138505885875832</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>{0: [1498, 1497, 1496, 1301, 4927, 4928], 2: [1199, 1196, 1197, 5423, 5422, 5421, 1198], 's_0_2': [5046], 7: [5407, 5408, 1782, 1783, 5409], 's_0_7': [1781, 4929, 1780], 9: [5274, 5270, 5273, 5272, 5271], 's_0_9': [1587, 5138], 17: [1842, 1467, 5214, 5212, 5213], 's_0_17': [1466], 21: [1409, 1150, 5016, 5015, 5512, 5511, 1153, 1152, 1151], 's_0_21': [4926], 24: [5318, 1648, 1647, 5061, 5062, 4943, 1646, 5063], 's_0_24': [1615], 27: [1360, 5107, 1361], 's_0_27': [1525, 4897], 's_0_0': [1300], 4: [1798, 5454, 5453, 5525, 5526, 1363, 5452], 's_2_4': [5540], 11: [5482, 1378, 1722, 1723, 1724, 5679, 5678, 5677, 1379], 's_2_11': [5481], 12: [1244, 1109, 5570, 5571, 1394, 1392, 1393], 's_2_12': [5646], 13: [5166, 1334, 5497, 1331, 1332, 1333], 's_2_13': [5616], 18: [1693, 1694], 's_2_18': [5603, 5601, 5602], 20: [5075, 5364, 5363, 5076, 5077, 5078, 1662, 1663], 's_2_20': [5091], 's_2_21': [5195], 23: [5555, 1229], 's_2_23': [1184], 30: [5543, 5573, 5288, 5498, 1632, 1633, 1634], 's_2_30': [1528], 's_2_2': [5720], 3: [5198, 1709, 1708, 1706, 1707], 's_7_3': [5199], 's_7_4': [1888, 5394], 's_7_12': [5406, 1243], 's_7_20': [1813], 's_7_7': [5169], 8: [1242, 5181, 1556, 5182], 's_9_8': [5256], 10: [1767, 1768, 5375, 5376, 5377, 5378], 's_9_10': [1227, 1228, 5390], 's_9_12': [1108], 14: [5136, 1272, 5317, 5316, 1273], 's_9_14': [1138, 5405], 16: [5348, 5347, 5586, 5587, 1482, 1483, 1484], 's_9_16': [1678], 22: [4986, 5121, 5122, 1454, 1453, 1391, 1452], 's_9_22': [5257], 's_9_9': [1032], 1: [1318, 5183, 1617, 5302, 5303], 's_17_1': [5184], 's_17_11': [5244], 's_17_22': [5152], 25: [1752, 5229, 5227, 5228], 's_17_25': [1887], 's_17_27': [5092], 's_17_17': [1902], 5: [1826, 1827, 1828, 1829, 1769, 5499, 5513, 5514, 1664], 's_21_5': [5019, 5017, 5018], 's_21_10': [1183], 's_21_11': [1469], 's_21_16': [1289], 19: [4972, 1407, 1406], 's_21_19': [4971], 's_21_22': [4985], 26: [5226, 1316, 1317], 's_21_26': [5225], 's_21_21': [1076], 's_24_1': [1691], 6: [5258, 4988, 1603, 1602, 1601], 's_24_6': [1676], 's_24_14': [1181], 's_24_16': [1557], 's_24_20': [1211], 's_24_26': [4942], 's_24_27': [1376], 's_24_24': [5064], 's_27_13': [1346], 29: [5197, 1347, 1586, 5002, 5287, 1422, 1421], 's_27_29': [5047], 's_27_27': [4836], 's_4_6': [1618], 's_4_3': [5484], 's_4_12': [1094], 's_4_13': [5451, 1304], 's_4_20': [5334], 's_4_22': [5437], 's_4_23': [1079], 31: [1513, 1288, 5391, 5392], 's_4_31': [1558], 's_4_4': [5455], 's_11_16': [5617, 1514], 's_11_5': [5634], 's_11_12': [1364], 's_11_13': [5721], 's_11_18': [5723], 's_11_20': [5319], 's_11_22': [5467], 's_11_30': [1738], 's_11_31': [1423], 's_11_11': [1739], 15: [1362, 5211, 1257, 1258, 1259, 5556, 5557, 5558], 's_12_15': [1274], 's_12_29': [5137], 's_12_12': [5465], 's_13_15': [5541], 's_13_16': [1349], 's_13_14': [5241], 's_13_22': [1330], 's_13_30': [1424, 5572], 's_13_13': [5647], 's_18_3': [5649], 's_18_5': [5664], 's_18_18': [5633], 's_20_6': [1661], 's_20_14': [1166], 's_20_22': [1241], 's_20_20': [1872], 's_23_16': [1214], 's_23_23': [1169], 's_30_25': [1542], 's_30_29': [5108], 's_30_5': [5544], 's_30_10': [5289], 's_30_31': [5468], 's_30_30': [1631], 's_3_6': [5243], 's_3_16': [5588], 's_3_25': [5154], 's_3_29': [5093], 's_3_3': [5124], 's_8_16': [5123], 28: [4958, 1573, 1572, 4959, 1571], 's_8_28': [1511, 1510], 's_8_29': [1555], 's_8_14': [5151], 's_8_8': [1541], 's_10_6': [5393], 's_10_28': [5168, 5167], 's_10_5': [5259], 's_10_10': [5379], 's_14_22': [5332], 's_14_26': [1287], 's_14_14': [1123, 1122], 's_16_1': [5346], 's_16_5': [1499], 's_16_25': [1737], 's_16_28': [1481], 's_16_16': [5585, 1034], 's_22_15': [1256], 's_22_29': [1451, 4987], 's_22_26': [4957], 's_22_31': [5542], 's_22_22': [1390], 's_1_6': [1616], 's_1_15': [1319], 's_1_19': [1436, 1437], 's_1_25': [5304], 's_1_28': [5153], 's_1_29': [1303], 's_1_1': [1736], 's_25_6': [1751], 's_25_15': [1753, 1754], 's_25_26': [1377, 5196], 's_25_25': [1797], 's_5_15': [1619], 's_5_28': [4973, 4974], 's_5_31': [5527, 5528], 's_5_5': [5619], 's_19_15': [5242], 's_19_19': [1405], 's_26_15': [1302], 's_26_29': [5032, 5031], 's_26_26': [1212], 's_6_6': [1720], 's_29_15': [5286], 's_29_29': [5003], 's_31_28': [5362, 5361], 's_31_31': [5301], 's_15_15': [5331], 's_28_28': [1690]}</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0.00025</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.001138505885875832</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>{0: [1282], 6: [4251, 1102, 4250], 18: [1146, 4266, 4265], 19: [4341, 4340], 21: [1267, 4386, 1268], 24: [4401, 1237, 4281], 2: [4191, 4252, 1326], 3: [4280], 5: [4296, 4295], 15: [4236], 22: [996, 4175, 1087], 26: [4355, 1161, 1162], 28: [1206, 1208, 1207], 30: [1253, 4326, 1252], 8: [1371, 1372, 4446, 4445], 13: [4432, 1132, 1133, 4431], 17: [4416, 1147], 23: [4176, 1192, 1191], 7: [1297, 4206, 4207], 9: [4460, 1012, 4459], 11: [1327, 4461], 25: [4385, 997], 27: [4237, 1313, 1312], 12: [4521, 1283], 14: [1251, 4221], 32: [1057, 4371, 4370], 1: [1177], 29: [1222, 1223], 31: [4310], 4: [1117, 1118], 10: [1298, 4356], 20: [1072, 4325], 16: [4116]}</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.01029061950563657</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.01657977621429485</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>{0: [1282], 6: [4251, 1102, 4250], 18: [1146, 4266, 4265], 19: [4341, 4340], 21: [1267, 4386, 1268], 24: [4401, 1237, 4281], 2: [4191, 4252, 1326], 3: [4280], 5: [4296, 4295], 15: [4236], 22: [996, 4175, 1087], 26: [4355, 1161, 1162], 28: [1206, 1208, 1207], 30: [1253, 4326, 1252], 8: [1371, 1372, 4446, 4445], 13: [4432, 1132, 1133, 4431], 17: [4416, 1147], 23: [4176, 1192, 1191], 7: [1297, 4206, 4207], 9: [4460, 1012, 4459], 11: [1327, 4461], 25: [4385, 997], 27: [4237, 1313, 1312], 12: [4521, 1283], 14: [1251, 4221], 32: [1057, 4371, 4370], 1: [1177], 29: [1222, 1223], 31: [4310], 4: [1117, 1118], 10: [1298, 4356], 20: [1072, 4325], 16: [4116]}</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0.01029061950563657</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.01657977621429485</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>{0: [1654, 3819, 1759, 3773], 6: [3832, 3833, 1657, 1656, 1655], 's_0_6': [1504, 3772], 18: [1850, 4045, 4163, 4164, 1851], 's_0_18': [3834], 19: [1684, 1491, 4028, 1610, 1609, 3788], 's_0_19': [3728], 21: [4207, 1624, 1625, 1626, 1627, 4208], 's_0_21': [3743], 24: [1670, 3910, 1820, 3908, 3909, 1925], 's_0_24': [1669], 's_0_0': [3699], 2: [3967, 3968], 's_6_2': [1445], 3: [3969, 1760, 3937, 3938], 's_6_3': [3953], 5: [2121, 4090, 1776, 4088, 4089], 's_6_5': [4209], 15: [3805, 4103, 1730, 3804, 1729], 's_6_15': [3864], 's_6_19': [4013], 's_6_21': [3923], 22: [4343, 1567, 1566, 3907, 1565], 's_6_22': [4193], 26: [4060, 1791, 4057, 4058, 4059], 's_6_26': [1520, 1519], 28: [1535, 1536, 4180, 4179, 4178], 's_6_28': [1534], 30: [4042, 4043, 4044, 3745, 3744, 1774, 1775], 's_6_30': [3879], 's_6_6': [1429], 8: [1881, 4238, 2061, 4239, 4240, 4241], 's_18_8': [1852], 13: [1864, 1865, 1866, 1867, 4359, 4358], 's_18_13': [3865], 17: [4375, 1957, 1956, 1955, 3730, 1954], 's_18_17': [3895], 's_18_21': [1596], 's_18_22': [4148], 23: [1940, 4299, 4312, 4313, 1942, 1941, 4314], 's_18_23': [3880], 's_18_26': [1836], 's_18_18': [1986], 7: [1717, 1714, 4029, 1716, 1715], 's_19_7': [3758], 9: [4120, 2001, 3849, 3850, 2000], 's_19_9': [3848], 11: [4117, 4118, 1612, 1611], 's_19_11': [4132], 's_19_22': [1564], 's_19_24': [3818], 25: [1477, 1475, 1476], 's_19_25': [3863], 27: [1686, 3997, 1685, 3998], 's_19_27': [1595], 's_19_19': [1608], 's_21_11': [4133], 12: [1863, 3715, 3713, 3714], 's_21_12': [1639], 14: [4311, 4222, 1296, 1297, 4296], 's_21_14': [1371], 's_21_15': [3803], 's_21_25': [3893], 's_21_26': [1401], 's_21_28': [1642], 32: [4282, 4283, 2031, 2032, 4345, 1927, 4284], 's_21_32': [1551], 's_21_21': [1628], 1: [3970, 4000, 1911, 1910], 's_24_1': [2015], 's_24_2': [1640], 's_24_3': [1805], 's_24_7': [3894], 's_24_15': [2059], 's_24_23': [3924], 29: [1969, 2091, 2090, 2089, 3760], 's_24_29': [2074], 's_24_30': [1924], 's_24_24': [1909], 's_2_27': [1385], 's_2_28': [1550], 's_2_2': [1430], 's_3_13': [3939], 's_3_22': [1415], 's_3_3': [3936], 's_5_1': [4119], 's_5_13': [4104], 's_5_23': [4300, 2122], 's_5_28': [4087], 's_5_29': [4166], 's_5_30': [1641], 31: [2060, 4031], 's_5_31': [2120], 's_5_32': [2016], 's_5_5': [4196], 's_15_27': [3999], 's_15_13': [3789], 4: [4150, 4149, 1761, 4403, 4404, 1762], 's_15_4': [1746], 's_15_29': [3790], 's_15_30': [1999], 's_15_15': [3806], 's_22_23': [4297], 's_22_4': [4388], 's_22_25': [3922], 's_22_22': [1568], 10: [1822, 4225, 4224], 's_26_10': [4194], 's_26_13': [1880], 's_26_4': [1792], 's_26_7': [1671], 's_26_14': [1431], 20: [4015, 3982, 3983, 3984, 1895, 3985], 's_26_20': [1505], 's_26_26': [1325], 's_28_17': [4195], 's_28_23': [1837], 's_28_7': [4344, 1807], 's_28_13': [1537], 's_28_32': [4267], 's_28_28': [2017], 's_30_17': [2119], 's_30_27': [1355], 's_30_29': [2088], 's_30_12': [1878], 's_30_14': [1311], 's_30_20': [1790], 's_30_30': [1773], 's_8_1': [4269], 's_8_4': [1597], 's_8_7': [1731], 's_8_9': [2076], 's_8_10': [1672], 's_8_11': [1506], 16: [4253, 4252], 's_8_16': [4237], 's_8_17': [4270], 's_8_29': [4256], 's_8_8': [2182], 's_13_10': [1823], 's_13_23': [1777], 's_13_4': [1702], 's_13_7': [4014], 's_13_11': [4373], 's_13_12': [3774, 1819], 's_13_20': [3954, 1835], 's_13_32': [1582], 's_13_13': [4464], 's_17_1': [4165], 's_17_4': [4405], 's_17_9': [2104, 3851], 's_17_12': [2014, 3716], 's_17_23': [4390], 's_17_32': [4315], 's_17_17': [1958], 's_23_1': [1912], 's_23_7': [1806, 4134], 's_23_14': [1462], 's_23_23': [4255], 's_7_10': [1821], 's_7_27': [4074], 's_7_4': [1732], 's_7_7': [4448], 's_9_29': [3940], 's_9_20': [1894], 's_9_9': [1985], 's_11_27': [1446], 's_11_32': [1701], 's_11_11': [1461], 's_25_32': [1492], 's_25_20': [1490], 's_25_25': [4192], 's_27_10': [4254], 's_27_27': [3996], 's_12_12': [3712], 's_14_16': [1447], 's_14_14': [1327], 's_32_10': [1987], 's_32_31': [4061], 's_32_20': [2030], 's_32_32': [2033], 's_1_10': [4210], 's_1_31': [4030], 's_1_1': [4001], 's_29_31': [4076], 's_29_29': [3700], 's_31_20': [2045], 's_31_31': [2166], 's_4_4': [1808], 's_10_10': [4329], 's_20_20': [3981], 's_16_16': [4251]}</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>8.333333333333333e-05</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0006535161308899217</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>{0: [1654, 3819, 1759, 3773], 6: [3832, 3833, 1657, 1656, 1655], 's_0_6': [1504, 3772], 18: [1850, 4045, 4163, 4164, 1851], 's_0_18': [3834], 19: [1684, 1491, 4028, 1610, 1609, 3788], 's_0_19': [3728], 21: [4207, 1624, 1625, 1626, 1627, 4208], 's_0_21': [3743], 24: [1670, 3910, 1820, 3908, 3909, 1925], 's_0_24': [1669], 's_0_0': [3699], 2: [3967, 3968], 's_6_2': [1445], 3: [3969, 1760, 3937, 3938], 's_6_3': [3953], 5: [2121, 4090, 1776, 4088, 4089], 's_6_5': [4209], 15: [3805, 4103, 1730, 3804, 1729], 's_6_15': [3864], 's_6_19': [4013], 's_6_21': [3923], 22: [4343, 1567, 1566, 3907, 1565], 's_6_22': [4193], 26: [4060, 1791, 4057, 4058, 4059], 's_6_26': [1520, 1519], 28: [1535, 1536, 4180, 4179, 4178], 's_6_28': [1534], 30: [4042, 4043, 4044, 3745, 3744, 1774, 1775], 's_6_30': [3879], 's_6_6': [1429], 8: [1881, 4238, 2061, 4239, 4240, 4241], 's_18_8': [1852], 13: [1864, 1865, 1866, 1867, 4359, 4358], 's_18_13': [3865], 17: [4375, 1957, 1956, 1955, 3730, 1954], 's_18_17': [3895], 's_18_21': [1596], 's_18_22': [4148], 23: [1940, 4299, 4312, 4313, 1942, 1941, 4314], 's_18_23': [3880], 's_18_26': [1836], 's_18_18': [1986], 7: [1717, 1714, 4029, 1716, 1715], 's_19_7': [3758], 9: [4120, 2001, 3849, 3850, 2000], 's_19_9': [3848], 11: [4117, 4118, 1612, 1611], 's_19_11': [4132], 's_19_22': [1564], 's_19_24': [3818], 25: [1477, 1475, 1476], 's_19_25': [3863], 27: [1686, 3997, 1685, 3998], 's_19_27': [1595], 's_19_19': [1608], 's_21_11': [4133], 12: [1863, 3715, 3713, 3714], 's_21_12': [1639], 14: [4311, 4222, 1296, 1297, 4296], 's_21_14': [1371], 's_21_15': [3803], 's_21_25': [3893], 's_21_26': [1401], 's_21_28': [1642], 32: [4282, 4283, 2031, 2032, 4345, 1927, 4284], 's_21_32': [1551], 's_21_21': [1628], 1: [3970, 4000, 1911, 1910], 's_24_1': [2015], 's_24_2': [1640], 's_24_3': [1805], 's_24_7': [3894], 's_24_15': [2059], 's_24_23': [3924], 29: [1969, 2091, 2090, 2089, 3760], 's_24_29': [2074], 's_24_30': [1924], 's_24_24': [1909], 's_2_27': [1385], 's_2_28': [1550], 's_2_2': [1430], 's_3_13': [3939], 's_3_22': [1415], 's_3_3': [3936], 's_5_1': [4119], 's_5_13': [4104], 's_5_23': [4300, 2122], 's_5_28': [4087], 's_5_29': [4166], 's_5_30': [1641], 31: [2060, 4031], 's_5_31': [2120], 's_5_32': [2016], 's_5_5': [4196], 's_15_27': [3999], 's_15_13': [3789], 4: [4150, 4149, 1761, 4403, 4404, 1762], 's_15_4': [1746], 's_15_29': [3790], 's_15_30': [1999], 's_15_15': [3806], 's_22_23': [4297], 's_22_4': [4388], 's_22_25': [3922], 's_22_22': [1568], 10: [1822, 4225, 4224], 's_26_10': [4194], 's_26_13': [1880], 's_26_4': [1792], 's_26_7': [1671], 's_26_14': [1431], 20: [4015, 3982, 3983, 3984, 1895, 3985], 's_26_20': [1505], 's_26_26': [1325], 's_28_17': [4195], 's_28_23': [1837], 's_28_7': [4344, 1807], 's_28_13': [1537], 's_28_32': [4267], 's_28_28': [2017], 's_30_17': [2119], 's_30_27': [1355], 's_30_29': [2088], 's_30_12': [1878], 's_30_14': [1311], 's_30_20': [1790], 's_30_30': [1773], 's_8_1': [4269], 's_8_4': [1597], 's_8_7': [1731], 's_8_9': [2076], 's_8_10': [1672], 's_8_11': [1506], 16: [4253, 4252], 's_8_16': [4237], 's_8_17': [4270], 's_8_29': [4256], 's_8_8': [2182], 's_13_10': [1823], 's_13_23': [1777], 's_13_4': [1702], 's_13_7': [4014], 's_13_11': [4373], 's_13_12': [3774, 1819], 's_13_20': [3954, 1835], 's_13_32': [1582], 's_13_13': [4464], 's_17_1': [4165], 's_17_4': [4405], 's_17_9': [2104, 3851], 's_17_12': [2014, 3716], 's_17_23': [4390], 's_17_32': [4315], 's_17_17': [1958], 's_23_1': [1912], 's_23_7': [1806, 4134], 's_23_14': [1462], 's_23_23': [4255], 's_7_10': [1821], 's_7_27': [4074], 's_7_4': [1732], 's_7_7': [4448], 's_9_29': [3940], 's_9_20': [1894], 's_9_9': [1985], 's_11_27': [1446], 's_11_32': [1701], 's_11_11': [1461], 's_25_32': [1492], 's_25_20': [1490], 's_25_25': [4192], 's_27_10': [4254], 's_27_27': [3996], 's_12_12': [3712], 's_14_16': [1447], 's_14_14': [1327], 's_32_10': [1987], 's_32_31': [4061], 's_32_20': [2030], 's_32_32': [2033], 's_1_10': [4210], 's_1_31': [4030], 's_1_1': [4001], 's_29_31': [4076], 's_29_29': [3700], 's_31_20': [2045], 's_31_31': [2166], 's_4_4': [1808], 's_10_10': [4329], 's_20_20': [3981], 's_16_16': [4251]}</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>8.333333333333333e-05</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.0006535161308899217</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>{0: [259, 3916, 3915], 2: [3960, 200], 7: [3870, 3872, 3871], 9: [215, 3901, 3900], 12: [319, 320], 15: [3931, 350], 18: [3855, 3856], 28: [3780, 379, 3781], 30: [410, 3811], 31: [381, 4021, 305], 33: [3887, 109, 3886, 3885], 22: [140, 139], 23: [3946, 3945], 25: [3930], 29: [169, 170], 3: [364, 365], 6: [335, 334], 8: [439, 440], 13: [154, 155, 3990, 3991], 17: [3841, 380], 26: [274, 3765], 27: [3735, 184, 3840, 185], 4: [94, 3825], 10: [500], 1: [3751, 289, 3750], 16: [108, 3706, 3705], 5: [3975, 290, 3976], 19: [3766, 349], 24: [396, 4006], 20: [304, 395, 3826], 11: [3691, 3690], 21: [275, 3961], 14: [425, 424], 32: [3795, 3796]}</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.01256515264333581</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.01753547726401889</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>{0: [259, 3916, 3915], 2: [3960, 200], 7: [3870, 3872, 3871], 9: [215, 3901, 3900], 12: [319, 320], 15: [3931, 350], 18: [3855, 3856], 28: [3780, 379, 3781], 30: [410, 3811], 31: [381, 4021, 305], 33: [3887, 109, 3886, 3885], 22: [140, 139], 23: [3946, 3945], 25: [3930], 29: [169, 170], 3: [364, 365], 6: [335, 334], 8: [439, 440], 13: [154, 155, 3990, 3991], 17: [3841, 380], 26: [274, 3765], 27: [3735, 184, 3840, 185], 4: [94, 3825], 10: [500], 1: [3751, 289, 3750], 16: [108, 3706, 3705], 5: [3975, 290, 3976], 19: [3766, 349], 24: [396, 4006], 20: [304, 395, 3826], 11: [3691, 3690], 21: [275, 3961], 14: [425, 424], 32: [3795, 3796]}</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0.01256515264333581</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.01753547726401889</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.062</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>{0: [4205, 1071, 1072, 1073, 981, 1074], 2: [1133, 4400, 4401], 's_0_2': [1057], 7: [4699, 1208, 4704, 4703, 4702, 4700, 4701, 1209], 's_0_7': [4490], 9: [1165, 4658, 4657, 4656, 4655, 1164, 1163, 4505], 's_0_9': [1058], 12: [4459, 998, 996, 997], 's_0_12': [4220], 15: [4747, 4746, 4745, 1104, 4748, 1105], 's_0_15': [4730], 18: [4477, 4687, 1464, 1463, 1462, 1461, 4055, 4056, 4057], 's_0_18': [980], 28: [1435, 4237, 1432, 1433, 4670, 4671, 4672, 1434], 's_0_28': [1059], 30: [969, 4118, 4117, 4116, 4115, 968, 967, 966, 4114], 's_0_30': [4189], 31: [4448, 4447, 4444, 4445, 4446], 's_0_31': [4385, 982], 33: [1116, 1117, 1299, 1089, 4535, 4310, 1192, 1193, 4536], 's_0_33': [4309, 937], 's_0_0': [4070], 's_2_9': [1103], 22: [1222, 1221], 's_2_22': [4386], 23: [4358, 1268, 4356, 4357], 's_2_23': [4355], 25: [1224, 4430, 1357, 4432, 1223, 4431], 's_2_25': [1147], 29: [1283, 1282, 4340, 1207, 4342, 4341], 's_2_29': [1042], 's_2_2': [1162], 3: [1389, 4762, 4760, 4761], 's_7_3': [1029], 6: [1809, 1808, 1448, 4389, 4387, 4388], 's_7_6': [1854, 4629], 8: [1450, 4821, 4822, 1628, 1629, 1630, 4823], 's_7_8': [1734], 13: [4433, 1191, 1645, 4251, 4252, 1644, 1643, 1642, 4253], 's_7_13': [4688], 17: [1701, 1794, 1749, 4614, 1702, 1703], 's_7_17': [1779], 26: [1419, 1659, 4627, 4628], 's_7_26': [1479], 27: [4569, 4568, 4326, 1178, 4566, 1177, 4567], 's_7_27': [1824], 's_7_30': [4684], 's_7_31': [4460], 's_7_33': [4640], 's_7_7': [1839, 1838], 4: [1088, 1252, 4371, 4370], 's_9_4': [4520], 's_9_8': [1374], 10: [4880, 1150], 's_9_10': [4941], 's_9_12': [1043], 's_9_15': [4685], 's_9_17': [1719, 4734], 's_9_26': [4673], 's_9_27': [4506], 's_9_33': [4625], 's_9_9': [1166], 1: [1012, 1013, 1014, 1553, 1554, 4793, 4792, 4791, 4790], 's_12_1': [4294], 16: [1477, 4177, 4175, 4176], 's_12_16': [1011], 's_12_25': [938], 's_12_30': [4639], 's_12_31': [908], 's_12_12': [4279, 922, 923], 's_15_3': [955], 5: [4580, 4581, 4584, 1598, 4582, 1495, 1494, 4583], 's_15_5': [1583, 1584], 's_15_10': [4865], 's_15_13': [4763], 19: [1509, 1508, 1506, 1507], 's_15_19': [1524], 24: [4835, 4837, 1360, 4836], 's_15_24': [1270], 's_15_25': [4820, 1225], 's_15_30': [4775], 's_15_33': [1090], 's_15_15': [1135, 1136], 's_18_1': [4686, 1194], 's_18_3': [1465], 's_18_6': [4492], 's_18_13': [4478], 's_18_19': [4312], 20: [1311, 1312, 4881, 1315, 1314, 1313], 's_18_20': [4072], 's_18_22': [1206], 's_18_26': [4642], 's_18_29': [1281], 's_18_33': [4537], 's_18_18': [1175], 's_28_1': [999, 4669], 's_28_3': [1254], 's_28_8': [1329], 11: [1267, 1325, 4191, 1326], 's_28_11': [1431, 4207], 's_28_19': [4238], 's_28_26': [1449, 4612], 's_28_28': [4297], 's_30_3': [984], 's_30_17': [1687, 1686], 's_30_19': [4132], 's_30_20': [4131], 's_30_33': [4565], 's_30_30': [4504], 's_31_13': [1597, 4403, 1522], 's_31_17': [4463], 21: [4419, 1345, 1344, 1343, 4418, 4417, 1342], 's_31_21': [1732], 's_31_23': [1537], 's_31_33': [1238], 's_31_31': [1763], 's_33_1': [4610], 's_33_13': [4160, 1146], 14: [1358, 1359, 1300, 4806], 's_33_14': [4641], 's_33_16': [1132], 's_33_20': [1298], 's_33_22': [4130], 's_33_29': [1102], 32: [1615, 1614, 1327, 1328, 4598, 4597], 's_33_32': [4596], 's_33_33': [1115], 's_22_4': [4236], 's_22_11': [4146], 's_22_27': [1176, 4280], 's_22_22': [4295], 's_23_8': [4373], 's_23_29': [4491], 's_23_21': [1658], 's_23_27': [1269], 's_23_23': [1582], 's_25_5': [1418], 's_25_13': [1356], 's_25_29': [4327], 's_25_21': [4716], 's_25_27': [4551], 's_25_25': [4372], 's_29_1': [4325], 's_29_4': [1087], 's_29_27': [1284], 's_29_32': [1372, 4461], 's_29_29': [4343], 's_3_32': [1404], 's_3_20': [1285], 's_3_21': [1239, 4731], 's_3_3': [4759], 's_6_32': [4522, 1373], 's_6_20': [4402], 's_6_21': [1552], 's_6_17': [4644], 's_6_6': [4374], 's_8_1': [4613], 's_8_14': [4777], 's_8_20': [1255], 's_8_24': [4838], 's_8_8': [1765], 's_13_1': [4538], 's_13_5': [4553], 's_13_11': [1341], 's_13_16': [1447], 's_13_26': [4643], 's_13_27': [1612, 1613], 's_13_32': [4808], 's_13_13': [4254], 's_17_5': [4508], 's_17_21': [4434], 's_17_27': [1688], 's_17_17': [1795], 's_26_1': [1538], 's_26_19': [1523], 's_26_27': [1733], 's_26_32': [4599], 's_26_26': [1718], 's_27_5': [1778], 's_27_20': [4521], 's_27_4': [1253], 's_27_11': [1297], 's_27_27': [4570], 's_4_32': [4296], 's_4_20': [4311], 's_4_4': [1251], 's_10_10': [4956], 's_1_5': [4523], 's_1_14': [1390], 's_1_32': [1600], 's_1_1': [1015], 's_16_11': [4190], 's_16_19': [1521], 's_16_16': [1371], 's_5_14': [4807], 's_5_20': [4882], 's_5_24': [4852], 's_5_5': [1496], 's_19_32': [4778], 's_19_19': [1510], 's_24_14': [1405], 's_24_20': [4851], 's_24_21': [4986], 's_24_24': [4912], 's_20_11': [4086], 's_20_20': [4101], 's_11_11': [1324], 's_21_14': [4866], 's_21_21': [4896], 's_14_14': [4476], 's_32_32': [4943]}</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0001848341232227488</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0009416740800294223</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>{0: [4205, 1071, 1072, 1073, 981, 1074], 2: [1133, 4400, 4401], 's_0_2': [1057], 7: [4699, 1208, 4704, 4703, 4702, 4700, 4701, 1209], 's_0_7': [4490], 9: [1165, 4658, 4657, 4656, 4655, 1164, 1163, 4505], 's_0_9': [1058], 12: [4459, 998, 996, 997], 's_0_12': [4220], 15: [4747, 4746, 4745, 1104, 4748, 1105], 's_0_15': [4730], 18: [4477, 4687, 1464, 1463, 1462, 1461, 4055, 4056, 4057], 's_0_18': [980], 28: [1435, 4237, 1432, 1433, 4670, 4671, 4672, 1434], 's_0_28': [1059], 30: [969, 4118, 4117, 4116, 4115, 968, 967, 966, 4114], 's_0_30': [4189], 31: [4448, 4447, 4444, 4445, 4446], 's_0_31': [4385, 982], 33: [1116, 1117, 1299, 1089, 4535, 4310, 1192, 1193, 4536], 's_0_33': [4309, 937], 's_0_0': [4070], 's_2_9': [1103], 22: [1222, 1221], 's_2_22': [4386], 23: [4358, 1268, 4356, 4357], 's_2_23': [4355], 25: [1224, 4430, 1357, 4432, 1223, 4431], 's_2_25': [1147], 29: [1283, 1282, 4340, 1207, 4342, 4341], 's_2_29': [1042], 's_2_2': [1162], 3: [1389, 4762, 4760, 4761], 's_7_3': [1029], 6: [1809, 1808, 1448, 4389, 4387, 4388], 's_7_6': [1854, 4629], 8: [1450, 4821, 4822, 1628, 1629, 1630, 4823], 's_7_8': [1734], 13: [4433, 1191, 1645, 4251, 4252, 1644, 1643, 1642, 4253], 's_7_13': [4688], 17: [1701, 1794, 1749, 4614, 1702, 1703], 's_7_17': [1779], 26: [1419, 1659, 4627, 4628], 's_7_26': [1479], 27: [4569, 4568, 4326, 1178, 4566, 1177, 4567], 's_7_27': [1824], 's_7_30': [4684], 's_7_31': [4460], 's_7_33': [4640], 's_7_7': [1839, 1838], 4: [1088, 1252, 4371, 4370], 's_9_4': [4520], 's_9_8': [1374], 10: [4880, 1150], 's_9_10': [4941], 's_9_12': [1043], 's_9_15': [4685], 's_9_17': [1719, 4734], 's_9_26': [4673], 's_9_27': [4506], 's_9_33': [4625], 's_9_9': [1166], 1: [1012, 1013, 1014, 1553, 1554, 4793, 4792, 4791, 4790], 's_12_1': [4294], 16: [1477, 4177, 4175, 4176], 's_12_16': [1011], 's_12_25': [938], 's_12_30': [4639], 's_12_31': [908], 's_12_12': [4279, 922, 923], 's_15_3': [955], 5: [4580, 4581, 4584, 1598, 4582, 1495, 1494, 4583], 's_15_5': [1583, 1584], 's_15_10': [4865], 's_15_13': [4763], 19: [1509, 1508, 1506, 1507], 's_15_19': [1524], 24: [4835, 4837, 1360, 4836], 's_15_24': [1270], 's_15_25': [4820, 1225], 's_15_30': [4775], 's_15_33': [1090], 's_15_15': [1135, 1136], 's_18_1': [4686, 1194], 's_18_3': [1465], 's_18_6': [4492], 's_18_13': [4478], 's_18_19': [4312], 20: [1311, 1312, 4881, 1315, 1314, 1313], 's_18_20': [4072], 's_18_22': [1206], 's_18_26': [4642], 's_18_29': [1281], 's_18_33': [4537], 's_18_18': [1175], 's_28_1': [999, 4669], 's_28_3': [1254], 's_28_8': [1329], 11: [1267, 1325, 4191, 1326], 's_28_11': [1431, 4207], 's_28_19': [4238], 's_28_26': [1449, 4612], 's_28_28': [4297], 's_30_3': [984], 's_30_17': [1687, 1686], 's_30_19': [4132], 's_30_20': [4131], 's_30_33': [4565], 's_30_30': [4504], 's_31_13': [1597, 4403, 1522], 's_31_17': [4463], 21: [4419, 1345, 1344, 1343, 4418, 4417, 1342], 's_31_21': [1732], 's_31_23': [1537], 's_31_33': [1238], 's_31_31': [1763], 's_33_1': [4610], 's_33_13': [4160, 1146], 14: [1358, 1359, 1300, 4806], 's_33_14': [4641], 's_33_16': [1132], 's_33_20': [1298], 's_33_22': [4130], 's_33_29': [1102], 32: [1615, 1614, 1327, 1328, 4598, 4597], 's_33_32': [4596], 's_33_33': [1115], 's_22_4': [4236], 's_22_11': [4146], 's_22_27': [1176, 4280], 's_22_22': [4295], 's_23_8': [4373], 's_23_29': [4491], 's_23_21': [1658], 's_23_27': [1269], 's_23_23': [1582], 's_25_5': [1418], 's_25_13': [1356], 's_25_29': [4327], 's_25_21': [4716], 's_25_27': [4551], 's_25_25': [4372], 's_29_1': [4325], 's_29_4': [1087], 's_29_27': [1284], 's_29_32': [1372, 4461], 's_29_29': [4343], 's_3_32': [1404], 's_3_20': [1285], 's_3_21': [1239, 4731], 's_3_3': [4759], 's_6_32': [4522, 1373], 's_6_20': [4402], 's_6_21': [1552], 's_6_17': [4644], 's_6_6': [4374], 's_8_1': [4613], 's_8_14': [4777], 's_8_20': [1255], 's_8_24': [4838], 's_8_8': [1765], 's_13_1': [4538], 's_13_5': [4553], 's_13_11': [1341], 's_13_16': [1447], 's_13_26': [4643], 's_13_27': [1612, 1613], 's_13_32': [4808], 's_13_13': [4254], 's_17_5': [4508], 's_17_21': [4434], 's_17_27': [1688], 's_17_17': [1795], 's_26_1': [1538], 's_26_19': [1523], 's_26_27': [1733], 's_26_32': [4599], 's_26_26': [1718], 's_27_5': [1778], 's_27_20': [4521], 's_27_4': [1253], 's_27_11': [1297], 's_27_27': [4570], 's_4_32': [4296], 's_4_20': [4311], 's_4_4': [1251], 's_10_10': [4956], 's_1_5': [4523], 's_1_14': [1390], 's_1_32': [1600], 's_1_1': [1015], 's_16_11': [4190], 's_16_19': [1521], 's_16_16': [1371], 's_5_14': [4807], 's_5_20': [4882], 's_5_24': [4852], 's_5_5': [1496], 's_19_32': [4778], 's_19_19': [1510], 's_24_14': [1405], 's_24_20': [4851], 's_24_21': [4986], 's_24_24': [4912], 's_20_11': [4086], 's_20_20': [4101], 's_11_11': [1324], 's_21_14': [4866], 's_21_21': [4896], 's_14_14': [4476], 's_32_32': [4943]}</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0001848341232227488</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.0009416740800294223</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>{0: [3222, 3297, 2326], 2: [2387, 3431, 3432], 7: [2281, 3236], 9: [3267, 3266], 10: [2176, 2236, 3221], 12: [2327, 3493, 3492], 13: [2402, 2401], 15: [3177, 2207, 2206], 22: [2372, 3116, 3117, 2371], 3: [2161, 2162], 11: [3326, 3328, 3327], 14: [2416, 3357, 3358], 16: [3508, 2462, 3313, 2461], 18: [3311, 2177], 25: [2386, 2266, 3252], 29: [2208, 2267, 3507], 32: [3402, 3401, 3296, 2192], 4: [3447, 3162, 2311, 2312], 6: [2116, 3282, 3281], 21: [2191], 24: [3372, 3371, 2250, 2251], 26: [2131, 3207, 3206], 30: [2221, 2220], 17: [2100, 2101, 3161], 23: [3341, 3251, 2071], 20: [3386, 3385], 27: [2356, 3146, 3147], 34: [2297, 2295, 2296], 19: [3343, 2476, 2477], 8: [2431, 3132, 3237, 2341], 31: [3387], 33: [2357, 3417], 28: [2146, 3192, 3191], 5: [3312, 2342], 1: [3342]}</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.005483806874627458</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.01258563639074978</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>{0: [3222, 3297, 2326], 2: [2387, 3431, 3432], 7: [2281, 3236], 9: [3267, 3266], 10: [2176, 2236, 3221], 12: [2327, 3493, 3492], 13: [2402, 2401], 15: [3177, 2207, 2206], 22: [2372, 3116, 3117, 2371], 3: [2161, 2162], 11: [3326, 3328, 3327], 14: [2416, 3357, 3358], 16: [3508, 2462, 3313, 2461], 18: [3311, 2177], 25: [2386, 2266, 3252], 29: [2208, 2267, 3507], 32: [3402, 3401, 3296, 2192], 4: [3447, 3162, 2311, 2312], 6: [2116, 3282, 3281], 21: [2191], 24: [3372, 3371, 2250, 2251], 26: [2131, 3207, 3206], 30: [2221, 2220], 17: [2100, 2101, 3161], 23: [3341, 3251, 2071], 20: [3386, 3385], 27: [2356, 3146, 3147], 34: [2297, 2295, 2296], 19: [3343, 2476, 2477], 8: [2431, 3132, 3237, 2341], 31: [3387], 33: [2357, 3417], 28: [2146, 3192, 3191], 5: [3312, 2342], 1: [3342]}</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0.005483806874627458</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.01258563639074978</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>{0: [4103, 1863, 1864, 1866, 4104, 1865], 2: [4088, 1671, 4087, 3851, 3850, 3849, 1670], 's_0_2': [1969, 3715], 7: [3937, 3938, 2060, 2031, 2030, 3940, 3939], 's_0_7': [4105], 9: [1821, 1819, 1820, 3892, 3893, 3894], 's_0_9': [3729], 10: [4046, 1837, 4045, 1836, 1835, 1834, 3654], 's_0_10': [3639, 1849], 12: [1596, 1370, 4072, 4073], 's_0_12': [1641], 13: [3997, 4150, 4342, 1477, 4149, 4148, 4147, 1476], 's_0_13': [1761], 15: [4313, 4075, 4314, 1850, 1851, 1852], 's_0_15': [4014], 22: [1809, 1805, 1808, 1806, 4329, 1807], 's_0_22': [4119], 's_0_0': [1878], 3: [4421, 4511, 2074, 2075, 2078, 2077, 2076], 's_2_3': [2089], 11: [3952, 3953, 4510, 4509, 1718, 1717, 1715, 1716], 's_2_11': [1550], 's_2_12': [4086], 's_2_13': [1461], 14: [4134, 4131, 4132, 1687, 1686, 4133], 's_2_14': [1416], 16: [4568, 1566, 1568, 1567], 's_2_16': [4102], 18: [1654, 1655, 1537, 1536, 1535, 3968], 's_2_18': [3818], 25: [2004, 2000, 1685, 4029, 4030, 2003, 2002, 2001], 's_2_25': [1924, 1925], 29: [3998, 4327, 4328, 4253, 1626, 1627], 's_2_29': [4118], 32: [2121, 4090, 4089, 1791, 1792, 1793, 4479], 's_2_32': [4059], 's_2_2': [2134], 's_7_3': [4061], 4: [1748, 1430, 1431, 1432, 4282, 4283, 1747], 's_7_4': [1415], 6: [4299, 3877, 1777, 1776, 3878, 3879, 1775], 's_7_6': [1490], 's_7_10': [1910], 's_7_11': [1460], 21: [3907, 1549, 3881, 3880, 3833, 1880, 1879, 3834], 's_7_21': [2015], 24: [4450, 2047, 2046, 4162, 4163, 4164, 4165], 's_7_24': [2045], 26: [1955, 1956, 4178, 4179, 4180], 's_7_26': [2032], 30: [1610, 1894, 3924, 3923], 's_7_30': [2059, 3835], 's_7_7': [2029], 's_9_6': [1339], 's_9_10': [3744], 's_9_13': [1385], 's_9_14': [1311, 1310], 17: [4001, 3999, 4000], 's_9_17': [1760], 's_9_21': [3848, 1519], 23: [1730, 3773, 1729], 's_9_23': [3774], 's_9_30': [1714], 's_9_9': [1295], 's_10_3': [2090], 's_10_17': [2150], 20: [1744, 3865, 3864], 's_10_20': [3804], 's_10_22': [4194], 27: [2137, 2135, 2017, 4210, 4211, 2136], 's_10_27': [4031], 's_10_32': [1986], 34: [4300, 1987, 4225, 4222, 4223, 4224], 's_10_34': [4255], 's_10_10': [3653], 's_12_14': [1251, 4101], 's_12_16': [4208], 19: [1658, 4012, 1656, 1657, 4239, 4013, 4240, 1973, 1972], 's_12_19': [1355], 's_12_24': [1401], 's_12_12': [1505], 's_13_4': [4267], 's_13_6': [1400], 8: [1565, 1296, 4042, 1520, 4043], 's_13_8': [4146], 's_13_11': [1731], 's_13_14': [1521], 31: [1507, 4434, 4433], 's_13_31': [1522], 's_13_32': [4151], 33: [2062, 1911, 4374, 4375, 1912], 's_13_33': [2061], 's_13_13': [1417], 's_15_6': [4074], 's_15_14': [4298], 's_15_20': [3819], 's_15_22': [1762], 's_15_24': [4315], 's_15_27': [4076], 's_15_29': [1612], 's_15_30': [1940, 3895], 's_15_32': [1895], 's_15_15': [1941], 's_22_4': [4404], 's_22_11': [4614], 's_22_14': [4389], 's_22_21': [3954], 's_22_25': [4630, 4629], 's_22_30': [3909], 's_22_31': [1823], 's_22_33': [4449], 's_22_34': [1822], 's_22_22': [1810], 's_3_24': [4436, 2183], 's_3_11': [2033], 's_3_27': [3986], 28: [4209, 1701, 1702, 4571, 4570, 4569, 1703], 's_3_28': [4586], 's_3_3': [4512], 's_11_19': [4044], 's_11_24': [2048], 's_11_25': [1988], 's_11_8': [1340, 3951], 's_11_17': [1745], 's_11_23': [3984], 's_11_11': [1719], 's_14_19': [1281, 4011], 's_14_32': [4135], 's_14_6': [4254], 's_14_8': [4116], 's_14_16': [4117], 's_14_34': [1506], 's_14_14': [1266], 5: [4390, 1868, 1867, 1552, 1732, 4344, 4343], 's_16_5': [1553], 's_16_8': [4058], 's_16_26': [4193], 's_16_28': [4538], 's_16_29': [1582], 's_16_31': [1613], 's_16_16': [4492], 's_18_5': [4312], 's_18_6': [1534], 's_18_20': [3728], 's_18_23': [3758], 's_18_26': [1551], 's_18_18': [3684], 1: [4480, 1733, 1958, 4539, 4540], 's_25_1': [4585], 's_25_5': [4420], 's_25_6': [1684], 's_25_20': [1985], 's_25_23': [3970, 3969], 's_25_26': [3985], 's_25_29': [4028], 's_25_25': [1999], 's_29_4': [1462, 4252], 's_29_34': [1447], 's_29_29': [1357], 's_32_1': [4584], 's_32_5': [4554], 's_32_19': [4478], 's_32_24': [4166], 's_32_6': [1778], 's_32_21': [2106, 2105], 's_32_26': [4120], 's_32_28': [1928], 's_32_34': [4226], 's_32_32': [2122], 's_4_1': [1763], 's_4_8': [3967], 's_4_21': [3922], 's_4_24': [1371, 4281], 's_4_28': [4448], 's_4_31': [4297], 's_4_33': [4284], 's_4_4': [1429], 's_6_5': [4359], 's_6_24': [4270, 4269], 's_6_17': [1790], 's_6_6': [1475], 's_21_8': [1564], 's_21_23': [1594], 's_21_26': [1970], 's_21_21': [3882], 's_24_1': [4465], 's_24_27': [2018], 's_24_28': [2108], 's_24_33': [4360], 's_24_34': [1971], 's_24_24': [4451], 's_26_19': [1957], 's_26_27': [1881], 's_26_28': [1746], 's_26_17': [4015], 's_26_26': [1954], 's_30_8': [1595], 's_30_20': [1909], 's_30_23': [1609], 's_30_30': [3790], 's_17_27': [2016], 's_17_17': [4002], 's_23_20': [3789], 's_23_23': [1759], 's_20_20': [1699], 's_27_28': [2138], 's_27_33': [4195], 's_27_34': [1926], 's_27_27': [4286], 's_34_28': [1672], 's_34_34': [1356], 's_19_1': [4495], 's_19_8': [1491], 's_19_28': [4358], 's_19_31': [1673], 's_19_33': [4373], 's_19_19': [4238], 's_8_8': [3982], 's_31_5': [4462], 's_31_31': [4372], 's_33_5': [4464], 's_33_33': [4405], 's_28_28': [1688], 's_5_1': [1883], 's_5_5': [4600], 's_1_1': [4524]}</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0002433628318584071</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.001008762222582124</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>{0: [4103, 1863, 1864, 1866, 4104, 1865], 2: [4088, 1671, 4087, 3851, 3850, 3849, 1670], 's_0_2': [1969, 3715], 7: [3937, 3938, 2060, 2031, 2030, 3940, 3939], 's_0_7': [4105], 9: [1821, 1819, 1820, 3892, 3893, 3894], 's_0_9': [3729], 10: [4046, 1837, 4045, 1836, 1835, 1834, 3654], 's_0_10': [3639, 1849], 12: [1596, 1370, 4072, 4073], 's_0_12': [1641], 13: [3997, 4150, 4342, 1477, 4149, 4148, 4147, 1476], 's_0_13': [1761], 15: [4313, 4075, 4314, 1850, 1851, 1852], 's_0_15': [4014], 22: [1809, 1805, 1808, 1806, 4329, 1807], 's_0_22': [4119], 's_0_0': [1878], 3: [4421, 4511, 2074, 2075, 2078, 2077, 2076], 's_2_3': [2089], 11: [3952, 3953, 4510, 4509, 1718, 1717, 1715, 1716], 's_2_11': [1550], 's_2_12': [4086], 's_2_13': [1461], 14: [4134, 4131, 4132, 1687, 1686, 4133], 's_2_14': [1416], 16: [4568, 1566, 1568, 1567], 's_2_16': [4102], 18: [1654, 1655, 1537, 1536, 1535, 3968], 's_2_18': [3818], 25: [2004, 2000, 1685, 4029, 4030, 2003, 2002, 2001], 's_2_25': [1924, 1925], 29: [3998, 4327, 4328, 4253, 1626, 1627], 's_2_29': [4118], 32: [2121, 4090, 4089, 1791, 1792, 1793, 4479], 's_2_32': [4059], 's_2_2': [2134], 's_7_3': [4061], 4: [1748, 1430, 1431, 1432, 4282, 4283, 1747], 's_7_4': [1415], 6: [4299, 3877, 1777, 1776, 3878, 3879, 1775], 's_7_6': [1490], 's_7_10': [1910], 's_7_11': [1460], 21: [3907, 1549, 3881, 3880, 3833, 1880, 1879, 3834], 's_7_21': [2015], 24: [4450, 2047, 2046, 4162, 4163, 4164, 4165], 's_7_24': [2045], 26: [1955, 1956, 4178, 4179, 4180], 's_7_26': [2032], 30: [1610, 1894, 3924, 3923], 's_7_30': [2059, 3835], 's_7_7': [2029], 's_9_6': [1339], 's_9_10': [3744], 's_9_13': [1385], 's_9_14': [1311, 1310], 17: [4001, 3999, 4000], 's_9_17': [1760], 's_9_21': [3848, 1519], 23: [1730, 3773, 1729], 's_9_23': [3774], 's_9_30': [1714], 's_9_9': [1295], 's_10_3': [2090], 's_10_17': [2150], 20: [1744, 3865, 3864], 's_10_20': [3804], 's_10_22': [4194], 27: [2137, 2135, 2017, 4210, 4211, 2136], 's_10_27': [4031], 's_10_32': [1986], 34: [4300, 1987, 4225, 4222, 4223, 4224], 's_10_34': [4255], 's_10_10': [3653], 's_12_14': [1251, 4101], 's_12_16': [4208], 19: [1658, 4012, 1656, 1657, 4239, 4013, 4240, 1973, 1972], 's_12_19': [1355], 's_12_24': [1401], 's_12_12': [1505], 's_13_4': [4267], 's_13_6': [1400], 8: [1565, 1296, 4042, 1520, 4043], 's_13_8': [4146], 's_13_11': [1731], 's_13_14': [1521], 31: [1507, 4434, 4433], 's_13_31': [1522], 's_13_32': [4151], 33: [2062, 1911, 4374, 4375, 1912], 's_13_33': [2061], 's_13_13': [1417], 's_15_6': [4074], 's_15_14': [4298], 's_15_20': [3819], 's_15_22': [1762], 's_15_24': [4315], 's_15_27': [4076], 's_15_29': [1612], 's_15_30': [1940, 3895], 's_15_32': [1895], 's_15_15': [1941], 's_22_4': [4404], 's_22_11': [4614], 's_22_14': [4389], 's_22_21': [3954], 's_22_25': [4630, 4629], 's_22_30': [3909], 's_22_31': [1823], 's_22_33': [4449], 's_22_34': [1822], 's_22_22': [1810], 's_3_24': [4436, 2183], 's_3_11': [2033], 's_3_27': [3986], 28: [4209, 1701, 1702, 4571, 4570, 4569, 1703], 's_3_28': [4586], 's_3_3': [4512], 's_11_19': [4044], 's_11_24': [2048], 's_11_25': [1988], 's_11_8': [1340, 3951], 's_11_17': [1745], 's_11_23': [3984], 's_11_11': [1719], 's_14_19': [1281, 4011], 's_14_32': [4135], 's_14_6': [4254], 's_14_8': [4116], 's_14_16': [4117], 's_14_34': [1506], 's_14_14': [1266], 5: [4390, 1868, 1867, 1552, 1732, 4344, 4343], 's_16_5': [1553], 's_16_8': [4058], 's_16_26': [4193], 's_16_28': [4538], 's_16_29': [1582], 's_16_31': [1613], 's_16_16': [4492], 's_18_5': [4312], 's_18_6': [1534], 's_18_20': [3728], 's_18_23': [3758], 's_18_26': [1551], 's_18_18': [3684], 1: [4480, 1733, 1958, 4539, 4540], 's_25_1': [4585], 's_25_5': [4420], 's_25_6': [1684], 's_25_20': [1985], 's_25_23': [3970, 3969], 's_25_26': [3985], 's_25_29': [4028], 's_25_25': [1999], 's_29_4': [1462, 4252], 's_29_34': [1447], 's_29_29': [1357], 's_32_1': [4584], 's_32_5': [4554], 's_32_19': [4478], 's_32_24': [4166], 's_32_6': [1778], 's_32_21': [2106, 2105], 's_32_26': [4120], 's_32_28': [1928], 's_32_34': [4226], 's_32_32': [2122], 's_4_1': [1763], 's_4_8': [3967], 's_4_21': [3922], 's_4_24': [1371, 4281], 's_4_28': [4448], 's_4_31': [4297], 's_4_33': [4284], 's_4_4': [1429], 's_6_5': [4359], 's_6_24': [4270, 4269], 's_6_17': [1790], 's_6_6': [1475], 's_21_8': [1564], 's_21_23': [1594], 's_21_26': [1970], 's_21_21': [3882], 's_24_1': [4465], 's_24_27': [2018], 's_24_28': [2108], 's_24_33': [4360], 's_24_34': [1971], 's_24_24': [4451], 's_26_19': [1957], 's_26_27': [1881], 's_26_28': [1746], 's_26_17': [4015], 's_26_26': [1954], 's_30_8': [1595], 's_30_20': [1909], 's_30_23': [1609], 's_30_30': [3790], 's_17_27': [2016], 's_17_17': [4002], 's_23_20': [3789], 's_23_23': [1759], 's_20_20': [1699], 's_27_28': [2138], 's_27_33': [4195], 's_27_34': [1926], 's_27_27': [4286], 's_34_28': [1672], 's_34_34': [1356], 's_19_1': [4495], 's_19_8': [1491], 's_19_28': [4358], 's_19_31': [1673], 's_19_33': [4373], 's_19_19': [4238], 's_8_8': [3982], 's_31_5': [4462], 's_31_31': [4372], 's_33_5': [4464], 's_33_33': [4405], 's_28_28': [1688], 's_5_1': [1883], 's_5_5': [4600], 's_1_1': [4524]}</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0002433628318584071</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.001008762222582124</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>{0: [4340, 863, 862, 4339], 2: [952, 4400, 953], 3: [4385, 967], 5: [1163, 4460, 1162], 11: [1088, 1087], 17: [1102, 4295], 20: [939, 937, 938], 23: [893, 4535, 4534], 25: [4401, 1148, 1147], 26: [4551, 983, 4550, 4549], 4: [4294, 998, 997], 6: [1042, 1043], 9: [1057, 1058], 15: [924, 922, 4459, 923], 16: [4519, 1013, 4520], 18: [4369, 4324, 982], 19: [4445, 4444], 24: [1177, 1178, 4310, 4309], 27: [892, 4355, 4354], 34: [4475, 4474], 1: [1012, 4325], 32: [4431, 4429, 4430], 33: [968, 4624], 12: [1073], 14: [1119, 1118], 30: [1209, 4625, 1104], 31: [908, 909, 4640, 4639], 35: [4536, 1208, 1207], 8: [832, 4416, 4414, 4415], 13: [1222, 4565, 1223, 4566], 29: [4489, 1103, 4490], 10: [848, 4580, 4579], 7: [1029, 4700, 1028], 22: [4505, 4504, 877, 878], 21: [4371, 1133, 4370], 28: [1193, 1192]}</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.01454687722293356</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.01882804937460288</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>{0: [4340, 863, 862, 4339], 2: [952, 4400, 953], 3: [4385, 967], 5: [1163, 4460, 1162], 11: [1088, 1087], 17: [1102, 4295], 20: [939, 937, 938], 23: [893, 4535, 4534], 25: [4401, 1148, 1147], 26: [4551, 983, 4550, 4549], 4: [4294, 998, 997], 6: [1042, 1043], 9: [1057, 1058], 15: [924, 922, 4459, 923], 16: [4519, 1013, 4520], 18: [4369, 4324, 982], 19: [4445, 4444], 24: [1177, 1178, 4310, 4309], 27: [892, 4355, 4354], 34: [4475, 4474], 1: [1012, 4325], 32: [4431, 4429, 4430], 33: [968, 4624], 12: [1073], 14: [1119, 1118], 30: [1209, 4625, 1104], 31: [908, 909, 4640, 4639], 35: [4536, 1208, 1207], 8: [832, 4416, 4414, 4415], 13: [1222, 4565, 1223, 4566], 29: [4489, 1103, 4490], 10: [848, 4580, 4579], 7: [1029, 4700, 1028], 22: [4505, 4504, 877, 878], 21: [4371, 1133, 4370], 28: [1193, 1192]}</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0.01454687722293356</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.01882804937460288</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>{0: [3505, 3506, 3507, 2554, 2553, 3509, 3508], 2: [3415, 2011, 2012, 2013, 3854, 3853, 3852, 3851, 2015, 2014], 's_0_2': [2555], 3: [3880, 3881, 2627, 2628, 2629, 2164, 3928, 3927, 3926, 2165], 's_0_3': [3524], 5: [2462, 1982, 3385, 3386, 3463, 3387], 's_0_5': [2523], 11: [1907, 3580, 3717, 3716, 2058, 3460, 2057], 's_0_11': [1967], 17: [3581, 2613, 3583, 3582], 's_0_17': [2373], 20: [1864, 1863, 1861, 1862], 's_0_20': [1877], 23: [2478, 3433, 2476, 3493, 2477], 's_0_23': [3494], 25: [3969, 2598, 3970, 3971, 2195, 2194, 3704, 3703, 3702], 's_0_25': [3748], 26: [3673, 3342, 3343, 2491, 2492, 2493, 2524, 3644, 3643, 3658], 's_0_26': [2312], 's_0_0': [3778], 's_2_3': [2269], 4: [2416, 2417, 3898, 2419, 2418], 's_2_4': [2540], 6: [2055, 2146, 2026, 3190, 3193, 3192, 2191, 3191], 's_2_6': [3176], 9: [2584, 2583, 2581, 3553, 2582], 's_2_9': [2599], 15: [3775, 3370, 2027, 2030, 2029, 2028], 's_2_15': [3940], 16: [2313, 3519, 3520, 3521, 3252, 2266, 2267, 3537, 3522], 's_2_16': [3536], 18: [3416, 3614, 2207, 3357, 3358, 3359, 2717, 2719, 2718], 's_2_18': [2720], 19: [2388, 3479, 3478, 2116, 2117, 3476, 3477], 's_2_19': [3220], 24: [2656, 2089, 2657, 2658, 2659, 2660, 3909, 3910, 3911, 3912, 3913], 's_2_24': [3869], 's_2_25': [2509], 27: [3459, 1757, 3269, 3268, 1756, 3264, 3265, 3266, 3267, 2371], 's_2_27': [3250], 34: [1969, 3731, 1893, 3729, 2087, 2088, 3730], 's_2_34': [3820], 's_2_2': [2705], 1: [3671, 3672, 2566, 2359, 3809, 2567, 2568, 2569, 3807, 3808], 's_3_1': [2614], 's_3_4': [2465], 's_3_9': [3899], 's_3_18': [3629], 's_3_19': [2163], 's_3_20': [1879], 32: [3147, 3146, 2070, 3281, 2074, 2073, 3564, 3565, 2072, 2071], 's_3_32': [3836], 33: [3642, 3639, 3640, 3641], 's_3_33': [3656], 's_3_3': [2300], 's_5_1': [3388], 's_5_9': [2538], 12: [2611, 3223, 2521, 3178, 2386, 3430, 3431, 3432, 2387], 's_5_12': [2372], 14: [2433, 2479, 3747, 1952, 3746, 1953, 1954, 3745], 's_5_14': [3355], 's_5_23': [2461], 30: [2237, 3401, 3400, 1790, 1789, 1788, 1787, 3399], 's_5_30': [3384], 31: [1805, 1804, 1819, 3309, 1818, 3296, 3295, 3294, 1817], 's_5_31': [2041], 's_5_32': [3280], 35: [2222, 2358, 3569, 2432, 3566, 3568, 3567], 's_5_35': [2463], 's_5_5': [2327], 's_11_1': [2314], 8: [2254, 3700, 3762, 3761, 3760, 1999, 3160, 1996, 1998, 1997], 's_11_8': [2329], 's_11_16': [2042], 's_11_17': [2238], 's_11_27': [1906], 's_11_34': [2209], 's_11_11': [1937], 's_17_1': [3674], 's_17_4': [3597], 's_17_9': [2612], 13: [2176, 2178, 2177], 's_17_13': [3596], 's_17_25': [3598], 29: [1923, 2328, 2253, 3594, 1908, 3625, 3626, 3627], 's_17_29': [2133], 's_17_17': [3584], 's_20_8': [3325], 10: [3313, 1832, 3312, 3310, 2162, 3311], 's_20_10': [1876], 's_20_27': [3474], 's_20_29': [3685], 's_20_32': [3549], 's_20_20': [3670], 's_23_9': [2597], 's_23_10': [2537], 's_23_12': [3417], 's_23_14': [3688], 's_23_19': [2402], 's_23_27': [3163], 's_23_35': [3538], 's_23_23': [2475], 's_25_1': [3733], 's_25_14': [2389], 's_25_24': [2135], 's_25_26': [2704], 's_25_31': [3984], 's_25_34': [1970], 's_25_25': [3956], 7: [2236, 2147, 2297, 3371], 's_26_7': [2282], 's_26_9': [3238], 's_26_10': [2342], 's_26_12': [2506], 's_26_14': [2448], 's_26_16': [3523], 22: [2104, 3299, 3791, 2731, 3792, 3793, 3794, 2734, 2733, 2732], 's_26_22': [2539], 's_26_33': [2374], 's_26_35': [2688], 's_26_26': [3659], 's_4_1': [3732], 's_4_8': [3777], 's_4_16': [3612], 's_4_18': [2401], 's_4_19': [3462], 21: [2431, 2356, 3237], 's_4_21': [3328], 's_4_24': [2390], 's_4_27': [3222], 's_4_29': [3552], 's_4_33': [3657], 's_4_4': [2495], 's_6_1': [2551], 's_6_7': [3251], 's_6_8': [3115], 's_6_10': [2326], 's_6_13': [3131], 's_6_15': [2056], 's_6_19': [3235], 's_6_21': [2430], 's_6_24': [3208], 's_6_27': [2536], 's_6_6': [2610], 's_9_27': [2596], 's_9_9': [3554], 's_15_1': [3686], 's_15_7': [3491], 's_15_19': [2102], 's_15_22': [3701], 's_15_24': [3866], 's_15_31': [3774], 's_15_32': [3595], 's_15_34': [3550], 's_15_15': [3985], 's_16_7': [2148], 's_16_12': [3297], 's_16_14': [3535], 's_16_21': [2311], 's_16_29': [2298], 's_16_31': [3534], 's_16_33': [1968], 's_16_34': [2268], 's_16_16': [3518], 's_18_1': [3329], 's_18_21': [2446], 's_18_22': [3764], 's_18_24': [2642], 's_18_31': [2221], 's_18_32': [2206], 's_18_18': [2702], 's_19_1': [2118], 's_19_13': [3341], 's_19_29': [2343], 's_19_31': [2101], 's_19_35': [2703], 's_19_19': [2115], 's_24_1': [3344], 's_24_22': [3449], 28: [1925, 1924], 's_24_28': [3924], 's_24_30': [1775], 's_24_32': [3925], 's_24_34': [1894], 's_24_35': [2643], 's_24_24': [3958], 's_27_8': [1951], 's_27_21': [3102], 's_27_22': [2626], 's_27_31': [3324], 's_27_27': [3413], 's_34_12': [1892], 's_34_14': [3835], 's_34_22': [2284], 's_34_29': [3655], 's_34_34': [2149], 's_1_8': [2299], 's_1_1': [3118], 's_32_8': [3161], 's_32_10': [1833], 's_32_12': [3148], 's_32_13': [3101], 's_32_21': [3132], 's_32_29': [1803], 's_32_35': [3461], 's_32_32': [2100], 's_33_30': [1773], 's_33_31': [3654], 's_33_33': [1743], 's_12_8': [3445], 's_12_22': [3284], 's_12_12': [3133], 's_14_8': [2179], 's_14_29': [2043], 's_14_22': [2434], 's_14_14': [1955], 's_30_29': [3579], 's_30_7': [3446], 's_30_10': [3369], 's_30_31': [3834], 's_30_35': [3492], 's_30_30': [4029], 's_31_8': [3699], 's_31_7': [2192], 's_31_10': [3429], 's_31_31': [3308], 's_35_21': [2357], 's_35_29': [2208], 's_35_35': [2792], 's_8_10': [3340], 's_8_22': [2224], 's_8_28': [3759], 's_8_29': [3610], 's_8_8': [1921], 's_13_29': [3611], 's_13_10': [3326], 's_13_13': [3206], 's_29_28': [3715], 's_29_29': [1909], 's_10_7': [2251], 's_10_10': [2296], 's_7_7': [3327], 's_22_22': [2730], 's_21_21': [3162], 's_28_28': [4000]}</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0001469387755102041</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.000802993151174396</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>{0: [3505, 3506, 3507, 2554, 2553, 3509, 3508], 2: [3415, 2011, 2012, 2013, 3854, 3853, 3852, 3851, 2015, 2014], 's_0_2': [2555], 3: [3880, 3881, 2627, 2628, 2629, 2164, 3928, 3927, 3926, 2165], 's_0_3': [3524], 5: [2462, 1982, 3385, 3386, 3463, 3387], 's_0_5': [2523], 11: [1907, 3580, 3717, 3716, 2058, 3460, 2057], 's_0_11': [1967], 17: [3581, 2613, 3583, 3582], 's_0_17': [2373], 20: [1864, 1863, 1861, 1862], 's_0_20': [1877], 23: [2478, 3433, 2476, 3493, 2477], 's_0_23': [3494], 25: [3969, 2598, 3970, 3971, 2195, 2194, 3704, 3703, 3702], 's_0_25': [3748], 26: [3673, 3342, 3343, 2491, 2492, 2493, 2524, 3644, 3643, 3658], 's_0_26': [2312], 's_0_0': [3778], 's_2_3': [2269], 4: [2416, 2417, 3898, 2419, 2418], 's_2_4': [2540], 6: [2055, 2146, 2026, 3190, 3193, 3192, 2191, 3191], 's_2_6': [3176], 9: [2584, 2583, 2581, 3553, 2582], 's_2_9': [2599], 15: [3775, 3370, 2027, 2030, 2029, 2028], 's_2_15': [3940], 16: [2313, 3519, 3520, 3521, 3252, 2266, 2267, 3537, 3522], 's_2_16': [3536], 18: [3416, 3614, 2207, 3357, 3358, 3359, 2717, 2719, 2718], 's_2_18': [2720], 19: [2388, 3479, 3478, 2116, 2117, 3476, 3477], 's_2_19': [3220], 24: [2656, 2089, 2657, 2658, 2659, 2660, 3909, 3910, 3911, 3912, 3913], 's_2_24': [3869], 's_2_25': [2509], 27: [3459, 1757, 3269, 3268, 1756, 3264, 3265, 3266, 3267, 2371], 's_2_27': [3250], 34: [1969, 3731, 1893, 3729, 2087, 2088, 3730], 's_2_34': [3820], 's_2_2': [2705], 1: [3671, 3672, 2566, 2359, 3809, 2567, 2568, 2569, 3807, 3808], 's_3_1': [2614], 's_3_4': [2465], 's_3_9': [3899], 's_3_18': [3629], 's_3_19': [2163], 's_3_20': [1879], 32: [3147, 3146, 2070, 3281, 2074, 2073, 3564, 3565, 2072, 2071], 's_3_32': [3836], 33: [3642, 3639, 3640, 3641], 's_3_33': [3656], 's_3_3': [2300], 's_5_1': [3388], 's_5_9': [2538], 12: [2611, 3223, 2521, 3178, 2386, 3430, 3431, 3432, 2387], 's_5_12': [2372], 14: [2433, 2479, 3747, 1952, 3746, 1953, 1954, 3745], 's_5_14': [3355], 's_5_23': [2461], 30: [2237, 3401, 3400, 1790, 1789, 1788, 1787, 3399], 's_5_30': [3384], 31: [1805, 1804, 1819, 3309, 1818, 3296, 3295, 3294, 1817], 's_5_31': [2041], 's_5_32': [3280], 35: [2222, 2358, 3569, 2432, 3566, 3568, 3567], 's_5_35': [2463], 's_5_5': [2327], 's_11_1': [2314], 8: [2254, 3700, 3762, 3761, 3760, 1999, 3160, 1996, 1998, 1997], 's_11_8': [2329], 's_11_16': [2042], 's_11_17': [2238], 's_11_27': [1906], 's_11_34': [2209], 's_11_11': [1937], 's_17_1': [3674], 's_17_4': [3597], 's_17_9': [2612], 13: [2176, 2178, 2177], 's_17_13': [3596], 's_17_25': [3598], 29: [1923, 2328, 2253, 3594, 1908, 3625, 3626, 3627], 's_17_29': [2133], 's_17_17': [3584], 's_20_8': [3325], 10: [3313, 1832, 3312, 3310, 2162, 3311], 's_20_10': [1876], 's_20_27': [3474], 's_20_29': [3685], 's_20_32': [3549], 's_20_20': [3670], 's_23_9': [2597], 's_23_10': [2537], 's_23_12': [3417], 's_23_14': [3688], 's_23_19': [2402], 's_23_27': [3163], 's_23_35': [3538], 's_23_23': [2475], 's_25_1': [3733], 's_25_14': [2389], 's_25_24': [2135], 's_25_26': [2704], 's_25_31': [3984], 's_25_34': [1970], 's_25_25': [3956], 7: [2236, 2147, 2297, 3371], 's_26_7': [2282], 's_26_9': [3238], 's_26_10': [2342], 's_26_12': [2506], 's_26_14': [2448], 's_26_16': [3523], 22: [2104, 3299, 3791, 2731, 3792, 3793, 3794, 2734, 2733, 2732], 's_26_22': [2539], 's_26_33': [2374], 's_26_35': [2688], 's_26_26': [3659], 's_4_1': [3732], 's_4_8': [3777], 's_4_16': [3612], 's_4_18': [2401], 's_4_19': [3462], 21: [2431, 2356, 3237], 's_4_21': [3328], 's_4_24': [2390], 's_4_27': [3222], 's_4_29': [3552], 's_4_33': [3657], 's_4_4': [2495], 's_6_1': [2551], 's_6_7': [3251], 's_6_8': [3115], 's_6_10': [2326], 's_6_13': [3131], 's_6_15': [2056], 's_6_19': [3235], 's_6_21': [2430], 's_6_24': [3208], 's_6_27': [2536], 's_6_6': [2610], 's_9_27': [2596], 's_9_9': [3554], 's_15_1': [3686], 's_15_7': [3491], 's_15_19': [2102], 's_15_22': [3701], 's_15_24': [3866], 's_15_31': [3774], 's_15_32': [3595], 's_15_34': [3550], 's_15_15': [3985], 's_16_7': [2148], 's_16_12': [3297], 's_16_14': [3535], 's_16_21': [2311], 's_16_29': [2298], 's_16_31': [3534], 's_16_33': [1968], 's_16_34': [2268], 's_16_16': [3518], 's_18_1': [3329], 's_18_21': [2446], 's_18_22': [3764], 's_18_24': [2642], 's_18_31': [2221], 's_18_32': [2206], 's_18_18': [2702], 's_19_1': [2118], 's_19_13': [3341], 's_19_29': [2343], 's_19_31': [2101], 's_19_35': [2703], 's_19_19': [2115], 's_24_1': [3344], 's_24_22': [3449], 28: [1925, 1924], 's_24_28': [3924], 's_24_30': [1775], 's_24_32': [3925], 's_24_34': [1894], 's_24_35': [2643], 's_24_24': [3958], 's_27_8': [1951], 's_27_21': [3102], 's_27_22': [2626], 's_27_31': [3324], 's_27_27': [3413], 's_34_12': [1892], 's_34_14': [3835], 's_34_22': [2284], 's_34_29': [3655], 's_34_34': [2149], 's_1_8': [2299], 's_1_1': [3118], 's_32_8': [3161], 's_32_10': [1833], 's_32_12': [3148], 's_32_13': [3101], 's_32_21': [3132], 's_32_29': [1803], 's_32_35': [3461], 's_32_32': [2100], 's_33_30': [1773], 's_33_31': [3654], 's_33_33': [1743], 's_12_8': [3445], 's_12_22': [3284], 's_12_12': [3133], 's_14_8': [2179], 's_14_29': [2043], 's_14_22': [2434], 's_14_14': [1955], 's_30_29': [3579], 's_30_7': [3446], 's_30_10': [3369], 's_30_31': [3834], 's_30_35': [3492], 's_30_30': [4029], 's_31_8': [3699], 's_31_7': [2192], 's_31_10': [3429], 's_31_31': [3308], 's_35_21': [2357], 's_35_29': [2208], 's_35_35': [2792], 's_8_10': [3340], 's_8_22': [2224], 's_8_28': [3759], 's_8_29': [3610], 's_8_8': [1921], 's_13_29': [3611], 's_13_10': [3326], 's_13_13': [3206], 's_29_28': [3715], 's_29_29': [1909], 's_10_7': [2251], 's_10_10': [2296], 's_7_7': [3327], 's_22_22': [2730], 's_21_21': [3162], 's_28_28': [4000]}</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0001469387755102041</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.000802993151174396</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>{0: [2465, 2464], 6: [2376, 4018, 4017], 10: [4034, 4032, 2526, 4033], 15: [2571, 2570, 3823], 20: [3958, 2405, 3957], 22: [2420, 4049, 4048], 30: [3884, 3883], 31: [2435, 2434, 3927], 32: [3807, 2599, 3809, 3808], 34: [3973, 3972], 1: [4004, 4002, 4003], 2: [4213, 4152, 2406], 7: [4108, 2540, 2541], 11: [4062, 2270, 2390, 3987], 16: [2495, 2494, 3733, 3732], 21: [2285, 3897, 3899, 3898], 25: [3853, 2375], 28: [2511, 2510], 29: [3988, 2600], 35: [3854, 2585, 2584], 4: [2479, 2481, 2480], 8: [2661, 4077, 4078, 4079], 9: [2329, 3882, 2331, 3942, 2330], 17: [2675, 2674, 3869, 3868], 27: [2659, 3943, 2660], 33: [2449, 4093, 4092, 2450], 36: [2360, 2361], 5: [2614, 4063, 4064, 2615], 12: [2509, 2555, 3838], 14: [3928], 13: [2525, 3912, 3913], 3: [3778, 2389, 2419, 3777], 18: [2644, 2645], 19: [2720, 2630, 3989], 24: [2346, 2345], 26: [2315, 3852, 2314], 23: [2629, 3762, 3763]}</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.004708541293907148</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.01049656260897845</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>{0: [2465, 2464], 6: [2376, 4018, 4017], 10: [4034, 4032, 2526, 4033], 15: [2571, 2570, 3823], 20: [3958, 2405, 3957], 22: [2420, 4049, 4048], 30: [3884, 3883], 31: [2435, 2434, 3927], 32: [3807, 2599, 3809, 3808], 34: [3973, 3972], 1: [4004, 4002, 4003], 2: [4213, 4152, 2406], 7: [4108, 2540, 2541], 11: [4062, 2270, 2390, 3987], 16: [2495, 2494, 3733, 3732], 21: [2285, 3897, 3899, 3898], 25: [3853, 2375], 28: [2511, 2510], 29: [3988, 2600], 35: [3854, 2585, 2584], 4: [2479, 2481, 2480], 8: [2661, 4077, 4078, 4079], 9: [2329, 3882, 2331, 3942, 2330], 17: [2675, 2674, 3869, 3868], 27: [2659, 3943, 2660], 33: [2449, 4093, 4092, 2450], 36: [2360, 2361], 5: [2614, 4063, 4064, 2615], 12: [2509, 2555, 3838], 14: [3928], 13: [2525, 3912, 3913], 3: [3778, 2389, 2419, 3777], 18: [2644, 2645], 19: [2720, 2630, 3989], 24: [2346, 2345], 26: [2315, 3852, 2314], 23: [2629, 3762, 3763]}</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0.004708541293907148</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.01049656260897845</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>{0: [670, 671, 5478, 674, 673, 672], 6: [1061, 1062, 5556, 1063, 1064, 5552, 5553, 5554, 5555], 's_0_6': [689], 10: [5356, 5360, 5359, 5358, 5027, 611, 612, 5357], 's_0_10': [5162], 15: [5258, 5257, 808, 5256, 1227, 1229, 5479, 5480, 5481, 1228], 's_0_15': [5403], 20: [5317, 912, 913, 1303, 5391, 5390, 1108, 5253, 5254, 5255], 's_0_20': [687], 22: [5327, 1287, 5328, 5329, 5330, 5331, 1498, 5347, 5346, 1288], 's_0_22': [688], 30: [5464, 929, 928, 4987, 4986, 4985, 4938, 4939, 927, 4984, 926], 's_0_30': [5463], 31: [5543, 5312, 5313, 748, 749, 5542, 5541, 5540, 5539, 704, 5538], 's_0_31': [5613], 32: [5105, 745, 4878, 986, 985, 4879], 's_0_32': [4788], 34: [1019, 1274, 5583, 5466, 5584, 5585, 5586], 's_0_34': [734], 's_0_0': [643], 1: [5221, 5222, 5223, 821, 823, 822, 5225, 5224], 's_6_1': [824], 2: [1394, 1393, 1391, 1392], 's_6_2': [1409], 7: [779, 778, 4925, 4924, 776, 777], 's_6_7': [764], 11: [4851, 4850, 4849, 5582, 629, 628, 627, 626, 625, 4848, 4847], 's_6_11': [524], 16: [5509, 4971, 4972, 5510, 5511, 5512, 1454, 1451, 1452, 1453], 's_6_16': [899], 21: [959, 5120, 958, 955, 956, 957], 's_6_21': [5569], 25: [535, 5075, 5074, 4997, 536, 5073, 5072], 's_6_25': [1076], 28: [5180, 1347, 1346, 5062, 4926, 1271, 1181, 5061], 's_6_28': [5015], 29: [719, 718, 717, 716, 715, 1121, 4895, 4894, 820, 4833], 's_6_29': [1060], 35: [1077, 1497, 5242, 5241, 5240, 5239, 897, 4953, 4954, 896], 's_6_35': [5135], 's_6_6': [1079], 's_10_1': [642], 4: [882, 880, 881, 5028, 5031, 5030, 5029], 's_10_4': [883], 's_10_7': [763], 8: [5166, 1315, 1316, 5316, 1182, 1319, 1318, 1317, 5226], 's_10_8': [5345], 9: [1483, 5422, 5420, 1018, 5421, 1015, 1016, 1017], 's_10_9': [5344], 's_10_11': [5252], 17: [849, 850, 5208, 854, 853, 851, 852], 's_10_17': [868], 's_10_20': [1138], 's_10_22': [1197], 27: [5300, 5286, 5285, 969, 970, 973, 972, 971], 's_10_27': [1152], 's_10_31': [5298], 33: [5041, 5228, 5227, 5042, 5043, 5044, 5045, 1151, 5136, 5137, 1437, 1438], 's_10_33': [551], 36: [5191, 432, 430, 431], 's_10_36': [5341], 's_10_10': [373], 's_15_1': [838], 5: [4748, 4747, 4746, 4745, 4744, 760, 761, 762, 5193, 792, 793], 's_15_5': [5388], 12: [4970, 5378, 5377, 5376, 1091, 1092, 1093, 1183, 5375], 's_15_12': [1663], 14: [1649, 1648, 1645, 1646, 5138, 1647], 's_15_14': [1633], 's_15_16': [988], 's_15_22': [1273], 's_15_27': [5301], 's_15_30': [898], 's_15_31': [1214], 's_15_33': [1422], 's_15_34': [5601], 's_15_15': [5259], 's_20_2': [5361], 's_20_5': [867], 's_20_8': [5315], 's_20_9': [5318], 13: [5449, 5450, 1168, 1167, 1135, 1136, 1137, 5210], 's_20_13': [5405], 's_20_25': [5089], 's_20_27': [1047], 's_20_28': [5271], 's_20_20': [943], 3: [5283, 910, 4759, 4758, 580, 583, 582, 581], 's_22_3': [733], 's_22_5': [837], 's_22_11': [5267, 477], 's_22_16': [1286], 's_22_17': [807], 18: [5152, 1272, 5150, 5151], 's_22_18': [5091], 's_22_33': [1423], 's_22_35': [1078], 's_22_22': [5348], 's_30_3': [911], 's_30_4': [1406], 's_30_5': [4969], 's_30_9': [5524], 's_30_11': [700], 's_30_12': [5000], 's_30_13': [914], 's_30_16': [5002], 19: [1360, 5182, 1257, 5181, 1361], 's_30_19': [1375], 's_30_21': [5599], 's_30_27': [4999], 's_30_35': [5269], 's_30_30': [640], 's_31_1': [657], 's_31_3': [598], 's_31_5': [5433], 's_31_8': [1304], 's_31_9': [1378], 's_31_11': [5658], 's_31_12': [1513], 's_31_13': [5525], 's_31_14': [5528], 's_31_17': [5523], 24: [5526, 1362, 1363], 's_31_24': [1244], 's_31_29': [5643], 's_31_34': [884], 's_31_36': [462], 's_31_31': [1769], 's_32_4': [895], 's_32_5': [4728], 's_32_12': [4955], 's_32_17': [4864], 's_32_18': [1001], 26: [1334, 1333, 1332, 1331, 4906, 4908, 4909, 4910, 4911, 4907, 1330], 's_32_26': [805], 's_32_29': [4863], 's_32_32': [835], 's_34_7': [5598], 's_34_9': [1198], 's_34_11': [5567, 644], 's_34_12': [1184], 's_34_13': [1124], 's_34_24': [1259], 's_34_26': [5571], 's_34_34': [5690], 's_1_5': [747], 's_1_7': [5494], 's_1_9': [5419], 's_1_11': [5192, 567], 's_1_29': [5163], 's_1_33': [5059], 's_1_36': [372], 's_1_1': [357], 's_2_9': [5272], 's_2_4': [5016], 's_2_28': [5107], 's_2_2': [4957], 's_7_12': [1106], 's_7_25': [5088], 's_7_27': [5299], 's_7_29': [5448], 's_7_33': [5058], 's_7_35': [5134], 's_7_7': [5178], 's_11_5': [1090], 's_11_3': [550, 4877], 's_11_8': [1300], 's_11_13': [4835], 's_11_21': [4834], 's_11_26': [520], 's_11_29': [1045], 's_11_11': [1405], 's_16_29': [4956], 's_16_28': [5047], 's_16_17': [869], 23: [5288, 4804, 4805, 4806, 4807, 1495, 1496, 5017, 1556, 1557], 's_16_23': [5362], 's_16_12': [1094], 's_16_18': [1467], 's_16_21': [944], 's_16_26': [5482], 's_16_27': [5495], 's_16_16': [5527], 's_21_23': [940], 's_21_25': [942], 's_21_13': [5434], 's_21_26': [941], 's_21_27': [4775], 's_21_21': [5374], 's_25_9': [5090], 's_25_33': [656], 's_25_3': [5012], 's_25_17': [732], 's_25_13': [1122], 's_25_26': [655], 's_25_25': [5071], 's_28_29': [4896], 's_28_33': [1376], 's_28_12': [1107], 's_28_13': [5060], 's_28_28': [1210], 's_29_5': [5373], 's_29_4': [701], 's_29_13': [4941], 's_29_29': [819], 's_35_3': [596], 's_35_17': [5119], 's_35_23': [5212], 's_35_8': [1407], 's_35_12': [5195], 's_35_14': [5153], 's_35_18': [1302], 's_35_19': [1482], 's_35_35': [4968], 's_4_5': [791], 's_4_9': [5179], 's_4_33': [731], 's_4_23': [5032], 's_4_4': [1211], 's_8_9': [1123], 's_8_33': [5046], 's_8_27': [5287], 's_8_19': [4927], 's_8_24': [5497], 's_8_8': [4716], 's_9_13': [5435], 's_9_23': [5333], 's_9_24': [5407], 's_9_26': [5406], 's_9_9': [1528], 's_17_5': [5104], 's_17_33': [866], 's_17_3': [4729], 's_17_17': [5659], 's_27_23': [984], 's_27_13': [5209], 's_27_18': [1032], 's_27_19': [1242], 's_27_27': [974], 's_33_19': [1587], 's_33_23': [5167], 's_33_24': [1377], 's_33_36': [5056], 's_33_33': [341], 's_36_26': [445], 's_36_36': [4981], 's_5_14': [1630], 's_5_23': [1465], 's_5_5': [804], 's_12_14': [5393], 's_12_12': [1678], 's_14_23': [4958], 's_14_14': [5453], 's_13_23': [4820], 's_13_18': [5121], 's_13_26': [5451], 's_13_13': [4730], 's_3_23': [925], 's_3_3': [894], 's_18_19': [5211], 's_18_18': [1196], 's_19_19': [5183], 's_24_26': [5332], 's_24_24': [5437], 's_26_26': [386], 's_23_23': [4882]}</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0001428571428571428</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0007187828356110526</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>{0: [670, 671, 5478, 674, 673, 672], 6: [1061, 1062, 5556, 1063, 1064, 5552, 5553, 5554, 5555], 's_0_6': [689], 10: [5356, 5360, 5359, 5358, 5027, 611, 612, 5357], 's_0_10': [5162], 15: [5258, 5257, 808, 5256, 1227, 1229, 5479, 5480, 5481, 1228], 's_0_15': [5403], 20: [5317, 912, 913, 1303, 5391, 5390, 1108, 5253, 5254, 5255], 's_0_20': [687], 22: [5327, 1287, 5328, 5329, 5330, 5331, 1498, 5347, 5346, 1288], 's_0_22': [688], 30: [5464, 929, 928, 4987, 4986, 4985, 4938, 4939, 927, 4984, 926], 's_0_30': [5463], 31: [5543, 5312, 5313, 748, 749, 5542, 5541, 5540, 5539, 704, 5538], 's_0_31': [5613], 32: [5105, 745, 4878, 986, 985, 4879], 's_0_32': [4788], 34: [1019, 1274, 5583, 5466, 5584, 5585, 5586], 's_0_34': [734], 's_0_0': [643], 1: [5221, 5222, 5223, 821, 823, 822, 5225, 5224], 's_6_1': [824], 2: [1394, 1393, 1391, 1392], 's_6_2': [1409], 7: [779, 778, 4925, 4924, 776, 777], 's_6_7': [764], 11: [4851, 4850, 4849, 5582, 629, 628, 627, 626, 625, 4848, 4847], 's_6_11': [524], 16: [5509, 4971, 4972, 5510, 5511, 5512, 1454, 1451, 1452, 1453], 's_6_16': [899], 21: [959, 5120, 958, 955, 956, 957], 's_6_21': [5569], 25: [535, 5075, 5074, 4997, 536, 5073, 5072], 's_6_25': [1076], 28: [5180, 1347, 1346, 5062, 4926, 1271, 1181, 5061], 's_6_28': [5015], 29: [719, 718, 717, 716, 715, 1121, 4895, 4894, 820, 4833], 's_6_29': [1060], 35: [1077, 1497, 5242, 5241, 5240, 5239, 897, 4953, 4954, 896], 's_6_35': [5135], 's_6_6': [1079], 's_10_1': [642], 4: [882, 880, 881, 5028, 5031, 5030, 5029], 's_10_4': [883], 's_10_7': [763], 8: [5166, 1315, 1316, 5316, 1182, 1319, 1318, 1317, 5226], 's_10_8': [5345], 9: [1483, 5422, 5420, 1018, 5421, 1015, 1016, 1017], 's_10_9': [5344], 's_10_11': [5252], 17: [849, 850, 5208, 854, 853, 851, 852], 's_10_17': [868], 's_10_20': [1138], 's_10_22': [1197], 27: [5300, 5286, 5285, 969, 970, 973, 972, 971], 's_10_27': [1152], 's_10_31': [5298], 33: [5041, 5228, 5227, 5042, 5043, 5044, 5045, 1151, 5136, 5137, 1437, 1438], 's_10_33': [551], 36: [5191, 432, 430, 431], 's_10_36': [5341], 's_10_10': [373], 's_15_1': [838], 5: [4748, 4747, 4746, 4745, 4744, 760, 761, 762, 5193, 792, 793], 's_15_5': [5388], 12: [4970, 5378, 5377, 5376, 1091, 1092, 1093, 1183, 5375], 's_15_12': [1663], 14: [1649, 1648, 1645, 1646, 5138, 1647], 's_15_14': [1633], 's_15_16': [988], 's_15_22': [1273], 's_15_27': [5301], 's_15_30': [898], 's_15_31': [1214], 's_15_33': [1422], 's_15_34': [5601], 's_15_15': [5259], 's_20_2': [5361], 's_20_5': [867], 's_20_8': [5315], 's_20_9': [5318], 13: [5449, 5450, 1168, 1167, 1135, 1136, 1137, 5210], 's_20_13': [5405], 's_20_25': [5089], 's_20_27': [1047], 's_20_28': [5271], 's_20_20': [943], 3: [5283, 910, 4759, 4758, 580, 583, 582, 581], 's_22_3': [733], 's_22_5': [837], 's_22_11': [5267, 477], 's_22_16': [1286], 's_22_17': [807], 18: [5152, 1272, 5150, 5151], 's_22_18': [5091], 's_22_33': [1423], 's_22_35': [1078], 's_22_22': [5348], 's_30_3': [911], 's_30_4': [1406], 's_30_5': [4969], 's_30_9': [5524], 's_30_11': [700], 's_30_12': [5000], 's_30_13': [914], 's_30_16': [5002], 19: [1360, 5182, 1257, 5181, 1361], 's_30_19': [1375], 's_30_21': [5599], 's_30_27': [4999], 's_30_35': [5269], 's_30_30': [640], 's_31_1': [657], 's_31_3': [598], 's_31_5': [5433], 's_31_8': [1304], 's_31_9': [1378], 's_31_11': [5658], 's_31_12': [1513], 's_31_13': [5525], 's_31_14': [5528], 's_31_17': [5523], 24: [5526, 1362, 1363], 's_31_24': [1244], 's_31_29': [5643], 's_31_34': [884], 's_31_36': [462], 's_31_31': [1769], 's_32_4': [895], 's_32_5': [4728], 's_32_12': [4955], 's_32_17': [4864], 's_32_18': [1001], 26: [1334, 1333, 1332, 1331, 4906, 4908, 4909, 4910, 4911, 4907, 1330], 's_32_26': [805], 's_32_29': [4863], 's_32_32': [835], 's_34_7': [5598], 's_34_9': [1198], 's_34_11': [5567, 644], 's_34_12': [1184], 's_34_13': [1124], 's_34_24': [1259], 's_34_26': [5571], 's_34_34': [5690], 's_1_5': [747], 's_1_7': [5494], 's_1_9': [5419], 's_1_11': [5192, 567], 's_1_29': [5163], 's_1_33': [5059], 's_1_36': [372], 's_1_1': [357], 's_2_9': [5272], 's_2_4': [5016], 's_2_28': [5107], 's_2_2': [4957], 's_7_12': [1106], 's_7_25': [5088], 's_7_27': [5299], 's_7_29': [5448], 's_7_33': [5058], 's_7_35': [5134], 's_7_7': [5178], 's_11_5': [1090], 's_11_3': [550, 4877], 's_11_8': [1300], 's_11_13': [4835], 's_11_21': [4834], 's_11_26': [520], 's_11_29': [1045], 's_11_11': [1405], 's_16_29': [4956], 's_16_28': [5047], 's_16_17': [869], 23: [5288, 4804, 4805, 4806, 4807, 1495, 1496, 5017, 1556, 1557], 's_16_23': [5362], 's_16_12': [1094], 's_16_18': [1467], 's_16_21': [944], 's_16_26': [5482], 's_16_27': [5495], 's_16_16': [5527], 's_21_23': [940], 's_21_25': [942], 's_21_13': [5434], 's_21_26': [941], 's_21_27': [4775], 's_21_21': [5374], 's_25_9': [5090], 's_25_33': [656], 's_25_3': [5012], 's_25_17': [732], 's_25_13': [1122], 's_25_26': [655], 's_25_25': [5071], 's_28_29': [4896], 's_28_33': [1376], 's_28_12': [1107], 's_28_13': [5060], 's_28_28': [1210], 's_29_5': [5373], 's_29_4': [701], 's_29_13': [4941], 's_29_29': [819], 's_35_3': [596], 's_35_17': [5119], 's_35_23': [5212], 's_35_8': [1407], 's_35_12': [5195], 's_35_14': [5153], 's_35_18': [1302], 's_35_19': [1482], 's_35_35': [4968], 's_4_5': [791], 's_4_9': [5179], 's_4_33': [731], 's_4_23': [5032], 's_4_4': [1211], 's_8_9': [1123], 's_8_33': [5046], 's_8_27': [5287], 's_8_19': [4927], 's_8_24': [5497], 's_8_8': [4716], 's_9_13': [5435], 's_9_23': [5333], 's_9_24': [5407], 's_9_26': [5406], 's_9_9': [1528], 's_17_5': [5104], 's_17_33': [866], 's_17_3': [4729], 's_17_17': [5659], 's_27_23': [984], 's_27_13': [5209], 's_27_18': [1032], 's_27_19': [1242], 's_27_27': [974], 's_33_19': [1587], 's_33_23': [5167], 's_33_24': [1377], 's_33_36': [5056], 's_33_33': [341], 's_36_26': [445], 's_36_36': [4981], 's_5_14': [1630], 's_5_23': [1465], 's_5_5': [804], 's_12_14': [5393], 's_12_12': [1678], 's_14_23': [4958], 's_14_14': [5453], 's_13_23': [4820], 's_13_18': [5121], 's_13_26': [5451], 's_13_13': [4730], 's_3_23': [925], 's_3_3': [894], 's_18_19': [5211], 's_18_18': [1196], 's_19_19': [5183], 's_24_26': [5332], 's_24_24': [5437], 's_26_26': [386], 's_23_23': [4882]}</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0001428571428571428</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.0007187828356110526</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>{0: [676, 675, 2988], 1: [3153, 856, 3154], 6: [3092, 3093, 766], 8: [2973, 871, 870, 2974], 10: [3274, 3273], 11: [570, 571], 14: [3047, 645], 16: [795, 3079, 3078], 21: [3032, 616, 615], 25: [796, 3214, 3212, 3213], 29: [2989, 885, 3199, 886], 31: [572, 3303], 3: [3063, 781, 780], 4: [691, 825, 3198], 7: [3244, 810, 811], 13: [915, 3409, 916, 917], 17: [541, 661, 3197], 20: [3183], 24: [630, 631], 35: [3289, 3288], 23: [720, 721], 26: [601, 3228, 3227], 30: [902, 901, 3138, 3139], 37: [2958, 737, 735, 736], 2: [3018, 3064, 855], 9: [932, 3170, 3094, 931], 19: [3318, 3319], 27: [872, 976, 3363, 3364], 36: [3123, 3125, 3124], 18: [751, 556, 3109, 3107, 3108], 32: [3257, 3167, 526], 28: [975, 3048, 3049], 34: [646, 3243], 5: [3033, 3259, 841, 840], 22: [586, 3168, 3169], 33: [842, 3379, 3377, 3378], 12: [3349], 15: [722, 767, 3408]}</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.005544395339493773</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.01176541799615807</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>{0: [676, 675, 2988], 1: [3153, 856, 3154], 6: [3092, 3093, 766], 8: [2973, 871, 870, 2974], 10: [3274, 3273], 11: [570, 571], 14: [3047, 645], 16: [795, 3079, 3078], 21: [3032, 616, 615], 25: [796, 3214, 3212, 3213], 29: [2989, 885, 3199, 886], 31: [572, 3303], 3: [3063, 781, 780], 4: [691, 825, 3198], 7: [3244, 810, 811], 13: [915, 3409, 916, 917], 17: [541, 661, 3197], 20: [3183], 24: [630, 631], 35: [3289, 3288], 23: [720, 721], 26: [601, 3228, 3227], 30: [902, 901, 3138, 3139], 37: [2958, 737, 735, 736], 2: [3018, 3064, 855], 9: [932, 3170, 3094, 931], 19: [3318, 3319], 27: [872, 976, 3363, 3364], 36: [3123, 3125, 3124], 18: [751, 556, 3109, 3107, 3108], 32: [3257, 3167, 526], 28: [975, 3048, 3049], 34: [646, 3243], 5: [3033, 3259, 841, 840], 22: [586, 3168, 3169], 33: [842, 3379, 3377, 3378], 12: [3349], 15: [722, 767, 3408]}</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0.005544395339493773</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.01176541799615807</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>{0: [4609, 4610, 4611, 4868, 4867, 4866, 1210, 1209], 1: [4849, 1043, 1044, 4881, 4880, 1045], 's_0_1': [1345], 6: [4238, 849, 848, 847, 4234, 4237, 4236, 4235], 's_0_6': [864], 8: [4954, 4955, 4956, 1271, 1433, 4537, 4536, 1269, 1270], 's_0_8': [1211], 10: [4896, 4898, 4897], 's_0_10': [1690], 11: [4713, 761, 4744, 758, 759, 760], 's_0_11': [774], 14: [4758, 4759, 4760, 1165, 1162, 1163, 1164, 4761], 's_0_14': [4926], 16: [4519, 968, 941, 940, 4534, 939], 's_0_16': [924], 21: [1297, 1298, 4670, 4673, 4672, 4671, 1299], 's_0_21': [1254], 25: [1241, 1240, 4774, 4777, 4775, 1178, 1179, 4776], 's_0_25': [4596], 29: [4852, 1417, 1418, 1420, 1419], 's_0_29': [1570], 31: [4598, 4703, 1645, 1644], 's_0_31': [4883], 's_0_0': [4869], 3: [4747, 865, 4864, 955, 1239, 4746, 4745], 's_1_3': [4848], 4: [4282, 4280, 880, 879, 4281, 878, 877, 4279], 's_1_4': [4624], 7: [4507, 1028, 4505, 4506], 's_1_7': [4550], 13: [5001, 1313, 1314, 1316, 1315], 's_1_13': [1300], 's_1_16': [4834], 17: [730, 729, 4653, 1089, 4655, 4654], 's_1_17': [4595], 20: [4549, 894, 4444, 4414, 893], 's_1_20': [4429, 4430], 24: [802, 803, 4579, 4580, 4583, 4582, 4581], 's_1_24': [4565], 35: [4909, 4912, 4911, 4910], 's_1_35': [985], 's_1_1': [970], 's_6_4': [1191], 's_6_14': [1102, 4295], 's_6_17': [4623], 's_6_20': [4443], 's_6_21': [4252], 23: [4488, 4491, 4490, 923, 4489], 's_6_23': [4384], 26: [4474, 4324, 984, 982, 983], 's_6_26': [937], 30: [1582, 1583, 4568, 1479, 1480, 4835, 4837, 4836], 's_6_30': [4253], 37: [4791, 818, 819, 4714, 1121, 1120, 4715], 's_6_37': [4594], 's_6_6': [786], 2: [4433, 4432, 1252, 1253, 4431], 's_8_2': [4551], 9: [4356, 1522, 1432, 4357], 's_8_9': [4447], 's_8_11': [4969], 's_8_13': [5061], 's_8_16': [4970], 19: [4643, 1447, 1448, 4642, 1450, 1449], 's_8_19': [1508], 's_8_25': [5016], 27: [1329, 1390, 4805, 4806], 's_8_27': [1328], 36: [4446, 1404, 1403, 1356, 1357, 4417], 's_8_36': [1238], 's_8_37': [820], 's_8_8': [911], 's_10_13': [1330], 's_10_25': [1225], 's_10_29': [1540], 's_10_10': [4913], 's_11_14': [775], 's_11_17': [4833], 18: [4399, 4459, 997, 4402, 4401, 4400], 's_11_18': [4458], 's_11_25': [4789], 32: [1030, 4803, 4804], 's_11_32': [4818], 's_11_37': [4668], 's_11_11': [5013], 's_14_3': [1105], 's_14_16': [4535], 's_14_17': [745], 's_14_18': [1118, 4475], 's_14_24': [804], 28: [4369, 1285, 1284, 1283, 4416, 4415, 953], 's_14_28': [4370], 's_14_30': [1150], 34: [1553, 1148, 4625, 4627, 4626], 's_14_34': [4520], 's_14_14': [609], 's_16_3': [4879], 5: [1029, 4684, 4685, 1389, 4687, 4686], 's_16_5': [909], 's_16_20': [863], 's_16_23': [833], 's_16_24': [4533], 's_16_28': [938], 's_16_16': [5014], 's_21_5': [1119], 's_21_17': [1104], 22: [1192, 4790, 4445, 1057, 1060, 1059, 1058], 's_21_22': [4341], 's_21_24': [4567], 's_21_31': [1494], 33: [1554, 1342, 4822, 1343, 4819, 4820, 1344, 4821], 's_21_33': [4296], 's_21_36': [4311], 's_21_21': [1749], 's_25_7': [1193], 12: [1360, 1359], 's_25_12': [4986], 's_25_13': [5031], 's_25_17': [4773], 's_25_22': [4640], 's_25_24': [4566], 's_25_30': [1255], 's_25_32': [925], 's_25_35': [1405], 's_25_25': [5091], 's_29_4': [4267], 's_29_5': [4762], 's_29_9': [4312], 's_29_19': [4807], 's_29_35': [1510], 's_29_29': [1421], 's_31_19': [1584], 's_31_24': [1629], 's_31_33': [4733], 's_31_34': [1538], 's_31_31': [4853], 's_3_5': [1374], 's_3_19': [1465], 's_3_28': [4731], 's_3_34': [1074], 's_3_35': [835], 's_3_36': [4641], 's_3_3': [956], 's_4_2': [1176, 4251], 's_4_19': [1462], 's_4_22': [4940, 4939], 's_4_26': [922], 's_4_28': [952], 's_4_35': [4894], 's_4_36': [4266], 's_4_4': [876], 's_7_2': [1388], 's_7_18': [1268], 's_7_22': [1073], 's_7_26': [4294, 1027], 's_7_28': [1088], 's_7_34': [4508], 's_7_36': [4522], 's_7_7': [4521], 's_13_12': [4957], 15: [1358, 4927, 4612, 1435, 1434], 's_13_15': [1301], 's_13_18': [4387], 's_13_27': [4851], 's_13_30': [1375], 's_13_33': [4461], 's_13_13': [5002], 's_17_22': [4700], 's_17_24': [4548], 's_17_32': [999], 's_17_34': [1224], 's_17_17': [4652], 's_20_5': [4699], 's_20_18': [967], 's_20_23': [773], 's_20_37': [817], 's_20_20': [4639], 's_24_18': [787], 's_24_22': [1208], 's_24_26': [1013], 's_24_30': [1568], 's_24_33': [1523, 1524], 's_24_24': [801], 's_35_15': [1466], 's_35_37': [1136], 's_35_35': [1091], 's_23_2': [1223], 's_23_15': [1373], 's_23_18': [1103], 's_23_22': [1133], 's_23_26': [4354], 's_23_34': [4492], 's_23_37': [4473], 's_23_23': [4487], 's_26_18': [862], 's_26_33': [969], 's_26_37': [4729], 's_26_26': [4339, 4340], 's_30_2': [4553, 1613], 's_30_12': [4702], 's_30_19': [4613, 1599], 's_30_22': [1075], 's_30_27': [1135], 's_30_37': [1090], 's_30_30': [4763], 's_37_28': [4504], 's_37_22': [4895], 's_37_27': [1194], 's_37_33': [910], 's_37_37': [1122], 's_2_9': [4418], 's_2_28': [4386], 's_2_2': [1537], 's_9_18': [1237], 's_9_22': [4355], 's_9_28': [4371], 's_9_33': [1327], 's_9_36': [4327], 's_9_9': [4358], 's_19_5': [1464], 's_19_15': [1451], 's_19_19': [1688], 's_27_28': [4656], 's_27_5': [4701], 's_27_15': [4942], 's_27_33': [4716], 's_27_27': [1391], 's_36_5': [4597], 's_36_36': [4177], 's_18_28': [908], 's_18_22': [1147], 's_18_18': [4385], 's_32_22': [4925], 's_32_32': [700], 's_28_28': [4368], 's_34_33': [1149], 's_34_34': [4523], 's_5_22': [1014], 's_5_33': [4688], 's_5_5': [4683], 's_22_22': [1056], 's_33_12': [4792], 's_33_15': [4476], 's_33_33': [1539], 's_12_15': [4717], 's_12_12': [1361], 's_15_15': [4928]}</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0001659919028340081</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0008229585238778102</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>{0: [4609, 4610, 4611, 4868, 4867, 4866, 1210, 1209], 1: [4849, 1043, 1044, 4881, 4880, 1045], 's_0_1': [1345], 6: [4238, 849, 848, 847, 4234, 4237, 4236, 4235], 's_0_6': [864], 8: [4954, 4955, 4956, 1271, 1433, 4537, 4536, 1269, 1270], 's_0_8': [1211], 10: [4896, 4898, 4897], 's_0_10': [1690], 11: [4713, 761, 4744, 758, 759, 760], 's_0_11': [774], 14: [4758, 4759, 4760, 1165, 1162, 1163, 1164, 4761], 's_0_14': [4926], 16: [4519, 968, 941, 940, 4534, 939], 's_0_16': [924], 21: [1297, 1298, 4670, 4673, 4672, 4671, 1299], 's_0_21': [1254], 25: [1241, 1240, 4774, 4777, 4775, 1178, 1179, 4776], 's_0_25': [4596], 29: [4852, 1417, 1418, 1420, 1419], 's_0_29': [1570], 31: [4598, 4703, 1645, 1644], 's_0_31': [4883], 's_0_0': [4869], 3: [4747, 865, 4864, 955, 1239, 4746, 4745], 's_1_3': [4848], 4: [4282, 4280, 880, 879, 4281, 878, 877, 4279], 's_1_4': [4624], 7: [4507, 1028, 4505, 4506], 's_1_7': [4550], 13: [5001, 1313, 1314, 1316, 1315], 's_1_13': [1300], 's_1_16': [4834], 17: [730, 729, 4653, 1089, 4655, 4654], 's_1_17': [4595], 20: [4549, 894, 4444, 4414, 893], 's_1_20': [4429, 4430], 24: [802, 803, 4579, 4580, 4583, 4582, 4581], 's_1_24': [4565], 35: [4909, 4912, 4911, 4910], 's_1_35': [985], 's_1_1': [970], 's_6_4': [1191], 's_6_14': [1102, 4295], 's_6_17': [4623], 's_6_20': [4443], 's_6_21': [4252], 23: [4488, 4491, 4490, 923, 4489], 's_6_23': [4384], 26: [4474, 4324, 984, 982, 983], 's_6_26': [937], 30: [1582, 1583, 4568, 1479, 1480, 4835, 4837, 4836], 's_6_30': [4253], 37: [4791, 818, 819, 4714, 1121, 1120, 4715], 's_6_37': [4594], 's_6_6': [786], 2: [4433, 4432, 1252, 1253, 4431], 's_8_2': [4551], 9: [4356, 1522, 1432, 4357], 's_8_9': [4447], 's_8_11': [4969], 's_8_13': [5061], 's_8_16': [4970], 19: [4643, 1447, 1448, 4642, 1450, 1449], 's_8_19': [1508], 's_8_25': [5016], 27: [1329, 1390, 4805, 4806], 's_8_27': [1328], 36: [4446, 1404, 1403, 1356, 1357, 4417], 's_8_36': [1238], 's_8_37': [820], 's_8_8': [911], 's_10_13': [1330], 's_10_25': [1225], 's_10_29': [1540], 's_10_10': [4913], 's_11_14': [775], 's_11_17': [4833], 18: [4399, 4459, 997, 4402, 4401, 4400], 's_11_18': [4458], 's_11_25': [4789], 32: [1030, 4803, 4804], 's_11_32': [4818], 's_11_37': [4668], 's_11_11': [5013], 's_14_3': [1105], 's_14_16': [4535], 's_14_17': [745], 's_14_18': [1118, 4475], 's_14_24': [804], 28: [4369, 1285, 1284, 1283, 4416, 4415, 953], 's_14_28': [4370], 's_14_30': [1150], 34: [1553, 1148, 4625, 4627, 4626], 's_14_34': [4520], 's_14_14': [609], 's_16_3': [4879], 5: [1029, 4684, 4685, 1389, 4687, 4686], 's_16_5': [909], 's_16_20': [863], 's_16_23': [833], 's_16_24': [4533], 's_16_28': [938], 's_16_16': [5014], 's_21_5': [1119], 's_21_17': [1104], 22: [1192, 4790, 4445, 1057, 1060, 1059, 1058], 's_21_22': [4341], 's_21_24': [4567], 's_21_31': [1494], 33: [1554, 1342, 4822, 1343, 4819, 4820, 1344, 4821], 's_21_33': [4296], 's_21_36': [4311], 's_21_21': [1749], 's_25_7': [1193], 12: [1360, 1359], 's_25_12': [4986], 's_25_13': [5031], 's_25_17': [4773], 's_25_22': [4640], 's_25_24': [4566], 's_25_30': [1255], 's_25_32': [925], 's_25_35': [1405], 's_25_25': [5091], 's_29_4': [4267], 's_29_5': [4762], 's_29_9': [4312], 's_29_19': [4807], 's_29_35': [1510], 's_29_29': [1421], 's_31_19': [1584], 's_31_24': [1629], 's_31_33': [4733], 's_31_34': [1538], 's_31_31': [4853], 's_3_5': [1374], 's_3_19': [1465], 's_3_28': [4731], 's_3_34': [1074], 's_3_35': [835], 's_3_36': [4641], 's_3_3': [956], 's_4_2': [1176, 4251], 's_4_19': [1462], 's_4_22': [4940, 4939], 's_4_26': [922], 's_4_28': [952], 's_4_35': [4894], 's_4_36': [4266], 's_4_4': [876], 's_7_2': [1388], 's_7_18': [1268], 's_7_22': [1073], 's_7_26': [4294, 1027], 's_7_28': [1088], 's_7_34': [4508], 's_7_36': [4522], 's_7_7': [4521], 's_13_12': [4957], 15: [1358, 4927, 4612, 1435, 1434], 's_13_15': [1301], 's_13_18': [4387], 's_13_27': [4851], 's_13_30': [1375], 's_13_33': [4461], 's_13_13': [5002], 's_17_22': [4700], 's_17_24': [4548], 's_17_32': [999], 's_17_34': [1224], 's_17_17': [4652], 's_20_5': [4699], 's_20_18': [967], 's_20_23': [773], 's_20_37': [817], 's_20_20': [4639], 's_24_18': [787], 's_24_22': [1208], 's_24_26': [1013], 's_24_30': [1568], 's_24_33': [1523, 1524], 's_24_24': [801], 's_35_15': [1466], 's_35_37': [1136], 's_35_35': [1091], 's_23_2': [1223], 's_23_15': [1373], 's_23_18': [1103], 's_23_22': [1133], 's_23_26': [4354], 's_23_34': [4492], 's_23_37': [4473], 's_23_23': [4487], 's_26_18': [862], 's_26_33': [969], 's_26_37': [4729], 's_26_26': [4339, 4340], 's_30_2': [4553, 1613], 's_30_12': [4702], 's_30_19': [4613, 1599], 's_30_22': [1075], 's_30_27': [1135], 's_30_37': [1090], 's_30_30': [4763], 's_37_28': [4504], 's_37_22': [4895], 's_37_27': [1194], 's_37_33': [910], 's_37_37': [1122], 's_2_9': [4418], 's_2_28': [4386], 's_2_2': [1537], 's_9_18': [1237], 's_9_22': [4355], 's_9_28': [4371], 's_9_33': [1327], 's_9_36': [4327], 's_9_9': [4358], 's_19_5': [1464], 's_19_15': [1451], 's_19_19': [1688], 's_27_28': [4656], 's_27_5': [4701], 's_27_15': [4942], 's_27_33': [4716], 's_27_27': [1391], 's_36_5': [4597], 's_36_36': [4177], 's_18_28': [908], 's_18_22': [1147], 's_18_18': [4385], 's_32_22': [4925], 's_32_32': [700], 's_28_28': [4368], 's_34_33': [1149], 's_34_34': [4523], 's_5_22': [1014], 's_5_33': [4688], 's_5_5': [4683], 's_22_22': [1056], 's_33_12': [4792], 's_33_15': [4476], 's_33_33': [1539], 's_12_15': [4717], 's_12_12': [1361], 's_15_15': [4928]}</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0001659919028340081</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0008229585238778102</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>{0: [1445, 1446, 4132], 2: [1206, 1416, 4056, 4057], 4: [3846, 3847], 5: [3937, 1520], 9: [1369, 3997, 1370], 11: [4026, 4028, 4027], 12: [1459, 1461, 1460], 17: [3950, 3951, 1565, 3952], 18: [3966, 3967], 24: [3756, 1444, 3757], 26: [1491, 1489, 1490], 28: [1399, 3816, 3817], 29: [4131, 1265, 1266], 34: [4117, 4116, 1281], 37: [1476, 3907, 1475], 38: [1534, 4071, 4072, 4073, 1535], 8: [4086, 1175, 4085], 15: [4207, 1295, 1296, 1297], 22: [3893, 1311, 3892, 1310], 23: [1355, 3832, 1354], 25: [3770, 1190, 1189], 27: [1400, 4147, 1401], 31: [3788, 1549, 4101, 1550, 4102], 33: [1249, 1250, 1251], 7: [1280, 3936], 10: [3848, 1640, 4148, 1641], 16: [1579, 3861, 3863, 3862], 32: [4011, 1384, 4012, 1385], 13: [3921, 1415, 3922], 21: [3983, 3982], 36: [3998, 3968, 1595], 6: [4087, 1504, 1505], 19: [1610, 3877, 1519, 3878], 3: [4041, 4042, 1325], 14: [1564, 3771, 3772], 20: [3996, 1339, 1340], 35: [1429, 1431, 1430], 1: [1174, 3787, 3786], 30: [3981, 1235, 1324, 3906]}</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.009009009009009009</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.01447782021626</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>{0: [1445, 1446, 4132], 2: [1206, 1416, 4056, 4057], 4: [3846, 3847], 5: [3937, 1520], 9: [1369, 3997, 1370], 11: [4026, 4028, 4027], 12: [1459, 1461, 1460], 17: [3950, 3951, 1565, 3952], 18: [3966, 3967], 24: [3756, 1444, 3757], 26: [1491, 1489, 1490], 28: [1399, 3816, 3817], 29: [4131, 1265, 1266], 34: [4117, 4116, 1281], 37: [1476, 3907, 1475], 38: [1534, 4071, 4072, 4073, 1535], 8: [4086, 1175, 4085], 15: [4207, 1295, 1296, 1297], 22: [3893, 1311, 3892, 1310], 23: [1355, 3832, 1354], 25: [3770, 1190, 1189], 27: [1400, 4147, 1401], 31: [3788, 1549, 4101, 1550, 4102], 33: [1249, 1250, 1251], 7: [1280, 3936], 10: [3848, 1640, 4148, 1641], 16: [1579, 3861, 3863, 3862], 32: [4011, 1384, 4012, 1385], 13: [3921, 1415, 3922], 21: [3983, 3982], 36: [3998, 3968, 1595], 6: [4087, 1504, 1505], 19: [1610, 3877, 1519, 3878], 3: [4041, 4042, 1325], 14: [1564, 3771, 3772], 20: [3996, 1339, 1340], 35: [1429, 1431, 1430], 1: [1174, 3787, 3786], 30: [3981, 1235, 1324, 3906]}</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0.009009009009009009</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.01447782021626</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>{0: [738, 407, 3302, 3303, 737, 752, 3393, 3394, 3485, 1037], 2: [227, 228, 3753, 769, 768, 3540, 3541, 3542, 3543], 's_0_2': [812], 4: [361, 3650, 1084, 1083, 1082, 3140, 1081, 3139, 3138, 3137, 3136], 's_0_4': [3425], 5: [3513, 3512], 's_0_5': [408], 9: [392, 3320, 3319, 3316, 3317, 3318], 's_0_9': [481], 11: [4111, 4112, 4113, 741, 1006, 1007, 1008, 1009, 3904, 3903, 740], 's_0_11': [3455], 12: [3454, 3453, 3405, 3406, 3407, 662, 663, 664, 3813], 's_0_12': [661], 17: [3948, 3947, 3946, 380, 3274, 3273, 379, 378, 377, 3271, 3272], 's_0_17': [3288], 18: [1038, 528, 3587, 3588, 875, 874, 873, 3589], 's_0_18': [753], 24: [917, 918, 919, 920, 921, 561, 4142, 4143, 4144], 's_0_24': [3409], 26: [154, 3332, 3735, 3736, 482, 483, 484], 's_0_26': [3361], 28: [3256, 4022, 425, 3226, 421, 422, 423, 424], 's_0_28': [406], 29: [4158, 4159, 948, 949, 951, 950], 's_0_29': [947], 34: [887, 3350, 3346, 3347, 3349, 3348], 's_0_34': [1052], 37: [3378, 3992, 3993, 680, 3376, 3377, 677, 678, 679], 's_0_37': [646], 38: [3888, 3287, 601, 604, 603, 602], 's_0_38': [511], 's_0_0': [3470, 1128], 8: [381, 4006, 3331, 302, 303, 304, 305], 's_2_8': [3360], 's_2_9': [767], 's_2_12': [784], 15: [3514, 782, 780, 3211, 3212, 3228, 3214, 3213, 781], 's_2_15': [3529], 22: [574, 3661, 3662, 3665, 3664, 3663], 's_2_22': [229], 23: [3364, 541, 3496, 3497, 3363, 3362, 542, 543], 's_2_23': [213], 25: [274, 739, 3796, 3799, 3797, 3798], 's_2_25': [3768], 27: [4250, 4249, 3468, 797, 801, 798, 800, 799], 's_2_27': [3783], 31: [363, 332, 3558, 348, 3559, 3601, 333, 3556, 3557, 513], 's_2_31': [708], 33: [1085, 410, 770, 3842, 3845, 3843, 3844], 's_2_33': [694], 's_2_2': [3285], 7: [3649, 855, 3195, 3196, 3197, 3198, 856, 858, 857], 's_4_7': [226], 's_4_9': [362], 10: [4172, 3500, 1098, 1099, 1100, 1101, 4173, 4174, 4175, 1102], 's_4_10': [3575], 's_4_15': [946], 16: [651, 4233, 4232, 4231, 261, 255, 256, 257, 258, 259, 260], 's_4_16': [3151], 's_4_22': [1053], 's_4_23': [3122], 's_4_28': [376], 32: [725, 3710, 754, 3709, 3857, 3858, 3859, 3814, 859], 's_4_32': [3695], 's_4_33': [3785, 1024], 's_4_4': [1143], 's_5_12': [452], 13: [4218, 498, 4083, 3677, 438, 439, 440, 4081, 4082, 681], 's_5_13': [437], 21: [588, 531, 530, 632, 633, 4187, 3572, 634, 3902], 's_5_21': [573], 's_5_31': [3511], 's_5_38': [3528], 's_5_5': [467], 's_9_7': [676], 's_9_11': [991], 's_9_16': [3301], 's_9_17': [886], 's_9_23': [393], 's_9_24': [902], 36: [3335, 933, 932], 's_9_36': [3305], 's_9_37': [572], 's_9_38': [587], 's_9_9': [1051], 6: [3915, 351, 350, 3917, 335, 3916], 's_11_6': [336], 's_11_8': [366], 's_11_10': [3830], 's_11_13': [591], 's_11_15': [3229], 19: [470, 396, 167, 168, 169, 170, 3990, 471, 216, 4125, 4126], 's_11_19': [426], 's_11_23': [3379], 's_11_25': [979], 's_11_31': [3515, 962], 's_11_32': [3963], 's_11_38': [3873], 's_11_11': [1005], 3: [846, 845, 844, 842, 843], 's_12_3': [977, 3424], 14: [516, 515, 514, 3810, 3811, 3812], 's_12_14': [3722], 's_12_18': [872], 's_12_19': [152], 's_12_21': [3423], 's_12_22': [692, 693], 's_12_23': [242], 's_12_27': [647], 's_12_34': [212], 's_12_12': [3452], 's_17_3': [860], 's_17_6': [3886], 's_17_8': [3451], 's_17_14': [590], 's_17_19': [3931], 20: [3975, 364, 365, 3976, 890, 3979, 3978, 3977], 's_17_20': [830], 's_17_22': [3751, 394], 's_17_23': [722], 's_17_25': [3841], 's_17_27': [785], 's_17_32': [3856], 35: [3693, 3872, 485, 4007, 620, 616, 3437, 617, 618, 619], 's_17_35': [605], 's_17_36': [961], 's_17_38': [665], 's_17_17': [815], 's_18_3': [4024], 's_18_13': [3586], 's_18_21': [3573], 's_18_29': [3634], 's_18_35': [3632], 's_18_36': [3619], 's_18_37': [3994], 's_18_18': [3590], 's_24_14': [4097], 's_24_19': [501], 's_24_28': [546], 's_24_33': [3889], 's_24_24': [922], 1: [289, 3570, 288], 's_26_1': [273], 's_26_14': [3827], 's_26_16': [3825], 's_26_22': [214], 's_26_28': [3527], 's_26_34': [3333], 's_26_37': [527], 's_26_26': [3855], 's_28_6': [4021], 's_28_15': [346], 's_28_19': [4037], 30: [3706, 499, 3708, 3707, 3602, 3692, 453], 's_28_30': [3766], 's_28_33': [3901], 's_28_35': [3257], 's_28_37': [455], 's_28_28': [3225], 's_29_13': [861], 's_29_16': [636], 's_29_20': [891], 's_29_22': [934], 's_29_31': [3544], 's_29_33': [3860], 's_29_29': [4099], 's_34_3': [3469], 's_34_7': [3334], 's_34_8': [347], 's_34_15': [811], 's_34_31': [512], 's_34_35': [557], 's_34_34': [271], 's_37_6': [3991], 's_37_13': [576], 's_37_21': [3618], 's_37_30': [500], 's_37_37': [3375], 's_38_14': [3767], 's_38_15': [466], 's_38_21': [3467], 's_38_22': [3678], 's_38_31': [3647], 's_38_33': [649], 's_38_38': [575], 's_8_1': [290], 's_8_6': [4141], 's_8_20': [3871], 's_8_25': [3781], 's_8_8': [4005], 's_15_3': [841], 's_15_7': [751], 's_15_27': [796], 's_15_35': [3438], 's_15_15': [931], 's_22_31': [318], 's_22_7': [888], 's_22_13': [559], 's_22_16': [243], 's_22_27': [783], 's_22_22': [3666], 's_23_30': [544], 's_23_7': [556], 's_23_16': [3481], 's_23_21': [631], 's_23_23': [3182], 's_25_3': [3723], 's_25_14': [3782], 's_25_20': [889], 's_25_25': [724], 's_27_10': [937], 's_27_21': [3633], 's_27_32': [3828], 's_27_27': [1057], 's_31_1': [3616], 's_31_14': [349], 's_31_20': [3676], 's_31_35': [3436], 's_31_31': [3555], 's_33_30': [709], 's_33_13': [3961], 's_33_20': [545], 's_33_33': [409], 's_7_3': [3484], 's_7_16': [3180], 's_7_32': [3679], 's_7_7': [3003], 's_10_19': [486], 's_10_16': [621], 's_10_21': [4188], 's_10_36': [1097], 's_10_10': [4310], 's_16_6': [4216], 's_16_20': [245], 's_16_14': [244], 's_16_16': [3105], 's_32_30': [529], 's_32_3': [3829], 's_32_20': [905], 's_32_14': [454], 's_32_21': [3648], 's_32_35': [3694], 's_32_32': [3815], 's_13_19': [441], 's_13_3': [4219], 's_13_13': [4098], 's_21_6': [4186], 's_21_19': [4067], 's_21_30': [648], 's_21_21': [532], 's_36_36': [3336], 's_6_1': [3900], 's_6_14': [185], 's_6_19': [4051], 's_6_35': [469], 's_6_6': [4171], 's_19_1': [3765], 's_19_35': [3962], 's_19_19': [4261], 's_3_20': [4039], 's_3_3': [4054], 's_14_30': [334], 's_14_20': [3826], 's_14_14': [139], 's_20_20': [3960], 's_35_35': [4038], 's_1_30': [3691], 's_1_1': [183], 's_30_30': [3705]}</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0004535315985130111</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.001283018062675724</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>{0: [738, 407, 3302, 3303, 737, 752, 3393, 3394, 3485, 1037], 2: [227, 228, 3753, 769, 768, 3540, 3541, 3542, 3543], 's_0_2': [812], 4: [361, 3650, 1084, 1083, 1082, 3140, 1081, 3139, 3138, 3137, 3136], 's_0_4': [3425], 5: [3513, 3512], 's_0_5': [408], 9: [392, 3320, 3319, 3316, 3317, 3318], 's_0_9': [481], 11: [4111, 4112, 4113, 741, 1006, 1007, 1008, 1009, 3904, 3903, 740], 's_0_11': [3455], 12: [3454, 3453, 3405, 3406, 3407, 662, 663, 664, 3813], 's_0_12': [661], 17: [3948, 3947, 3946, 380, 3274, 3273, 379, 378, 377, 3271, 3272], 's_0_17': [3288], 18: [1038, 528, 3587, 3588, 875, 874, 873, 3589], 's_0_18': [753], 24: [917, 918, 919, 920, 921, 561, 4142, 4143, 4144], 's_0_24': [3409], 26: [154, 3332, 3735, 3736, 482, 483, 484], 's_0_26': [3361], 28: [3256, 4022, 425, 3226, 421, 422, 423, 424], 's_0_28': [406], 29: [4158, 4159, 948, 949, 951, 950], 's_0_29': [947], 34: [887, 3350, 3346, 3347, 3349, 3348], 's_0_34': [1052], 37: [3378, 3992, 3993, 680, 3376, 3377, 677, 678, 679], 's_0_37': [646], 38: [3888, 3287, 601, 604, 603, 602], 's_0_38': [511], 's_0_0': [3470, 1128], 8: [381, 4006, 3331, 302, 303, 304, 305], 's_2_8': [3360], 's_2_9': [767], 's_2_12': [784], 15: [3514, 782, 780, 3211, 3212, 3228, 3214, 3213, 781], 's_2_15': [3529], 22: [574, 3661, 3662, 3665, 3664, 3663], 's_2_22': [229], 23: [3364, 541, 3496, 3497, 3363, 3362, 542, 543], 's_2_23': [213], 25: [274, 739, 3796, 3799, 3797, 3798], 's_2_25': [3768], 27: [4250, 4249, 3468, 797, 801, 798, 800, 799], 's_2_27': [3783], 31: [363, 332, 3558, 348, 3559, 3601, 333, 3556, 3557, 513], 's_2_31': [708], 33: [1085, 410, 770, 3842, 3845, 3843, 3844], 's_2_33': [694], 's_2_2': [3285], 7: [3649, 855, 3195, 3196, 3197, 3198, 856, 858, 857], 's_4_7': [226], 's_4_9': [362], 10: [4172, 3500, 1098, 1099, 1100, 1101, 4173, 4174, 4175, 1102], 's_4_10': [3575], 's_4_15': [946], 16: [651, 4233, 4232, 4231, 261, 255, 256, 257, 258, 259, 260], 's_4_16': [3151], 's_4_22': [1053], 's_4_23': [3122], 's_4_28': [376], 32: [725, 3710, 754, 3709, 3857, 3858, 3859, 3814, 859], 's_4_32': [3695], 's_4_33': [3785, 1024], 's_4_4': [1143], 's_5_12': [452], 13: [4218, 498, 4083, 3677, 438, 439, 440, 4081, 4082, 681], 's_5_13': [437], 21: [588, 531, 530, 632, 633, 4187, 3572, 634, 3902], 's_5_21': [573], 's_5_31': [3511], 's_5_38': [3528], 's_5_5': [467], 's_9_7': [676], 's_9_11': [991], 's_9_16': [3301], 's_9_17': [886], 's_9_23': [393], 's_9_24': [902], 36: [3335, 933, 932], 's_9_36': [3305], 's_9_37': [572], 's_9_38': [587], 's_9_9': [1051], 6: [3915, 351, 350, 3917, 335, 3916], 's_11_6': [336], 's_11_8': [366], 's_11_10': [3830], 's_11_13': [591], 's_11_15': [3229], 19: [470, 396, 167, 168, 169, 170, 3990, 471, 216, 4125, 4126], 's_11_19': [426], 's_11_23': [3379], 's_11_25': [979], 's_11_31': [3515, 962], 's_11_32': [3963], 's_11_38': [3873], 's_11_11': [1005], 3: [846, 845, 844, 842, 843], 's_12_3': [977, 3424], 14: [516, 515, 514, 3810, 3811, 3812], 's_12_14': [3722], 's_12_18': [872], 's_12_19': [152], 's_12_21': [3423], 's_12_22': [692, 693], 's_12_23': [242], 's_12_27': [647], 's_12_34': [212], 's_12_12': [3452], 's_17_3': [860], 's_17_6': [3886], 's_17_8': [3451], 's_17_14': [590], 's_17_19': [3931], 20: [3975, 364, 365, 3976, 890, 3979, 3978, 3977], 's_17_20': [830], 's_17_22': [3751, 394], 's_17_23': [722], 's_17_25': [3841], 's_17_27': [785], 's_17_32': [3856], 35: [3693, 3872, 485, 4007, 620, 616, 3437, 617, 618, 619], 's_17_35': [605], 's_17_36': [961], 's_17_38': [665], 's_17_17': [815], 's_18_3': [4024], 's_18_13': [3586], 's_18_21': [3573], 's_18_29': [3634], 's_18_35': [3632], 's_18_36': [3619], 's_18_37': [3994], 's_18_18': [3590], 's_24_14': [4097], 's_24_19': [501], 's_24_28': [546], 's_24_33': [3889], 's_24_24': [922], 1: [289, 3570, 288], 's_26_1': [273], 's_26_14': [3827], 's_26_16': [3825], 's_26_22': [214], 's_26_28': [3527], 's_26_34': [3333], 's_26_37': [527], 's_26_26': [3855], 's_28_6': [4021], 's_28_15': [346], 's_28_19': [4037], 30: [3706, 499, 3708, 3707, 3602, 3692, 453], 's_28_30': [3766], 's_28_33': [3901], 's_28_35': [3257], 's_28_37': [455], 's_28_28': [3225], 's_29_13': [861], 's_29_16': [636], 's_29_20': [891], 's_29_22': [934], 's_29_31': [3544], 's_29_33': [3860], 's_29_29': [4099], 's_34_3': [3469], 's_34_7': [3334], 's_34_8': [347], 's_34_15': [811], 's_34_31': [512], 's_34_35': [557], 's_34_34': [271], 's_37_6': [3991], 's_37_13': [576], 's_37_21': [3618], 's_37_30': [500], 's_37_37': [3375], 's_38_14': [3767], 's_38_15': [466], 's_38_21': [3467], 's_38_22': [3678], 's_38_31': [3647], 's_38_33': [649], 's_38_38': [575], 's_8_1': [290], 's_8_6': [4141], 's_8_20': [3871], 's_8_25': [3781], 's_8_8': [4005], 's_15_3': [841], 's_15_7': [751], 's_15_27': [796], 's_15_35': [3438], 's_15_15': [931], 's_22_31': [318], 's_22_7': [888], 's_22_13': [559], 's_22_16': [243], 's_22_27': [783], 's_22_22': [3666], 's_23_30': [544], 's_23_7': [556], 's_23_16': [3481], 's_23_21': [631], 's_23_23': [3182], 's_25_3': [3723], 's_25_14': [3782], 's_25_20': [889], 's_25_25': [724], 's_27_10': [937], 's_27_21': [3633], 's_27_32': [3828], 's_27_27': [1057], 's_31_1': [3616], 's_31_14': [349], 's_31_20': [3676], 's_31_35': [3436], 's_31_31': [3555], 's_33_30': [709], 's_33_13': [3961], 's_33_20': [545], 's_33_33': [409], 's_7_3': [3484], 's_7_16': [3180], 's_7_32': [3679], 's_7_7': [3003], 's_10_19': [486], 's_10_16': [621], 's_10_21': [4188], 's_10_36': [1097], 's_10_10': [4310], 's_16_6': [4216], 's_16_20': [245], 's_16_14': [244], 's_16_16': [3105], 's_32_30': [529], 's_32_3': [3829], 's_32_20': [905], 's_32_14': [454], 's_32_21': [3648], 's_32_35': [3694], 's_32_32': [3815], 's_13_19': [441], 's_13_3': [4219], 's_13_13': [4098], 's_21_6': [4186], 's_21_19': [4067], 's_21_30': [648], 's_21_21': [532], 's_36_36': [3336], 's_6_1': [3900], 's_6_14': [185], 's_6_19': [4051], 's_6_35': [469], 's_6_6': [4171], 's_19_1': [3765], 's_19_35': [3962], 's_19_19': [4261], 's_3_20': [4039], 's_3_3': [4054], 's_14_30': [334], 's_14_20': [3826], 's_14_14': [139], 's_20_20': [3960], 's_35_35': [4038], 's_1_30': [3691], 's_1_1': [183], 's_30_30': [3705]}</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0004535315985130111</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.001283018062675724</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>{0: [5566, 492, 494, 493], 1: [5313, 432, 5311, 5312], 4: [5493, 5491, 5492, 462, 463], 15: [5191, 5192], 22: [569, 5476, 5478, 5477], 23: [312, 5565, 5416, 313, 314], 24: [419, 5432, 5431], 28: [523, 5386, 5387], 29: [5252, 553], 30: [5371, 582, 5372, 583], 31: [554, 5597, 674, 5598], 33: [5341, 5506, 374, 373], 35: [5355, 5356, 509, 507, 508], 36: [5207, 5206], 2: [5177, 477, 5223, 5222, 567], 3: [656, 703, 5131, 5132, 5133, 702], 5: [5251, 327, 328, 5461], 8: [611, 613, 5237, 612], 10: [672, 673, 5462, 5463], 12: [5445, 403, 404, 402, 5446], 16: [5236, 447, 5328, 5327], 18: [238, 239], 19: [5433, 749, 5268, 748], 20: [5358, 688, 5357], 21: [597, 5418, 5417, 598], 32: [5193, 719, 5148, 718, 717], 34: [357, 5281, 5283, 5282], 38: [222, 223, 224], 26: [641, 643, 642], 27: [448, 5507], 7: [627, 628], 17: [5253, 687], 9: [5266, 5267, 568], 25: [539, 5147, 537, 538], 11: [5520, 657, 658, 5522, 5521], 13: [5401, 5403, 5402], 37: [5298, 418, 522, 5297], 14: [5448, 5447], 6: [5538, 5536, 5537], 39: [5160, 5162, 5161]}</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.01207349081364829</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.01645896370490612</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>{0: [5566, 492, 494, 493], 1: [5313, 432, 5311, 5312], 4: [5493, 5491, 5492, 462, 463], 15: [5191, 5192], 22: [569, 5476, 5478, 5477], 23: [312, 5565, 5416, 313, 314], 24: [419, 5432, 5431], 28: [523, 5386, 5387], 29: [5252, 553], 30: [5371, 582, 5372, 583], 31: [554, 5597, 674, 5598], 33: [5341, 5506, 374, 373], 35: [5355, 5356, 509, 507, 508], 36: [5207, 5206], 2: [5177, 477, 5223, 5222, 567], 3: [656, 703, 5131, 5132, 5133, 702], 5: [5251, 327, 328, 5461], 8: [611, 613, 5237, 612], 10: [672, 673, 5462, 5463], 12: [5445, 403, 404, 402, 5446], 16: [5236, 447, 5328, 5327], 18: [238, 239], 19: [5433, 749, 5268, 748], 20: [5358, 688, 5357], 21: [597, 5418, 5417, 598], 32: [5193, 719, 5148, 718, 717], 34: [357, 5281, 5283, 5282], 38: [222, 223, 224], 26: [641, 643, 642], 27: [448, 5507], 7: [627, 628], 17: [5253, 687], 9: [5266, 5267, 568], 25: [539, 5147, 537, 538], 11: [5520, 657, 658, 5522, 5521], 13: [5401, 5403, 5402], 37: [5298, 418, 522, 5297], 14: [5448, 5447], 6: [5538, 5536, 5537], 39: [5160, 5162, 5161]}</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0.01207349081364829</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.01645896370490612</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>{0: [2532, 4659, 4660, 4661, 4662, 4658, 2531, 2530, 2529, 4663], 1: [5174, 4809, 4810, 2125, 4886, 4887, 2380, 5338, 2383, 5173, 5172, 2382, 2381], 's_0_1': [2533], 4: [2038, 4964, 5291, 5292, 5293, 4963, 2516, 2517], 's_0_4': [5068], 15: [4854, 1915, 1914, 2650, 2649, 4754, 4753, 4752, 4751, 4750], 's_0_15': [2604], 22: [2245, 4977, 2293, 5200, 5201, 5159, 5158, 5157, 2291, 2292], 's_0_22': [2547], 23: [1825, 4978, 2501, 4838, 4839, 4840, 4841, 4842, 4844, 4843, 2500], 's_0_23': [2499], 24: [1614, 1616, 1617, 1618, 5468, 5474, 5473, 1615, 5472, 5469, 5470, 5471], 's_0_24': [1599], 28: [4823, 1734, 1735, 1736, 1737, 5323, 5322, 5321, 5320, 5319], 's_0_28': [1719], 29: [5233, 5230, 5231, 5232], 's_0_29': [5248], 30: [5096, 1858, 1854, 1855, 1856, 5095, 5094, 1857], 's_0_30': [1839], 31: [5203, 2609, 2608, 2606, 2607], 's_0_31': [5053], 33: [1930, 2229, 4797, 4793, 4794, 4795, 4796], 's_0_33': [2349, 2350], 35: [1811, 4913, 2576, 4915, 4914, 4916, 4917, 2366, 5022, 5023], 's_0_35': [5038], 36: [2078, 4766, 2079, 2081, 2080], 's_0_36': [2124], 's_0_0': [4657], 2: [4647, 4646, 4974, 2139, 4975, 4976, 2141, 2140], 's_1_2': [2379], 3: [1977, 1976, 4990, 1978, 2784, 2785, 4994, 4993, 4991, 4992, 2486], 's_1_3': [2230], 5: [2323, 2322, 2320, 2321], 's_1_5': [5382], 8: [4949, 2727, 5219, 2726, 5218, 2156, 5217, 5216, 2158, 2157], 's_1_8': [2472], 10: [4812, 2470, 2757, 2756, 4919, 4811, 4918], 's_1_10': [2742], 12: [4601, 4602, 2304, 2305, 2306, 2307, 5351, 5426, 5427, 2308], 's_1_12': [2398], 16: [5082, 2427, 2426, 2425, 4902, 4901, 4931, 4674, 4675, 2094, 2095], 's_1_16': [5052], 18: [2412, 2635, 2636, 5352, 5353, 2637], 's_1_18': [2548], 19: [5459, 5128, 5502, 5503, 5458, 2443, 2441, 2442, 5263], 's_1_19': [2488], 20: [2352, 5187, 5186, 1812, 5184, 5185], 's_1_20': [2397], 21: [2694, 5234, 2698, 2695, 2696, 2697], 's_1_21': [2667], 's_1_23': [4798], 's_1_28': [4808], 's_1_29': [2457], 's_1_30': [5097], 32: [1916, 5109, 5110, 5111, 2172, 2171, 5021, 2261, 5114, 5113, 5112], 's_1_32': [2577], 34: [2188, 4586, 2187, 4826, 2184, 2185, 2186], 's_1_34': [2215], 's_1_36': [4871], 38: [2319, 2546, 2634, 4888, 2545, 4724, 2274, 4722, 2439, 4723], 's_1_38': [4768], 's_1_1': [2816], 's_4_8': [2247], 's_4_18': [2518], 's_4_23': [5083], 26: [5080, 2204, 2203, 5081, 2202], 's_4_26': [2218], 27: [4703, 4704, 4903, 2515, 2514, 4705, 4706, 2590, 2589, 4708, 4707], 's_4_27': [2440], 's_4_31': [5188], 's_4_34': [5336], 's_4_35': [2666], 's_4_4': [2039], 7: [5229, 4825, 5214, 1782, 5049, 4824, 1780, 1781], 's_15_7': [5004], 's_15_8': [4904], 's_15_10': [2619, 4813], 17: [2021, 4945, 4946], 's_15_17': [4930], 's_15_21': [4769], 's_15_30': [1944, 4629], 's_15_32': [2651], 's_15_35': [4900], 's_15_15': [4633], 's_22_8': [2682], 9: [5034, 2336, 1901, 5125, 5127, 5126], 's_22_9': [2007], 's_22_18': [5144], 's_22_23': [2502], 's_22_24': [2248, 5396], 25: [2369, 5305, 4934, 2711, 2712, 5249, 2622, 5368, 5367, 5306, 5307, 2368], 's_22_25': [5337], 's_22_26': [2246], 's_22_28': [2052], 's_22_32': [5171], 's_22_22': [5215], 's_23_3': [2815], 11: [2455, 1707, 1706, 5009, 5008, 5007, 5006, 2216, 5066, 5065, 5064, 5063], 's_23_11': [2770], 13: [4960, 1962, 4870, 1960, 1961], 's_23_13': [4869, 1870], 's_23_16': [2035, 2034, 4540], 's_23_21': [4859], 's_23_24': [4853], 's_23_27': [4828], 's_23_33': [1645], 's_23_34': [2155], 37: [5456, 2113, 2065, 2066, 5156, 2112], 's_23_37': [1975, 4885], 's_23_38': [2740], 's_23_23': [2845], 's_24_5': [5487], 's_24_8': [5486], 's_24_11': [1601], 14: [2128, 1826, 5395, 1827, 1828, 1948, 5394], 's_24_14': [1829], 's_24_25': [2473], 's_24_27': [4688], 's_24_28': [5198], 's_24_31': [2593], 's_24_33': [4779, 4778], 's_24_37': [2219], 's_24_24': [1649], 's_28_8': [2143], 's_28_12': [2353], 's_28_14': [5259], 's_28_16': [1779, 4749], 's_28_30': [4719], 's_28_33': [1600], 's_28_37': [2067], 's_28_28': [4822], 's_29_5': [2337], 's_29_7': [1917], 's_29_13': [5245], 's_29_16': [5247], 's_29_20': [2127], 's_29_29': [1947], 's_30_7': [4884], 's_30_8': [5140, 5141], 's_30_11': [2051], 's_30_13': [4780], 's_30_16': [1959, 4615], 's_30_20': [5199], 's_30_25': [1843], 's_30_26': [1992], 's_30_30': [5079, 5078], 6: [2324, 1629, 1630, 1631, 1632, 1633, 1634, 5603, 5604, 5605, 5606, 5607, 5608], 's_31_6': [5593], 's_31_19': [2444, 5623], 's_31_32': [5129], 's_31_35': [2591], 's_31_31': [5548], 's_33_5': [4782], 's_33_6': [1660, 4883], 's_33_12': [4676], 's_33_16': [1884], 's_33_35': [1765], 's_33_38': [2365], 's_33_33': [1480], 's_35_2': [1720], 's_35_3': [2260], 's_35_5': [4947], 's_35_6': [4898], 's_35_9': [4962], 's_35_10': [5024], 's_35_11': [2410], 's_35_16': [2110], 's_35_20': [2456], 's_35_25': [2561], 's_35_27': [4979], 's_35_35': [4912], 's_36_2': [4691], 's_36_12': [2109], 's_36_17': [2020], 's_36_26': [2096], 's_36_34': [4736], 's_36_37': [5020], 's_36_36': [4765], 's_2_3': [1991], 's_2_7': [1841], 's_2_8': [5036], 's_2_9': [1900], 's_2_10': [2409, 2408], 's_2_11': [1676], 's_2_17': [2006], 's_2_34': [2138], 's_2_37': [2142], 's_2_2': [2453], 's_3_8': [2605], 's_3_11': [2741], 's_3_13': [5260], 's_3_14': [5455], 's_3_16': [2201], 's_3_19': [5098], 's_3_20': [5170], 's_3_21': [4814], 's_3_26': [2126], 's_3_38': [2275], 's_3_3': [2769], 's_5_9': [5067], 's_5_10': [4857], 's_5_16': [2335], 's_5_18': [5262], 's_5_38': [4827], 39: [2578, 2263, 5411, 5309, 5413, 5412], 's_5_39': [5442], 's_5_5': [5457], 's_8_10': [5054], 's_8_16': [2396, 4948], 's_8_21': [5084], 's_8_8': [2817], 's_10_12': [2289, 2290], 's_10_21': [5069], 's_10_25': [5204], 's_10_27': [2424], 's_10_10': [2200], 's_12_11': [2351, 4932], 's_12_14': [5425, 5410], 's_12_18': [2338], 's_12_34': [2214, 4556], 's_12_37': [5350], 's_12_38': [4692], 's_12_39': [2428], 's_12_12': [2364], 's_16_7': [1899], 's_16_19': [5202], 's_16_27': [1824], 's_16_32': [2411], 's_16_37': [4855], 's_16_16': [2004], 's_18_11': [2620], 's_18_38': [4889], 's_18_18': [2563], 's_19_6': [2309], 's_19_9': [5037], 's_19_20': [2487, 5143], 's_19_21': [5264, 2728], 's_19_26': [5547, 5546], 's_19_19': [2549], 's_20_7': [1932], 's_20_9': [2367], 's_20_14': [5154], 's_20_20': [1797], 's_21_11': [2681], 's_21_39': [5429, 5428], 's_21_21': [4604], 's_32_13': [4961], 's_32_14': [5124], 's_32_17': [2022], 's_32_25': [2173], 's_32_26': [2217], 's_32_34': [5246], 's_32_32': [1691], 's_34_7': [2049, 2048], 's_34_38': [4721], 's_34_34': [2093], 's_38_11': [2454], 's_38_38': [2633], 's_26_37': [5261], 's_26_13': [1931], 's_26_6': [5591], 's_26_39': [5517], 's_26_26': [5561], 's_27_11': [4873], 's_27_6': [1644], 's_27_25': [4933], 's_27_27': [4618], 's_7_9': [1902], 's_7_11': [5289], 's_7_14': [5139], 's_7_7': [5228], 's_17_11': [5005], 's_17_37': [5050], 's_17_17': [4944], 's_9_13': [1946], 's_9_37': [2111], 's_9_9': [5019], 's_25_6': [2354], 's_25_25': [1872], 's_11_6': [5348], 's_11_11': [5304], 's_13_37': [5035], 's_13_13': [5275], 's_37_39': [2233], 's_37_37': [2083], 's_14_14': [5440], 's_6_6': [5528], 's_39_39': [5414]}</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.00021875</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0008717352564013263</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>{0: [2532, 4659, 4660, 4661, 4662, 4658, 2531, 2530, 2529, 4663], 1: [5174, 4809, 4810, 2125, 4886, 4887, 2380, 5338, 2383, 5173, 5172, 2382, 2381], 's_0_1': [2533], 4: [2038, 4964, 5291, 5292, 5293, 4963, 2516, 2517], 's_0_4': [5068], 15: [4854, 1915, 1914, 2650, 2649, 4754, 4753, 4752, 4751, 4750], 's_0_15': [2604], 22: [2245, 4977, 2293, 5200, 5201, 5159, 5158, 5157, 2291, 2292], 's_0_22': [2547], 23: [1825, 4978, 2501, 4838, 4839, 4840, 4841, 4842, 4844, 4843, 2500], 's_0_23': [2499], 24: [1614, 1616, 1617, 1618, 5468, 5474, 5473, 1615, 5472, 5469, 5470, 5471], 's_0_24': [1599], 28: [4823, 1734, 1735, 1736, 1737, 5323, 5322, 5321, 5320, 5319], 's_0_28': [1719], 29: [5233, 5230, 5231, 5232], 's_0_29': [5248], 30: [5096, 1858, 1854, 1855, 1856, 5095, 5094, 1857], 's_0_30': [1839], 31: [5203, 2609, 2608, 2606, 2607], 's_0_31': [5053], 33: [1930, 2229, 4797, 4793, 4794, 4795, 4796], 's_0_33': [2349, 2350], 35: [1811, 4913, 2576, 4915, 4914, 4916, 4917, 2366, 5022, 5023], 's_0_35': [5038], 36: [2078, 4766, 2079, 2081, 2080], 's_0_36': [2124], 's_0_0': [4657], 2: [4647, 4646, 4974, 2139, 4975, 4976, 2141, 2140], 's_1_2': [2379], 3: [1977, 1976, 4990, 1978, 2784, 2785, 4994, 4993, 4991, 4992, 2486], 's_1_3': [2230], 5: [2323, 2322, 2320, 2321], 's_1_5': [5382], 8: [4949, 2727, 5219, 2726, 5218, 2156, 5217, 5216, 2158, 2157], 's_1_8': [2472], 10: [4812, 2470, 2757, 2756, 4919, 4811, 4918], 's_1_10': [2742], 12: [4601, 4602, 2304, 2305, 2306, 2307, 5351, 5426, 5427, 2308], 's_1_12': [2398], 16: [5082, 2427, 2426, 2425, 4902, 4901, 4931, 4674, 4675, 2094, 2095], 's_1_16': [5052], 18: [2412, 2635, 2636, 5352, 5353, 2637], 's_1_18': [2548], 19: [5459, 5128, 5502, 5503, 5458, 2443, 2441, 2442, 5263], 's_1_19': [2488], 20: [2352, 5187, 5186, 1812, 5184, 5185], 's_1_20': [2397], 21: [2694, 5234, 2698, 2695, 2696, 2697], 's_1_21': [2667], 's_1_23': [4798], 's_1_28': [4808], 's_1_29': [2457], 's_1_30': [5097], 32: [1916, 5109, 5110, 5111, 2172, 2171, 5021, 2261, 5114, 5113, 5112], 's_1_32': [2577], 34: [2188, 4586, 2187, 4826, 2184, 2185, 2186], 's_1_34': [2215], 's_1_36': [4871], 38: [2319, 2546, 2634, 4888, 2545, 4724, 2274, 4722, 2439, 4723], 's_1_38': [4768], 's_1_1': [2816], 's_4_8': [2247], 's_4_18': [2518], 's_4_23': [5083], 26: [5080, 2204, 2203, 5081, 2202], 's_4_26': [2218], 27: [4703, 4704, 4903, 2515, 2514, 4705, 4706, 2590, 2589, 4708, 4707], 's_4_27': [2440], 's_4_31': [5188], 's_4_34': [5336], 's_4_35': [2666], 's_4_4': [2039], 7: [5229, 4825, 5214, 1782, 5049, 4824, 1780, 1781], 's_15_7': [5004], 's_15_8': [4904], 's_15_10': [2619, 4813], 17: [2021, 4945, 4946], 's_15_17': [4930], 's_15_21': [4769], 's_15_30': [1944, 4629], 's_15_32': [2651], 's_15_35': [4900], 's_15_15': [4633], 's_22_8': [2682], 9: [5034, 2336, 1901, 5125, 5127, 5126], 's_22_9': [2007], 's_22_18': [5144], 's_22_23': [2502], 's_22_24': [2248, 5396], 25: [2369, 5305, 4934, 2711, 2712, 5249, 2622, 5368, 5367, 5306, 5307, 2368], 's_22_25': [5337], 's_22_26': [2246], 's_22_28': [2052], 's_22_32': [5171], 's_22_22': [5215], 's_23_3': [2815], 11: [2455, 1707, 1706, 5009, 5008, 5007, 5006, 2216, 5066, 5065, 5064, 5063], 's_23_11': [2770], 13: [4960, 1962, 4870, 1960, 1961], 's_23_13': [4869, 1870], 's_23_16': [2035, 2034, 4540], 's_23_21': [4859], 's_23_24': [4853], 's_23_27': [4828], 's_23_33': [1645], 's_23_34': [2155], 37: [5456, 2113, 2065, 2066, 5156, 2112], 's_23_37': [1975, 4885], 's_23_38': [2740], 's_23_23': [2845], 's_24_5': [5487], 's_24_8': [5486], 's_24_11': [1601], 14: [2128, 1826, 5395, 1827, 1828, 1948, 5394], 's_24_14': [1829], 's_24_25': [2473], 's_24_27': [4688], 's_24_28': [5198], 's_24_31': [2593], 's_24_33': [4779, 4778], 's_24_37': [2219], 's_24_24': [1649], 's_28_8': [2143], 's_28_12': [2353], 's_28_14': [5259], 's_28_16': [1779, 4749], 's_28_30': [4719], 's_28_33': [1600], 's_28_37': [2067], 's_28_28': [4822], 's_29_5': [2337], 's_29_7': [1917], 's_29_13': [5245], 's_29_16': [5247], 's_29_20': [2127], 's_29_29': [1947], 's_30_7': [4884], 's_30_8': [5140, 5141], 's_30_11': [2051], 's_30_13': [4780], 's_30_16': [1959, 4615], 's_30_20': [5199], 's_30_25': [1843], 's_30_26': [1992], 's_30_30': [5079, 5078], 6: [2324, 1629, 1630, 1631, 1632, 1633, 1634, 5603, 5604, 5605, 5606, 5607, 5608], 's_31_6': [5593], 's_31_19': [2444, 5623], 's_31_32': [5129], 's_31_35': [2591], 's_31_31': [5548], 's_33_5': [4782], 's_33_6': [1660, 4883], 's_33_12': [4676], 's_33_16': [1884], 's_33_35': [1765], 's_33_38': [2365], 's_33_33': [1480], 's_35_2': [1720], 's_35_3': [2260], 's_35_5': [4947], 's_35_6': [4898], 's_35_9': [4962], 's_35_10': [5024], 's_35_11': [2410], 's_35_16': [2110], 's_35_20': [2456], 's_35_25': [2561], 's_35_27': [4979], 's_35_35': [4912], 's_36_2': [4691], 's_36_12': [2109], 's_36_17': [2020], 's_36_26': [2096], 's_36_34': [4736], 's_36_37': [5020], 's_36_36': [4765], 's_2_3': [1991], 's_2_7': [1841], 's_2_8': [5036], 's_2_9': [1900], 's_2_10': [2409, 2408], 's_2_11': [1676], 's_2_17': [2006], 's_2_34': [2138], 's_2_37': [2142], 's_2_2': [2453], 's_3_8': [2605], 's_3_11': [2741], 's_3_13': [5260], 's_3_14': [5455], 's_3_16': [2201], 's_3_19': [5098], 's_3_20': [5170], 's_3_21': [4814], 's_3_26': [2126], 's_3_38': [2275], 's_3_3': [2769], 's_5_9': [5067], 's_5_10': [4857], 's_5_16': [2335], 's_5_18': [5262], 's_5_38': [4827], 39: [2578, 2263, 5411, 5309, 5413, 5412], 's_5_39': [5442], 's_5_5': [5457], 's_8_10': [5054], 's_8_16': [2396, 4948], 's_8_21': [5084], 's_8_8': [2817], 's_10_12': [2289, 2290], 's_10_21': [5069], 's_10_25': [5204], 's_10_27': [2424], 's_10_10': [2200], 's_12_11': [2351, 4932], 's_12_14': [5425, 5410], 's_12_18': [2338], 's_12_34': [2214, 4556], 's_12_37': [5350], 's_12_38': [4692], 's_12_39': [2428], 's_12_12': [2364], 's_16_7': [1899], 's_16_19': [5202], 's_16_27': [1824], 's_16_32': [2411], 's_16_37': [4855], 's_16_16': [2004], 's_18_11': [2620], 's_18_38': [4889], 's_18_18': [2563], 's_19_6': [2309], 's_19_9': [5037], 's_19_20': [2487, 5143], 's_19_21': [5264, 2728], 's_19_26': [5547, 5546], 's_19_19': [2549], 's_20_7': [1932], 's_20_9': [2367], 's_20_14': [5154], 's_20_20': [1797], 's_21_11': [2681], 's_21_39': [5429, 5428], 's_21_21': [4604], 's_32_13': [4961], 's_32_14': [5124], 's_32_17': [2022], 's_32_25': [2173], 's_32_26': [2217], 's_32_34': [5246], 's_32_32': [1691], 's_34_7': [2049, 2048], 's_34_38': [4721], 's_34_34': [2093], 's_38_11': [2454], 's_38_38': [2633], 's_26_37': [5261], 's_26_13': [1931], 's_26_6': [5591], 's_26_39': [5517], 's_26_26': [5561], 's_27_11': [4873], 's_27_6': [1644], 's_27_25': [4933], 's_27_27': [4618], 's_7_9': [1902], 's_7_11': [5289], 's_7_14': [5139], 's_7_7': [5228], 's_17_11': [5005], 's_17_37': [5050], 's_17_17': [4944], 's_9_13': [1946], 's_9_37': [2111], 's_9_9': [5019], 's_25_6': [2354], 's_25_25': [1872], 's_11_6': [5348], 's_11_11': [5304], 's_13_37': [5035], 's_13_13': [5275], 's_37_39': [2233], 's_37_37': [2083], 's_14_14': [5440], 's_6_6': [5528], 's_39_39': [5414]}</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0.00021875</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.0008717352564013263</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>{0: [1228, 5421, 5420, 5419], 1: [1138, 1139], 4: [5360, 5359, 972], 8: [5450, 1077, 1078], 20: [5254, 5599, 928, 929], 21: [1033, 5209, 1032], 24: [5240, 5239, 988, 987], 26: [1107, 1109, 1108], 27: [1124, 1122, 5300, 5301, 1123], 32: [869, 5373, 868, 867], 38: [5374, 1198, 5375], 2: [1004, 1003, 5434, 5435], 6: [5329, 5331, 5330], 10: [1034, 5585], 17: [1214, 5494, 5496, 5495], 19: [5405, 1047, 1049, 1048], 23: [5600], 29: [5345, 884, 883, 5344], 33: [5271, 5269, 5270], 34: [1199, 5569, 1229, 5570], 35: [5466, 1063, 5465], 12: [958], 15: [5286, 807, 5284, 5285], 16: [943], 18: [913, 837, 5315, 5314], 36: [5195, 5193, 5194], 3: [5449, 5390, 973, 5389], 5: [5210], 9: [5538, 1079, 5539, 5540], 13: [898, 5225, 897, 5224], 14: [5554, 1017, 1019, 1018], 37: [959], 40: [792, 5510, 5509, 793], 22: [5525, 5524], 25: [5511, 1167, 1168], 31: [914, 5479, 5481, 5480], 39: [1093, 1094], 7: [1183, 1182], 28: [5255, 1002], 11: [822, 823], 30: [1153, 1152]}</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.01897318420698019</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.01993145462689266</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>{0: [1228, 5421, 5420, 5419], 1: [1138, 1139], 4: [5360, 5359, 972], 8: [5450, 1077, 1078], 20: [5254, 5599, 928, 929], 21: [1033, 5209, 1032], 24: [5240, 5239, 988, 987], 26: [1107, 1109, 1108], 27: [1124, 1122, 5300, 5301, 1123], 32: [869, 5373, 868, 867], 38: [5374, 1198, 5375], 2: [1004, 1003, 5434, 5435], 6: [5329, 5331, 5330], 10: [1034, 5585], 17: [1214, 5494, 5496, 5495], 19: [5405, 1047, 1049, 1048], 23: [5600], 29: [5345, 884, 883, 5344], 33: [5271, 5269, 5270], 34: [1199, 5569, 1229, 5570], 35: [5466, 1063, 5465], 12: [958], 15: [5286, 807, 5284, 5285], 16: [943], 18: [913, 837, 5315, 5314], 36: [5195, 5193, 5194], 3: [5449, 5390, 973, 5389], 5: [5210], 9: [5538, 1079, 5539, 5540], 13: [898, 5225, 897, 5224], 14: [5554, 1017, 1019, 1018], 37: [959], 40: [792, 5510, 5509, 793], 22: [5525, 5524], 25: [5511, 1167, 1168], 31: [914, 5479, 5481, 5480], 39: [1093, 1094], 7: [1183, 1182], 28: [5255, 1002], 11: [822, 823], 30: [1153, 1152]}</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0.01897318420698019</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01993145462689266</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>{0: [1343, 1344, 1421, 1420, 4777], 1: [1391, 1599, 1390, 1388, 4641, 4598, 4597, 1389], 's_0_1': [4912], 4: [1525, 4701, 4849, 4867, 1360, 1299, 1300, 4851, 4850], 's_0_4': [4792], 8: [1138, 4734, 1719, 1137, 1136, 1135, 4824, 4820, 4821, 4822, 4823], 's_0_8': [4776], 20: [4522, 4551, 1177, 4521, 1178], 's_0_20': [1328], 21: [5019, 5017, 1706, 5018], 's_0_21': [1436], 24: [1467, 1466, 1751, 4988, 4987], 's_0_24': [5047], 26: [5240, 5241, 5242, 5243, 1662, 1661, 1660, 4718, 4717, 1419, 4611, 4612], 's_0_26': [4762], 27: [5138, 4794, 1482, 1481, 4565, 4793, 1480, 4567, 4568, 4566, 1479], 's_0_27': [5092], 32: [4896, 4899, 1646, 4898, 4897], 's_0_32': [1405], 38: [5360, 4342, 1372, 1373, 1374, 1375, 1376, 1377, 5361], 's_0_38': [4972], 's_0_0': [1342], 2: [5258, 5271, 5272, 5273, 1572, 1571, 4957, 4960, 4959, 4958], 's_1_2': [1406], 's_1_4': [4882], 6: [4688, 4687, 1433, 1434, 1210, 4941, 4942, 1435], 's_1_6': [4747], 's_1_8': [4733], 10: [4613, 4614, 1792, 1793, 1796, 1795, 1794], 's_1_10': [1523], 17: [4764, 1600, 4808, 1823, 4809, 1824, 1825], 's_1_17': [4599], 19: [4671, 2005, 2004, 4672, 1329, 4585, 4670, 4584, 4583, 1330, 1494], 's_1_19': [1404], 23: [1508, 1568, 4477], 's_1_23': [4476], 29: [4415, 4416, 1509, 4748, 4420, 1584, 1583, 4417, 4419, 4418], 's_1_29': [1598], 33: [4881, 5121, 5124, 5123, 1345, 1346, 5122], 's_1_33': [5001], 34: [1852, 1853, 4702, 4703, 4704, 1854], 's_1_34': [1629], 35: [1703, 1060, 1059, 4628, 4627, 4626, 4625], 's_1_35': [1449], 's_1_38': [5016], 's_1_1': [4432], 's_4_6': [1225], 12: [4596, 1315, 999, 4730, 1239, 4732, 4731], 's_4_12': [1000], 15: [1841, 5064, 5063, 1105, 5062, 5061, 5060, 1106], 's_4_15': [1361], 16: [1043, 4474, 970, 4790, 968, 969], 's_4_16': [4834], 18: [1167, 1166, 1163, 1164, 1165], 's_4_18': [4700], 's_4_19': [1284], 's_4_20': [1314], 's_4_24': [1465], 's_4_27': [4582], 's_4_33': [4986], 's_4_35': [1224], 36: [1705, 4852, 1691, 1690, 4853], 's_4_36': [1450], 's_4_4': [880], 3: [1628, 4684, 5030, 1076, 1075, 1074, 4388, 4387, 4386, 1118, 1119, 4685], 's_8_3': [4985], 5: [1901, 1899, 1900], 's_8_5': [4735, 4720], 9: [4538, 4658, 1645, 1643, 1644], 's_8_9': [1749], 13: [5079, 1392, 1780, 1781, 5301, 5302, 5303, 5304, 1782], 's_8_13': [1123], 14: [5003, 1676, 1673, 1674, 1675], 's_8_14': [4779], 's_8_18': [5195], 's_8_26': [5225], 's_8_29': [4807], 's_8_33': [4880], 's_8_38': [5345], 's_8_8': [1179], 's_20_12': [1238], 's_20_23': [1448], 's_20_29': [1192], 37: [4390, 4389, 4971, 4404, 4403, 4402, 4401, 1271, 1270, 1269, 1268], 's_20_37': [1283], 40: [4450, 4761, 1897, 1254, 1253, 4449, 4448, 4447, 4446], 's_20_40': [4445], 's_20_20': [4341], 's_21_2': [1451], 's_21_5': [1916], 's_21_15': [1826], 's_21_24': [5032], 's_21_33': [1511], 's_21_21': [5020], 's_24_13': [5049], 22: [5181, 1014, 1015, 1016, 1272, 5135, 1212, 5137, 5136], 's_24_22': [5152], 25: [1616, 1615, 1614, 1943, 4765, 1944, 4644, 4643], 's_24_25': [1601], 's_24_27': [5077], 's_24_32': [1720], 's_24_24': [5227], 's_26_6': [1539], 's_26_10': [4944], 's_26_17': [4719], 's_26_18': [1152], 's_26_19': [4749, 4750], 's_26_22': [1107], 's_26_29': [4642], 31: [1973, 4795, 5182, 5183, 5184, 5185, 1977, 1976, 1975, 1974], 's_26_31': [5168, 5169, 1857], 's_26_35': [1659], 's_26_36': [5154], 39: [4956, 1256, 5106, 1182, 1181], 's_26_39': [1197], 's_26_40': [4716], 's_26_26': [5228], 's_27_3': [954], 7: [1898, 4462, 1736, 1735, 1734, 4463, 1748, 4555, 1733, 1809, 4554], 's_27_7': [1613], 's_27_9': [4657], 's_27_12': [998], 's_27_13': [1587], 's_27_15': [1104], 's_27_16': [4580], 's_27_17': [4778], 's_27_22': [1013], 's_27_23': [1553], 28: [1947, 5199, 5198, 5197, 1316, 1317, 5196], 's_27_28': [5212], 's_27_29': [1403], 's_27_31': [1602], 's_27_36': [1495], 's_27_27': [939], 's_32_2': [1496], 's_32_6': [1240], 's_32_13': [4914], 's_32_17': [4928], 's_32_36': [1510], 's_32_38': [5031, 1301], 's_32_32': [1570], 's_38_12': [1359], 's_38_22': [5166], 's_38_29': [1522], 's_38_34': [4344, 4343], 's_38_39': [5107], 's_38_38': [1063], 's_2_10': [4974], 11: [4838, 1541, 1540, 4835, 4836, 4837], 's_2_11': [5153], 's_2_13': [1318], 's_2_14': [1631], 's_2_19': [2006], 's_2_22': [1273], 's_2_28': [1707, 5213], 30: [5125, 5050, 4780, 1945, 5110, 1946], 's_2_30': [1961], 's_2_31': [1437, 5257], 's_2_39': [5288, 5287, 1332, 5256], 's_2_2': [1227], 's_6_7': [1418], 's_6_11': [1255], 's_6_12': [1524], 's_6_19': [1554], 's_6_25': [4943], 's_6_28': [4911], 's_6_35': [4805], 's_6_40': [1209], 's_6_6': [1150], 's_10_9': [1688], 's_10_17': [4539], 's_10_19': [4615], 's_10_23': [1538], 's_10_34': [4329], 's_10_40': [4314], 's_10_10': [4254], 's_17_9': [1630], 's_17_25': [1884], 's_17_29': [4434], 's_17_30': [4839], 's_17_34': [4524], 's_17_37': [1808], 's_17_17': [4810], 's_19_9': [4673], 's_19_14': [4569], 's_19_18': [4655], 's_19_25': [1989, 4705], 's_19_29': [1778], 's_19_30': [4870], 's_19_31': [4660], 's_19_33': [1331], 's_19_34': [1464], 's_19_19': [1089], 's_23_9': [4523], 's_23_23': [1507], 's_29_16': [1028], 's_29_25': [4435], 's_29_31': [1958], 's_29_35': [1058], 's_29_40': [1838], 's_29_29': [997], 's_33_7': [1721], 's_33_12': [4866], 's_33_13': [1347], 's_33_25': [5108], 's_33_28': [1287], 's_33_30': [5109], 's_33_33': [1122], 's_34_9': [1764], 's_34_14': [4374, 4373], 's_34_25': [4479], 's_34_37': [4405], 's_34_34': [1837], 's_35_3': [4640], 's_35_7': [1718], 's_35_14': [4553], 's_35_18': [4910], 's_35_35': [1148], 's_12_16': [4745], 's_12_18': [4746], 's_12_37': [4656], 's_12_12': [1193], 's_15_11': [1090], 's_15_13': [1842], 's_15_14': [5004], 's_15_28': [5046], 's_15_39': [1241], 's_15_16': [4925], 's_15_18': [5000], 's_15_25': [1840], 's_15_15': [1061], 's_16_3': [4595], 's_16_16': [4639], 's_18_13': [5286], 's_18_3': [4490], 's_18_40': [4581], 's_18_18': [4715], 's_36_11': [1555], 's_36_14': [4929], 's_36_25': [4913], 's_36_36': [1765], 's_3_11': [1120], 's_3_22': [4775], 's_3_39': [5015], 's_3_7': [1463], 's_3_9': [4433], 's_3_37': [1567], 's_3_3': [909], 's_5_7': [4674], 's_5_25': [4690], 's_5_5': [5155], 's_9_11': [4883], 's_9_14': [4358], 's_9_7': [4659], 's_9_9': [4868], 's_13_28': [1242], 's_13_13': [1648], 's_14_37': [1658], 's_14_14': [4508], 's_37_22': [1211], 's_37_40': [4461], 's_37_37': [4791], 's_40_31': [4465, 4464], 's_40_25': [1868, 1867, 4299], 's_40_40': [1732], 's_22_31': [1452], 's_22_39': [1196], 's_22_22': [1001], 's_25_30': [1990], 's_25_31': [4510], 's_25_25': [1883], 's_31_11': [1556], 's_31_30': [2051], 's_31_31': [4796], 's_39_39': [1183], 's_7_7': [2063], 's_28_30': [1931, 1932], 's_28_28': [1257], 's_11_11': [1542], 's_30_30': [2066]}</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0002178571428571428</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0008840926976053944</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>{0: [1343, 1344, 1421, 1420, 4777], 1: [1391, 1599, 1390, 1388, 4641, 4598, 4597, 1389], 's_0_1': [4912], 4: [1525, 4701, 4849, 4867, 1360, 1299, 1300, 4851, 4850], 's_0_4': [4792], 8: [1138, 4734, 1719, 1137, 1136, 1135, 4824, 4820, 4821, 4822, 4823], 's_0_8': [4776], 20: [4522, 4551, 1177, 4521, 1178], 's_0_20': [1328], 21: [5019, 5017, 1706, 5018], 's_0_21': [1436], 24: [1467, 1466, 1751, 4988, 4987], 's_0_24': [5047], 26: [5240, 5241, 5242, 5243, 1662, 1661, 1660, 4718, 4717, 1419, 4611, 4612], 's_0_26': [4762], 27: [5138, 4794, 1482, 1481, 4565, 4793, 1480, 4567, 4568, 4566, 1479], 's_0_27': [5092], 32: [4896, 4899, 1646, 4898, 4897], 's_0_32': [1405], 38: [5360, 4342, 1372, 1373, 1374, 1375, 1376, 1377, 5361], 's_0_38': [4972], 's_0_0': [1342], 2: [5258, 5271, 5272, 5273, 1572, 1571, 4957, 4960, 4959, 4958], 's_1_2': [1406], 's_1_4': [4882], 6: [4688, 4687, 1433, 1434, 1210, 4941, 4942, 1435], 's_1_6': [4747], 's_1_8': [4733], 10: [4613, 4614, 1792, 1793, 1796, 1795, 1794], 's_1_10': [1523], 17: [4764, 1600, 4808, 1823, 4809, 1824, 1825], 's_1_17': [4599], 19: [4671, 2005, 2004, 4672, 1329, 4585, 4670, 4584, 4583, 1330, 1494], 's_1_19': [1404], 23: [1508, 1568, 4477], 's_1_23': [4476], 29: [4415, 4416, 1509, 4748, 4420, 1584, 1583, 4417, 4419, 4418], 's_1_29': [1598], 33: [4881, 5121, 5124, 5123, 1345, 1346, 5122], 's_1_33': [5001], 34: [1852, 1853, 4702, 4703, 4704, 1854], 's_1_34': [1629], 35: [1703, 1060, 1059, 4628, 4627, 4626, 4625], 's_1_35': [1449], 's_1_38': [5016], 's_1_1': [4432], 's_4_6': [1225], 12: [4596, 1315, 999, 4730, 1239, 4732, 4731], 's_4_12': [1000], 15: [1841, 5064, 5063, 1105, 5062, 5061, 5060, 1106], 's_4_15': [1361], 16: [1043, 4474, 970, 4790, 968, 969], 's_4_16': [4834], 18: [1167, 1166, 1163, 1164, 1165], 's_4_18': [4700], 's_4_19': [1284], 's_4_20': [1314], 's_4_24': [1465], 's_4_27': [4582], 's_4_33': [4986], 's_4_35': [1224], 36: [1705, 4852, 1691, 1690, 4853], 's_4_36': [1450], 's_4_4': [880], 3: [1628, 4684, 5030, 1076, 1075, 1074, 4388, 4387, 4386, 1118, 1119, 4685], 's_8_3': [4985], 5: [1901, 1899, 1900], 's_8_5': [4735, 4720], 9: [4538, 4658, 1645, 1643, 1644], 's_8_9': [1749], 13: [5079, 1392, 1780, 1781, 5301, 5302, 5303, 5304, 1782], 's_8_13': [1123], 14: [5003, 1676, 1673, 1674, 1675], 's_8_14': [4779], 's_8_18': [5195], 's_8_26': [5225], 's_8_29': [4807], 's_8_33': [4880], 's_8_38': [5345], 's_8_8': [1179], 's_20_12': [1238], 's_20_23': [1448], 's_20_29': [1192], 37: [4390, 4389, 4971, 4404, 4403, 4402, 4401, 1271, 1270, 1269, 1268], 's_20_37': [1283], 40: [4450, 4761, 1897, 1254, 1253, 4449, 4448, 4447, 4446], 's_20_40': [4445], 's_20_20': [4341], 's_21_2': [1451], 's_21_5': [1916], 's_21_15': [1826], 's_21_24': [5032], 's_21_33': [1511], 's_21_21': [5020], 's_24_13': [5049], 22: [5181, 1014, 1015, 1016, 1272, 5135, 1212, 5137, 5136], 's_24_22': [5152], 25: [1616, 1615, 1614, 1943, 4765, 1944, 4644, 4643], 's_24_25': [1601], 's_24_27': [5077], 's_24_32': [1720], 's_24_24': [5227], 's_26_6': [1539], 's_26_10': [4944], 's_26_17': [4719], 's_26_18': [1152], 's_26_19': [4749, 4750], 's_26_22': [1107], 's_26_29': [4642], 31: [1973, 4795, 5182, 5183, 5184, 5185, 1977, 1976, 1975, 1974], 's_26_31': [5168, 5169, 1857], 's_26_35': [1659], 's_26_36': [5154], 39: [4956, 1256, 5106, 1182, 1181], 's_26_39': [1197], 's_26_40': [4716], 's_26_26': [5228], 's_27_3': [954], 7: [1898, 4462, 1736, 1735, 1734, 4463, 1748, 4555, 1733, 1809, 4554], 's_27_7': [1613], 's_27_9': [4657], 's_27_12': [998], 's_27_13': [1587], 's_27_15': [1104], 's_27_16': [4580], 's_27_17': [4778], 's_27_22': [1013], 's_27_23': [1553], 28: [1947, 5199, 5198, 5197, 1316, 1317, 5196], 's_27_28': [5212], 's_27_29': [1403], 's_27_31': [1602], 's_27_36': [1495], 's_27_27': [939], 's_32_2': [1496], 's_32_6': [1240], 's_32_13': [4914], 's_32_17': [4928], 's_32_36': [1510], 's_32_38': [5031, 1301], 's_32_32': [1570], 's_38_12': [1359], 's_38_22': [5166], 's_38_29': [1522], 's_38_34': [4344, 4343], 's_38_39': [5107], 's_38_38': [1063], 's_2_10': [4974], 11: [4838, 1541, 1540, 4835, 4836, 4837], 's_2_11': [5153], 's_2_13': [1318], 's_2_14': [1631], 's_2_19': [2006], 's_2_22': [1273], 's_2_28': [1707, 5213], 30: [5125, 5050, 4780, 1945, 5110, 1946], 's_2_30': [1961], 's_2_31': [1437, 5257], 's_2_39': [5288, 5287, 1332, 5256], 's_2_2': [1227], 's_6_7': [1418], 's_6_11': [1255], 's_6_12': [1524], 's_6_19': [1554], 's_6_25': [4943], 's_6_28': [4911], 's_6_35': [4805], 's_6_40': [1209], 's_6_6': [1150], 's_10_9': [1688], 's_10_17': [4539], 's_10_19': [4615], 's_10_23': [1538], 's_10_34': [4329], 's_10_40': [4314], 's_10_10': [4254], 's_17_9': [1630], 's_17_25': [1884], 's_17_29': [4434], 's_17_30': [4839], 's_17_34': [4524], 's_17_37': [1808], 's_17_17': [4810], 's_19_9': [4673], 's_19_14': [4569], 's_19_18': [4655], 's_19_25': [1989, 4705], 's_19_29': [1778], 's_19_30': [4870], 's_19_31': [4660], 's_19_33': [1331], 's_19_34': [1464], 's_19_19': [1089], 's_23_9': [4523], 's_23_23': [1507], 's_29_16': [1028], 's_29_25': [4435], 's_29_31': [1958], 's_29_35': [1058], 's_29_40': [1838], 's_29_29': [997], 's_33_7': [1721], 's_33_12': [4866], 's_33_13': [1347], 's_33_25': [5108], 's_33_28': [1287], 's_33_30': [5109], 's_33_33': [1122], 's_34_9': [1764], 's_34_14': [4374, 4373], 's_34_25': [4479], 's_34_37': [4405], 's_34_34': [1837], 's_35_3': [4640], 's_35_7': [1718], 's_35_14': [4553], 's_35_18': [4910], 's_35_35': [1148], 's_12_16': [4745], 's_12_18': [4746], 's_12_37': [4656], 's_12_12': [1193], 's_15_11': [1090], 's_15_13': [1842], 's_15_14': [5004], 's_15_28': [5046], 's_15_39': [1241], 's_15_16': [4925], 's_15_18': [5000], 's_15_25': [1840], 's_15_15': [1061], 's_16_3': [4595], 's_16_16': [4639], 's_18_13': [5286], 's_18_3': [4490], 's_18_40': [4581], 's_18_18': [4715], 's_36_11': [1555], 's_36_14': [4929], 's_36_25': [4913], 's_36_36': [1765], 's_3_11': [1120], 's_3_22': [4775], 's_3_39': [5015], 's_3_7': [1463], 's_3_9': [4433], 's_3_37': [1567], 's_3_3': [909], 's_5_7': [4674], 's_5_25': [4690], 's_5_5': [5155], 's_9_11': [4883], 's_9_14': [4358], 's_9_7': [4659], 's_9_9': [4868], 's_13_28': [1242], 's_13_13': [1648], 's_14_37': [1658], 's_14_14': [4508], 's_37_22': [1211], 's_37_40': [4461], 's_37_37': [4791], 's_40_31': [4465, 4464], 's_40_25': [1868, 1867, 4299], 's_40_40': [1732], 's_22_31': [1452], 's_22_39': [1196], 's_22_22': [1001], 's_25_30': [1990], 's_25_31': [4510], 's_25_25': [1883], 's_31_11': [1556], 's_31_30': [2051], 's_31_31': [4796], 's_39_39': [1183], 's_7_7': [2063], 's_28_30': [1931, 1932], 's_28_28': [1257], 's_11_11': [1542], 's_30_30': [2066]}</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0002178571428571428</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0008840926976053944</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>{0: [4746, 4805, 1151, 1150, 1149], 8: [1374, 4985, 4986, 1375], 9: [1210, 1211, 5031, 5030], 17: [4806, 1435, 4807], 18: [4911, 1254, 1255], 19: [4898, 4895, 4896, 4897], 26: [5017, 5015, 1376, 5016], 27: [4880, 1300, 4881], 33: [4747, 1391, 1390, 1389], 36: [1241, 1240, 4791], 38: [5075, 5077, 5076], 2: [4941, 4942], 6: [1539, 1540, 4987], 11: [4866, 1525, 4867], 12: [1301, 4928, 4927], 15: [1361, 4837, 4836, 1360], 23: [1404, 4671], 28: [4672, 4912, 1509, 1510], 29: [1269, 1271, 1270], 34: [1315, 5061, 1316], 35: [1405, 1406], 40: [1481, 1480, 4732, 4731, 1179], 10: [4956, 4957], 14: [5032, 5107, 1436], 20: [1329, 1331, 1330], 30: [4776, 1421, 4777, 1420], 37: [4835, 1166, 1165, 1164], 39: [1511, 5047, 1285, 1286, 5046], 13: [1451, 1449, 1450], 22: [1570, 4821, 4822], 1: [4686, 1555, 4687, 4688, 1554], 21: [5002, 1256, 5001], 31: [4851, 1344, 1346, 1345], 32: [1121, 4716, 4715, 4717, 1120], 4: [5062, 1465, 1466], 25: [4882], 5: [4702, 1314, 4701], 24: [4761, 4762], 41: [1359, 4792], 3: [4971, 4973, 4972], 16: [1496, 4778, 1495], 7: [4655, 4656, 1524, 4657]}</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.01080272108843537</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.01464127647176509</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>{0: [4746, 4805, 1151, 1150, 1149], 8: [1374, 4985, 4986, 1375], 9: [1210, 1211, 5031, 5030], 17: [4806, 1435, 4807], 18: [4911, 1254, 1255], 19: [4898, 4895, 4896, 4897], 26: [5017, 5015, 1376, 5016], 27: [4880, 1300, 4881], 33: [4747, 1391, 1390, 1389], 36: [1241, 1240, 4791], 38: [5075, 5077, 5076], 2: [4941, 4942], 6: [1539, 1540, 4987], 11: [4866, 1525, 4867], 12: [1301, 4928, 4927], 15: [1361, 4837, 4836, 1360], 23: [1404, 4671], 28: [4672, 4912, 1509, 1510], 29: [1269, 1271, 1270], 34: [1315, 5061, 1316], 35: [1405, 1406], 40: [1481, 1480, 4732, 4731, 1179], 10: [4956, 4957], 14: [5032, 5107, 1436], 20: [1329, 1331, 1330], 30: [4776, 1421, 4777, 1420], 37: [4835, 1166, 1165, 1164], 39: [1511, 5047, 1285, 1286, 5046], 13: [1451, 1449, 1450], 22: [1570, 4821, 4822], 1: [4686, 1555, 4687, 4688, 1554], 21: [5002, 1256, 5001], 31: [4851, 1344, 1346, 1345], 32: [1121, 4716, 4715, 4717, 1120], 4: [5062, 1465, 1466], 25: [4882], 5: [4702, 1314, 4701], 24: [4761, 4762], 41: [1359, 4792], 3: [4971, 4973, 4972], 16: [1496, 4778, 1495], 7: [4655, 4656, 1524, 4657]}</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0.01080272108843537</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01464127647176509</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>{0: [3503, 3427, 1546, 3428, 3426, 3727, 3488, 1548, 1547], 8: [1187, 1023, 3521, 3519, 3518, 1278, 3515, 3520, 3516, 3517], 's_0_8': [1623], 9: [1038, 3530, 3189, 3188, 3531, 3532, 3533, 3158, 1591, 1592, 1593], 's_0_9': [1607], 17: [1246, 3335, 3336, 1247, 1250, 1249, 1248], 's_0_17': [3726], 18: [3833, 1638, 3353, 3366, 3367, 1579, 1578, 3473, 1577], 's_0_18': [3698], 19: [3545, 3670, 3669, 1053, 3634, 3635, 3636, 1309, 3668, 3667], 's_0_19': [1489], 26: [1711, 1699, 1698, 3368, 1696, 1697], 's_0_26': [1637], 27: [1774, 3504, 3414, 1770, 1771, 1773, 1772], 's_0_27': [3429], 33: [3125, 3126, 3127, 3128, 3052, 1560, 1655, 1654, 1653, 3458, 1562, 1561], 's_0_33': [3653], 36: [1564, 3590, 3759, 3758, 3757, 1143, 3681, 3682, 1444], 's_0_36': [1414], 38: [3264, 1531, 3263], 's_0_38': [3293], 's_0_0': [1667], 2: [3231, 3230, 3290, 1114, 1113, 1111, 1112], 's_8_2': [3560], 6: [1518, 3622, 1339, 1338, 3621], 's_8_6': [3591], 11: [3020, 2990, 3095, 1050, 1051, 949, 948, 3485, 1052, 1277, 3411, 3410], 's_8_11': [3544], 12: [1039, 3845, 3442, 3397, 1427, 3696, 3846, 3847, 1428, 3697, 1429], 's_8_12': [3441], 15: [1037, 3500, 3501, 1860, 1861, 1862, 3564, 1264, 1263, 3561, 3562, 3563], 's_8_15': [1293], 's_8_17': [3606], 's_8_19': [3665], 23: [3459, 2042, 3460], 's_8_23': [2057], 's_8_26': [3534], 28: [1906, 3799, 3801, 3802, 3803, 3340, 1952, 1953, 1954, 3805, 3800, 3804], 's_8_28': [1024], 29: [3893, 3894, 1575, 2993, 2994, 1785, 1820, 1819, 1818, 3474, 1786, 1787], 's_8_29': [1712], 34: [1640, 3610, 3906, 3907, 3908, 3909, 1940, 1939, 1430, 1936, 1937, 1938], 's_8_34': [1998], 35: [3409, 3739, 3710, 1008, 1005, 1006, 1007], 's_8_35': [977], 40: [3365, 3066, 1200, 1504, 1201, 1202, 1203, 1204, 3816, 3817], 's_8_40': [1218], 's_8_8': [1322], 's_9_2': [1128], 10: [1487, 3143, 1486], 's_9_10': [1530], 's_9_11': [933], 14: [1173, 1172, 1171, 1170, 1636, 3098, 3097, 3096], 's_9_14': [1515], 20: [1863, 1893, 3579, 1803, 1336, 1802, 3322, 3323, 3324], 's_9_20': [1606], 30: [3277, 3384, 3305, 3306, 3307, 1413, 1412, 1457, 1725, 1726, 3382, 3383], 's_9_30': [3233], 's_9_34': [3204], 's_9_35': [962], 37: [1080, 1081, 1083, 1082], 's_9_37': [3605], 39: [1395, 3199, 3200, 3280, 3279, 1741, 3203, 3202, 3201, 1396], 's_9_39': [1651], 's_9_9': [3190], 's_17_2': [3351], 's_17_6': [3786], 's_17_11': [3381], 's_17_12': [3861], 13: [3444, 1877, 1876, 1455, 3170, 3171, 3172, 1456, 3219, 3218, 3217], 's_17_13': [1231], 's_17_15': [3486], 22: [1065, 1069, 1068, 1066, 1067], 's_17_22': [3350], 's_17_34': [1235], 's_17_36': [3711], 's_17_17': [3921], 1: [3247, 1366, 3457, 1369, 1368, 1367], 's_18_1': [1501], 's_18_11': [1262], 's_18_20': [1472], 21: [3577, 1728, 3578], 's_18_21': [1668], 's_18_29': [3834], 's_18_30': [3352], 31: [1713, 3609, 3608, 3740, 3741, 1353, 3607], 's_18_31': [3623], 32: [1460, 3535, 1848, 3967, 3968, 3969, 3638, 3639, 1849, 1850], 's_18_32': [1625], 's_18_36': [1609], 's_18_40': [3772], 's_18_18': [1576], 's_19_1': [3756], 4: [3081, 3080, 1035, 874, 873, 872, 871, 3229, 3320, 1036], 's_19_4': [888], 's_19_6': [1398], 's_19_11': [3649], 's_19_15': [1383], 's_19_20': [3685], 's_19_22': [3650], 's_19_32': [1834], 's_19_35': [934], 's_19_36': [1294], 's_19_37': [3620], 's_19_19': [1624], 's_26_15': [1682], 's_26_21': [3743], 's_26_30': [3354], 's_26_36': [3788], 's_26_38': [1681], 's_26_39': [3294], 's_26_26': [3818], 's_27_15': [3114], 's_27_20': [1804, 3744], 25: [1275, 3039, 3038, 3036, 3037], 's_27_25': [3054], 's_27_29': [1775], 's_27_30': [3249], 's_27_32': [3654], 's_27_33': [3864], 's_27_34': [3729], 's_27_39': [1817], 's_27_27': [1907], 's_33_1': [1441], 's_33_2': [1126], 5: [2963, 2948, 2949, 3129, 3234, 1816, 1815], 's_33_5': [1470], 's_33_12': [3443], 's_33_14': [1291], 's_33_22': [3140], 's_33_23': [1757, 3489], 24: [3007, 3004, 3005, 3006], 's_33_24': [1410], 's_33_25': [1380], 's_33_30': [1652], 's_33_32': [1670], 's_33_34': [3953], 's_33_35': [990], 's_33_38': [3338], 41: [3549, 1743, 3548, 1563, 1458, 3547], 's_33_41': [3684], 's_33_33': [2978], 3: [3470, 3471, 1475, 1474, 1473, 3472], 's_36_3': [3787], 's_36_15': [1279], 's_36_32': [3774], 's_36_34': [1894], 's_36_37': [3575], 's_36_40': [1519], 's_36_41': [3683], 's_36_36': [3666], 's_38_14': [3248], 's_38_15': [1532], 's_38_20': [1756], 's_38_30': [3278], 's_38_38': [1831], 's_2_13': [1021], 's_2_20': [3321], 's_2_31': [1129], 's_2_4': [3260], 's_2_35': [3110], 's_2_37': [1097], 's_2_2': [3770], 's_6_1': [3892], 's_6_12': [1188], 's_6_14': [3651], 's_6_15': [3771], 's_6_21': [1443], 's_6_28': [1324], 's_6_6': [1340], 's_11_3': [1022], 16: [3396, 1352, 1351, 1260, 3051, 1350], 's_11_16': [2991], 's_11_4': [3604], 7: [2947, 3035, 1110, 2946], 's_11_7': [1155], 's_11_28': [3784], 's_11_30': [1292], 's_11_39': [1096], 's_11_40': [3380], 's_11_11': [1125], 's_12_1': [3487], 's_12_10': [3412], 's_12_28': [1234], 's_12_30': [3637], 's_12_34': [1310], 's_12_35': [3724], 's_12_40': [1189], 's_12_12': [1115], 's_15_1': [3576], 's_15_4': [3394], 's_15_16': [3502], 's_15_25': [1875], 's_15_30': [3069], 's_15_37': [3425], 's_15_15': [3364], 's_23_20': [2013, 3625], 's_23_32': [1892], 's_23_28': [3550], 's_23_23': [3565], 's_28_13': [3310], 's_28_4': [889], 's_28_5': [1891], 's_28_22': [3785], 's_28_39': [1997], 's_28_28': [3430], 's_29_3': [1490], 's_29_31': [1788], 's_29_5': [1755], 's_29_10': [1605], 's_29_24': [3022], 's_29_32': [1745], 's_29_34': [3895], 's_29_39': [1740], 's_29_40': [3878], 's_29_29': [1620], 's_34_31': [1714], 's_34_5': [1921], 's_34_30': [3369], 's_34_39': [3295], 's_34_34': [3820], 's_35_3': [992], 's_35_31': [1099], 's_35_4': [887], 's_35_22': [3455], 's_35_30': [947], 's_35_39': [3184], 's_35_35': [917], 's_40_16': [3067], 's_40_32': [1505], 's_40_24': [1290], 's_40_25': [1320], 's_40_14': [3291], 's_40_22': [3815], 's_40_40': [3246], 's_10_13': [3142], 's_10_14': [1500], 's_10_10': [1621], 's_14_13': [1261], 's_14_16': [3112], 's_14_31': [3725], 's_14_39': [1306], 's_14_14': [3276], 's_20_1': [1426], 's_20_21': [3624], 's_20_31': [1878], 's_20_32': [3640], 's_20_20': [1321], 's_30_13': [1411], 's_30_25': [1710], 's_30_21': [3592], 's_30_30': [1127], 's_37_3': [1098], 's_37_7': [2930], 's_37_24': [1095], 's_37_37': [2945], 's_39_13': [1216], 's_39_24': [3021], 's_39_39': [2012], 's_13_1': [1516], 's_13_4': [931], 's_13_5': [1846], 's_13_22': [3155], 's_13_24': [1440], 's_13_25': [1335], 's_13_32': [3505], 's_13_41': [1727], 's_13_13': [2917], 's_22_7': [3065], 's_22_22': [3860], 's_1_3': [3832], 's_1_16': [3262], 's_1_31': [1354], 's_1_41': [1517], 's_1_1': [1502], 's_21_31': [1758], 's_21_21': [3593], 's_31_41': [1608], 's_31_31': [1399], 's_32_3': [3982], 's_32_41': [1459], 's_32_32': [1685], 's_4_16': [3082], 's_4_24': [1215], 's_4_25': [1305], 's_4_4': [3154], 's_25_16': [2931], 's_25_25': [1665], 's_5_7': [2962], 's_5_5': [2934], 's_24_24': [945], 's_41_41': [1742], 's_3_16': [1397], 's_3_3': [3469], 's_16_7': [2976], 's_16_16': [1307], 's_7_7': [1185]}</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0001346801346801347</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0006597952169112939</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>{0: [3503, 3427, 1546, 3428, 3426, 3727, 3488, 1548, 1547], 8: [1187, 1023, 3521, 3519, 3518, 1278, 3515, 3520, 3516, 3517], 's_0_8': [1623], 9: [1038, 3530, 3189, 3188, 3531, 3532, 3533, 3158, 1591, 1592, 1593], 's_0_9': [1607], 17: [1246, 3335, 3336, 1247, 1250, 1249, 1248], 's_0_17': [3726], 18: [3833, 1638, 3353, 3366, 3367, 1579, 1578, 3473, 1577], 's_0_18': [3698], 19: [3545, 3670, 3669, 1053, 3634, 3635, 3636, 1309, 3668, 3667], 's_0_19': [1489], 26: [1711, 1699, 1698, 3368, 1696, 1697], 's_0_26': [1637], 27: [1774, 3504, 3414, 1770, 1771, 1773, 1772], 's_0_27': [3429], 33: [3125, 3126, 3127, 3128, 3052, 1560, 1655, 1654, 1653, 3458, 1562, 1561], 's_0_33': [3653], 36: [1564, 3590, 3759, 3758, 3757, 1143, 3681, 3682, 1444], 's_0_36': [1414], 38: [3264, 1531, 3263], 's_0_38': [3293], 's_0_0': [1667], 2: [3231, 3230, 3290, 1114, 1113, 1111, 1112], 's_8_2': [3560], 6: [1518, 3622, 1339, 1338, 3621], 's_8_6': [3591], 11: [3020, 2990, 3095, 1050, 1051, 949, 948, 3485, 1052, 1277, 3411, 3410], 's_8_11': [3544], 12: [1039, 3845, 3442, 3397, 1427, 3696, 3846, 3847, 1428, 3697, 1429], 's_8_12': [3441], 15: [1037, 3500, 3501, 1860, 1861, 1862, 3564, 1264, 1263, 3561, 3562, 3563], 's_8_15': [1293], 's_8_17': [3606], 's_8_19': [3665], 23: [3459, 2042, 3460], 's_8_23': [2057], 's_8_26': [3534], 28: [1906, 3799, 3801, 3802, 3803, 3340, 1952, 1953, 1954, 3805, 3800, 3804], 's_8_28': [1024], 29: [3893, 3894, 1575, 2993, 2994, 1785, 1820, 1819, 1818, 3474, 1786, 1787], 's_8_29': [1712], 34: [1640, 3610, 3906, 3907, 3908, 3909, 1940, 1939, 1430, 1936, 1937, 1938], 's_8_34': [1998], 35: [3409, 3739, 3710, 1008, 1005, 1006, 1007], 's_8_35': [977], 40: [3365, 3066, 1200, 1504, 1201, 1202, 1203, 1204, 3816, 3817], 's_8_40': [1218], 's_8_8': [1322], 's_9_2': [1128], 10: [1487, 3143, 1486], 's_9_10': [1530], 's_9_11': [933], 14: [1173, 1172, 1171, 1170, 1636, 3098, 3097, 3096], 's_9_14': [1515], 20: [1863, 1893, 3579, 1803, 1336, 1802, 3322, 3323, 3324], 's_9_20': [1606], 30: [3277, 3384, 3305, 3306, 3307, 1413, 1412, 1457, 1725, 1726, 3382, 3383], 's_9_30': [3233], 's_9_34': [3204], 's_9_35': [962], 37: [1080, 1081, 1083, 1082], 's_9_37': [3605], 39: [1395, 3199, 3200, 3280, 3279, 1741, 3203, 3202, 3201, 1396], 's_9_39': [1651], 's_9_9': [3190], 's_17_2': [3351], 's_17_6': [3786], 's_17_11': [3381], 's_17_12': [3861], 13: [3444, 1877, 1876, 1455, 3170, 3171, 3172, 1456, 3219, 3218, 3217], 's_17_13': [1231], 's_17_15': [3486], 22: [1065, 1069, 1068, 1066, 1067], 's_17_22': [3350], 's_17_34': [1235], 's_17_36': [3711], 's_17_17': [3921], 1: [3247, 1366, 3457, 1369, 1368, 1367], 's_18_1': [1501], 's_18_11': [1262], 's_18_20': [1472], 21: [3577, 1728, 3578], 's_18_21': [1668], 's_18_29': [3834], 's_18_30': [3352], 31: [1713, 3609, 3608, 3740, 3741, 1353, 3607], 's_18_31': [3623], 32: [1460, 3535, 1848, 3967, 3968, 3969, 3638, 3639, 1849, 1850], 's_18_32': [1625], 's_18_36': [1609], 's_18_40': [3772], 's_18_18': [1576], 's_19_1': [3756], 4: [3081, 3080, 1035, 874, 873, 872, 871, 3229, 3320, 1036], 's_19_4': [888], 's_19_6': [1398], 's_19_11': [3649], 's_19_15': [1383], 's_19_20': [3685], 's_19_22': [3650], 's_19_32': [1834], 's_19_35': [934], 's_19_36': [1294], 's_19_37': [3620], 's_19_19': [1624], 's_26_15': [1682], 's_26_21': [3743], 's_26_30': [3354], 's_26_36': [3788], 's_26_38': [1681], 's_26_39': [3294], 's_26_26': [3818], 's_27_15': [3114], 's_27_20': [1804, 3744], 25: [1275, 3039, 3038, 3036, 3037], 's_27_25': [3054], 's_27_29': [1775], 's_27_30': [3249], 's_27_32': [3654], 's_27_33': [3864], 's_27_34': [3729], 's_27_39': [1817], 's_27_27': [1907], 's_33_1': [1441], 's_33_2': [1126], 5: [2963, 2948, 2949, 3129, 3234, 1816, 1815], 's_33_5': [1470], 's_33_12': [3443], 's_33_14': [1291], 's_33_22': [3140], 's_33_23': [1757, 3489], 24: [3007, 3004, 3005, 3006], 's_33_24': [1410], 's_33_25': [1380], 's_33_30': [1652], 's_33_32': [1670], 's_33_34': [3953], 's_33_35': [990], 's_33_38': [3338], 41: [3549, 1743, 3548, 1563, 1458, 3547], 's_33_41': [3684], 's_33_33': [2978], 3: [3470, 3471, 1475, 1474, 1473, 3472], 's_36_3': [3787], 's_36_15': [1279], 's_36_32': [3774], 's_36_34': [1894], 's_36_37': [3575], 's_36_40': [1519], 's_36_41': [3683], 's_36_36': [3666], 's_38_14': [3248], 's_38_15': [1532], 's_38_20': [1756], 's_38_30': [3278], 's_38_38': [1831], 's_2_13': [1021], 's_2_20': [3321], 's_2_31': [1129], 's_2_4': [3260], 's_2_35': [3110], 's_2_37': [1097], 's_2_2': [3770], 's_6_1': [3892], 's_6_12': [1188], 's_6_14': [3651], 's_6_15': [3771], 's_6_21': [1443], 's_6_28': [1324], 's_6_6': [1340], 's_11_3': [1022], 16: [3396, 1352, 1351, 1260, 3051, 1350], 's_11_16': [2991], 's_11_4': [3604], 7: [2947, 3035, 1110, 2946], 's_11_7': [1155], 's_11_28': [3784], 's_11_30': [1292], 's_11_39': [1096], 's_11_40': [3380], 's_11_11': [1125], 's_12_1': [3487], 's_12_10': [3412], 's_12_28': [1234], 's_12_30': [3637], 's_12_34': [1310], 's_12_35': [3724], 's_12_40': [1189], 's_12_12': [1115], 's_15_1': [3576], 's_15_4': [3394], 's_15_16': [3502], 's_15_25': [1875], 's_15_30': [3069], 's_15_37': [3425], 's_15_15': [3364], 's_23_20': [2013, 3625], 's_23_32': [1892], 's_23_28': [3550], 's_23_23': [3565], 's_28_13': [3310], 's_28_4': [889], 's_28_5': [1891], 's_28_22': [3785], 's_28_39': [1997], 's_28_28': [3430], 's_29_3': [1490], 's_29_31': [1788], 's_29_5': [1755], 's_29_10': [1605], 's_29_24': [3022], 's_29_32': [1745], 's_29_34': [3895], 's_29_39': [1740], 's_29_40': [3878], 's_29_29': [1620], 's_34_31': [1714], 's_34_5': [1921], 's_34_30': [3369], 's_34_39': [3295], 's_34_34': [3820], 's_35_3': [992], 's_35_31': [1099], 's_35_4': [887], 's_35_22': [3455], 's_35_30': [947], 's_35_39': [3184], 's_35_35': [917], 's_40_16': [3067], 's_40_32': [1505], 's_40_24': [1290], 's_40_25': [1320], 's_40_14': [3291], 's_40_22': [3815], 's_40_40': [3246], 's_10_13': [3142], 's_10_14': [1500], 's_10_10': [1621], 's_14_13': [1261], 's_14_16': [3112], 's_14_31': [3725], 's_14_39': [1306], 's_14_14': [3276], 's_20_1': [1426], 's_20_21': [3624], 's_20_31': [1878], 's_20_32': [3640], 's_20_20': [1321], 's_30_13': [1411], 's_30_25': [1710], 's_30_21': [3592], 's_30_30': [1127], 's_37_3': [1098], 's_37_7': [2930], 's_37_24': [1095], 's_37_37': [2945], 's_39_13': [1216], 's_39_24': [3021], 's_39_39': [2012], 's_13_1': [1516], 's_13_4': [931], 's_13_5': [1846], 's_13_22': [3155], 's_13_24': [1440], 's_13_25': [1335], 's_13_32': [3505], 's_13_41': [1727], 's_13_13': [2917], 's_22_7': [3065], 's_22_22': [3860], 's_1_3': [3832], 's_1_16': [3262], 's_1_31': [1354], 's_1_41': [1517], 's_1_1': [1502], 's_21_31': [1758], 's_21_21': [3593], 's_31_41': [1608], 's_31_31': [1399], 's_32_3': [3982], 's_32_41': [1459], 's_32_32': [1685], 's_4_16': [3082], 's_4_24': [1215], 's_4_25': [1305], 's_4_4': [3154], 's_25_16': [2931], 's_25_25': [1665], 's_5_7': [2962], 's_5_5': [2934], 's_24_24': [945], 's_41_41': [1742], 's_3_16': [1397], 's_3_3': [3469], 's_16_7': [2976], 's_16_16': [1307], 's_7_7': [1185]}</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0.0001346801346801347</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0006597952169112939</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>{0: [4390, 1659, 1658, 4389], 7: [4795, 1990, 1988, 1989], 10: [1732, 4374, 4375], 14: [4583, 4584, 2004, 4585], 20: [1764, 4615, 4614], 22: [1673, 1674], 23: [4405, 4403, 1763, 1762, 4404], 24: [4464, 4463], 30: [1747, 1749, 1748], 35: [4672, 4674, 4673], 39: [1838, 1840, 1839], 40: [1795, 1794, 4643, 4644], 1: [1958, 4523, 4525, 4524], 3: [4418, 1717, 4420, 4419], 5: [4539, 1928, 4540], 19: [4735, 1675, 4733, 4734], 29: [1884, 1883], 36: [4718, 4719, 1869], 6: [4629, 1897, 1898], 8: [1942, 4749, 1943, 4750, 1944], 25: [4570, 4569, 1808, 1810, 1809], 33: [1734, 4492, 4493, 1733], 2: [4450, 4765, 1973, 1974], 4: [1823, 4689, 1824], 9: [1792, 1793, 4555, 4554], 21: [4780, 4779, 4628, 1718, 1719], 28: [4449, 4448, 1598, 1599], 32: [4477, 4688, 1538, 1539], 41: [1703, 4358, 1702], 16: [1552, 4613, 1553, 4553], 17: [1582, 1583, 1584, 4763, 4764], 38: [1855, 1853, 1854], 12: [1912, 4435, 4434, 4433], 15: [4479, 1628, 1688, 4478], 18: [1913, 1959, 4599, 4600], 26: [2034, 4703, 4705, 4704], 34: [1867, 4508, 4509, 1868], 42: [4808, 1645, 1643, 4538, 1644], 11: [4659, 1629, 4660, 4658], 13: [1613, 1614], 31: [4494, 1779, 1778], 37: [1825, 4809, 1914], 27: [4359]}</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.01581717600300768</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.01771318730544156</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>{0: [4390, 1659, 1658, 4389], 7: [4795, 1990, 1988, 1989], 10: [1732, 4374, 4375], 14: [4583, 4584, 2004, 4585], 20: [1764, 4615, 4614], 22: [1673, 1674], 23: [4405, 4403, 1763, 1762, 4404], 24: [4464, 4463], 30: [1747, 1749, 1748], 35: [4672, 4674, 4673], 39: [1838, 1840, 1839], 40: [1795, 1794, 4643, 4644], 1: [1958, 4523, 4525, 4524], 3: [4418, 1717, 4420, 4419], 5: [4539, 1928, 4540], 19: [4735, 1675, 4733, 4734], 29: [1884, 1883], 36: [4718, 4719, 1869], 6: [4629, 1897, 1898], 8: [1942, 4749, 1943, 4750, 1944], 25: [4570, 4569, 1808, 1810, 1809], 33: [1734, 4492, 4493, 1733], 2: [4450, 4765, 1973, 1974], 4: [1823, 4689, 1824], 9: [1792, 1793, 4555, 4554], 21: [4780, 4779, 4628, 1718, 1719], 28: [4449, 4448, 1598, 1599], 32: [4477, 4688, 1538, 1539], 41: [1703, 4358, 1702], 16: [1552, 4613, 1553, 4553], 17: [1582, 1583, 1584, 4763, 4764], 38: [1855, 1853, 1854], 12: [1912, 4435, 4434, 4433], 15: [4479, 1628, 1688, 4478], 18: [1913, 1959, 4599, 4600], 26: [2034, 4703, 4705, 4704], 34: [1867, 4508, 4509, 1868], 42: [4808, 1645, 1643, 4538, 1644], 11: [4659, 1629, 4660, 4658], 13: [1613, 1614], 31: [4494, 1779, 1778], 37: [1825, 4809, 1914], 27: [4359]}</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0.01581717600300768</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01771318730544156</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>{0: [3828, 3571, 3902, 632, 3572, 634, 633], 7: [1205, 1204, 155, 3801, 170, 3915, 3916, 3917, 3800, 3799, 814, 3918], 's_0_7': [604], 10: [3947, 542, 543, 544, 3948, 545], 's_0_10': [558], 14: [3904, 950, 3964, 3963, 517, 516, 515, 3962], 's_0_14': [680], 20: [4549, 574, 3827, 3826, 380, 575, 381, 3663, 382, 383, 4471, 4472, 638, 4548], 's_0_20': [3767], 22: [3691, 3692, 3693, 861, 860, 858, 859, 862, 3694], 's_0_22': [453], 23: [723, 3980, 3979, 724, 725, 3975, 395, 3976, 3977, 3978], 's_0_23': [3618], 24: [202, 3845, 3844, 201, 200, 3840, 3841, 3843, 3842], 's_0_24': [3858], 30: [3738, 783, 782, 4159, 3860, 936, 935, 934, 933, 932, 3424, 3423, 3422, 602], 's_0_30': [3438], 35: [3722, 559, 4427, 3752, 3753, 3754, 3755, 1189, 1190, 1191, 4428, 4429, 4430, 4431, 1192], 's_0_35': [649], 39: [4488, 4546, 348, 349, 350, 4487, 4486, 351, 352, 3721, 353], 's_0_39': [438], 40: [467, 291, 4052, 427, 426, 4141, 396, 4006, 335, 334, 3542, 3541, 333], 's_0_40': [378], 's_0_0': [513], 1: [3930, 3931, 3932, 3935, 3934, 786, 785, 3933], 's_7_1': [784], 3: [692, 693, 694, 695, 697, 696], 's_7_3': [3768], 5: [3634, 922, 921, 919, 920], 's_7_5': [3919], 's_7_10': [560], 's_7_14': [1009], 19: [1041, 4129, 606, 171, 4125, 4126, 4128, 4127], 's_7_19': [156], 's_7_20': [454], 29: [4156, 4157, 485, 488, 487, 486], 's_7_29': [3901], 36: [1235, 1234, 4441, 4442, 4443, 3966, 4444, 4445, 1177, 1236, 1237, 4371], 's_7_36': [1249], 's_7_7': [3802], 6: [3751, 3887, 423, 424], 's_10_6': [3662], 8: [4474, 530, 4144, 4473, 743, 4143, 4037, 4038, 741, 742], 's_10_8': [605], 's_10_24': [740], 25: [815, 4279, 816, 713, 712, 4278], 's_10_25': [830], 's_10_30': [3407], 33: [968, 967, 966, 965, 964, 979, 978, 3467, 3468, 3469, 948, 3619], 's_10_33': [512, 3347], 's_10_10': [3287], 2: [3874, 590, 666, 665, 3873], 's_14_2': [620, 4082, 681, 4203], 4: [3765, 548, 4426, 4397, 4396, 247, 243, 244, 245, 246], 's_14_4': [4352], 's_14_5': [3814], 9: [4202, 4260, 4261, 1073, 439, 440, 4460, 4459, 4458, 4457, 441, 442, 4456], 's_14_9': [518], 's_14_20': [514], 21: [4221, 4220, 4171, 4172, 4173, 951, 953, 952, 4174], 's_14_21': [4322, 547], 's_14_23': [470], 28: [3861, 1282, 3676, 3677, 3678, 770, 769, 1281, 828, 3679, 3680, 3681, 1279, 3981, 1280], 's_14_28': [949], 32: [994, 1325, 1324, 3784, 1054, 3785, 3786], 's_14_32': [3965, 995], 41: [4245, 4251, 4250, 4249, 4248, 4246, 4247], 's_14_41': [4232], 's_14_14': [4112], 's_20_4': [457, 458], 16: [3635, 1053, 3515, 3511, 3512, 663, 3513, 3514], 's_20_16': [708], 17: [800, 3888, 3648, 797, 1101, 1100, 1011, 798, 4160, 799, 3889, 3890], 's_20_17': [3647], 's_20_25': [4578], 's_20_29': [4111], 's_20_33': [573], 's_20_36': [578], 38: [4110, 3796, 319, 4186, 322, 320, 321], 's_20_38': [4321], 's_20_39': [443], 's_20_20': [384], 12: [4036, 3900, 287, 290, 288, 289], 's_22_12': [273], 15: [3829, 4021, 4022, 4023, 4024, 4025, 1083, 1084, 1146, 4145, 1086, 1085, 3830], 's_22_15': [889], 's_22_16': [3529], 18: [4263, 4399, 3631, 3632, 3633, 754, 755, 758, 757, 756], 's_22_18': [3664], 's_22_19': [4113], 's_22_21': [4369], 's_22_23': [3798, 679], 26: [1010, 4011, 4010, 4007, 4008, 4009], 's_22_26': [845], 's_22_32': [3695], 's_22_33': [843, 842], 34: [1401, 367, 366, 4095, 4096, 4097, 4101, 4100, 4099, 4098], 's_22_34': [846], 's_22_41': [847], 's_22_22': [4039], 's_23_1': [305], 's_23_3': [710], 's_23_4': [3960], 's_23_5': [875, 874, 3739], 's_23_6': [3811], 's_23_12': [185], 's_23_15': [4020, 140], 's_23_17': [3783], 's_23_28': [3813], 's_23_30': [722], 's_23_33': [738], 's_23_38': [394], 's_23_39': [3946], 42: [648, 3708, 3709, 3723, 3724, 1027, 1026, 1025, 3710, 1024], 's_23_42': [739], 's_23_23': [125], 's_24_5': [905], 's_24_6': [3857], 's_24_12': [215], 's_24_15': [231, 3990], 's_24_30': [3859], 's_24_34': [365], 's_24_38': [274], 's_24_41': [187, 186], 's_24_24': [94], 's_30_1': [1040, 1039], 's_30_3': [3528], 's_30_8': [981], 's_30_15': [962, 3485], 's_30_18': [876, 4054], 's_30_21': [4114], 's_30_25': [937], 's_30_26': [4055], 's_30_28': [887, 888], 's_30_33': [827], 's_30_34': [891], 's_30_40': [647], 's_30_30': [3350], 's_35_4': [413], 's_35_8': [848], 11: [3707, 500, 3589, 3588, 3812, 499, 498, 3587, 3586], 's_35_11': [3782], 13: [3602, 618, 3451, 3452, 617], 's_35_13': [603], 's_35_29': [4412], 31: [4308, 1175, 4324, 4325, 4309, 4310, 1118, 4085, 1116, 1117], 's_35_31': [1133], 's_35_32': [3816], 's_35_33': [982], 's_35_36': [1208], 37: [4385, 4384, 307, 4381, 4382, 607, 4383], 's_35_37': [1088], 's_35_39': [593], 's_35_35': [1193], 's_39_4': [4411], 's_39_6': [3601], 's_39_8': [773], 's_39_11': [3736], 's_39_19': [336], 's_39_21': [727, 728], 's_39_25': [803, 4518], 27: [4293, 577, 4291, 652, 4292], 's_39_27': [653], 's_39_34': [4051], 's_39_37': [4547, 608], 's_39_38': [3871], 's_39_40': [292, 293], 's_39_39': [354], 's_40_9': [4336], 's_40_13': [422], 's_40_15': [275], 's_40_18': [483], 's_40_19': [411], 's_40_26': [546], 's_40_28': [3661], 's_40_33': [452], 's_40_37': [4275], 's_40_41': [397], 's_40_40': [332, 3346], 's_1_4': [3945], 's_1_5': [4234], 's_1_15': [1115], 's_1_18': [3993], 's_1_28': [3936], 's_1_33': [4188, 4189], 's_1_41': [4158, 651], 's_1_42': [3949], 's_1_1': [1130], 's_3_41': [4233], 's_3_2': [4053], 's_3_17': [3573], 's_3_21': [636, 4218], 's_3_25': [4323], 's_3_27': [4368], 's_3_34': [711], 's_3_3': [4338], 's_5_15': [3649, 3650], 's_5_21': [4219], 's_5_25': [4204], 's_5_26': [906], 's_5_28': [873], 's_5_31': [4294], 's_5_42': [813], 's_5_5': [4069], 's_19_18': [4262], 's_19_33': [4084], 's_19_2': [591], 's_19_17': [4175], 's_19_25': [4277], 's_19_37': [306], 's_19_38': [276], 's_19_19': [172], 's_29_15': [561], 's_29_11': [501], 's_29_34': [4081], 's_29_9': [4276], 's_29_36': [503], 's_29_37': [502], 's_29_6': [484], 's_29_8': [4142, 621], 's_29_29': [4577], 's_36_4': [472], 's_36_26': [1220], 's_36_25': [698], 's_36_34': [4116], 's_36_8': [863], 's_36_32': [1340], 's_36_36': [787], 's_6_18': [379], 's_6_28': [409], 's_6_9': [3872], 's_6_38': [364], 's_6_6': [3750], 's_8_15': [726], 's_8_33': [833, 4534], 's_8_11': [529], 's_8_26': [455], 's_8_9': [1028], 's_8_12': [425, 3961], 's_8_37': [908], 's_8_8': [818], 's_25_41': [996], 's_25_21': [1087, 4280], 's_25_27': [772], 's_25_37': [4398], 's_25_25': [4533], 's_33_11': [497], 's_33_16': [3544, 992], 's_33_31': [4339], 's_33_32': [3769], 's_33_34': [980], 's_33_33': [707], 's_2_18': [589], 's_2_28': [829], 's_2_11': [619], 's_2_17': [3875], 's_2_26': [890], 's_2_2': [664], 's_4_9': [4455], 's_4_12': [3585], 's_4_28': [258], 's_4_37': [532], 's_4_38': [4231], 's_4_4': [4335], 's_9_15': [1071, 1072], 's_9_21': [938], 's_9_27': [637], 's_9_34': [368], 's_9_31': [4490], 's_9_9': [4461], 's_21_15': [1056, 4190], 's_21_18': [4400], 's_21_28': [4205, 4206], 's_21_17': [4040], 's_21_26': [3994], 's_21_38': [4187, 531], 's_21_21': [954], 's_28_11': [1008], 's_28_16': [318], 's_28_26': [1266], 's_28_31': [4311], 's_28_34': [1310, 1311], 's_28_41': [1267], 's_28_28': [1248], 's_32_15': [1069], 's_32_42': [3725], 's_32_26': [1055], 's_32_34': [4057], 's_32_16': [1129], 's_32_32': [1326], 's_41_15': [261, 260], 's_41_18': [801], 's_41_17': [1161], 's_41_27': [682], 's_41_41': [127, 126], 's_16_15': [3530], 's_16_11': [918], 's_16_17': [678], 's_16_12': [272], 's_16_13': [3557], 's_16_16': [3575], 's_17_42': [3815], 's_17_26': [4070], 's_17_17': [3393], 's_38_15': [216], 's_38_34': [4201], 's_38_12': [4080], 's_38_37': [4305], 's_38_38': [4216, 217], 's_12_18': [3646], 's_12_34': [4066], 's_12_13': [3466], 's_12_12': [3405], 's_15_11': [3590], 's_15_42': [3995], 's_15_15': [1082], 's_18_26': [771], 's_18_31': [817], 's_18_34': [4083], 's_18_37': [802], 's_18_18': [759], 's_26_11': [3992], 's_26_31': [1145], 's_26_26': [1070, 3920], 's_34_27': [576], 's_34_31': [1206], 's_34_34': [4177], 's_42_13': [3603], 's_42_37': [1042], 's_42_42': [4235], 's_11_13': [588], 's_11_11': [528], 's_13_13': [482], 's_31_31': [4295], 's_37_37': [1012], 's_27_27': [412]}</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0001875</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0007705460027086307</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>{0: [3828, 3571, 3902, 632, 3572, 634, 633], 7: [1205, 1204, 155, 3801, 170, 3915, 3916, 3917, 3800, 3799, 814, 3918], 's_0_7': [604], 10: [3947, 542, 543, 544, 3948, 545], 's_0_10': [558], 14: [3904, 950, 3964, 3963, 517, 516, 515, 3962], 's_0_14': [680], 20: [4549, 574, 3827, 3826, 380, 575, 381, 3663, 382, 383, 4471, 4472, 638, 4548], 's_0_20': [3767], 22: [3691, 3692, 3693, 861, 860, 858, 859, 862, 3694], 's_0_22': [453], 23: [723, 3980, 3979, 724, 725, 3975, 395, 3976, 3977, 3978], 's_0_23': [3618], 24: [202, 3845, 3844, 201, 200, 3840, 3841, 3843, 3842], 's_0_24': [3858], 30: [3738, 783, 782, 4159, 3860, 936, 935, 934, 933, 932, 3424, 3423, 3422, 602], 's_0_30': [3438], 35: [3722, 559, 4427, 3752, 3753, 3754, 3755, 1189, 1190, 1191, 4428, 4429, 4430, 4431, 1192], 's_0_35': [649], 39: [4488, 4546, 348, 349, 350, 4487, 4486, 351, 352, 3721, 353], 's_0_39': [438], 40: [467, 291, 4052, 427, 426, 4141, 396, 4006, 335, 334, 3542, 3541, 333], 's_0_40': [378], 's_0_0': [513], 1: [3930, 3931, 3932, 3935, 3934, 786, 785, 3933], 's_7_1': [784], 3: [692, 693, 694, 695, 697, 696], 's_7_3': [3768], 5: [3634, 922, 921, 919, 920], 's_7_5': [3919], 's_7_10': [560], 's_7_14': [1009], 19: [1041, 4129, 606, 171, 4125, 4126, 4128, 4127], 's_7_19': [156], 's_7_20': [454], 29: [4156, 4157, 485, 488, 487, 486], 's_7_29': [3901], 36: [1235, 1234, 4441, 4442, 4443, 3966, 4444, 4445, 1177, 1236, 1237, 4371], 's_7_36': [1249], 's_7_7': [3802], 6: [3751, 3887, 423, 424], 's_10_6': [3662], 8: [4474, 530, 4144, 4473, 743, 4143, 4037, 4038, 741, 742], 's_10_8': [605], 's_10_24': [740], 25: [815, 4279, 816, 713, 712, 4278], 's_10_25': [830], 's_10_30': [3407], 33: [968, 967, 966, 965, 964, 979, 978, 3467, 3468, 3469, 948, 3619], 's_10_33': [512, 3347], 's_10_10': [3287], 2: [3874, 590, 666, 665, 3873], 's_14_2': [620, 4082, 681, 4203], 4: [3765, 548, 4426, 4397, 4396, 247, 243, 244, 245, 246], 's_14_4': [4352], 's_14_5': [3814], 9: [4202, 4260, 4261, 1073, 439, 440, 4460, 4459, 4458, 4457, 441, 442, 4456], 's_14_9': [518], 's_14_20': [514], 21: [4221, 4220, 4171, 4172, 4173, 951, 953, 952, 4174], 's_14_21': [4322, 547], 's_14_23': [470], 28: [3861, 1282, 3676, 3677, 3678, 770, 769, 1281, 828, 3679, 3680, 3681, 1279, 3981, 1280], 's_14_28': [949], 32: [994, 1325, 1324, 3784, 1054, 3785, 3786], 's_14_32': [3965, 995], 41: [4245, 4251, 4250, 4249, 4248, 4246, 4247], 's_14_41': [4232], 's_14_14': [4112], 's_20_4': [457, 458], 16: [3635, 1053, 3515, 3511, 3512, 663, 3513, 3514], 's_20_16': [708], 17: [800, 3888, 3648, 797, 1101, 1100, 1011, 798, 4160, 799, 3889, 3890], 's_20_17': [3647], 's_20_25': [4578], 's_20_29': [4111], 's_20_33': [573], 's_20_36': [578], 38: [4110, 3796, 319, 4186, 322, 320, 321], 's_20_38': [4321], 's_20_39': [443], 's_20_20': [384], 12: [4036, 3900, 287, 290, 288, 289], 's_22_12': [273], 15: [3829, 4021, 4022, 4023, 4024, 4025, 1083, 1084, 1146, 4145, 1086, 1085, 3830], 's_22_15': [889], 's_22_16': [3529], 18: [4263, 4399, 3631, 3632, 3633, 754, 755, 758, 757, 756], 's_22_18': [3664], 's_22_19': [4113], 's_22_21': [4369], 's_22_23': [3798, 679], 26: [1010, 4011, 4010, 4007, 4008, 4009], 's_22_26': [845], 's_22_32': [3695], 's_22_33': [843, 842], 34: [1401, 367, 366, 4095, 4096, 4097, 4101, 4100, 4099, 4098], 's_22_34': [846], 's_22_41': [847], 's_22_22': [4039], 's_23_1': [305], 's_23_3': [710], 's_23_4': [3960], 's_23_5': [875, 874, 3739], 's_23_6': [3811], 's_23_12': [185], 's_23_15': [4020, 140], 's_23_17': [3783], 's_23_28': [3813], 's_23_30': [722], 's_23_33': [738], 's_23_38': [394], 's_23_39': [3946], 42: [648, 3708, 3709, 3723, 3724, 1027, 1026, 1025, 3710, 1024], 's_23_42': [739], 's_23_23': [125], 's_24_5': [905], 's_24_6': [3857], 's_24_12': [215], 's_24_15': [231, 3990], 's_24_30': [3859], 's_24_34': [365], 's_24_38': [274], 's_24_41': [187, 186], 's_24_24': [94], 's_30_1': [1040, 1039], 's_30_3': [3528], 's_30_8': [981], 's_30_15': [962, 3485], 's_30_18': [876, 4054], 's_30_21': [4114], 's_30_25': [937], 's_30_26': [4055], 's_30_28': [887, 888], 's_30_33': [827], 's_30_34': [891], 's_30_40': [647], 's_30_30': [3350], 's_35_4': [413], 's_35_8': [848], 11: [3707, 500, 3589, 3588, 3812, 499, 498, 3587, 3586], 's_35_11': [3782], 13: [3602, 618, 3451, 3452, 617], 's_35_13': [603], 's_35_29': [4412], 31: [4308, 1175, 4324, 4325, 4309, 4310, 1118, 4085, 1116, 1117], 's_35_31': [1133], 's_35_32': [3816], 's_35_33': [982], 's_35_36': [1208], 37: [4385, 4384, 307, 4381, 4382, 607, 4383], 's_35_37': [1088], 's_35_39': [593], 's_35_35': [1193], 's_39_4': [4411], 's_39_6': [3601], 's_39_8': [773], 's_39_11': [3736], 's_39_19': [336], 's_39_21': [727, 728], 's_39_25': [803, 4518], 27: [4293, 577, 4291, 652, 4292], 's_39_27': [653], 's_39_34': [4051], 's_39_37': [4547, 608], 's_39_38': [3871], 's_39_40': [292, 293], 's_39_39': [354], 's_40_9': [4336], 's_40_13': [422], 's_40_15': [275], 's_40_18': [483], 's_40_19': [411], 's_40_26': [546], 's_40_28': [3661], 's_40_33': [452], 's_40_37': [4275], 's_40_41': [397], 's_40_40': [332, 3346], 's_1_4': [3945], 's_1_5': [4234], 's_1_15': [1115], 's_1_18': [3993], 's_1_28': [3936], 's_1_33': [4188, 4189], 's_1_41': [4158, 651], 's_1_42': [3949], 's_1_1': [1130], 's_3_41': [4233], 's_3_2': [4053], 's_3_17': [3573], 's_3_21': [636, 4218], 's_3_25': [4323], 's_3_27': [4368], 's_3_34': [711], 's_3_3': [4338], 's_5_15': [3649, 3650], 's_5_21': [4219], 's_5_25': [4204], 's_5_26': [906], 's_5_28': [873], 's_5_31': [4294], 's_5_42': [813], 's_5_5': [4069], 's_19_18': [4262], 's_19_33': [4084], 's_19_2': [591], 's_19_17': [4175], 's_19_25': [4277], 's_19_37': [306], 's_19_38': [276], 's_19_19': [172], 's_29_15': [561], 's_29_11': [501], 's_29_34': [4081], 's_29_9': [4276], 's_29_36': [503], 's_29_37': [502], 's_29_6': [484], 's_29_8': [4142, 621], 's_29_29': [4577], 's_36_4': [472], 's_36_26': [1220], 's_36_25': [698], 's_36_34': [4116], 's_36_8': [863], 's_36_32': [1340], 's_36_36': [787], 's_6_18': [379], 's_6_28': [409], 's_6_9': [3872], 's_6_38': [364], 's_6_6': [3750], 's_8_15': [726], 's_8_33': [833, 4534], 's_8_11': [529], 's_8_26': [455], 's_8_9': [1028], 's_8_12': [425, 3961], 's_8_37': [908], 's_8_8': [818], 's_25_41': [996], 's_25_21': [1087, 4280], 's_25_27': [772], 's_25_37': [4398], 's_25_25': [4533], 's_33_11': [497], 's_33_16': [3544, 992], 's_33_31': [4339], 's_33_32': [3769], 's_33_34': [980], 's_33_33': [707], 's_2_18': [589], 's_2_28': [829], 's_2_11': [619], 's_2_17': [3875], 's_2_26': [890], 's_2_2': [664], 's_4_9': [4455], 's_4_12': [3585], 's_4_28': [258], 's_4_37': [532], 's_4_38': [4231], 's_4_4': [4335], 's_9_15': [1071, 1072], 's_9_21': [938], 's_9_27': [637], 's_9_34': [368], 's_9_31': [4490], 's_9_9': [4461], 's_21_15': [1056, 4190], 's_21_18': [4400], 's_21_28': [4205, 4206], 's_21_17': [4040], 's_21_26': [3994], 's_21_38': [4187, 531], 's_21_21': [954], 's_28_11': [1008], 's_28_16': [318], 's_28_26': [1266], 's_28_31': [4311], 's_28_34': [1310, 1311], 's_28_41': [1267], 's_28_28': [1248], 's_32_15': [1069], 's_32_42': [3725], 's_32_26': [1055], 's_32_34': [4057], 's_32_16': [1129], 's_32_32': [1326], 's_41_15': [261, 260], 's_41_18': [801], 's_41_17': [1161], 's_41_27': [682], 's_41_41': [127, 126], 's_16_15': [3530], 's_16_11': [918], 's_16_17': [678], 's_16_12': [272], 's_16_13': [3557], 's_16_16': [3575], 's_17_42': [3815], 's_17_26': [4070], 's_17_17': [3393], 's_38_15': [216], 's_38_34': [4201], 's_38_12': [4080], 's_38_37': [4305], 's_38_38': [4216, 217], 's_12_18': [3646], 's_12_34': [4066], 's_12_13': [3466], 's_12_12': [3405], 's_15_11': [3590], 's_15_42': [3995], 's_15_15': [1082], 's_18_26': [771], 's_18_31': [817], 's_18_34': [4083], 's_18_37': [802], 's_18_18': [759], 's_26_11': [3992], 's_26_31': [1145], 's_26_26': [1070, 3920], 's_34_27': [576], 's_34_31': [1206], 's_34_34': [4177], 's_42_13': [3603], 's_42_37': [1042], 's_42_42': [4235], 's_11_13': [588], 's_11_11': [528], 's_13_13': [482], 's_31_31': [4295], 's_37_37': [1012], 's_27_27': [412]}</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0.0001875</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.0007705460027086307</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>{0: [5259, 1722, 5363, 5362], 2: [5301, 5304, 5302, 5303], 7: [5393, 1663, 5078, 1662], 10: [5361, 1376, 1377], 12: [5318, 1632, 1633], 13: [1648, 5274, 5271, 5272, 5273], 22: [5211, 5258, 5257, 1407], 25: [1797, 5154, 5151, 5153, 5152], 26: [1362, 1438, 5317], 31: [1497, 5213, 5212], 32: [5196, 1587, 5198, 5197], 38: [1721, 1631, 5018, 5017], 4: [5121, 5016, 1257, 1256], 6: [5031, 5032, 1557, 1556], 15: [1287, 1288], 19: [5166, 1767, 5168, 5167], 21: [5107, 1437, 1436], 24: [1391, 5287, 1392], 27: [5108, 1601, 1602], 28: [5408, 5407, 1481, 1482, 1483], 37: [5346, 5181, 1332, 1331], 1: [1735, 1736, 1707, 1737, 5334], 5: [1272, 5392, 5391, 1273], 9: [1542, 1540, 1541], 11: [5077, 1406], 34: [1317, 5241, 5242, 5243], 39: [5122, 5123, 5124], 40: [1511, 5139, 5138], 3: [1467, 5136, 5137], 36: [1647, 5092, 5093], 14: [5348, 1453, 5347], 23: [1572, 1573], 41: [5376, 1498, 5377], 42: [1423, 5183, 5182, 1422], 8: [5244, 1751, 1752], 16: [5288, 1617], 17: [5091, 1302], 18: [4973, 1361, 5047, 1496], 20: [1330, 4972, 1451, 1452], 33: [5002, 1706, 1705, 5003], 43: [5333, 5332, 1347, 5226], 35: [5228, 5227], 29: [5061, 1421, 5062], 30: [4986, 4987, 4988]}</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.006378498885310876</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.01113484335013282</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>{0: [5259, 1722, 5363, 5362], 2: [5301, 5304, 5302, 5303], 7: [5393, 1663, 5078, 1662], 10: [5361, 1376, 1377], 12: [5318, 1632, 1633], 13: [1648, 5274, 5271, 5272, 5273], 22: [5211, 5258, 5257, 1407], 25: [1797, 5154, 5151, 5153, 5152], 26: [1362, 1438, 5317], 31: [1497, 5213, 5212], 32: [5196, 1587, 5198, 5197], 38: [1721, 1631, 5018, 5017], 4: [5121, 5016, 1257, 1256], 6: [5031, 5032, 1557, 1556], 15: [1287, 1288], 19: [5166, 1767, 5168, 5167], 21: [5107, 1437, 1436], 24: [1391, 5287, 1392], 27: [5108, 1601, 1602], 28: [5408, 5407, 1481, 1482, 1483], 37: [5346, 5181, 1332, 1331], 1: [1735, 1736, 1707, 1737, 5334], 5: [1272, 5392, 5391, 1273], 9: [1542, 1540, 1541], 11: [5077, 1406], 34: [1317, 5241, 5242, 5243], 39: [5122, 5123, 5124], 40: [1511, 5139, 5138], 3: [1467, 5136, 5137], 36: [1647, 5092, 5093], 14: [5348, 1453, 5347], 23: [1572, 1573], 41: [5376, 1498, 5377], 42: [1423, 5183, 5182, 1422], 8: [5244, 1751, 1752], 16: [5288, 1617], 17: [5091, 1302], 18: [4973, 1361, 5047, 1496], 20: [1330, 4972, 1451, 1452], 33: [5002, 1706, 1705, 5003], 43: [5333, 5332, 1347, 5226], 35: [5228, 5227], 29: [5061, 1421, 5062], 30: [4986, 4987, 4988]}</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0.006378498885310876</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01113484335013282</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>{0: [4879, 4621, 955, 954, 4625, 4622, 4623, 4624], 2: [4443, 4535, 4534, 864, 863], 's_0_2': [1148], 7: [860, 861, 4412, 862, 4413, 4414, 923, 1120, 1119, 1118, 4370, 4369], 's_0_7': [4880], 10: [4924, 819, 820], 's_0_10': [835], 12: [5026, 386, 4532, 4531, 385, 384, 4023, 383, 382, 381, 4022, 4021], 's_0_12': [369], 13: [4549, 4398, 966, 969, 637, 4323, 968, 967, 4324], 's_0_13': [970], 22: [4816, 1057, 415, 910, 1058, 4742, 1059, 4745, 4743, 4744], 's_0_22': [925], 25: [4637, 521, 4907, 520, 519, 4396, 4397, 4293, 4292, 517, 518], 's_0_25': [534], 26: [1000, 400, 4849, 4848, 4846, 4847], 's_0_26': [985], 31: [726, 4068, 399, 398, 397, 4067, 396], 's_0_31': [414], 32: [4156, 4157, 1089, 1088, 4158, 4159, 4416, 4415, 982, 981], 's_0_32': [4580], 38: [893, 579, 4563, 4564], 's_0_38': [653], 's_0_0': [4620], 4: [815, 4565, 3977, 3978, 3979, 999, 998, 997, 996, 995, 3980], 's_2_4': [983], 6: [485, 486, 728, 4383, 4381, 4382, 487], 's_2_6': [743], 15: [4235, 625, 4832, 4833, 4834, 940, 4519, 4173, 4174, 937, 938, 939], 's_2_15': [4714], 19: [833, 803, 4488, 339, 338, 802, 4486, 4487], 's_2_19': [773], 21: [667, 774, 668, 669, 4699, 4698], 's_2_21': [924], 's_2_22': [909], 24: [804, 756, 757, 758, 4729, 4503, 683, 4727, 684, 4728], 's_2_24': [4759], 27: [4430, 4429, 3932, 3933, 4458, 787, 786, 695, 3963, 785], 's_2_27': [832], 28: [1026, 1027, 4936, 4937, 4938, 4939, 4940, 1030, 1028, 1029], 's_2_28': [1043], 37: [1045, 1044, 4576, 4577, 248, 4639, 4638, 729, 4578], 's_2_37': [818], 's_2_2': [4536], 1: [608, 606, 607], 's_7_1': [622], 5: [340, 310, 4800, 4801, 4805, 4804, 4803, 4802], 's_7_5': [4761, 1149], 's_7_6': [548], 9: [536, 4996, 1011, 4997, 4999, 5000, 1165, 1164, 1163, 1162, 4998, 4325, 1012], 's_7_9': [1121], 11: [4791, 4788, 4789, 1014, 4790], 's_7_11': [1135], 's_7_13': [4399], 's_7_19': [4411], 's_7_22': [4670], 's_7_25': [533], 's_7_28': [4520], 's_7_31': [413], 34: [3873, 681, 680, 4007, 665, 4009, 4008], 's_7_34': [3874], 39: [4685, 4700, 845, 4024, 4025, 1101, 1102, 1103, 1104], 's_7_39': [4460], 40: [352, 4305, 4310, 4309, 4306, 4308, 4307], 's_7_40': [1117], 's_7_7': [4249], 3: [800, 850, 849, 848, 847, 216, 4051, 4052, 4053, 4054, 846], 's_10_3': [4909], 's_10_22': [911], 's_10_24': [805], 's_10_26': [865], 36: [651, 4654, 4218, 4217, 426, 427, 4653, 4652, 4651, 429, 428], 's_10_36': [834], 's_10_10': [926], 's_12_9': [506], 14: [4533, 760, 4548, 759], 's_12_14': [4546, 4547], 's_12_19': [4591, 278], 's_12_22': [4711], 23: [356, 355, 354, 353], 's_12_23': [4441], 's_12_25': [5027], 's_12_27': [530], 's_12_28': [416], 's_12_31': [411], 's_12_34': [515], 's_12_36': [4666], 's_12_38': [623], 's_12_39': [710, 3918], 41: [596, 4891, 4892], 's_12_41': [371], 42: [4636, 3976, 4726, 440, 441, 4456, 445, 444, 443, 442], 's_12_42': [275], 's_12_12': [446], 's_13_4': [965], 's_13_6': [652], 8: [4129, 4127, 4128], 's_13_8': [636], 's_13_9': [4294], 's_13_14': [638], 's_13_15': [4220], 16: [578, 4457, 593, 505, 504, 503, 4517], 's_13_16': [4442], 's_13_19': [4504], 's_13_22': [4610], 's_13_25': [772], 's_13_27': [4459], 's_13_36': [4669], 's_13_13': [4250], 's_22_4': [4505], 's_22_11': [609], 's_22_14': [4774], 's_22_16': [4831], 17: [712, 713, 715, 714], 's_22_17': [4758], 's_22_24': [984], 's_22_32': [4445], 's_22_22': [745], 's_25_5': [4817], 's_25_6': [233], 's_25_9': [4982], 's_25_15': [4877], 's_25_16': [4862], 18: [4204, 4203, 4201, 4202, 655, 654, 4667, 564, 561, 562, 563], 's_25_18': [4908], 20: [308, 307, 305, 306], 's_25_20': [322], 's_25_21': [4277], 's_25_27': [817], 's_25_31': [516], 33: [816, 698, 697, 4265, 4264, 4262, 4263], 's_25_33': [547], 's_25_25': [5042], 's_26_5': [670], 's_26_14': [775], 's_26_18': [565], 's_26_37': [4925], 's_26_42': [4772], 43: [4352, 455, 460, 459, 456, 457, 458], 's_26_43': [4757], 's_26_26': [370], 's_31_3': [4066], 's_31_8': [4113], 's_31_18': [4607], 's_31_19': [4696], 's_31_34': [741], 35: [4248, 575, 576, 4171, 4172, 4322, 577], 's_31_35': [412], 's_31_40': [4291], 's_31_42': [4351], 's_31_31': [4126], 's_32_1': [4142], 's_32_4': [4160], 's_32_8': [906], 's_32_9': [1087], 's_32_20': [4141], 's_32_28': [4400], 's_32_36': [4655], 's_32_40': [1177], 's_32_43': [471], 's_32_32': [1253], 's_38_1': [4608], 's_38_4': [4444], 's_38_21': [4697], 's_38_33': [892], 's_38_38': [894], 's_4_43': [470], 's_4_6': [3962], 's_4_11': [4715], 's_4_15': [4595], 29: [4099, 921, 335, 875, 4039, 4036, 4037, 4038], 's_4_29': [620], 's_4_37': [1013], 's_4_39': [1070], 's_4_4': [814], 's_6_43': [3946], 's_6_27': [4384], 's_6_36': [4247], 's_6_37': [247], 's_6_40': [337], 's_6_42': [4081], 's_6_6': [484], 's_15_3': [4339], 's_15_17': [711], 's_15_19': [4489], 's_15_34': [936], 's_15_41': [610], 's_15_15': [4968], 's_19_5': [309, 4756], 's_19_17': [4353], 's_19_23': [4561, 263], 's_19_24': [4518], 's_19_36': [4681], 's_19_42': [4501], 's_19_19': [4485, 188], 's_21_35': [682], 's_21_17': [699], 's_21_18': [4472], 's_21_36': [789], 's_21_39': [4684], 's_21_21': [666], 's_24_14': [4713], 's_24_16': [4502], 's_24_29': [771], 's_24_42': [489], 's_24_24': [4219], 's_27_35': [590], 's_27_9': [4431], 's_27_16': [4428], 's_27_18': [560], 30: [4475, 876, 877, 4474, 880, 879, 878], 's_27_30': [4069], 's_27_34': [740], 's_27_27': [1073], 's_28_33': [4279], 's_28_5': [1075], 's_28_23': [4921], 's_28_29': [1025, 3904], 's_28_30': [4084], 's_28_41': [566], 's_28_28': [236], 's_37_43': [473], 's_37_5': [249], 's_37_14': [4683], 's_37_20': [323], 's_37_37': [4910], 's_1_33': [4233], 's_1_35': [4112], 's_1_43': [4367], 's_1_1': [605], 's_5_3': [4818], 's_5_17': [700], 's_5_23': [4771], 's_5_41': [4906], 's_5_5': [294], 's_9_33': [1072], 's_9_40': [1132], 's_9_42': [4952], 's_9_39': [4340], 's_9_30': [881], 's_9_9': [537], 's_11_18': [624], 's_11_30': [895], 's_11_11': [1240], 's_34_35': [3888], 's_34_43': [3992], 's_34_3': [546], 's_34_8': [951], 's_34_36': [4143], 's_34_39': [3994], 's_34_34': [664], 's_39_33': [4280], 's_39_40': [4295], 's_39_29': [890], 's_39_39': [4100], 's_40_33': [1222], 's_40_3': [217], 's_40_36': [727], 's_40_18': [922], 's_40_23': [4426, 292], 's_40_40': [157], 's_3_20': [4110], 's_3_36': [696], 's_3_42': [290], 's_3_3': [231], 's_36_35': [531], 's_36_17': [4668], 's_36_36': [594], 's_14_14': [761], 's_23_23': [4606, 324], 's_41_43': [475], 's_41_42': [430], 's_41_16': [490], 's_41_41': [581], 's_42_16': [4471], 's_42_29': [425], 's_42_42': [439], 's_8_30': [4114], 's_8_8': [4130], 's_16_35': [502], 's_16_16': [488], 's_17_17': [4368], 's_18_20': [4216], 's_18_29': [336], 's_18_30': [891], 's_18_18': [656], 's_20_35': [321], 's_20_29': [3886], 's_20_20': [4125], 's_33_30': [4234], 's_33_33': [4144], 's_43_35': [532], 's_43_43': [454], 's_35_35': [3812], 's_29_29': [350], 's_30_30': [4476]}</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0002466216216216216</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0009044405407464881</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>{0: [4879, 4621, 955, 954, 4625, 4622, 4623, 4624], 2: [4443, 4535, 4534, 864, 863], 's_0_2': [1148], 7: [860, 861, 4412, 862, 4413, 4414, 923, 1120, 1119, 1118, 4370, 4369], 's_0_7': [4880], 10: [4924, 819, 820], 's_0_10': [835], 12: [5026, 386, 4532, 4531, 385, 384, 4023, 383, 382, 381, 4022, 4021], 's_0_12': [369], 13: [4549, 4398, 966, 969, 637, 4323, 968, 967, 4324], 's_0_13': [970], 22: [4816, 1057, 415, 910, 1058, 4742, 1059, 4745, 4743, 4744], 's_0_22': [925], 25: [4637, 521, 4907, 520, 519, 4396, 4397, 4293, 4292, 517, 518], 's_0_25': [534], 26: [1000, 400, 4849, 4848, 4846, 4847], 's_0_26': [985], 31: [726, 4068, 399, 398, 397, 4067, 396], 's_0_31': [414], 32: [4156, 4157, 1089, 1088, 4158, 4159, 4416, 4415, 982, 981], 's_0_32': [4580], 38: [893, 579, 4563, 4564], 's_0_38': [653], 's_0_0': [4620], 4: [815, 4565, 3977, 3978, 3979, 999, 998, 997, 996, 995, 3980], 's_2_4': [983], 6: [485, 486, 728, 4383, 4381, 4382, 487], 's_2_6': [743], 15: [4235, 625, 4832, 4833, 4834, 940, 4519, 4173, 4174, 937, 938, 939], 's_2_15': [4714], 19: [833, 803, 4488, 339, 338, 802, 4486, 4487], 's_2_19': [773], 21: [667, 774, 668, 669, 4699, 4698], 's_2_21': [924], 's_2_22': [909], 24: [804, 756, 757, 758, 4729, 4503, 683, 4727, 684, 4728], 's_2_24': [4759], 27: [4430, 4429, 3932, 3933, 4458, 787, 786, 695, 3963, 785], 's_2_27': [832], 28: [1026, 1027, 4936, 4937, 4938, 4939, 4940, 1030, 1028, 1029], 's_2_28': [1043], 37: [1045, 1044, 4576, 4577, 248, 4639, 4638, 729, 4578], 's_2_37': [818], 's_2_2': [4536], 1: [608, 606, 607], 's_7_1': [622], 5: [340, 310, 4800, 4801, 4805, 4804, 4803, 4802], 's_7_5': [4761, 1149], 's_7_6': [548], 9: [536, 4996, 1011, 4997, 4999, 5000, 1165, 1164, 1163, 1162, 4998, 4325, 1012], 's_7_9': [1121], 11: [4791, 4788, 4789, 1014, 4790], 's_7_11': [1135], 's_7_13': [4399], 's_7_19': [4411], 's_7_22': [4670], 's_7_25': [533], 's_7_28': [4520], 's_7_31': [413], 34: [3873, 681, 680, 4007, 665, 4009, 4008], 's_7_34': [3874], 39: [4685, 4700, 845, 4024, 4025, 1101, 1102, 1103, 1104], 's_7_39': [4460], 40: [352, 4305, 4310, 4309, 4306, 4308, 4307], 's_7_40': [1117], 's_7_7': [4249], 3: [800, 850, 849, 848, 847, 216, 4051, 4052, 4053, 4054, 846], 's_10_3': [4909], 's_10_22': [911], 's_10_24': [805], 's_10_26': [865], 36: [651, 4654, 4218, 4217, 426, 427, 4653, 4652, 4651, 429, 428], 's_10_36': [834], 's_10_10': [926], 's_12_9': [506], 14: [4533, 760, 4548, 759], 's_12_14': [4546, 4547], 's_12_19': [4591, 278], 's_12_22': [4711], 23: [356, 355, 354, 353], 's_12_23': [4441], 's_12_25': [5027], 's_12_27': [530], 's_12_28': [416], 's_12_31': [411], 's_12_34': [515], 's_12_36': [4666], 's_12_38': [623], 's_12_39': [710, 3918], 41: [596, 4891, 4892], 's_12_41': [371], 42: [4636, 3976, 4726, 440, 441, 4456, 445, 444, 443, 442], 's_12_42': [275], 's_12_12': [446], 's_13_4': [965], 's_13_6': [652], 8: [4129, 4127, 4128], 's_13_8': [636], 's_13_9': [4294], 's_13_14': [638], 's_13_15': [4220], 16: [578, 4457, 593, 505, 504, 503, 4517], 's_13_16': [4442], 's_13_19': [4504], 's_13_22': [4610], 's_13_25': [772], 's_13_27': [4459], 's_13_36': [4669], 's_13_13': [4250], 's_22_4': [4505], 's_22_11': [609], 's_22_14': [4774], 's_22_16': [4831], 17: [712, 713, 715, 714], 's_22_17': [4758], 's_22_24': [984], 's_22_32': [4445], 's_22_22': [745], 's_25_5': [4817], 's_25_6': [233], 's_25_9': [4982], 's_25_15': [4877], 's_25_16': [4862], 18: [4204, 4203, 4201, 4202, 655, 654, 4667, 564, 561, 562, 563], 's_25_18': [4908], 20: [308, 307, 305, 306], 's_25_20': [322], 's_25_21': [4277], 's_25_27': [817], 's_25_31': [516], 33: [816, 698, 697, 4265, 4264, 4262, 4263], 's_25_33': [547], 's_25_25': [5042], 's_26_5': [670], 's_26_14': [775], 's_26_18': [565], 's_26_37': [4925], 's_26_42': [4772], 43: [4352, 455, 460, 459, 456, 457, 458], 's_26_43': [4757], 's_26_26': [370], 's_31_3': [4066], 's_31_8': [4113], 's_31_18': [4607], 's_31_19': [4696], 's_31_34': [741], 35: [4248, 575, 576, 4171, 4172, 4322, 577], 's_31_35': [412], 's_31_40': [4291], 's_31_42': [4351], 's_31_31': [4126], 's_32_1': [4142], 's_32_4': [4160], 's_32_8': [906], 's_32_9': [1087], 's_32_20': [4141], 's_32_28': [4400], 's_32_36': [4655], 's_32_40': [1177], 's_32_43': [471], 's_32_32': [1253], 's_38_1': [4608], 's_38_4': [4444], 's_38_21': [4697], 's_38_33': [892], 's_38_38': [894], 's_4_43': [470], 's_4_6': [3962], 's_4_11': [4715], 's_4_15': [4595], 29: [4099, 921, 335, 875, 4039, 4036, 4037, 4038], 's_4_29': [620], 's_4_37': [1013], 's_4_39': [1070], 's_4_4': [814], 's_6_43': [3946], 's_6_27': [4384], 's_6_36': [4247], 's_6_37': [247], 's_6_40': [337], 's_6_42': [4081], 's_6_6': [484], 's_15_3': [4339], 's_15_17': [711], 's_15_19': [4489], 's_15_34': [936], 's_15_41': [610], 's_15_15': [4968], 's_19_5': [309, 4756], 's_19_17': [4353], 's_19_23': [4561, 263], 's_19_24': [4518], 's_19_36': [4681], 's_19_42': [4501], 's_19_19': [4485, 188], 's_21_35': [682], 's_21_17': [699], 's_21_18': [4472], 's_21_36': [789], 's_21_39': [4684], 's_21_21': [666], 's_24_14': [4713], 's_24_16': [4502], 's_24_29': [771], 's_24_42': [489], 's_24_24': [4219], 's_27_35': [590], 's_27_9': [4431], 's_27_16': [4428], 's_27_18': [560], 30: [4475, 876, 877, 4474, 880, 879, 878], 's_27_30': [4069], 's_27_34': [740], 's_27_27': [1073], 's_28_33': [4279], 's_28_5': [1075], 's_28_23': [4921], 's_28_29': [1025, 3904], 's_28_30': [4084], 's_28_41': [566], 's_28_28': [236], 's_37_43': [473], 's_37_5': [249], 's_37_14': [4683], 's_37_20': [323], 's_37_37': [4910], 's_1_33': [4233], 's_1_35': [4112], 's_1_43': [4367], 's_1_1': [605], 's_5_3': [4818], 's_5_17': [700], 's_5_23': [4771], 's_5_41': [4906], 's_5_5': [294], 's_9_33': [1072], 's_9_40': [1132], 's_9_42': [4952], 's_9_39': [4340], 's_9_30': [881], 's_9_9': [537], 's_11_18': [624], 's_11_30': [895], 's_11_11': [1240], 's_34_35': [3888], 's_34_43': [3992], 's_34_3': [546], 's_34_8': [951], 's_34_36': [4143], 's_34_39': [3994], 's_34_34': [664], 's_39_33': [4280], 's_39_40': [4295], 's_39_29': [890], 's_39_39': [4100], 's_40_33': [1222], 's_40_3': [217], 's_40_36': [727], 's_40_18': [922], 's_40_23': [4426, 292], 's_40_40': [157], 's_3_20': [4110], 's_3_36': [696], 's_3_42': [290], 's_3_3': [231], 's_36_35': [531], 's_36_17': [4668], 's_36_36': [594], 's_14_14': [761], 's_23_23': [4606, 324], 's_41_43': [475], 's_41_42': [430], 's_41_16': [490], 's_41_41': [581], 's_42_16': [4471], 's_42_29': [425], 's_42_42': [439], 's_8_30': [4114], 's_8_8': [4130], 's_16_35': [502], 's_16_16': [488], 's_17_17': [4368], 's_18_20': [4216], 's_18_29': [336], 's_18_30': [891], 's_18_18': [656], 's_20_35': [321], 's_20_29': [3886], 's_20_20': [4125], 's_33_30': [4234], 's_33_33': [4144], 's_43_35': [532], 's_43_43': [454], 's_35_35': [3812], 's_29_29': [350], 's_30_30': [4476]}</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0.0002466216216216216</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.0009044405407464881</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>{0: [5166, 5167, 1510, 1511], 1: [4835, 1556, 4836, 1555, 4837], 6: [1317, 5076, 1272, 5226], 8: [1346, 1344, 1345], 10: [5017, 5015, 5016], 11: [4943, 1137, 1136, 4942, 4941], 13: [4880, 4881, 1525, 4883, 4882], 16: [1540, 4987, 4986], 19: [4716, 1331, 1329, 1330], 21: [4868, 1570, 1571, 5062, 5063], 25: [1361, 1359, 1360], 26: [1287, 5093, 5090, 5091, 5092], 29: [1390, 1392, 1391], 30: [4763, 1495, 4897, 1497, 1496], 35: [4973, 4972], 38: [1557, 1602, 5213, 1467, 5212], 41: [5181, 5183, 5182, 1586, 1587], 42: [5123, 5121, 5122], 2: [4896, 4776, 1241, 1240], 15: [1225, 4866, 4867], 18: [1300, 4746, 4748, 4747], 33: [5002, 1422, 1420, 1421], 39: [1541, 5138, 5136, 5137], 43: [5045, 5046, 5047, 1481, 1480], 44: [4985, 1212, 1211, 1210], 14: [4732, 4731, 5061, 1271, 1270], 20: [1315, 4956, 1316, 4958, 4957], 9: [4852, 1404, 1406, 4851, 1405], 27: [5032, 5030, 5031], 28: [5108, 4792, 1601, 1600, 4793, 1539], 31: [1437, 1436, 1435, 4821, 4822], 32: [5107, 5151, 5152, 1376], 36: [4910, 1091, 4912, 4911], 4: [1466, 1465], 5: [5000, 1375, 1301, 5001], 23: [4971, 1166, 4865, 1165], 34: [1196, 5242, 5241, 1197], 37: [4717, 1452, 1451, 1450], 40: [4925, 4927, 1286, 4926], 7: [1374, 4777, 4778, 1632, 1631, 1630], 24: [1151, 1150, 4762, 4761, 1149], 12: [1076, 1075, 4807, 4806, 4805], 17: [5180, 1122, 1121, 1120], 3: [1257, 1255, 5106, 1256], 22: [4791, 1285]}</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.02113389015439129</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.01904515109627528</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>{0: [5166, 5167, 1510, 1511], 1: [4835, 1556, 4836, 1555, 4837], 6: [1317, 5076, 1272, 5226], 8: [1346, 1344, 1345], 10: [5017, 5015, 5016], 11: [4943, 1137, 1136, 4942, 4941], 13: [4880, 4881, 1525, 4883, 4882], 16: [1540, 4987, 4986], 19: [4716, 1331, 1329, 1330], 21: [4868, 1570, 1571, 5062, 5063], 25: [1361, 1359, 1360], 26: [1287, 5093, 5090, 5091, 5092], 29: [1390, 1392, 1391], 30: [4763, 1495, 4897, 1497, 1496], 35: [4973, 4972], 38: [1557, 1602, 5213, 1467, 5212], 41: [5181, 5183, 5182, 1586, 1587], 42: [5123, 5121, 5122], 2: [4896, 4776, 1241, 1240], 15: [1225, 4866, 4867], 18: [1300, 4746, 4748, 4747], 33: [5002, 1422, 1420, 1421], 39: [1541, 5138, 5136, 5137], 43: [5045, 5046, 5047, 1481, 1480], 44: [4985, 1212, 1211, 1210], 14: [4732, 4731, 5061, 1271, 1270], 20: [1315, 4956, 1316, 4958, 4957], 9: [4852, 1404, 1406, 4851, 1405], 27: [5032, 5030, 5031], 28: [5108, 4792, 1601, 1600, 4793, 1539], 31: [1437, 1436, 1435, 4821, 4822], 32: [5107, 5151, 5152, 1376], 36: [4910, 1091, 4912, 4911], 4: [1466, 1465], 5: [5000, 1375, 1301, 5001], 23: [4971, 1166, 4865, 1165], 34: [1196, 5242, 5241, 1197], 37: [4717, 1452, 1451, 1450], 40: [4925, 4927, 1286, 4926], 7: [1374, 4777, 4778, 1632, 1631, 1630], 24: [1151, 1150, 4762, 4761, 1149], 12: [1076, 1075, 4807, 4806, 4805], 17: [5180, 1122, 1121, 1120], 3: [1257, 1255, 5106, 1256], 22: [4791, 1285]}</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0.02113389015439129</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01904515109627528</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>{0: [2463, 3567, 3566, 2163, 1731, 1730, 1729, 1728, 3491, 1727, 3489, 3490], 1: [2494, 3447, 2417, 2493, 3536, 3537, 3539, 3538], 's_0_1': [2402], 6: [3686, 3581, 2148], 's_0_6': [3611], 8: [3763, 2508, 4077, 3969, 4076, 4075, 1880, 2510, 4078, 2511, 2509], 's_0_8': [4074], 10: [1911, 4060, 3952, 3953, 3954, 1909, 1910], 's_0_10': [3938], 11: [3458, 1652, 1653, 4163, 1656, 1655, 1654, 3699, 3700, 1969, 3820], 's_0_11': [3398], 13: [2179, 2419, 2418, 3673, 3672, 1669, 3669, 3670, 3671], 's_0_13': [1713], 16: [3656, 3746, 3745, 2070, 2071, 2072, 3716, 2073], 's_0_16': [3506], 19: [3687, 2389, 3688], 's_0_19': [2388], 21: [2301, 2017, 4224, 4225, 4228, 4227, 2167, 4226], 's_0_21': [1716], 25: [2435, 2434, 1682, 1681, 3309, 1786, 3234, 3235, 3236, 2433, 2432, 2431, 3237], 's_0_25': [3413], 26: [1862, 3683, 1863, 1953, 3684, 3685], 's_0_26': [3624], 29: [1638, 1639, 4134, 1640, 1641, 1671, 1701, 4133], 's_0_29': [4283], 30: [3943, 3942, 2372, 3941, 3940, 2000, 1999, 1998, 1997, 3385, 3386, 3387], 's_0_30': [3505], 35: [1741, 1742, 3655, 3654, 1743, 1744, 3789], 's_0_35': [3609], 38: [2660, 3899, 2702, 3643, 3644, 3689, 2705, 2703, 2704], 's_0_38': [3658], 41: [1761, 1760, 3894, 1546, 3893, 1550, 1547, 1548, 1549], 's_0_41': [3923], 42: [2462, 3372, 2343, 3326, 3327, 2341, 2342], 's_0_42': [3552], 's_0_0': [1732], 2: [2404, 3807, 2314, 2313, 3461, 2237, 3522], 's_1_2': [3523], 15: [2719, 3701, 3794, 3793, 3792, 3791, 2061, 2060, 4031, 2105, 2104], 's_1_15': [2718], 18: [2615, 1891, 2614, 2613, 2612, 2611, 3265, 3266, 1951, 3267, 3268, 3269], 's_1_18': [2627], 's_1_19': [2298], 's_1_25': [3402], 's_1_30': [3417], 33: [1877, 1787, 2032, 3459, 3460, 2028, 2031, 2030, 2029], 's_1_33': [2057], 's_1_38': [2688], 39: [2527, 2526, 3399, 3400, 3401, 2282, 2525, 2524, 2523, 3493, 3492], 's_1_39': [3568], 43: [3848, 3849, 3850, 3851, 2331, 2330, 2326, 2327, 2134, 3852, 2329, 2328], 's_1_43': [3477], 44: [4093, 3626, 3627, 2585, 2584, 2583, 3628], 's_1_44': [2582], 's_1_1': [2643], 14: [4151, 2164, 2165, 2166], 's_6_14': [3641], 's_6_19': [2223], 20: [4014, 4015, 3521, 1940, 1711, 1712, 3563, 3564, 1938, 3520, 1939], 's_6_20': [2178], 's_6_44': [2208], 's_6_6': [2058], 9: [2131, 3819, 3161, 3160, 1846, 1850, 1849, 1848, 1847], 's_8_9': [1851], 's_8_10': [1790], 's_8_13': [3898], 's_8_18': [3598], 's_8_20': [3939], 27: [4119, 1836, 3896, 3895, 1832, 1833, 1834, 1835], 's_8_27': [3834, 1820], 28: [3719, 3717, 3718], 's_8_28': [3703], 31: [1592, 3428, 3429, 2361, 2359, 2358, 2357, 3342, 3341, 2041, 2360, 2042, 3430], 's_8_31': [4062], 32: [3478, 2046, 3373, 2567, 2568, 2569, 2570, 2571, 4164, 4165, 4166, 4167, 4168], 's_8_32': [3613], 36: [1985, 4092, 2181, 2405, 3865, 3866, 2180, 3956, 3957], 's_8_36': [2466], 's_8_43': [3853], 's_8_8': [2512], 4: [2016, 2675, 4089, 4090, 4091, 2270, 4034, 4033, 4032], 's_10_4': [1865], 5: [2119, 2599, 3778, 2014, 3777, 3774, 3775, 3776], 's_10_5': [3759], 's_10_9': [3924], 23: [2027, 1986, 4030, 4029, 1775, 1774, 1773, 1772, 3369, 3370, 2117], 's_10_23': [1715], 's_10_32': [4284, 1881], 34: [3974, 3973, 4178, 4180, 3988, 4182, 4179, 4181, 4183, 2601, 2600], 's_10_34': [1956], 's_10_36': [4061], 's_10_41': [1475], 's_10_43': [1670], 's_10_10': [1565], 's_11_9': [3818], 's_11_13': [3714], 's_11_15': [3790], 's_11_16': [1954], 's_11_25': [3548], 's_11_26': [1698], 's_11_29': [3728], 's_11_30': [3730], 's_11_31': [3473], 's_11_32': [4149, 4148], 's_11_33': [3354], 37: [3293, 2480, 2479, 2478, 2477, 3358, 3357, 2236, 3296, 3295, 3294], 's_11_37': [1667], 40: [1562, 1623, 1622, 3446, 3445, 3444, 3443], 's_11_40': [3608], 's_11_11': [1551], 's_13_2': [2283], 7: [3788, 1699, 2375, 3908, 3913, 3912, 3911, 3972, 3910, 3909], 's_13_7': [2374], 24: [2090, 3597, 3596, 3926, 2013, 3595, 3925, 2089, 2088], 's_13_24': [2268], 's_13_25': [3582], 's_13_28': [2238], 's_13_33': [1878], 's_13_36': [2420], 's_13_13': [3638], 's_16_9': [3175, 3176], 's_16_14': [3731], 's_16_25': [3220], 's_16_28': [2284], 's_16_30': [2086], 's_16_31': [3565], 's_16_33': [3580], 's_16_35': [2043], 's_16_39': [3415], 's_16_43': [2149], 's_16_44': [2253], 's_16_16': [3040], 's_19_2': [3657], 's_19_5': [2539], 's_19_31': [3642], 's_19_37': [3732], 's_19_43': [3747], 's_19_19': [2390], 's_21_4': [2286], 's_21_14': [2241], 's_21_15': [4256], 's_21_29': [1866], 's_21_32': [2271], 's_21_33': [4241], 's_21_39': [4213], 's_21_41': [1745, 1746], 's_21_21': [2377], 's_25_9': [1921], 12: [3983, 3986, 3384, 3985, 1801, 1802, 1803, 1804, 1805, 3984], 's_25_12': [1816], 's_25_18': [2446], 's_25_20': [3218], 's_25_24': [3927], 's_25_30': [2371], 's_25_32': [3298], 's_25_35': [3233], 's_25_36': [4063], 's_25_37': [2507, 3508], 's_25_42': [3328], 's_25_43': [3762], 's_25_25': [3248], 's_26_9': [3535], 's_26_12': [3639], 's_26_23': [3729], 's_26_24': [1968], 's_26_30': [3715], 's_26_31': [3550], 's_26_39': [1952], 's_26_40': [1624], 's_26_41': [3668], 's_26_26': [1578], 's_29_12': [3968], 's_29_20': [1941], 's_29_34': [4135, 2076], 's_29_40': [3503], 's_29_43': [3863], 's_29_29': [1702], 's_30_4': [2015], 's_30_12': [2075], 's_30_15': [2255, 2254], 's_30_20': [3805], 's_30_24': [2300], 's_30_27': [3310], 's_30_34': [2450], 's_30_35': [1984], 's_30_36': [3835], 's_30_37': [2297], 's_30_38': [3944, 3959], 's_30_42': [3325], 's_30_43': [3282], 's_30_30': [3388], 's_35_5': [3773], 's_35_7': [1684, 3758], 's_35_20': [3504], 's_35_33': [3474, 1818], 's_35_37': [1756], 's_35_35': [1759], 's_38_4': [2706], 's_38_28': [2554], 's_38_32': [3509], 's_38_34': [2720], 's_38_37': [3359], 's_38_38': [3569], 's_41_7': [3907, 1534], 17: [2197, 3278, 3279, 3280, 3281, 2192, 2196, 2195, 2194, 2193], 's_41_17': [1531], 's_41_20': [3998, 3999], 's_41_27': [4118], 's_41_31': [1532], 's_41_41': [3308], 's_42_2': [3507], 's_42_9': [3162, 3177], 's_42_17': [2177], 's_42_23': [3371], 's_42_24': [2012], 's_42_31': [2266], 's_42_32': [3433], 's_42_42': [3117], 's_2_7': [2315], 's_2_15': [3808], 's_2_17': [3806], 's_2_20': [2087], 's_2_23': [3476], 's_2_40': [3431], 's_2_2': [3462], 3: [2540, 2541, 4003, 4002, 1893, 1894, 1895, 4000, 4001], 's_15_3': [2120], 's_15_4': [2136, 4211], 's_15_5': [2464], 's_15_12': [2135], 's_15_18': [3809], 's_15_23': [4105], 's_15_31': [2344], 's_15_33': [4120], 's_15_15': [2764], 's_18_4': [3884], 's_18_5': [3854], 's_18_7': [3928], 's_18_9': [1906, 1905], 's_18_12': [3264], 's_18_17': [2101], 's_18_28': [2628], 's_18_37': [2476], 's_18_43': [2311], 's_18_18': [1890], 's_33_5': [3760], 's_33_12': [1922], 's_33_31': [1967], 's_33_32': [4150], 's_33_34': [4195], 's_33_39': [1937], 's_33_33': [1757], 's_39_3': [4018], 's_39_7': [3868], 's_39_17': [3416], 's_39_27': [3414], 's_39_37': [2522], 's_39_44': [2373], 's_39_39': [4303], 's_43_3': [2224, 2225], 's_43_4': [4047], 's_43_7': [1625], 's_43_9': [1714], 's_43_23': [1789], 's_43_28': [2299], 's_43_31': [4152], 's_43_34': [2316], 's_43_44': [2133], 's_43_43': [1594], 's_44_5': [3823], 's_44_24': [2448], 's_44_34': [4064], 's_44_36': [3958], 's_44_44': [3629], 's_14_24': [2091], 's_14_36': [3821], 's_14_4': [2151], 's_14_12': [3971], 's_14_27': [3881], 's_14_14': [4121], 's_20_7': [1955], 's_20_4': [2045], 's_20_12': [3383], 's_20_23': [1788], 's_20_27': [3880], 's_20_37': [1726], 's_20_40': [3519, 3518], 's_20_20': [3562], 's_9_7': [1879], 's_9_40': [2146, 2147], 22: [1923, 3593, 3594], 's_9_22': [3549], 's_9_36': [1864], 's_9_27': [1831], 's_9_37': [3251], 's_9_9': [3130], 's_27_17': [3897], 's_27_23': [1776], 's_27_36': [2074], 's_27_4': [1791], 's_27_12': [4045, 1925, 4044, 1685], 's_27_27': [3340], 's_28_31': [3702], 's_28_32': [3704], 's_28_28': [2674], 's_31_7': [2345], 's_31_3': [2346], 's_31_12': [3987], 's_31_36': [4017], 's_31_37': [2312], 's_31_31': [3250], 's_32_23': [2001], 's_32_3': [4153], 's_32_32': [3374], 's_36_23': [3864], 's_36_3': [2376], 's_36_5': [1924], 's_36_4': [4106], 's_36_36': [2182], 's_4_7': [2495], 's_4_24': [2285], 's_4_37': [4048], 's_4_4': [4004], 's_5_7': [2449], 's_5_17': [2209], 's_5_3': [3838], 's_5_12': [1819], 's_5_5': [2644], 's_23_3': [3744], 's_23_40': [2102], 's_23_23': [4028], 's_34_17': [4196], 's_34_3': [2465], 's_34_37': [2481], 's_34_34': [1627], 's_37_40': [1637], 's_37_37': [1876], 's_40_12': [1817], 's_40_22': [3578], 's_40_40': [3397], 's_7_7': [1595], 's_24_3': [2150], 's_24_22': [3610], 's_24_24': [1970], 's_12_12': [3982], 's_17_3': [2211], 's_17_17': [4346], 's_3_22': [3640], 's_3_3': [3970], 's_22_22': [3592]}</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0001714285714285714</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0006904597699196898</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>{0: [2463, 3567, 3566, 2163, 1731, 1730, 1729, 1728, 3491, 1727, 3489, 3490], 1: [2494, 3447, 2417, 2493, 3536, 3537, 3539, 3538], 's_0_1': [2402], 6: [3686, 3581, 2148], 's_0_6': [3611], 8: [3763, 2508, 4077, 3969, 4076, 4075, 1880, 2510, 4078, 2511, 2509], 's_0_8': [4074], 10: [1911, 4060, 3952, 3953, 3954, 1909, 1910], 's_0_10': [3938], 11: [3458, 1652, 1653, 4163, 1656, 1655, 1654, 3699, 3700, 1969, 3820], 's_0_11': [3398], 13: [2179, 2419, 2418, 3673, 3672, 1669, 3669, 3670, 3671], 's_0_13': [1713], 16: [3656, 3746, 3745, 2070, 2071, 2072, 3716, 2073], 's_0_16': [3506], 19: [3687, 2389, 3688], 's_0_19': [2388], 21: [2301, 2017, 4224, 4225, 4228, 4227, 2167, 4226], 's_0_21': [1716], 25: [2435, 2434, 1682, 1681, 3309, 1786, 3234, 3235, 3236, 2433, 2432, 2431, 3237], 's_0_25': [3413], 26: [1862, 3683, 1863, 1953, 3684, 3685], 's_0_26': [3624], 29: [1638, 1639, 4134, 1640, 1641, 1671, 1701, 4133], 's_0_29': [4283], 30: [3943, 3942, 2372, 3941, 3940, 2000, 1999, 1998, 1997, 3385, 3386, 3387], 's_0_30': [3505], 35: [1741, 1742, 3655, 3654, 1743, 1744, 3789], 's_0_35': [3609], 38: [2660, 3899, 2702, 3643, 3644, 3689, 2705, 2703, 2704], 's_0_38': [3658], 41: [1761, 1760, 3894, 1546, 3893, 1550, 1547, 1548, 1549], 's_0_41': [3923], 42: [2462, 3372, 2343, 3326, 3327, 2341, 2342], 's_0_42': [3552], 's_0_0': [1732], 2: [2404, 3807, 2314, 2313, 3461, 2237, 3522], 's_1_2': [3523], 15: [2719, 3701, 3794, 3793, 3792, 3791, 2061, 2060, 4031, 2105, 2104], 's_1_15': [2718], 18: [2615, 1891, 2614, 2613, 2612, 2611, 3265, 3266, 1951, 3267, 3268, 3269], 's_1_18': [2627], 's_1_19': [2298], 's_1_25': [3402], 's_1_30': [3417], 33: [1877, 1787, 2032, 3459, 3460, 2028, 2031, 2030, 2029], 's_1_33': [2057], 's_1_38': [2688], 39: [2527, 2526, 3399, 3400, 3401, 2282, 2525, 2524, 2523, 3493, 3492], 's_1_39': [3568], 43: [3848, 3849, 3850, 3851, 2331, 2330, 2326, 2327, 2134, 3852, 2329, 2328], 's_1_43': [3477], 44: [4093, 3626, 3627, 2585, 2584, 2583, 3628], 's_1_44': [2582], 's_1_1': [2643], 14: [4151, 2164, 2165, 2166], 's_6_14': [3641], 's_6_19': [2223], 20: [4014, 4015, 3521, 1940, 1711, 1712, 3563, 3564, 1938, 3520, 1939], 's_6_20': [2178], 's_6_44': [2208], 's_6_6': [2058], 9: [2131, 3819, 3161, 3160, 1846, 1850, 1849, 1848, 1847], 's_8_9': [1851], 's_8_10': [1790], 's_8_13': [3898], 's_8_18': [3598], 's_8_20': [3939], 27: [4119, 1836, 3896, 3895, 1832, 1833, 1834, 1835], 's_8_27': [3834, 1820], 28: [3719, 3717, 3718], 's_8_28': [3703], 31: [1592, 3428, 3429, 2361, 2359, 2358, 2357, 3342, 3341, 2041, 2360, 2042, 3430], 's_8_31': [4062], 32: [3478, 2046, 3373, 2567, 2568, 2569, 2570, 2571, 4164, 4165, 4166, 4167, 4168], 's_8_32': [3613], 36: [1985, 4092, 2181, 2405, 3865, 3866, 2180, 3956, 3957], 's_8_36': [2466], 's_8_43': [3853], 's_8_8': [2512], 4: [2016, 2675, 4089, 4090, 4091, 2270, 4034, 4033, 4032], 's_10_4': [1865], 5: [2119, 2599, 3778, 2014, 3777, 3774, 3775, 3776], 's_10_5': [3759], 's_10_9': [3924], 23: [2027, 1986, 4030, 4029, 1775, 1774, 1773, 1772, 3369, 3370, 2117], 's_10_23': [1715], 's_10_32': [4284, 1881], 34: [3974, 3973, 4178, 4180, 3988, 4182, 4179, 4181, 4183, 2601, 2600], 's_10_34': [1956], 's_10_36': [4061], 's_10_41': [1475], 's_10_43': [1670], 's_10_10': [1565], 's_11_9': [3818], 's_11_13': [3714], 's_11_15': [3790], 's_11_16': [1954], 's_11_25': [3548], 's_11_26': [1698], 's_11_29': [3728], 's_11_30': [3730], 's_11_31': [3473], 's_11_32': [4149, 4148], 's_11_33': [3354], 37: [3293, 2480, 2479, 2478, 2477, 3358, 3357, 2236, 3296, 3295, 3294], 's_11_37': [1667], 40: [1562, 1623, 1622, 3446, 3445, 3444, 3443], 's_11_40': [3608], 's_11_11': [1551], 's_13_2': [2283], 7: [3788, 1699, 2375, 3908, 3913, 3912, 3911, 3972, 3910, 3909], 's_13_7': [2374], 24: [2090, 3597, 3596, 3926, 2013, 3595, 3925, 2089, 2088], 's_13_24': [2268], 's_13_25': [3582], 's_13_28': [2238], 's_13_33': [1878], 's_13_36': [2420], 's_13_13': [3638], 's_16_9': [3175, 3176], 's_16_14': [3731], 's_16_25': [3220], 's_16_28': [2284], 's_16_30': [2086], 's_16_31': [3565], 's_16_33': [3580], 's_16_35': [2043], 's_16_39': [3415], 's_16_43': [2149], 's_16_44': [2253], 's_16_16': [3040], 's_19_2': [3657], 's_19_5': [2539], 's_19_31': [3642], 's_19_37': [3732], 's_19_43': [3747], 's_19_19': [2390], 's_21_4': [2286], 's_21_14': [2241], 's_21_15': [4256], 's_21_29': [1866], 's_21_32': [2271], 's_21_33': [4241], 's_21_39': [4213], 's_21_41': [1745, 1746], 's_21_21': [2377], 's_25_9': [1921], 12: [3983, 3986, 3384, 3985, 1801, 1802, 1803, 1804, 1805, 3984], 's_25_12': [1816], 's_25_18': [2446], 's_25_20': [3218], 's_25_24': [3927], 's_25_30': [2371], 's_25_32': [3298], 's_25_35': [3233], 's_25_36': [4063], 's_25_37': [2507, 3508], 's_25_42': [3328], 's_25_43': [3762], 's_25_25': [3248], 's_26_9': [3535], 's_26_12': [3639], 's_26_23': [3729], 's_26_24': [1968], 's_26_30': [3715], 's_26_31': [3550], 's_26_39': [1952], 's_26_40': [1624], 's_26_41': [3668], 's_26_26': [1578], 's_29_12': [3968], 's_29_20': [1941], 's_29_34': [4135, 2076], 's_29_40': [3503], 's_29_43': [3863], 's_29_29': [1702], 's_30_4': [2015], 's_30_12': [2075], 's_30_15': [2255, 2254], 's_30_20': [3805], 's_30_24': [2300], 's_30_27': [3310], 's_30_34': [2450], 's_30_35': [1984], 's_30_36': [3835], 's_30_37': [2297], 's_30_38': [3944, 3959], 's_30_42': [3325], 's_30_43': [3282], 's_30_30': [3388], 's_35_5': [3773], 's_35_7': [1684, 3758], 's_35_20': [3504], 's_35_33': [3474, 1818], 's_35_37': [1756], 's_35_35': [1759], 's_38_4': [2706], 's_38_28': [2554], 's_38_32': [3509], 's_38_34': [2720], 's_38_37': [3359], 's_38_38': [3569], 's_41_7': [3907, 1534], 17: [2197, 3278, 3279, 3280, 3281, 2192, 2196, 2195, 2194, 2193], 's_41_17': [1531], 's_41_20': [3998, 3999], 's_41_27': [4118], 's_41_31': [1532], 's_41_41': [3308], 's_42_2': [3507], 's_42_9': [3162, 3177], 's_42_17': [2177], 's_42_23': [3371], 's_42_24': [2012], 's_42_31': [2266], 's_42_32': [3433], 's_42_42': [3117], 's_2_7': [2315], 's_2_15': [3808], 's_2_17': [3806], 's_2_20': [2087], 's_2_23': [3476], 's_2_40': [3431], 's_2_2': [3462], 3: [2540, 2541, 4003, 4002, 1893, 1894, 1895, 4000, 4001], 's_15_3': [2120], 's_15_4': [2136, 4211], 's_15_5': [2464], 's_15_12': [2135], 's_15_18': [3809], 's_15_23': [4105], 's_15_31': [2344], 's_15_33': [4120], 's_15_15': [2764], 's_18_4': [3884], 's_18_5': [3854], 's_18_7': [3928], 's_18_9': [1906, 1905], 's_18_12': [3264], 's_18_17': [2101], 's_18_28': [2628], 's_18_37': [2476], 's_18_43': [2311], 's_18_18': [1890], 's_33_5': [3760], 's_33_12': [1922], 's_33_31': [1967], 's_33_32': [4150], 's_33_34': [4195], 's_33_39': [1937], 's_33_33': [1757], 's_39_3': [4018], 's_39_7': [3868], 's_39_17': [3416], 's_39_27': [3414], 's_39_37': [2522], 's_39_44': [2373], 's_39_39': [4303], 's_43_3': [2224, 2225], 's_43_4': [4047], 's_43_7': [1625], 's_43_9': [1714], 's_43_23': [1789], 's_43_28': [2299], 's_43_31': [4152], 's_43_34': [2316], 's_43_44': [2133], 's_43_43': [1594], 's_44_5': [3823], 's_44_24': [2448], 's_44_34': [4064], 's_44_36': [3958], 's_44_44': [3629], 's_14_24': [2091], 's_14_36': [3821], 's_14_4': [2151], 's_14_12': [3971], 's_14_27': [3881], 's_14_14': [4121], 's_20_7': [1955], 's_20_4': [2045], 's_20_12': [3383], 's_20_23': [1788], 's_20_27': [3880], 's_20_37': [1726], 's_20_40': [3519, 3518], 's_20_20': [3562], 's_9_7': [1879], 's_9_40': [2146, 2147], 22: [1923, 3593, 3594], 's_9_22': [3549], 's_9_36': [1864], 's_9_27': [1831], 's_9_37': [3251], 's_9_9': [3130], 's_27_17': [3897], 's_27_23': [1776], 's_27_36': [2074], 's_27_4': [1791], 's_27_12': [4045, 1925, 4044, 1685], 's_27_27': [3340], 's_28_31': [3702], 's_28_32': [3704], 's_28_28': [2674], 's_31_7': [2345], 's_31_3': [2346], 's_31_12': [3987], 's_31_36': [4017], 's_31_37': [2312], 's_31_31': [3250], 's_32_23': [2001], 's_32_3': [4153], 's_32_32': [3374], 's_36_23': [3864], 's_36_3': [2376], 's_36_5': [1924], 's_36_4': [4106], 's_36_36': [2182], 's_4_7': [2495], 's_4_24': [2285], 's_4_37': [4048], 's_4_4': [4004], 's_5_7': [2449], 's_5_17': [2209], 's_5_3': [3838], 's_5_12': [1819], 's_5_5': [2644], 's_23_3': [3744], 's_23_40': [2102], 's_23_23': [4028], 's_34_17': [4196], 's_34_3': [2465], 's_34_37': [2481], 's_34_34': [1627], 's_37_40': [1637], 's_37_37': [1876], 's_40_12': [1817], 's_40_22': [3578], 's_40_40': [3397], 's_7_7': [1595], 's_24_3': [2150], 's_24_22': [3610], 's_24_24': [1970], 's_12_12': [3982], 's_17_3': [2211], 's_17_17': [4346], 's_3_22': [3640], 's_3_3': [3970], 's_22_22': [3592]}</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0.0001714285714285714</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.0006904597699196898</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>{0: [2146, 3192, 3191], 6: [3343, 2371, 2372], 11: [2358, 2356, 2357], 19: [2417, 3296, 3298, 2416, 3297], 20: [3282, 2402, 2400, 2401], 24: [3462, 3463, 2477, 3268, 2476], 32: [3162, 2325, 2326], 35: [3251, 3253, 3252], 37: [3207, 2342, 2341], 40: [3043, 3042, 2312, 2311, 2310], 43: [2070, 2236, 2072, 2071, 3266], 4: [2176, 3447, 2177, 3386, 2282], 5: [3433, 3432], 9: [2296, 3313, 3312], 12: [3326, 3328, 3327], 14: [2596, 3387, 2657, 3388], 21: [3342, 2221], 27: [3373, 2505, 2506, 2507], 33: [3344, 2550, 3103, 2552, 2551], 38: [3163], 39: [2355, 3056, 2446, 3057, 2445], 3: [2567, 3117, 2566, 3118], 8: [3238, 3237], 28: [2447, 2641, 3507, 3508, 3509, 2642], 42: [3179, 3178, 3176, 3177], 1: [2206, 3281, 2207], 7: [2537, 3133, 2535, 2536], 23: [3416, 3417, 2460, 2461, 2462], 30: [3058, 2492, 2491, 3208, 2580], 2: [3476, 2538, 2581, 2582, 3477, 3478], 13: [2387, 3372], 17: [2385, 3101, 2386, 3102], 31: [2522, 3493, 2523], 36: [3221, 3223, 3222], 45: [2595, 2251, 2250, 3072, 3073], 10: [2415, 2521, 3148], 18: [3269, 3329, 2655, 2656, 3193], 15: [2267, 3267, 3236, 2266], 26: [2220, 3086, 3088, 3087], 16: [3147, 2192, 2191], 25: [2430, 3357, 3359, 2431, 3358], 41: [3401, 2327, 3403, 3402], 44: [3206, 2280, 2281], 22: [3071, 2145, 3131, 2162, 2161], 29: [2295, 2997, 2998, 2520], 34: [3371, 2297]}</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.01347826086956522</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.01525526506253321</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>{0: [2146, 3192, 3191], 6: [3343, 2371, 2372], 11: [2358, 2356, 2357], 19: [2417, 3296, 3298, 2416, 3297], 20: [3282, 2402, 2400, 2401], 24: [3462, 3463, 2477, 3268, 2476], 32: [3162, 2325, 2326], 35: [3251, 3253, 3252], 37: [3207, 2342, 2341], 40: [3043, 3042, 2312, 2311, 2310], 43: [2070, 2236, 2072, 2071, 3266], 4: [2176, 3447, 2177, 3386, 2282], 5: [3433, 3432], 9: [2296, 3313, 3312], 12: [3326, 3328, 3327], 14: [2596, 3387, 2657, 3388], 21: [3342, 2221], 27: [3373, 2505, 2506, 2507], 33: [3344, 2550, 3103, 2552, 2551], 38: [3163], 39: [2355, 3056, 2446, 3057, 2445], 3: [2567, 3117, 2566, 3118], 8: [3238, 3237], 28: [2447, 2641, 3507, 3508, 3509, 2642], 42: [3179, 3178, 3176, 3177], 1: [2206, 3281, 2207], 7: [2537, 3133, 2535, 2536], 23: [3416, 3417, 2460, 2461, 2462], 30: [3058, 2492, 2491, 3208, 2580], 2: [3476, 2538, 2581, 2582, 3477, 3478], 13: [2387, 3372], 17: [2385, 3101, 2386, 3102], 31: [2522, 3493, 2523], 36: [3221, 3223, 3222], 45: [2595, 2251, 2250, 3072, 3073], 10: [2415, 2521, 3148], 18: [3269, 3329, 2655, 2656, 3193], 15: [2267, 3267, 3236, 2266], 26: [2220, 3086, 3088, 3087], 16: [3147, 2192, 2191], 25: [2430, 3357, 3359, 2431, 3358], 41: [3401, 2327, 3403, 3402], 44: [3206, 2280, 2281], 22: [3071, 2145, 3131, 2162, 2161], 29: [2295, 2997, 2998, 2520], 34: [3371, 2297]}</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0.01347826086956522</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01525526506253321</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>{0: [4934, 4933, 4331, 2470, 2364, 2242, 2243, 2469, 4619, 4618, 4617], 6: [1737, 4271, 5244, 1842, 1841, 1840, 4809, 1869, 1868, 1867, 1866, 1738, 4255, 4256, 2152], 's_0_6': [2241, 2226], 11: [4825, 4645, 4693, 4692, 4691, 2110, 2109], 's_0_11': [2499], 19: [2168, 4614, 1974, 4615, 2665, 2664, 2663, 4453, 4452, 4451, 4450, 1973], 's_0_19': [4496], 20: [2607, 2606, 1541, 1540, 1539, 2605, 4703, 2604, 4708, 4707, 4704, 4705, 4706], 's_0_20': [4888], 24: [2261, 2260, 2256, 4811, 2259, 2257, 2258], 's_0_24': [2349, 2348, 2347, 4227], 32: [2303, 4527, 5051, 2216, 4947, 4526, 2228, 4602, 2319, 2320], 's_0_32': [2273], 35: [4899, 5019, 4422, 4421, 4420, 1856, 1855, 1854, 1853], 's_0_35': [2227], 37: [4318, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 5398, 5397, 2159, 2158, 5396], 's_0_37': [2544], 40: [5065, 5066, 5067, 4978, 4423, 2378, 2379, 2380, 2381], 's_0_40': [4603], 43: [4993, 2293, 1813, 5409, 5410, 5411, 2561, 2562, 2563, 5413, 5412], 's_0_43': [4903], 's_0_0': [2588], 4: [1977, 5247, 5139, 2368, 2367, 5142, 5140, 5141], 's_6_4': [1736], 5: [2666, 2667, 5500, 5501, 5502, 5503, 5499, 5204, 5203, 5202, 2412, 2413], 's_6_5': [5514], 9: [1843, 1928, 5338, 5337, 1948, 5335, 5336, 2097, 2096, 4540, 4541, 2184, 2185, 4886, 2095], 's_6_9': [1927], 12: [5382, 4361, 4887, 4362, 2393, 2394, 2398, 2397, 2396, 2395], 's_6_12': [2302], 14: [4736, 4735, 1914, 1915, 5423, 5424, 5425, 2053, 2052, 1916, 1917, 5230], 's_6_14': [5214], 21: [5454, 5455, 5456, 2426, 5308, 2427, 2428, 5457], 's_6_21': [5439], 's_6_24': [4301], 27: [5365, 4643, 1674, 5063, 1675, 1676, 5363, 5364, 1707, 1706, 5018], 's_6_27': [1767, 1768], 33: [1828, 4588, 4587, 4586, 4585, 4584, 1778, 1779, 1827, 1780, 1781, 5079], 's_6_33': [4479, 1793], 38: [4823, 4569, 2214, 4556, 4555, 1719, 1718, 4554], 's_6_38': [4539, 1763], 39: [4946, 4976, 2068, 2067, 1825, 4869, 5095, 2034, 2066, 2035, 4870, 2065], 's_6_39': [5094], 's_6_6': [4164], 3: [2453, 4662, 2454, 2024, 2023, 2455, 2456, 2457, 5323, 5322, 5321], 's_11_3': [2409], 8: [2008, 2007, 2006, 4749, 4750, 2005], 's_11_8': [2004], 's_11_9': [2019], 's_11_14': [2049], 's_11_20': [2574], 28: [4781, 2093, 2094], 's_11_28': [4810], 's_11_39': [4824], 42: [2063, 2288, 5127, 4630, 4631, 5082, 2291, 2289, 2290], 's_11_42': [4721, 2139], 's_11_11': [4694], 1: [5169, 1794, 1798, 1795, 1797, 1796], 's_19_1': [4599], 's_19_5': [4574, 2709, 2710, 2711, 2712, 5219], 7: [1647, 1646, 1645, 1644, 4658, 4659, 4660, 2275, 2274, 4661], 's_19_7': [1809], 's_19_8': [1764], 's_19_14': [4720], 23: [4827, 4826, 2174, 2173, 2172, 2169, 2170, 2171], 's_19_23': [4828], 's_19_27': [1688], 30: [2407, 1663, 1662, 1661, 1660, 1659, 1658, 4316, 4315, 4314, 4317, 1777, 4404], 's_19_30': [2167], 's_19_32': [2213], 's_19_35': [2062], 's_19_19': [4544], 's_20_1': [4689], 2: [5182, 1587, 5258, 5261, 1947, 5260, 5259], 's_20_2': [1542], 13: [2486, 2487, 5486, 2488, 5441, 2143, 5366, 2473, 5368, 5367], 's_20_13': [5353], 's_20_14': [2079], 17: [5008, 1811, 5007, 5003, 5004, 5005, 5006], 's_20_17': [4868, 1690], 31: [1705, 4883, 4778, 1570, 5393, 1571, 5438, 1573, 1693, 1572], 's_20_31': [5017], 's_20_35': [1839], 36: [2112, 5159, 5154, 5155, 5156, 5158, 2230, 2231, 5157], 's_20_36': [5153], 's_20_39': [4690], 45: [1808, 4768, 2512, 2517, 2516, 2515, 2514, 1944, 1943, 4464, 4465, 4466, 4467, 4468, 2513], 's_20_45': [4678], 's_20_20': [4672], 's_24_4': [5112], 's_24_7': [4917], 's_24_9': [4752, 4751], 10: [4853, 4378, 4377, 4376, 4375, 4374, 1732, 1733, 1735, 1734], 's_24_10': [2272], 's_24_12': [4557], 18: [4779, 4780, 1975, 2200, 4842, 4841, 4840], 's_24_18': [4872, 2365], 's_24_23': [2215], 's_24_35': [4437], 's_24_42': [4481], 's_24_24': [4392], 's_32_3': [4528], 's_32_9': [2183], 's_32_12': [2318, 4542], 15: [2036, 5020, 2083, 2082, 2081], 's_32_15': [2111], 's_32_17': [2351], 26: [4991, 4990, 1883, 1958, 5485, 1963, 1962, 1961, 4600, 1959, 1960], 's_32_26': [2108, 4480], 's_32_36': [2245], 's_32_38': [2123], 's_32_39': [4601], 's_32_32': [2423], 's_35_7': [4795, 1899], 's_35_10': [4389, 4390, 1988], 's_35_15': [4930, 1991, 1990], 16: [4945, 4854, 5293, 5292, 5291, 5290, 1930, 1931, 1932], 's_35_16': [5034], 25: [5023, 2153, 2154, 2155, 4958, 4959, 4960, 4961, 2186, 4901, 5022, 2366, 4902], 's_35_25': [4436], 's_35_27': [5064], 's_35_40': [2363, 4512], 's_35_35': [4405], 's_37_3': [4873], 's_37_5': [2443], 's_37_10': [2543], 's_37_12': [4963], 's_37_16': [2548], 's_37_30': [2482, 4363], 's_37_36': [5143], 41: [4977, 1633, 1753, 5036, 5378, 1903, 2306, 2307, 2308, 5381, 2038, 5380, 5379], 's_37_41': [2188], 44: [5110, 1992, 5591, 5590, 5304, 1994, 5305, 1993], 's_37_44': [2144], 's_37_37': [2545], 's_40_3': [5068], 's_40_8': [5050], 's_40_14': [4737], 's_40_15': [2021], 's_40_17': [2336], 's_40_18': [2440], 's_40_21': [2425], 's_40_26': [1976], 's_40_30': [4438], 's_40_33': [4573], 's_40_41': [2156], 's_40_42': [5052], 's_40_40': [4393], 's_43_1': [5289], 's_43_2': [5274], 's_43_4': [5427], 's_43_9': [2518], 's_43_12': [5383], 's_43_17': [2590], 's_43_21': [5309], 22: [5188, 5185, 5187, 2246, 5186], 's_43_22': [2577], 's_43_25': [5038], 's_43_26': [1978], 's_43_36': [5144], 's_43_43': [2620, 2619, 4724], 's_4_44': [1782], 's_4_2': [2157], 's_4_12': [5097], 's_4_13': [2353], 's_4_14': [1901], 's_4_22': [2352], 's_4_42': [2217], 's_4_4': [1691], 's_5_41': [1918], 's_5_31': [1708], 's_5_3': [5352], 's_5_13': [2489], 's_5_15': [2098], 's_5_5': [2832], 's_9_44': [1949], 's_9_27': [5334], 's_9_36': [4916], 's_9_23': [5276], 's_9_45': [4494, 1823], 's_9_12': [2338], 's_9_13': [2503], 's_9_42': [2078], 's_9_21': [2113], 29: [1617, 5516, 5515, 5228, 5229, 1872, 1873], 's_9_29': [5320], 's_9_9': [1858], 's_12_16': [2383], 's_12_18': [2199, 2198], 's_12_23': [4812], 's_12_21': [5217], 's_12_12': [2092], 's_14_25': [1900], 's_14_41': [1603], 's_14_2': [1648], 's_14_3': [5440], 's_14_18': [4900], 's_14_23': [5426], 's_14_30': [5408], 's_14_31': [1558], 's_14_45': [4674], 's_14_14': [5422], 's_21_41': [5307], 34: [2140, 2141, 5233, 5232, 5231, 2142], 's_21_34': [2472], 's_21_45': [5113], 's_21_26': [1844], 's_21_21': [2354], 's_27_41': [1618], 's_27_2': [1556], 's_27_8': [1749], 's_27_3': [5350], 's_27_10': [4673, 4538, 1629], 's_27_13': [2128], 's_27_18': [4794], 's_27_31': [1678], 's_27_33': [4644, 1898], 's_27_38': [4628], 's_27_27': [4718], 's_33_17': [1812], 's_33_25': [1751], 's_33_41': [5319], 's_33_36': [1721], 's_33_18': [4839], 's_33_45': [4570], 's_33_42': [1824, 4629], 's_33_10': [4734], 's_33_26': [4524], 's_33_30': [5078], 's_33_39': [4571], 's_33_33': [4419, 4418], 's_38_25': [4646], 's_38_7': [4808], 's_38_30': [1717], 's_38_39': [4719], 's_38_38': [4478], 's_39_17': [4931, 2080], 's_39_44': [2069], 's_39_23': [4766], 's_39_13': [5471], 's_39_22': [2051], 's_39_10': [2033], 's_39_28': [2020], 's_39_39': [5545], 's_3_25': [4992], 's_3_44': [5560], 's_3_36': [2441], 's_3_18': [4857, 2410], 's_3_23': [4918, 2485], 's_3_45': [4543], 's_3_3': [5324], 's_8_17': [1810], 's_8_25': [4975], 's_8_2': [5275], 's_8_15': [5215], 's_8_30': [4764], 's_8_36': [5200], 's_8_8': [5080], 's_28_25': [4511], 's_28_34': [4796], 's_28_18': [2125], 's_28_42': [4782], 's_28_28': [4495], 's_42_17': [2321], 's_42_25': [2471, 5083], 's_42_18': [2305], 's_42_23': [4676], 's_42_22': [2202], 's_42_7': [2124], 's_42_26': [4525, 2048], 's_42_42': [2287], 's_1_16': [5199], 's_1_17': [4929], 's_1_25': [4974], 's_1_41': [1783], 's_1_44': [5109], 's_1_1': [4884], 's_7_17': [4988], 's_7_41': [1630, 1631, 1632], 's_7_18': [4797], 's_7_23': [2229], 's_7_10': [4838], 's_7_26': [4675], 's_7_29': [5243], 's_7_30': [4688], 's_7_7': [4583, 1583], 's_23_41': [5351], 's_23_34': [5171], 's_23_22': [2187], 's_23_29': [2189], 's_23_23': [2424], 's_30_41': [5348], 's_30_31': [5093], 's_30_45': [4408, 2422], 's_30_10': [1942], 's_30_29': [5198], 's_30_30': [1837], 's_2_41': [5288], 's_2_31': [5212], 's_2_34': [2232], 's_2_36': [2127], 's_2_2': [1437], 's_13_25': [2591, 2592], 's_13_41': [5442], 's_13_34': [2442], 's_13_13': [5369], 's_17_10': [1720], 's_17_15': [2126], 's_17_45': [1945, 1946], 's_17_17': [1616], 's_31_25': [1586], 's_31_10': [1600, 4793], 's_31_31': [1480], 's_36_44': [1857], 's_36_15': [5246], 's_36_18': [4871], 's_36_22': [2547], 's_36_36': [1752], 's_45_16': [2502], 's_45_34': [5248], 's_45_22': [5172, 5173], 's_45_26': [4435], 's_45_45': [2617], 's_10_16': [4944], 's_10_10': [1731], 's_18_18': [2335], 's_15_16': [4915], 's_15_25': [5021], 's_15_34': [5126], 's_15_22': [5081], 's_15_15': [2084], 's_26_44': [5125], 's_26_29': [5470], 's_26_26': [2009], 's_16_25': [1870], 's_16_29': [1887], 's_16_34': [5306], 's_16_44': [1902], 's_16_16': [5294], 's_25_41': [4962], 's_25_25': [1481], 's_41_22': [2292], 's_41_41': [1723, 5469], 's_44_44': [1919], 's_22_22': [2337], 's_29_29': [2129], 's_34_34': [5234]}</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0004841498559077809</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.001187431795738748</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>{0: [4934, 4933, 4331, 2470, 2364, 2242, 2243, 2469, 4619, 4618, 4617], 6: [1737, 4271, 5244, 1842, 1841, 1840, 4809, 1869, 1868, 1867, 1866, 1738, 4255, 4256, 2152], 's_0_6': [2241, 2226], 11: [4825, 4645, 4693, 4692, 4691, 2110, 2109], 's_0_11': [2499], 19: [2168, 4614, 1974, 4615, 2665, 2664, 2663, 4453, 4452, 4451, 4450, 1973], 's_0_19': [4496], 20: [2607, 2606, 1541, 1540, 1539, 2605, 4703, 2604, 4708, 4707, 4704, 4705, 4706], 's_0_20': [4888], 24: [2261, 2260, 2256, 4811, 2259, 2257, 2258], 's_0_24': [2349, 2348, 2347, 4227], 32: [2303, 4527, 5051, 2216, 4947, 4526, 2228, 4602, 2319, 2320], 's_0_32': [2273], 35: [4899, 5019, 4422, 4421, 4420, 1856, 1855, 1854, 1853], 's_0_35': [2227], 37: [4318, 2527, 2528, 2529, 2530, 2531, 2532, 2533, 5398, 5397, 2159, 2158, 5396], 's_0_37': [2544], 40: [5065, 5066, 5067, 4978, 4423, 2378, 2379, 2380, 2381], 's_0_40': [4603], 43: [4993, 2293, 1813, 5409, 5410, 5411, 2561, 2562, 2563, 5413, 5412], 's_0_43': [4903], 's_0_0': [2588], 4: [1977, 5247, 5139, 2368, 2367, 5142, 5140, 5141], 's_6_4': [1736], 5: [2666, 2667, 5500, 5501, 5502, 5503, 5499, 5204, 5203, 5202, 2412, 2413], 's_6_5': [5514], 9: [1843, 1928, 5338, 5337, 1948, 5335, 5336, 2097, 2096, 4540, 4541, 2184, 2185, 4886, 2095], 's_6_9': [1927], 12: [5382, 4361, 4887, 4362, 2393, 2394, 2398, 2397, 2396, 2395], 's_6_12': [2302], 14: [4736, 4735, 1914, 1915, 5423, 5424, 5425, 2053, 2052, 1916, 1917, 5230], 's_6_14': [5214], 21: [5454, 5455, 5456, 2426, 5308, 2427, 2428, 5457], 's_6_21': [5439], 's_6_24': [4301], 27: [5365, 4643, 1674, 5063, 1675, 1676, 5363, 5364, 1707, 1706, 5018], 's_6_27': [1767, 1768], 33: [1828, 4588, 4587, 4586, 4585, 4584, 1778, 1779, 1827, 1780, 1781, 5079], 's_6_33': [4479, 1793], 38: [4823, 4569, 2214, 4556, 4555, 1719, 1718, 4554], 's_6_38': [4539, 1763], 39: [4946, 4976, 2068, 2067, 1825, 4869, 5095, 2034, 2066, 2035, 4870, 2065], 's_6_39': [5094], 's_6_6': [4164], 3: [2453, 4662, 2454, 2024, 2023, 2455, 2456, 2457, 5323, 5322, 5321], 's_11_3': [2409], 8: [2008, 2007, 2006, 4749, 4750, 2005], 's_11_8': [2004], 's_11_9': [2019], 's_11_14': [2049], 's_11_20': [2574], 28: [4781, 2093, 2094], 's_11_28': [4810], 's_11_39': [4824], 42: [2063, 2288, 5127, 4630, 4631, 5082, 2291, 2289, 2290], 's_11_42': [4721, 2139], 's_11_11': [4694], 1: [5169, 1794, 1798, 1795, 1797, 1796], 's_19_1': [4599], 's_19_5': [4574, 2709, 2710, 2711, 2712, 5219], 7: [1647, 1646, 1645, 1644, 4658, 4659, 4660, 2275, 2274, 4661], 's_19_7': [1809], 's_19_8': [1764], 's_19_14': [4720], 23: [4827, 4826, 2174, 2173, 2172, 2169, 2170, 2171], 's_19_23': [4828], 's_19_27': [1688], 30: [2407, 1663, 1662, 1661, 1660, 1659, 1658, 4316, 4315, 4314, 4317, 1777, 4404], 's_19_30': [2167], 's_19_32': [2213], 's_19_35': [2062], 's_19_19': [4544], 's_20_1': [4689], 2: [5182, 1587, 5258, 5261, 1947, 5260, 5259], 's_20_2': [1542], 13: [2486, 2487, 5486, 2488, 5441, 2143, 5366, 2473, 5368, 5367], 's_20_13': [5353], 's_20_14': [2079], 17: [5008, 1811, 5007, 5003, 5004, 5005, 5006], 's_20_17': [4868, 1690], 31: [1705, 4883, 4778, 1570, 5393, 1571, 5438, 1573, 1693, 1572], 's_20_31': [5017], 's_20_35': [1839], 36: [2112, 5159, 5154, 5155, 5156, 5158, 2230, 2231, 5157], 's_20_36': [5153], 's_20_39': [4690], 45: [1808, 4768, 2512, 2517, 2516, 2515, 2514, 1944, 1943, 4464, 4465, 4466, 4467, 4468, 2513], 's_20_45': [4678], 's_20_20': [4672], 's_24_4': [5112], 's_24_7': [4917], 's_24_9': [4752, 4751], 10: [4853, 4378, 4377, 4376, 4375, 4374, 1732, 1733, 1735, 1734], 's_24_10': [2272], 's_24_12': [4557], 18: [4779, 4780, 1975, 2200, 4842, 4841, 4840], 's_24_18': [4872, 2365], 's_24_23': [2215], 's_24_35': [4437], 's_24_42': [4481], 's_24_24': [4392], 's_32_3': [4528], 's_32_9': [2183], 's_32_12': [2318, 4542], 15: [2036, 5020, 2083, 2082, 2081], 's_32_15': [2111], 's_32_17': [2351], 26: [4991, 4990, 1883, 1958, 5485, 1963, 1962, 1961, 4600, 1959, 1960], 's_32_26': [2108, 4480], 's_32_36': [2245], 's_32_38': [2123], 's_32_39': [4601], 's_32_32': [2423], 's_35_7': [4795, 1899], 's_35_10': [4389, 4390, 1988], 's_35_15': [4930, 1991, 1990], 16: [4945, 4854, 5293, 5292, 5291, 5290, 1930, 1931, 1932], 's_35_16': [5034], 25: [5023, 2153, 2154, 2155, 4958, 4959, 4960, 4961, 2186, 4901, 5022, 2366, 4902], 's_35_25': [4436], 's_35_27': [5064], 's_35_40': [2363, 4512], 's_35_35': [4405], 's_37_3': [4873], 's_37_5': [2443], 's_37_10': [2543], 's_37_12': [4963], 's_37_16': [2548], 's_37_30': [2482, 4363], 's_37_36': [5143], 41: [4977, 1633, 1753, 5036, 5378, 1903, 2306, 2307, 2308, 5381, 2038, 5380, 5379], 's_37_41': [2188], 44: [5110, 1992, 5591, 5590, 5304, 1994, 5305, 1993], 's_37_44': [2144], 's_37_37': [2545], 's_40_3': [5068], 's_40_8': [5050], 's_40_14': [4737], 's_40_15': [2021], 's_40_17': [2336], 's_40_18': [2440], 's_40_21': [2425], 's_40_26': [1976], 's_40_30': [4438], 's_40_33': [4573], 's_40_41': [2156], 's_40_42': [5052], 's_40_40': [4393], 's_43_1': [5289], 's_43_2': [5274], 's_43_4': [5427], 's_43_9': [2518], 's_43_12': [5383], 's_43_17': [2590], 's_43_21': [5309], 22: [5188, 5185, 5187, 2246, 5186], 's_43_22': [2577], 's_43_25': [5038], 's_43_26': [1978], 's_43_36': [5144], 's_43_43': [2620, 2619, 4724], 's_4_44': [1782], 's_4_2': [2157], 's_4_12': [5097], 's_4_13': [2353], 's_4_14': [1901], 's_4_22': [2352], 's_4_42': [2217], 's_4_4': [1691], 's_5_41': [1918], 's_5_31': [1708], 's_5_3': [5352], 's_5_13': [2489], 's_5_15': [2098], 's_5_5': [2832], 's_9_44': [1949], 's_9_27': [5334], 's_9_36': [4916], 's_9_23': [5276], 's_9_45': [4494, 1823], 's_9_12': [2338], 's_9_13': [2503], 's_9_42': [2078], 's_9_21': [2113], 29: [1617, 5516, 5515, 5228, 5229, 1872, 1873], 's_9_29': [5320], 's_9_9': [1858], 's_12_16': [2383], 's_12_18': [2199, 2198], 's_12_23': [4812], 's_12_21': [5217], 's_12_12': [2092], 's_14_25': [1900], 's_14_41': [1603], 's_14_2': [1648], 's_14_3': [5440], 's_14_18': [4900], 's_14_23': [5426], 's_14_30': [5408], 's_14_31': [1558], 's_14_45': [4674], 's_14_14': [5422], 's_21_41': [5307], 34: [2140, 2141, 5233, 5232, 5231, 2142], 's_21_34': [2472], 's_21_45': [5113], 's_21_26': [1844], 's_21_21': [2354], 's_27_41': [1618], 's_27_2': [1556], 's_27_8': [1749], 's_27_3': [5350], 's_27_10': [4673, 4538, 1629], 's_27_13': [2128], 's_27_18': [4794], 's_27_31': [1678], 's_27_33': [4644, 1898], 's_27_38': [4628], 's_27_27': [4718], 's_33_17': [1812], 's_33_25': [1751], 's_33_41': [5319], 's_33_36': [1721], 's_33_18': [4839], 's_33_45': [4570], 's_33_42': [1824, 4629], 's_33_10': [4734], 's_33_26': [4524], 's_33_30': [5078], 's_33_39': [4571], 's_33_33': [4419, 4418], 's_38_25': [4646], 's_38_7': [4808], 's_38_30': [1717], 's_38_39': [4719], 's_38_38': [4478], 's_39_17': [4931, 2080], 's_39_44': [2069], 's_39_23': [4766], 's_39_13': [5471], 's_39_22': [2051], 's_39_10': [2033], 's_39_28': [2020], 's_39_39': [5545], 's_3_25': [4992], 's_3_44': [5560], 's_3_36': [2441], 's_3_18': [4857, 2410], 's_3_23': [4918, 2485], 's_3_45': [4543], 's_3_3': [5324], 's_8_17': [1810], 's_8_25': [4975], 's_8_2': [5275], 's_8_15': [5215], 's_8_30': [4764], 's_8_36': [5200], 's_8_8': [5080], 's_28_25': [4511], 's_28_34': [4796], 's_28_18': [2125], 's_28_42': [4782], 's_28_28': [4495], 's_42_17': [2321], 's_42_25': [2471, 5083], 's_42_18': [2305], 's_42_23': [4676], 's_42_22': [2202], 's_42_7': [2124], 's_42_26': [4525, 2048], 's_42_42': [2287], 's_1_16': [5199], 's_1_17': [4929], 's_1_25': [4974], 's_1_41': [1783], 's_1_44': [5109], 's_1_1': [4884], 's_7_17': [4988], 's_7_41': [1630, 1631, 1632], 's_7_18': [4797], 's_7_23': [2229], 's_7_10': [4838], 's_7_26': [4675], 's_7_29': [5243], 's_7_30': [4688], 's_7_7': [4583, 1583], 's_23_41': [5351], 's_23_34': [5171], 's_23_22': [2187], 's_23_29': [2189], 's_23_23': [2424], 's_30_41': [5348], 's_30_31': [5093], 's_30_45': [4408, 2422], 's_30_10': [1942], 's_30_29': [5198], 's_30_30': [1837], 's_2_41': [5288], 's_2_31': [5212], 's_2_34': [2232], 's_2_36': [2127], 's_2_2': [1437], 's_13_25': [2591, 2592], 's_13_41': [5442], 's_13_34': [2442], 's_13_13': [5369], 's_17_10': [1720], 's_17_15': [2126], 's_17_45': [1945, 1946], 's_17_17': [1616], 's_31_25': [1586], 's_31_10': [1600, 4793], 's_31_31': [1480], 's_36_44': [1857], 's_36_15': [5246], 's_36_18': [4871], 's_36_22': [2547], 's_36_36': [1752], 's_45_16': [2502], 's_45_34': [5248], 's_45_22': [5172, 5173], 's_45_26': [4435], 's_45_45': [2617], 's_10_16': [4944], 's_10_10': [1731], 's_18_18': [2335], 's_15_16': [4915], 's_15_25': [5021], 's_15_34': [5126], 's_15_22': [5081], 's_15_15': [2084], 's_26_44': [5125], 's_26_29': [5470], 's_26_26': [2009], 's_16_25': [1870], 's_16_29': [1887], 's_16_34': [5306], 's_16_44': [1902], 's_16_16': [5294], 's_25_41': [4962], 's_25_25': [1481], 's_41_22': [2292], 's_41_41': [1723, 5469], 's_44_44': [1919], 's_22_22': [2337], 's_29_29': [2129], 's_34_34': [5234]}</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0.0004841498559077809</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.001187431795738748</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>{0: [1413, 1412, 3366, 3367], 1: [1337, 1231, 1336, 3245, 3246], 3: [1396, 1397], 12: [3365, 1141, 3052, 3051, 3050, 1140], 22: [3337, 3336], 26: [1170, 1171, 1172, 3560, 3561, 3562], 33: [1247, 3231, 1246], 34: [3111, 1277, 3156, 3155, 1276], 35: [1411, 2976, 1410, 2977], 46: [3291, 1261, 3397, 3396, 1262], 2: [3412, 3411, 1110, 1111, 1112, 3410], 4: [3067, 1186, 3066, 1185], 10: [1442, 1441, 3201, 3202], 11: [3382, 1458, 3307, 1457], 15: [3470, 3472, 3471], 18: [2975, 1065, 3320, 3200, 1066], 21: [3125, 1335, 3127, 3126], 31: [3216, 1501, 1502, 3217], 36: [3263, 3260, 3262, 3261], 38: [3502, 1322, 1320, 1321], 39: [3381, 3247, 1366], 44: [3428, 3427, 3426, 3425, 1006, 3305, 1082], 45: [1081, 3230], 14: [3457, 3456], 17: [1382, 1381, 3082, 1380], 27: [3187, 3185, 3186], 28: [3172, 3173, 1606, 3338, 1607], 32: [1488, 1485, 1486, 1487, 3277], 5: [3022, 1275, 2946, 2947, 1456, 1455], 6: [1473, 1472, 1470, 1471], 8: [1395, 3143, 1291, 3142], 13: [1306, 1305, 3080, 3081], 25: [1532, 3308, 1530, 1531], 29: [1425, 3232, 1426, 1427], 37: [3097, 1350, 1352, 1351], 42: [1202, 3441, 3276, 1292, 1293], 23: [3531, 1187], 24: [1201, 3322, 3321], 40: [1200, 1005, 3096, 3095], 7: [3487, 3486, 1215, 1216, 1217], 19: [3353, 1126, 1128, 3352, 3351, 1127], 30: [1052, 3290, 3380, 1097, 1096], 41: [1290, 3112, 3036, 3037, 1500], 43: [3005, 1562, 1561, 1560, 3006, 3007], 9: [3532, 3442, 1367], 16: [3518, 1515, 1516, 3503, 3517, 1517], 20: [3171, 1155, 3035]}</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.01271318573244741</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.01500771079309171</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>{0: [1413, 1412, 3366, 3367], 1: [1337, 1231, 1336, 3245, 3246], 3: [1396, 1397], 12: [3365, 1141, 3052, 3051, 3050, 1140], 22: [3337, 3336], 26: [1170, 1171, 1172, 3560, 3561, 3562], 33: [1247, 3231, 1246], 34: [3111, 1277, 3156, 3155, 1276], 35: [1411, 2976, 1410, 2977], 46: [3291, 1261, 3397, 3396, 1262], 2: [3412, 3411, 1110, 1111, 1112, 3410], 4: [3067, 1186, 3066, 1185], 10: [1442, 1441, 3201, 3202], 11: [3382, 1458, 3307, 1457], 15: [3470, 3472, 3471], 18: [2975, 1065, 3320, 3200, 1066], 21: [3125, 1335, 3127, 3126], 31: [3216, 1501, 1502, 3217], 36: [3263, 3260, 3262, 3261], 38: [3502, 1322, 1320, 1321], 39: [3381, 3247, 1366], 44: [3428, 3427, 3426, 3425, 1006, 3305, 1082], 45: [1081, 3230], 14: [3457, 3456], 17: [1382, 1381, 3082, 1380], 27: [3187, 3185, 3186], 28: [3172, 3173, 1606, 3338, 1607], 32: [1488, 1485, 1486, 1487, 3277], 5: [3022, 1275, 2946, 2947, 1456, 1455], 6: [1473, 1472, 1470, 1471], 8: [1395, 3143, 1291, 3142], 13: [1306, 1305, 3080, 3081], 25: [1532, 3308, 1530, 1531], 29: [1425, 3232, 1426, 1427], 37: [3097, 1350, 1352, 1351], 42: [1202, 3441, 3276, 1292, 1293], 23: [3531, 1187], 24: [1201, 3322, 3321], 40: [1200, 1005, 3096, 3095], 7: [3487, 3486, 1215, 1216, 1217], 19: [3353, 1126, 1128, 3352, 3351, 1127], 30: [1052, 3290, 3380, 1097, 1096], 41: [1290, 3112, 3036, 3037, 1500], 43: [3005, 1562, 1561, 1560, 3006, 3007], 9: [3532, 3442, 1367], 16: [3518, 1515, 1516, 3503, 3517, 1517], 20: [3171, 1155, 3035]}</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0.01271318573244741</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01500771079309171</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>{0: [4240, 4117, 1611, 1911, 4119, 4118], 1: [2494, 3733, 2329, 3732, 3731, 3730, 1942, 1941, 1940, 1939, 3729], 's_0_1': [4180], 3: [2313, 1551, 1550, 1549, 3627, 3625, 3624, 3623, 3608, 3626, 1548], 's_0_3': [4178, 1566], 12: [2109, 4481, 1459, 1460, 1461, 1463, 4477, 1462, 4478, 4479, 4480, 2108], 's_0_12': [4132], 22: [1598, 1597, 1837, 4282, 4284, 4283], 's_0_22': [4255], 26: [4093, 2571, 2570, 4225, 1971, 1970, 1969, 3988, 2555, 3823, 2464, 3747, 3746, 3745], 's_0_26': [4150], 33: [1686, 4209, 2330, 2331, 4212, 4210, 4211], 's_0_33': [1701], 34: [4183, 4087, 1685, 4088, 4089, 2272, 4090, 4091, 2270, 4182, 2271], 's_0_34': [1431], 35: [1596, 2599, 2600, 1595, 1594, 3757, 3758, 3759, 1924, 3790, 3791, 3792, 3793], 's_0_35': [1610], 46: [4364, 1536, 1537, 4359, 2558, 4363, 4362, 4361, 4358, 1972, 4360], 's_0_46': [4148], 's_0_0': [1791], 2: [1743, 4003, 2527, 2526, 3883, 3685, 1968, 2449, 3593, 3594, 3595, 3596, 3597, 2525, 2448], 's_1_2': [2418], 4: [2318, 2185, 2184, 3774, 1894, 4496, 4497, 1895, 4075, 4076, 2181, 2182, 2183], 's_1_4': [1774], 10: [1835, 1834, 4604, 4603, 4602, 4601, 2063, 2062, 4344, 3850, 2000, 2001, 2002, 4345], 's_1_10': [4000], 11: [2615, 2343, 2344, 2345, 2617, 2616, 4138, 4137, 2346], 's_1_11': [3762], 15: [4033, 4301, 4302, 3642, 2374, 2375, 4347, 2377, 2376], 's_1_15': [2268, 3657], 18: [3835, 4692, 4691, 4690, 3640, 2014, 2015, 2016, 2017, 4705, 2019, 2018], 's_1_18': [3805], 21: [4314, 4313, 1744, 1745, 1746, 4423, 4422, 4421, 4420, 1853, 4374, 1747], 's_1_21': [1927], 's_1_22': [4299], 31: [4274, 4154, 3763, 2708, 2709, 2629, 3957, 3958, 2630, 4004, 2706, 2707], 's_1_31': [2495], 's_1_33': [1926], 36: [4464, 4465, 4377, 4376, 3671, 2073, 2074, 2075, 2076, 2077], 's_1_36': [2179], 38: [2450, 3942, 2451, 3941, 3937, 3938, 3939, 3940], 's_1_38': [2389, 2390], 39: [2631, 1880, 1881, 4269, 4273, 4272, 4271, 2032, 4270], 's_1_39': [4060], 44: [3852, 3851, 2105, 3698, 3699, 3700, 2149, 2104, 3701], 's_1_44': [3853], 45: [2059, 3910, 4572, 2243, 4526, 4525, 4524, 3909, 1804, 1805, 1806, 1808, 1807], 's_1_45': [4134], 's_1_1': [4390], 's_3_2': [1608], 14: [4196, 2241, 2238, 2239, 2240], 's_3_14': [3672], 's_3_15': [3628, 3673, 2463], 17: [1492, 4253, 1612, 2454, 4827, 4825, 2049, 4403, 4404, 4826, 4405, 1988, 2048, 4495], 's_3_17': [4208], 's_3_22': [4267], 27: [4254, 1818, 1819, 4707, 4074, 1820, 1821, 1822, 1823, 1824, 2289, 4631, 4630, 4629], 's_3_27': [3609], 28: [3683, 4238, 1474, 1477, 1475, 1476], 's_3_28': [3848], 32: [4256, 4300, 3637, 3638, 3639, 1773, 2123, 2122, 2121, 2120, 2119, 2118, 3565, 3564], 's_3_32': [1788], 's_3_38': [1535], 's_3_44': [1728], 's_3_46': [1552], 's_3_3': [3818], 5: [3492, 3491, 1879, 3787, 3788, 3506, 3505, 1848, 1849, 3789], 's_12_5': [1444], 6: [2646, 2647, 2648, 4468, 4467, 4466, 2153, 4571, 4570, 4569, 4568, 1583, 1582], 's_12_6': [1688], 8: [3877, 3878, 1762, 1761, 1760, 3879, 3882, 3881, 3880], 's_12_8': [1445], 13: [4073, 1623, 1624, 1625, 1628, 1627, 1626], 's_12_13': [4493], 's_12_22': [1447], 25: [1955, 4045, 1851, 4104, 1776, 1779, 1777, 1778], 's_12_25': [4494], 's_12_27': [1898], 29: [4739, 4633, 4528, 4674, 4675, 4453, 2498, 2499, 4738, 4660, 2094, 4736, 4737], 's_12_29': [4721], 's_12_32': [3563, 1458, 3562], 's_12_34': [3998, 3997], 's_12_35': [3772], 's_12_36': [1838], 37: [3973, 2512, 4451, 2510, 2511, 2258, 2257, 2256, 4198, 4197], 's_12_37': [2168], 's_12_38': [3936, 1310, 3847], 42: [2198, 4346, 4077, 2197, 2195, 2196], 's_12_42': [2107], 's_12_45': [2093], 's_12_12': [4222], 's_22_26': [1852], 's_22_28': [1642], 's_22_33': [1716, 4194], 's_22_22': [1417], 's_26_2': [3913], 's_26_4': [4015], 's_26_6': [4123], 's_26_11': [4139, 2721, 4064], 23: [2106, 2466, 4122, 4120, 4121], 's_26_23': [4168], 24: [2214, 2379, 4213, 4618, 4018, 2435, 4646, 4647, 2436, 2437, 2438], 's_26_24': [2585], 's_26_34': [1956], 's_26_36': [4135], 's_26_37': [4153, 2601], 40: [2298, 2301, 2300, 3775, 3776, 2299], 's_26_40': [2194], 's_26_46': [2572, 4333, 2497], 's_26_26': [3899], 's_33_8': [3897], 's_33_24': [4092], 's_33_27': [4224], 's_33_31': [2315], 's_33_34': [4002], 's_33_37': [4227], 's_33_39': [1866, 4179], 's_33_33': [1672], 's_34_4': [3985, 2060], 7: [2365, 4062, 2361, 2362, 2363, 2364, 4558, 4557, 4556, 4555, 4554, 1763, 4448], 's_34_7': [4152], 's_34_8': [4059, 1715], 's_34_10': [4105], 's_34_18': [1910, 3970], 19: [2333, 4393, 4482, 2424, 2423, 2420, 2421, 2422], 's_34_19': [3972], 's_34_24': [2542], 30: [2288, 4332, 2287], 's_34_30': [4437], 's_34_36': [4181], 's_34_38': [3987, 2285], 's_34_39': [4184], 41: [1568, 4447, 4030, 4029, 1507, 1506, 1505, 4028], 's_34_41': [1641], 's_34_42': [4106], 's_34_45': [2273], 's_34_34': [1446], 's_35_2': [3838], 's_35_4': [3773], 's_35_5': [1414], 's_35_8': [3953], 's_35_10': [3849, 1729], 's_35_13': [3968], 's_35_18': [1923], 's_35_24': [2434], 's_35_31': [2509], 's_35_37': [3928, 2584], 's_35_40': [2284, 3761, 3760], 's_35_41': [1504], 43: [4708, 2574, 4574, 2164, 2693, 2692, 2691, 3715, 3716, 3717, 3718, 3719, 2689, 2690], 's_35_43': [2029], 's_35_35': [3794], 's_46_4': [4498], 9: [2662, 4258, 2679, 2678, 4259, 2677], 's_46_9': [2663, 4483], 16: [1657, 1656, 4164, 4165, 4163, 2047, 4048, 4047, 4046, 2046, 2045], 's_46_16': [4375], 20: [4348, 2452, 2453, 4583, 4588, 4587, 4586, 4584, 4585], 's_46_20': [1538], 's_46_21': [1732], 's_46_24': [4378], 's_46_25': [1792], 's_46_27': [1973, 1974], 's_46_30': [2317], 's_46_32': [1957], 's_46_36': [2378], 's_46_39': [2152], 's_46_42': [2137], 's_46_43': [4379], 's_46_46': [2782], 's_2_5': [1878], 's_2_10': [3670], 's_2_13': [3578], 's_2_16': [2465, 3898], 's_2_18': [2013], 's_2_20': [2528, 4513], 's_2_21': [3743, 1713], 's_2_31': [3884], 's_2_32': [1803], 's_2_36': [2058], 's_2_38': [2480], 's_2_40': [1999], 's_2_43': [2433], 's_2_2': [3592, 1413], 's_4_5': [3924], 's_4_6': [2213], 's_4_17': [4796], 's_4_21': [2393], 's_4_23': [2031], 's_4_24': [2139, 4751], 's_4_27': [4676], 's_4_30': [4286], 's_4_32': [4541], 's_4_36': [2348], 's_4_37': [2138], 's_4_41': [1986], 's_4_42': [4331], 's_4_4': [4871], 's_10_5': [3654], 's_10_6': [2169], 's_10_9': [2694], 's_10_21': [1897], 's_10_24': [2408], 's_10_25': [4329], 's_10_27': [2078], 's_10_31': [2722, 2723, 2724], 's_10_32': [1833], 's_10_37': [4617], 's_10_38': [1850], 's_10_39': [1987], 's_10_41': [1836], 's_10_10': [4540], 's_11_5': [3507], 's_11_7': [4167], 's_11_9': [4439], 's_11_15': [2373, 3552], 's_11_16': [4049], 's_11_24': [2556, 4079], 's_11_29': [2632], 's_11_31': [2614], 's_11_37': [4318], 's_11_44': [3702], 's_11_11': [2618], 's_15_9': [2467], 's_15_16': [2541], 's_15_19': [4317], 's_15_30': [2302], 's_15_31': [4034], 's_15_32': [3641], 's_15_37': [2347], 's_15_38': [4228], 's_15_42': [2227], 's_15_15': [2482], 's_18_19': [2409], 's_18_24': [2154], 's_18_27': [4706], 's_18_36': [3686], 's_18_44': [2030], 's_18_45': [4510], 's_18_18': [1944], 's_21_5': [1759], 's_21_7': [1928], 's_21_8': [4133], 's_21_13': [3923], 's_21_19': [4438], 's_21_27': [3864], 's_21_30': [2303], 's_21_21': [4435], 's_31_6': [4514], 's_31_9': [4694], 's_31_19': [4394], 's_31_37': [3943], 's_31_39': [4229], 's_31_43': [3824], 's_31_31': [2780], 's_36_16': [4226], 's_36_17': [1912], 's_36_25': [4449], 's_36_30': [2407], 's_36_37': [4450], 's_36_43': [2043], 's_36_44': [2088, 3611], 's_36_45': [2090, 2089], 's_36_36': [3971], 's_38_9': [4288, 4287], 's_38_13': [1640], 's_38_16': [1655], 's_38_19': [2405], 's_38_27': [1730], 's_38_28': [1565, 3922], 's_38_42': [3956], 's_38_38': [1415, 4042], 's_39_5': [1865, 1864], 's_39_6': [4169], 's_39_9': [2586], 's_39_16': [4241], 's_39_30': [2392], 's_39_39': [4199, 2737], 's_44_23': [2150, 2151], 's_44_28': [3713], 's_44_32': [3821], 's_44_40': [2134], 's_44_42': [3986], 's_44_43': [1908], 's_44_45': [1909, 3895, 3896], 's_44_44': [2148, 2147], 's_45_19': [4573, 2468], 's_45_24': [2349], 's_45_27': [3684], 's_45_30': [4527], 's_45_40': [3911], 's_45_45': [4523], 's_14_16': [4032], 's_14_7': [4257], 's_14_23': [2226], 's_14_37': [4136], 's_14_14': [3687], 's_17_13': [4388], 's_17_43': [4693], 's_17_6': [1567], 's_17_8': [4389], 's_17_19': [4798], 's_17_27': [4722, 2274], 's_17_29': [2170], 's_17_17': [2335], 's_27_13': [3984, 3983], 's_27_32': [3519], 's_27_43': [1863, 3579, 3580], 's_27_8': [4014], 's_27_24': [2394], 's_27_27': [1817], 's_28_32': [3669, 3668], 's_28_6': [4312], 's_28_8': [3894, 3893], 's_28_41': [3952], 's_28_28': [4162], 's_32_5': [2117], 's_32_16': [4436], 's_32_6': [4511], 's_32_8': [3806, 2224], 's_32_32': [3534, 3533, 1502], 's_5_13': [3803], 's_5_43': [2163], 's_5_5': [2072, 3446, 2237], 's_6_9': [2661], 's_6_25': [1793], 's_6_6': [1733], 's_8_40': [2254], 's_8_41': [1925], 's_8_42': [3836, 2180], 's_8_25': [4239], 's_8_8': [1699], 's_13_7': [1643], 's_13_13': [3863], 's_25_16': [4103], 's_25_41': [1775], 's_25_29': [4659], 's_25_25': [4704], 's_29_43': [4663, 2604], 's_29_24': [2469], 's_29_9': [4409, 2587], 's_29_7': [1989], 's_29_19': [4753], 's_29_29': [1884], 's_37_16': [2255], 's_37_40': [2286], 's_37_9': [2406], 's_37_37': [2513], 's_42_16': [2225], 's_42_7': [2316], 's_42_42': [2199], 's_23_7': [4063], 's_23_19': [4078], 's_23_23': [2136], 's_24_24': [4645], 's_40_7': [4017], 's_40_40': [3537], 's_7_20': [1839], 's_7_43': [4559], 's_7_30': [4542], 's_7_19': [4662], 's_7_7': [4752], 's_19_19': [2543], 's_30_30': [4512], 's_41_16': [4328, 4327], 's_41_20': [1508], 's_41_41': [1433], 's_43_43': [2583], 's_9_9': [4769, 2619], 's_16_16': [1658], 's_20_20': [1659]}</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0006253369272237197</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.001293171455326464</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>{0: [4240, 4117, 1611, 1911, 4119, 4118], 1: [2494, 3733, 2329, 3732, 3731, 3730, 1942, 1941, 1940, 1939, 3729], 's_0_1': [4180], 3: [2313, 1551, 1550, 1549, 3627, 3625, 3624, 3623, 3608, 3626, 1548], 's_0_3': [4178, 1566], 12: [2109, 4481, 1459, 1460, 1461, 1463, 4477, 1462, 4478, 4479, 4480, 2108], 's_0_12': [4132], 22: [1598, 1597, 1837, 4282, 4284, 4283], 's_0_22': [4255], 26: [4093, 2571, 2570, 4225, 1971, 1970, 1969, 3988, 2555, 3823, 2464, 3747, 3746, 3745], 's_0_26': [4150], 33: [1686, 4209, 2330, 2331, 4212, 4210, 4211], 's_0_33': [1701], 34: [4183, 4087, 1685, 4088, 4089, 2272, 4090, 4091, 2270, 4182, 2271], 's_0_34': [1431], 35: [1596, 2599, 2600, 1595, 1594, 3757, 3758, 3759, 1924, 3790, 3791, 3792, 3793], 's_0_35': [1610], 46: [4364, 1536, 1537, 4359, 2558, 4363, 4362, 4361, 4358, 1972, 4360], 's_0_46': [4148], 's_0_0': [1791], 2: [1743, 4003, 2527, 2526, 3883, 3685, 1968, 2449, 3593, 3594, 3595, 3596, 3597, 2525, 2448], 's_1_2': [2418], 4: [2318, 2185, 2184, 3774, 1894, 4496, 4497, 1895, 4075, 4076, 2181, 2182, 2183], 's_1_4': [1774], 10: [1835, 1834, 4604, 4603, 4602, 4601, 2063, 2062, 4344, 3850, 2000, 2001, 2002, 4345], 's_1_10': [4000], 11: [2615, 2343, 2344, 2345, 2617, 2616, 4138, 4137, 2346], 's_1_11': [3762], 15: [4033, 4301, 4302, 3642, 2374, 2375, 4347, 2377, 2376], 's_1_15': [2268, 3657], 18: [3835, 4692, 4691, 4690, 3640, 2014, 2015, 2016, 2017, 4705, 2019, 2018], 's_1_18': [3805], 21: [4314, 4313, 1744, 1745, 1746, 4423, 4422, 4421, 4420, 1853, 4374, 1747], 's_1_21': [1927], 's_1_22': [4299], 31: [4274, 4154, 3763, 2708, 2709, 2629, 3957, 3958, 2630, 4004, 2706, 2707], 's_1_31': [2495], 's_1_33': [1926], 36: [4464, 4465, 4377, 4376, 3671, 2073, 2074, 2075, 2076, 2077], 's_1_36': [2179], 38: [2450, 3942, 2451, 3941, 3937, 3938, 3939, 3940], 's_1_38': [2389, 2390], 39: [2631, 1880, 1881, 4269, 4273, 4272, 4271, 2032, 4270], 's_1_39': [4060], 44: [3852, 3851, 2105, 3698, 3699, 3700, 2149, 2104, 3701], 's_1_44': [3853], 45: [2059, 3910, 4572, 2243, 4526, 4525, 4524, 3909, 1804, 1805, 1806, 1808, 1807], 's_1_45': [4134], 's_1_1': [4390], 's_3_2': [1608], 14: [4196, 2241, 2238, 2239, 2240], 's_3_14': [3672], 's_3_15': [3628, 3673, 2463], 17: [1492, 4253, 1612, 2454, 4827, 4825, 2049, 4403, 4404, 4826, 4405, 1988, 2048, 4495], 's_3_17': [4208], 's_3_22': [4267], 27: [4254, 1818, 1819, 4707, 4074, 1820, 1821, 1822, 1823, 1824, 2289, 4631, 4630, 4629], 's_3_27': [3609], 28: [3683, 4238, 1474, 1477, 1475, 1476], 's_3_28': [3848], 32: [4256, 4300, 3637, 3638, 3639, 1773, 2123, 2122, 2121, 2120, 2119, 2118, 3565, 3564], 's_3_32': [1788], 's_3_38': [1535], 's_3_44': [1728], 's_3_46': [1552], 's_3_3': [3818], 5: [3492, 3491, 1879, 3787, 3788, 3506, 3505, 1848, 1849, 3789], 's_12_5': [1444], 6: [2646, 2647, 2648, 4468, 4467, 4466, 2153, 4571, 4570, 4569, 4568, 1583, 1582], 's_12_6': [1688], 8: [3877, 3878, 1762, 1761, 1760, 3879, 3882, 3881, 3880], 's_12_8': [1445], 13: [4073, 1623, 1624, 1625, 1628, 1627, 1626], 's_12_13': [4493], 's_12_22': [1447], 25: [1955, 4045, 1851, 4104, 1776, 1779, 1777, 1778], 's_12_25': [4494], 's_12_27': [1898], 29: [4739, 4633, 4528, 4674, 4675, 4453, 2498, 2499, 4738, 4660, 2094, 4736, 4737], 's_12_29': [4721], 's_12_32': [3563, 1458, 3562], 's_12_34': [3998, 3997], 's_12_35': [3772], 's_12_36': [1838], 37: [3973, 2512, 4451, 2510, 2511, 2258, 2257, 2256, 4198, 4197], 's_12_37': [2168], 's_12_38': [3936, 1310, 3847], 42: [2198, 4346, 4077, 2197, 2195, 2196], 's_12_42': [2107], 's_12_45': [2093], 's_12_12': [4222], 's_22_26': [1852], 's_22_28': [1642], 's_22_33': [1716, 4194], 's_22_22': [1417], 's_26_2': [3913], 's_26_4': [4015], 's_26_6': [4123], 's_26_11': [4139, 2721, 4064], 23: [2106, 2466, 4122, 4120, 4121], 's_26_23': [4168], 24: [2214, 2379, 4213, 4618, 4018, 2435, 4646, 4647, 2436, 2437, 2438], 's_26_24': [2585], 's_26_34': [1956], 's_26_36': [4135], 's_26_37': [4153, 2601], 40: [2298, 2301, 2300, 3775, 3776, 2299], 's_26_40': [2194], 's_26_46': [2572, 4333, 2497], 's_26_26': [3899], 's_33_8': [3897], 's_33_24': [4092], 's_33_27': [4224], 's_33_31': [2315], 's_33_34': [4002], 's_33_37': [4227], 's_33_39': [1866, 4179], 's_33_33': [1672], 's_34_4': [3985, 2060], 7: [2365, 4062, 2361, 2362, 2363, 2364, 4558, 4557, 4556, 4555, 4554, 1763, 4448], 's_34_7': [4152], 's_34_8': [4059, 1715], 's_34_10': [4105], 's_34_18': [1910, 3970], 19: [2333, 4393, 4482, 2424, 2423, 2420, 2421, 2422], 's_34_19': [3972], 's_34_24': [2542], 30: [2288, 4332, 2287], 's_34_30': [4437], 's_34_36': [4181], 's_34_38': [3987, 2285], 's_34_39': [4184], 41: [1568, 4447, 4030, 4029, 1507, 1506, 1505, 4028], 's_34_41': [1641], 's_34_42': [4106], 's_34_45': [2273], 's_34_34': [1446], 's_35_2': [3838], 's_35_4': [3773], 's_35_5': [1414], 's_35_8': [3953], 's_35_10': [3849, 1729], 's_35_13': [3968], 's_35_18': [1923], 's_35_24': [2434], 's_35_31': [2509], 's_35_37': [3928, 2584], 's_35_40': [2284, 3761, 3760], 's_35_41': [1504], 43: [4708, 2574, 4574, 2164, 2693, 2692, 2691, 3715, 3716, 3717, 3718, 3719, 2689, 2690], 's_35_43': [2029], 's_35_35': [3794], 's_46_4': [4498], 9: [2662, 4258, 2679, 2678, 4259, 2677], 's_46_9': [2663, 4483], 16: [1657, 1656, 4164, 4165, 4163, 2047, 4048, 4047, 4046, 2046, 2045], 's_46_16': [4375], 20: [4348, 2452, 2453, 4583, 4588, 4587, 4586, 4584, 4585], 's_46_20': [1538], 's_46_21': [1732], 's_46_24': [4378], 's_46_25': [1792], 's_46_27': [1973, 1974], 's_46_30': [2317], 's_46_32': [1957], 's_46_36': [2378], 's_46_39': [2152], 's_46_42': [2137], 's_46_43': [4379], 's_46_46': [2782], 's_2_5': [1878], 's_2_10': [3670], 's_2_13': [3578], 's_2_16': [2465, 3898], 's_2_18': [2013], 's_2_20': [2528, 4513], 's_2_21': [3743, 1713], 's_2_31': [3884], 's_2_32': [1803], 's_2_36': [2058], 's_2_38': [2480], 's_2_40': [1999], 's_2_43': [2433], 's_2_2': [3592, 1413], 's_4_5': [3924], 's_4_6': [2213], 's_4_17': [4796], 's_4_21': [2393], 's_4_23': [2031], 's_4_24': [2139, 4751], 's_4_27': [4676], 's_4_30': [4286], 's_4_32': [4541], 's_4_36': [2348], 's_4_37': [2138], 's_4_41': [1986], 's_4_42': [4331], 's_4_4': [4871], 's_10_5': [3654], 's_10_6': [2169], 's_10_9': [2694], 's_10_21': [1897], 's_10_24': [2408], 's_10_25': [4329], 's_10_27': [2078], 's_10_31': [2722, 2723, 2724], 's_10_32': [1833], 's_10_37': [4617], 's_10_38': [1850], 's_10_39': [1987], 's_10_41': [1836], 's_10_10': [4540], 's_11_5': [3507], 's_11_7': [4167], 's_11_9': [4439], 's_11_15': [2373, 3552], 's_11_16': [4049], 's_11_24': [2556, 4079], 's_11_29': [2632], 's_11_31': [2614], 's_11_37': [4318], 's_11_44': [3702], 's_11_11': [2618], 's_15_9': [2467], 's_15_16': [2541], 's_15_19': [4317], 's_15_30': [2302], 's_15_31': [4034], 's_15_32': [3641], 's_15_37': [2347], 's_15_38': [4228], 's_15_42': [2227], 's_15_15': [2482], 's_18_19': [2409], 's_18_24': [2154], 's_18_27': [4706], 's_18_36': [3686], 's_18_44': [2030], 's_18_45': [4510], 's_18_18': [1944], 's_21_5': [1759], 's_21_7': [1928], 's_21_8': [4133], 's_21_13': [3923], 's_21_19': [4438], 's_21_27': [3864], 's_21_30': [2303], 's_21_21': [4435], 's_31_6': [4514], 's_31_9': [4694], 's_31_19': [4394], 's_31_37': [3943], 's_31_39': [4229], 's_31_43': [3824], 's_31_31': [2780], 's_36_16': [4226], 's_36_17': [1912], 's_36_25': [4449], 's_36_30': [2407], 's_36_37': [4450], 's_36_43': [2043], 's_36_44': [2088, 3611], 's_36_45': [2090, 2089], 's_36_36': [3971], 's_38_9': [4288, 4287], 's_38_13': [1640], 's_38_16': [1655], 's_38_19': [2405], 's_38_27': [1730], 's_38_28': [1565, 3922], 's_38_42': [3956], 's_38_38': [1415, 4042], 's_39_5': [1865, 1864], 's_39_6': [4169], 's_39_9': [2586], 's_39_16': [4241], 's_39_30': [2392], 's_39_39': [4199, 2737], 's_44_23': [2150, 2151], 's_44_28': [3713], 's_44_32': [3821], 's_44_40': [2134], 's_44_42': [3986], 's_44_43': [1908], 's_44_45': [1909, 3895, 3896], 's_44_44': [2148, 2147], 's_45_19': [4573, 2468], 's_45_24': [2349], 's_45_27': [3684], 's_45_30': [4527], 's_45_40': [3911], 's_45_45': [4523], 's_14_16': [4032], 's_14_7': [4257], 's_14_23': [2226], 's_14_37': [4136], 's_14_14': [3687], 's_17_13': [4388], 's_17_43': [4693], 's_17_6': [1567], 's_17_8': [4389], 's_17_19': [4798], 's_17_27': [4722, 2274], 's_17_29': [2170], 's_17_17': [2335], 's_27_13': [3984, 3983], 's_27_32': [3519], 's_27_43': [1863, 3579, 3580], 's_27_8': [4014], 's_27_24': [2394], 's_27_27': [1817], 's_28_32': [3669, 3668], 's_28_6': [4312], 's_28_8': [3894, 3893], 's_28_41': [3952], 's_28_28': [4162], 's_32_5': [2117], 's_32_16': [4436], 's_32_6': [4511], 's_32_8': [3806, 2224], 's_32_32': [3534, 3533, 1502], 's_5_13': [3803], 's_5_43': [2163], 's_5_5': [2072, 3446, 2237], 's_6_9': [2661], 's_6_25': [1793], 's_6_6': [1733], 's_8_40': [2254], 's_8_41': [1925], 's_8_42': [3836, 2180], 's_8_25': [4239], 's_8_8': [1699], 's_13_7': [1643], 's_13_13': [3863], 's_25_16': [4103], 's_25_41': [1775], 's_25_29': [4659], 's_25_25': [4704], 's_29_43': [4663, 2604], 's_29_24': [2469], 's_29_9': [4409, 2587], 's_29_7': [1989], 's_29_19': [4753], 's_29_29': [1884], 's_37_16': [2255], 's_37_40': [2286], 's_37_9': [2406], 's_37_37': [2513], 's_42_16': [2225], 's_42_7': [2316], 's_42_42': [2199], 's_23_7': [4063], 's_23_19': [4078], 's_23_23': [2136], 's_24_24': [4645], 's_40_7': [4017], 's_40_40': [3537], 's_7_20': [1839], 's_7_43': [4559], 's_7_30': [4542], 's_7_19': [4662], 's_7_7': [4752], 's_19_19': [2543], 's_30_30': [4512], 's_41_16': [4328, 4327], 's_41_20': [1508], 's_41_41': [1433], 's_43_43': [2583], 's_9_9': [4769, 2619], 's_16_16': [1658], 's_20_20': [1659]}</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0.0006253369272237197</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.001293171455326464</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>{0: [2627, 3552, 3553], 10: [3539, 2432, 2431, 3538], 16: [2416, 2418, 2417], 19: [3434, 2582, 3432, 3433], 23: [3447, 2401, 2402], 28: [3687, 2266, 2267, 3537, 2328], 29: [3462, 3464, 3463], 31: [3268, 2446, 3402, 2448, 2447], 33: [3193, 2341, 2313, 3192, 2312, 2311], 35: [2236, 2463, 3386, 3387, 2462], 38: [3403, 3404], 40: [2342, 2343, 2344], 46: [2596, 3748, 2597, 2598], 47: [3566, 2237, 3416, 3418, 3417], 1: [3253, 2281, 3252], 9: [2717, 2718, 3627, 3628, 3629], 15: [3208, 3207, 2388, 2387, 2386], 17: [2282, 2373, 3477], 20: [2733, 2732, 3299, 3298, 3297], 22: [3374, 3372, 2566, 2567, 3373], 25: [3508, 2476, 2477], 37: [2612, 3269, 2611], 42: [2223, 3223, 2222, 2221, 3221, 3222], 44: [2523, 3522, 3524, 3523], 3: [2389, 2433, 2509, 3703], 4: [2747, 2748, 2703, 3612, 3613, 3614], 8: [3327, 3747, 2359, 2357, 2358], 32: [2628, 3732, 2554, 3733], 34: [2702, 2626, 3344, 3342, 3343], 36: [2506, 2508, 3358, 2507], 41: [2569, 3568, 3567, 2568], 5: [3494, 3493, 3492], 18: [2461, 2522, 3329, 3328], 21: [3314, 2372, 3313], 26: [2539, 3479, 2538, 3478], 7: [2327, 2251, 3357], 2: [3238, 3236, 3237], 12: [2656, 2374, 2657, 2658, 3689, 3688], 27: [2479, 2478, 3597], 14: [2687, 2688, 3599, 3598], 30: [2641, 3509, 2642], 39: [2491, 2493, 2492], 43: [3359, 2581], 45: [3672, 3673], 24: [3389, 2536, 2537, 3388], 11: [3658, 3581, 2283, 3657], 13: [2551, 2552, 3582, 3583, 2553], 6: [3507, 2296, 2298, 2297]}</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.03257739380849532</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.018519613161011</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>{0: [2627, 3552, 3553], 10: [3539, 2432, 2431, 3538], 16: [2416, 2418, 2417], 19: [3434, 2582, 3432, 3433], 23: [3447, 2401, 2402], 28: [3687, 2266, 2267, 3537, 2328], 29: [3462, 3464, 3463], 31: [3268, 2446, 3402, 2448, 2447], 33: [3193, 2341, 2313, 3192, 2312, 2311], 35: [2236, 2463, 3386, 3387, 2462], 38: [3403, 3404], 40: [2342, 2343, 2344], 46: [2596, 3748, 2597, 2598], 47: [3566, 2237, 3416, 3418, 3417], 1: [3253, 2281, 3252], 9: [2717, 2718, 3627, 3628, 3629], 15: [3208, 3207, 2388, 2387, 2386], 17: [2282, 2373, 3477], 20: [2733, 2732, 3299, 3298, 3297], 22: [3374, 3372, 2566, 2567, 3373], 25: [3508, 2476, 2477], 37: [2612, 3269, 2611], 42: [2223, 3223, 2222, 2221, 3221, 3222], 44: [2523, 3522, 3524, 3523], 3: [2389, 2433, 2509, 3703], 4: [2747, 2748, 2703, 3612, 3613, 3614], 8: [3327, 3747, 2359, 2357, 2358], 32: [2628, 3732, 2554, 3733], 34: [2702, 2626, 3344, 3342, 3343], 36: [2506, 2508, 3358, 2507], 41: [2569, 3568, 3567, 2568], 5: [3494, 3493, 3492], 18: [2461, 2522, 3329, 3328], 21: [3314, 2372, 3313], 26: [2539, 3479, 2538, 3478], 7: [2327, 2251, 3357], 2: [3238, 3236, 3237], 12: [2656, 2374, 2657, 2658, 3689, 3688], 27: [2479, 2478, 3597], 14: [2687, 2688, 3599, 3598], 30: [2641, 3509, 2642], 39: [2491, 2493, 2492], 43: [3359, 2581], 45: [3672, 3673], 24: [3389, 2536, 2537, 3388], 11: [3658, 3581, 2283, 3657], 13: [2551, 2552, 3582, 3583, 2553], 6: [3507, 2296, 2298, 2297]}</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0.03257739380849532</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.018519613161011</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>{0: [3833, 1701, 4163, 1656, 1655, 1654, 1653, 3548, 3549, 2118, 2086, 3536, 2087, 3550], 10: [3263, 1561, 4000, 3999, 3998, 1565, 1562, 1563, 1564], 's_0_10': [3623], 16: [2481, 4092, 1324, 1325, 4057, 4058, 4091, 4090, 4089, 1610, 1611, 4088, 3771, 1641], 's_0_16': [4059], 19: [3732, 3731, 3730, 3729, 1636, 1637, 1638, 1639, 3728], 's_0_19': [3743], 23: [4001, 2121, 2120, 3927, 2222, 3923, 2223, 3924, 3925, 2224, 3926], 's_0_23': [3611], 28: [4151, 2147, 2151, 2150, 2148, 2149], 's_0_28': [2133], 29: [3967, 3966, 1280, 1279, 3651, 3652, 3653, 2088, 3656, 3655, 3654], 's_0_29': [2119, 3716], 31: [1504, 2312, 2313, 2314, 2315, 2316, 4227, 1505, 1506, 2311, 4223, 4224, 4225, 4226], 's_0_31': [4118, 1686], 33: [2089, 1696, 1697, 3775, 3774, 3773, 1698, 1699], 's_0_33': [3684], 35: [3853, 3849, 3850, 2328, 2329, 3852, 1729, 3851], 's_0_35': [3879], 38: [3246, 1188, 1321, 3699, 3698, 3697, 1187, 1202, 3441, 1323, 1322], 's_0_38': [3714], 40: [3371, 3368, 3370, 3369], 's_0_40': [1652], 46: [1501, 2193, 2192, 2191, 3251, 3250, 3249, 3248, 3247], 's_0_46': [3626], 47: [1847, 3402, 1935, 2342, 1936, 3310, 3312, 3311], 's_0_47': [3326], 's_0_0': [3565], 1: [3863, 1579, 1578, 1577, 1953, 1952, 1967, 3490, 3488, 3489], 's_10_1': [3577], 9: [3342, 3276, 3277, 2030, 1546, 3278, 3341, 3279, 3280, 2027, 2029, 2028], 's_10_9': [2031], 15: [2057, 1921, 3461, 1922, 3457, 3458, 3459, 3460], 's_10_15': [3473], 17: [3954, 3625, 1910, 3759, 1909, 1907, 1908], 's_10_17': [4015], 20: [1502, 3427, 3172, 1264, 3638, 3636, 1399, 1398, 1426, 1427, 1428, 3637], 's_10_20': [3382], 22: [1771, 3502, 3503, 3504, 4043, 4044, 1775, 1774, 1772, 1773], 's_10_22': [4028], 's_10_23': [1955], 25: [3758, 3757, 3756, 3755, 1099, 1098, 1097, 1096, 3115, 3114, 3113, 3112, 3111, 3110], 's_10_25': [1560], 37: [3789, 3922, 4102, 3788, 1549, 1550], 's_10_37': [1566], 42: [3792, 3793, 2434, 3912, 3910, 1984, 3911, 3952, 3953, 1730, 3969, 3970, 1985], 's_10_42': [3895, 1925], 44: [2994, 1800, 1807, 3803, 3804, 1801, 1802, 1806, 1805, 1804, 1803], 's_10_44': [1821], 's_10_46': [3293, 1606], 's_10_10': [2001], 3: [1986, 2101, 2100, 3131, 4030, 2176, 2177, 2178, 2179, 2180, 4031, 2181], 's_16_3': [1895], 4: [3906, 3235, 3234, 3233, 1354, 1353, 1352, 1351, 3231, 3232], 's_16_4': [1355], 8: [1880, 3808, 3984, 3985, 3807, 3806, 2166, 3296, 2162, 2163, 3986, 2165, 2164], 's_16_8': [2060], 's_16_20': [3862], 's_16_22': [1476], 's_16_23': [3908], 's_16_25': [1609], 's_16_31': [2301], 32: [1761, 3935, 1220, 4075, 4074, 4073, 4072, 4041, 4042, 1296], 's_16_32': [4101], 34: [3351, 1262, 1263, 3591, 1368, 2091, 4120, 4119, 1791, 1790, 3894, 3893, 3891, 3892, 1369], 's_16_34': [2016], 36: [1500, 3186, 2480, 2479, 2478, 2477, 2476, 3192, 3191, 3190, 3703, 3189, 3188, 3187], 's_16_36': [4033, 2420], 41: [3429, 4181, 4180, 4179, 1746, 1742, 1743, 1744, 1745], 's_16_41': [4133], 's_16_16': [2466], 's_19_4': [3218], 5: [3642, 3643, 2462, 2464, 2463], 's_19_5': [2433], 's_19_15': [1623], 18: [1849, 3744, 2266, 2267, 1999, 3748, 3747, 3745, 3746, 2268], 's_19_18': [3733], 21: [3668, 1515, 1520, 1519, 1516, 1517, 1518], 's_19_21': [3143], 's_19_25': [3098], 26: [1085, 1084, 1083, 3560, 3561, 3582, 3581, 3580, 3579, 1923, 3564, 3563, 3562], 's_19_26': [1713, 3578], 's_19_29': [1893], 's_19_33': [3428], 's_19_37': [1624], 's_19_38': [3713], 's_19_40': [1622], 's_19_41': [3413], 's_19_19': [1635], 7: [3670, 3673, 3672, 3671], 's_23_7': [2238], 's_23_15': [2237], 's_23_18': [3507], 's_23_22': [1970, 4045], 's_23_31': [3492], 's_23_33': [1894], 's_23_34': [4211], 's_23_35': [2419], 's_23_41': [4196], 's_23_23': [3928], 2: [2105, 2493, 3658, 2524, 2525, 3943, 3937, 3938, 3939, 3940, 3941, 3942], 's_28_2': [3956], 's_28_7': [3686], 12: [1547, 1941, 1940, 3882, 3881, 3880, 1864, 3609, 1863, 3608, 1474, 3727, 1548], 's_28_12': [4150], 27: [3821, 2075, 3760, 2074], 's_28_27': [4046], 's_28_29': [3641], 's_28_34': [4121], 's_28_35': [3866], 's_28_40': [3491, 2102], 's_28_41': [2136], 's_28_28': [3971, 2225, 2226], 's_29_7': [1968], 's_29_9': [3701], 's_29_12': [1728], 14: [1755, 3053, 3052, 3051, 1175, 1174, 1173, 1172, 1171, 1170, 3050], 's_29_14': [1248, 1249, 3846], 's_29_25': [3650], 's_29_26': [2058], 30: [3367, 3877, 1442, 1445, 1443, 1444], 's_29_30': [1309, 1310], 's_29_31': [3982, 3981], 39: [3523, 2402, 3417, 3415, 3084, 3400, 3399, 3416, 1875, 1876, 1877, 1878], 's_29_39': [2073, 2072], 's_29_41': [3639], 's_29_44': [1669], 's_29_29': [3711], 's_31_1': [3848], 's_31_8': [3987], 's_31_9': [2327], 's_31_12': [3802], 's_31_18': [3252], 's_31_21': [1521], 's_31_22': [1776], 's_31_25': [1534, 3907], 's_31_32': [1461, 4162], 's_31_34': [1971], 's_31_35': [3777], 's_31_37': [1551, 4208], 43: [1486, 3622, 1487, 3997, 1488, 1491, 3996, 1489, 1490], 's_31_43': [4132], 's_31_44': [4209], 45: [2374, 3477, 2371, 2372, 2373], 's_31_45': [3237], 's_31_47': [3297], 's_31_31': [1657], 's_33_18': [2104], 's_33_20': [3442, 3443], 24: [3712, 1757, 1338, 1292, 1276, 1277, 3398, 3397, 1337, 3396], 's_33_24': [1682], 's_33_27': [2014], 's_33_34': [1789], 's_33_35': [1684], 's_33_40': [1681], 's_33_42': [2059], 's_33_44': [3309], 's_33_33': [3669], 's_35_5': [3567], 's_35_7': [3687], 's_35_9': [2015], 11: [2254, 3776, 2210, 2207, 2208, 2209], 's_35_11': [3702], 's_35_25': [1759], 's_35_27': [2134], 's_35_41': [3864], 's_35_42': [1820], 's_35_35': [3854], 's_38_9': [1201], 's_38_12': [3700], 13: [1218, 1219, 3865, 1851, 1850, 3920, 1189, 3816, 3817, 3819, 3818], 's_38_13': [1234, 1233, 3531], 's_38_20': [1429], 's_38_22': [3501], 's_38_24': [3426], 's_38_30': [3667], 's_38_34': [1367, 3411], 's_38_46': [1366, 3307], 's_38_38': [1247, 1246], 's_40_8': [2236], 's_40_9': [2282], 's_40_11': [3386], 's_40_22': [3384], 's_40_41': [1832], 's_40_44': [1817], 's_40_40': [1726], 's_46_3': [3132], 's_46_8': [3431], 's_46_11': [3476], 's_46_26': [3596], 's_46_30': [1441, 1456], 's_46_43': [3323], 's_46_44': [1816], 's_46_47': [2146], 's_46_46': [3177], 's_47_5': [3372], 6: [1966, 2026, 3267, 3220, 3266, 2071], 's_47_6': [2251], 's_47_15': [3175], 's_47_18': [3282], 's_47_25': [3099, 3100], 's_47_41': [3354, 3355, 1997], 's_47_47': [3085], 's_1_6': [3385, 2056], 's_1_7': [3685], 's_1_13': [1640], 's_1_17': [1998], 's_1_20': [3592], 's_1_22': [3519, 3520], 's_1_25': [1950, 1951], 's_1_43': [3338], 's_1_1': [3640], 's_9_6': [2041], 's_9_17': [3430], 's_9_22': [3294], 's_9_39': [2012], 's_9_3': [3521], 's_9_4': [1711], 's_9_11': [2221, 3281], 's_9_18': [3357], 's_9_21': [3308, 1472], 's_9_26': [2013], 's_9_9': [1591], 's_15_17': [1892], 's_15_12': [1833], 's_15_30': [1458], 's_15_39': [1787], 's_15_3': [3506], 's_15_4': [3219], 's_15_21': [3472], 's_15_15': [1382], 's_17_7': [2043], 's_17_13': [1879], 's_17_26': [3594], 's_17_27': [3820], 's_17_34': [4104], 's_17_17': [1911], 's_20_13': [3847, 1295], 's_20_12': [1413, 1414], 's_20_14': [1425], 's_20_21': [3202], 's_20_25': [1291], 's_20_26': [1383], 's_20_34': [3726], 's_20_36': [1306], 's_20_20': [3532], 's_22_13': [3834], 's_22_2': [1715], 's_22_12': [1532], 's_22_21': [3353, 1607], 's_22_24': [3534, 1712], 's_22_30': [3487], 's_22_37': [1535], 's_22_39': [3505], 's_22_42': [4014], 's_22_43': [1473], 's_22_22': [1626], 's_25_6': [1996], 's_25_26': [3515], 's_25_30': [1459], 's_25_36': [1981], 's_25_44': [3204, 1890], 's_25_25': [1185], 's_37_43': [1446], 's_37_2': [1475], 's_37_12': [3772], 's_37_30': [3878], 's_37_34': [3921], 's_37_21': [4087], 's_37_44': [1594], 's_37_37': [1431], 's_42_7': [2344], 's_42_43': [1430], 's_42_2': [2359, 2360, 3957], 's_42_30': [1415], 's_42_34': [1760], 's_42_5': [2554], 's_42_11': [2284], 's_42_18': [2299], 's_42_45': [2389], 's_42_42': [2584], 's_44_36': [3324, 1741], 's_44_14': [3129, 1710], 's_44_44': [4029], 's_3_13': [1836], 's_3_36': [2055], 's_3_4': [2011], 's_3_8': [3761], 's_3_27': [2090], 's_3_32': [4076, 2045], 's_3_3': [2182], 's_4_6': [2116], 's_4_30': [3787], 's_4_34': [3832], 's_4_24': [3216], 's_4_4': [1381], 's_8_13': [2000], 's_8_12': [2195], 's_8_34': [4166], 's_8_5': [2449, 3762], 's_8_18': [2509], 's_8_32': [4060], 's_8_41': [1881], 's_8_45': [2404, 3868, 2375], 's_8_8': [4136], 's_32_13': [4164], 's_32_12': [1926, 4134], 's_32_14': [1190], 's_32_26': [3950], 's_32_41': [4194], 's_32_32': [1130], 's_34_43': [1370], 's_34_2': [1625], 's_34_14': [3876], 's_34_24': [3741], 's_34_34': [2092], 's_36_7': [2539], 's_36_2': [2465], 's_36_14': [1530], 's_36_18': [2494], 's_36_21': [3037], 's_36_24': [3201], 's_36_26': [2418], 's_36_36': [3193], 's_41_13': [1852], 's_41_26': [1727], 's_41_41': [2017], 's_5_7': [2508], 's_5_39': [3508], 's_5_26': [2448], 's_5_5': [3823], 's_18_13': [1969], 's_18_12': [3715], 's_18_18': [2644], 's_21_43': [4012], 's_21_12': [3547], 's_21_21': [3262], 's_26_13': [3815], 's_26_24': [1293], 's_26_14': [3770], 's_26_45': [3597], 's_26_26': [1053, 1054, 1055, 1056], 's_7_2': [3688], 's_7_7': [1938], 's_2_12': [2345], 's_2_30': [1460], 's_2_39': [2523], 's_2_2': [2630], 's_12_43': [3518], 's_12_11': [2269], 's_12_24': [1758], 's_12_27': [3896], 's_12_30': [3683, 3682], 's_12_12': [4165], 's_27_11': [3791], 's_27_27': [3836], 's_14_43': [4011], 's_14_39': [3054], 's_14_14': [1440], 's_30_30': [3352], 's_39_11': [3401], 's_39_24': [3444], 's_39_39': [2538], 's_43_13': [1205], 's_43_43': [3533], 's_45_6': [2386], 's_45_45': [2343], 's_24_24': [3096], 's_11_11': [2211], 's_13_13': [3786], 's_6_6': [2416]}</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0003611859838274933</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.000972011157428244</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>{0: [3833, 1701, 4163, 1656, 1655, 1654, 1653, 3548, 3549, 2118, 2086, 3536, 2087, 3550], 10: [3263, 1561, 4000, 3999, 3998, 1565, 1562, 1563, 1564], 's_0_10': [3623], 16: [2481, 4092, 1324, 1325, 4057, 4058, 4091, 4090, 4089, 1610, 1611, 4088, 3771, 1641], 's_0_16': [4059], 19: [3732, 3731, 3730, 3729, 1636, 1637, 1638, 1639, 3728], 's_0_19': [3743], 23: [4001, 2121, 2120, 3927, 2222, 3923, 2223, 3924, 3925, 2224, 3926], 's_0_23': [3611], 28: [4151, 2147, 2151, 2150, 2148, 2149], 's_0_28': [2133], 29: [3967, 3966, 1280, 1279, 3651, 3652, 3653, 2088, 3656, 3655, 3654], 's_0_29': [2119, 3716], 31: [1504, 2312, 2313, 2314, 2315, 2316, 4227, 1505, 1506, 2311, 4223, 4224, 4225, 4226], 's_0_31': [4118, 1686], 33: [2089, 1696, 1697, 3775, 3774, 3773, 1698, 1699], 's_0_33': [3684], 35: [3853, 3849, 3850, 2328, 2329, 3852, 1729, 3851], 's_0_35': [3879], 38: [3246, 1188, 1321, 3699, 3698, 3697, 1187, 1202, 3441, 1323, 1322], 's_0_38': [3714], 40: [3371, 3368, 3370, 3369], 's_0_40': [1652], 46: [1501, 2193, 2192, 2191, 3251, 3250, 3249, 3248, 3247], 's_0_46': [3626], 47: [1847, 3402, 1935, 2342, 1936, 3310, 3312, 3311], 's_0_47': [3326], 's_0_0': [3565], 1: [3863, 1579, 1578, 1577, 1953, 1952, 1967, 3490, 3488, 3489], 's_10_1': [3577], 9: [3342, 3276, 3277, 2030, 1546, 3278, 3341, 3279, 3280, 2027, 2029, 2028], 's_10_9': [2031], 15: [2057, 1921, 3461, 1922, 3457, 3458, 3459, 3460], 's_10_15': [3473], 17: [3954, 3625, 1910, 3759, 1909, 1907, 1908], 's_10_17': [4015], 20: [1502, 3427, 3172, 1264, 3638, 3636, 1399, 1398, 1426, 1427, 1428, 3637], 's_10_20': [3382], 22: [1771, 3502, 3503, 3504, 4043, 4044, 1775, 1774, 1772, 1773], 's_10_22': [4028], 's_10_23': [1955], 25: [3758, 3757, 3756, 3755, 1099, 1098, 1097, 1096, 3115, 3114, 3113, 3112, 3111, 3110], 's_10_25': [1560], 37: [3789, 3922, 4102, 3788, 1549, 1550], 's_10_37': [1566], 42: [3792, 3793, 2434, 3912, 3910, 1984, 3911, 3952, 3953, 1730, 3969, 3970, 1985], 's_10_42': [3895, 1925], 44: [2994, 1800, 1807, 3803, 3804, 1801, 1802, 1806, 1805, 1804, 1803], 's_10_44': [1821], 's_10_46': [3293, 1606], 's_10_10': [2001], 3: [1986, 2101, 2100, 3131, 4030, 2176, 2177, 2178, 2179, 2180, 4031, 2181], 's_16_3': [1895], 4: [3906, 3235, 3234, 3233, 1354, 1353, 1352, 1351, 3231, 3232], 's_16_4': [1355], 8: [1880, 3808, 3984, 3985, 3807, 3806, 2166, 3296, 2162, 2163, 3986, 2165, 2164], 's_16_8': [2060], 's_16_20': [3862], 's_16_22': [1476], 's_16_23': [3908], 's_16_25': [1609], 's_16_31': [2301], 32: [1761, 3935, 1220, 4075, 4074, 4073, 4072, 4041, 4042, 1296], 's_16_32': [4101], 34: [3351, 1262, 1263, 3591, 1368, 2091, 4120, 4119, 1791, 1790, 3894, 3893, 3891, 3892, 1369], 's_16_34': [2016], 36: [1500, 3186, 2480, 2479, 2478, 2477, 2476, 3192, 3191, 3190, 3703, 3189, 3188, 3187], 's_16_36': [4033, 2420], 41: [3429, 4181, 4180, 4179, 1746, 1742, 1743, 1744, 1745], 's_16_41': [4133], 's_16_16': [2466], 's_19_4': [3218], 5: [3642, 3643, 2462, 2464, 2463], 's_19_5': [2433], 's_19_15': [1623], 18: [1849, 3744, 2266, 2267, 1999, 3748, 3747, 3745, 3746, 2268], 's_19_18': [3733], 21: [3668, 1515, 1520, 1519, 1516, 1517, 1518], 's_19_21': [3143], 's_19_25': [3098], 26: [1085, 1084, 1083, 3560, 3561, 3582, 3581, 3580, 3579, 1923, 3564, 3563, 3562], 's_19_26': [1713, 3578], 's_19_29': [1893], 's_19_33': [3428], 's_19_37': [1624], 's_19_38': [3713], 's_19_40': [1622], 's_19_41': [3413], 's_19_19': [1635], 7: [3670, 3673, 3672, 3671], 's_23_7': [2238], 's_23_15': [2237], 's_23_18': [3507], 's_23_22': [1970, 4045], 's_23_31': [3492], 's_23_33': [1894], 's_23_34': [4211], 's_23_35': [2419], 's_23_41': [4196], 's_23_23': [3928], 2: [2105, 2493, 3658, 2524, 2525, 3943, 3937, 3938, 3939, 3940, 3941, 3942], 's_28_2': [3956], 's_28_7': [3686], 12: [1547, 1941, 1940, 3882, 3881, 3880, 1864, 3609, 1863, 3608, 1474, 3727, 1548], 's_28_12': [4150], 27: [3821, 2075, 3760, 2074], 's_28_27': [4046], 's_28_29': [3641], 's_28_34': [4121], 's_28_35': [3866], 's_28_40': [3491, 2102], 's_28_41': [2136], 's_28_28': [3971, 2225, 2226], 's_29_7': [1968], 's_29_9': [3701], 's_29_12': [1728], 14: [1755, 3053, 3052, 3051, 1175, 1174, 1173, 1172, 1171, 1170, 3050], 's_29_14': [1248, 1249, 3846], 's_29_25': [3650], 's_29_26': [2058], 30: [3367, 3877, 1442, 1445, 1443, 1444], 's_29_30': [1309, 1310], 's_29_31': [3982, 3981], 39: [3523, 2402, 3417, 3415, 3084, 3400, 3399, 3416, 1875, 1876, 1877, 1878], 's_29_39': [2073, 2072], 's_29_41': [3639], 's_29_44': [1669], 's_29_29': [3711], 's_31_1': [3848], 's_31_8': [3987], 's_31_9': [2327], 's_31_12': [3802], 's_31_18': [3252], 's_31_21': [1521], 's_31_22': [1776], 's_31_25': [1534, 3907], 's_31_32': [1461, 4162], 's_31_34': [1971], 's_31_35': [3777], 's_31_37': [1551, 4208], 43: [1486, 3622, 1487, 3997, 1488, 1491, 3996, 1489, 1490], 's_31_43': [4132], 's_31_44': [4209], 45: [2374, 3477, 2371, 2372, 2373], 's_31_45': [3237], 's_31_47': [3297], 's_31_31': [1657], 's_33_18': [2104], 's_33_20': [3442, 3443], 24: [3712, 1757, 1338, 1292, 1276, 1277, 3398, 3397, 1337, 3396], 's_33_24': [1682], 's_33_27': [2014], 's_33_34': [1789], 's_33_35': [1684], 's_33_40': [1681], 's_33_42': [2059], 's_33_44': [3309], 's_33_33': [3669], 's_35_5': [3567], 's_35_7': [3687], 's_35_9': [2015], 11: [2254, 3776, 2210, 2207, 2208, 2209], 's_35_11': [3702], 's_35_25': [1759], 's_35_27': [2134], 's_35_41': [3864], 's_35_42': [1820], 's_35_35': [3854], 's_38_9': [1201], 's_38_12': [3700], 13: [1218, 1219, 3865, 1851, 1850, 3920, 1189, 3816, 3817, 3819, 3818], 's_38_13': [1234, 1233, 3531], 's_38_20': [1429], 's_38_22': [3501], 's_38_24': [3426], 's_38_30': [3667], 's_38_34': [1367, 3411], 's_38_46': [1366, 3307], 's_38_38': [1247, 1246], 's_40_8': [2236], 's_40_9': [2282], 's_40_11': [3386], 's_40_22': [3384], 's_40_41': [1832], 's_40_44': [1817], 's_40_40': [1726], 's_46_3': [3132], 's_46_8': [3431], 's_46_11': [3476], 's_46_26': [3596], 's_46_30': [1441, 1456], 's_46_43': [3323], 's_46_44': [1816], 's_46_47': [2146], 's_46_46': [3177], 's_47_5': [3372], 6: [1966, 2026, 3267, 3220, 3266, 2071], 's_47_6': [2251], 's_47_15': [3175], 's_47_18': [3282], 's_47_25': [3099, 3100], 's_47_41': [3354, 3355, 1997], 's_47_47': [3085], 's_1_6': [3385, 2056], 's_1_7': [3685], 's_1_13': [1640], 's_1_17': [1998], 's_1_20': [3592], 's_1_22': [3519, 3520], 's_1_25': [1950, 1951], 's_1_43': [3338], 's_1_1': [3640], 's_9_6': [2041], 's_9_17': [3430], 's_9_22': [3294], 's_9_39': [2012], 's_9_3': [3521], 's_9_4': [1711], 's_9_11': [2221, 3281], 's_9_18': [3357], 's_9_21': [3308, 1472], 's_9_26': [2013], 's_9_9': [1591], 's_15_17': [1892], 's_15_12': [1833], 's_15_30': [1458], 's_15_39': [1787], 's_15_3': [3506], 's_15_4': [3219], 's_15_21': [3472], 's_15_15': [1382], 's_17_7': [2043], 's_17_13': [1879], 's_17_26': [3594], 's_17_27': [3820], 's_17_34': [4104], 's_17_17': [1911], 's_20_13': [3847, 1295], 's_20_12': [1413, 1414], 's_20_14': [1425], 's_20_21': [3202], 's_20_25': [1291], 's_20_26': [1383], 's_20_34': [3726], 's_20_36': [1306], 's_20_20': [3532], 's_22_13': [3834], 's_22_2': [1715], 's_22_12': [1532], 's_22_21': [3353, 1607], 's_22_24': [3534, 1712], 's_22_30': [3487], 's_22_37': [1535], 's_22_39': [3505], 's_22_42': [4014], 's_22_43': [1473], 's_22_22': [1626], 's_25_6': [1996], 's_25_26': [3515], 's_25_30': [1459], 's_25_36': [1981], 's_25_44': [3204, 1890], 's_25_25': [1185], 's_37_43': [1446], 's_37_2': [1475], 's_37_12': [3772], 's_37_30': [3878], 's_37_34': [3921], 's_37_21': [4087], 's_37_44': [1594], 's_37_37': [1431], 's_42_7': [2344], 's_42_43': [1430], 's_42_2': [2359, 2360, 3957], 's_42_30': [1415], 's_42_34': [1760], 's_42_5': [2554], 's_42_11': [2284], 's_42_18': [2299], 's_42_45': [2389], 's_42_42': [2584], 's_44_36': [3324, 1741], 's_44_14': [3129, 1710], 's_44_44': [4029], 's_3_13': [1836], 's_3_36': [2055], 's_3_4': [2011], 's_3_8': [3761], 's_3_27': [2090], 's_3_32': [4076, 2045], 's_3_3': [2182], 's_4_6': [2116], 's_4_30': [3787], 's_4_34': [3832], 's_4_24': [3216], 's_4_4': [1381], 's_8_13': [2000], 's_8_12': [2195], 's_8_34': [4166], 's_8_5': [2449, 3762], 's_8_18': [2509], 's_8_32': [4060], 's_8_41': [1881], 's_8_45': [2404, 3868, 2375], 's_8_8': [4136], 's_32_13': [4164], 's_32_12': [1926, 4134], 's_32_14': [1190], 's_32_26': [3950], 's_32_41': [4194], 's_32_32': [1130], 's_34_43': [1370], 's_34_2': [1625], 's_34_14': [3876], 's_34_24': [3741], 's_34_34': [2092], 's_36_7': [2539], 's_36_2': [2465], 's_36_14': [1530], 's_36_18': [2494], 's_36_21': [3037], 's_36_24': [3201], 's_36_26': [2418], 's_36_36': [3193], 's_41_13': [1852], 's_41_26': [1727], 's_41_41': [2017], 's_5_7': [2508], 's_5_39': [3508], 's_5_26': [2448], 's_5_5': [3823], 's_18_13': [1969], 's_18_12': [3715], 's_18_18': [2644], 's_21_43': [4012], 's_21_12': [3547], 's_21_21': [3262], 's_26_13': [3815], 's_26_24': [1293], 's_26_14': [3770], 's_26_45': [3597], 's_26_26': [1053, 1054, 1055, 1056], 's_7_2': [3688], 's_7_7': [1938], 's_2_12': [2345], 's_2_30': [1460], 's_2_39': [2523], 's_2_2': [2630], 's_12_43': [3518], 's_12_11': [2269], 's_12_24': [1758], 's_12_27': [3896], 's_12_30': [3683, 3682], 's_12_12': [4165], 's_27_11': [3791], 's_27_27': [3836], 's_14_43': [4011], 's_14_39': [3054], 's_14_14': [1440], 's_30_30': [3352], 's_39_11': [3401], 's_39_24': [3444], 's_39_39': [2538], 's_43_13': [1205], 's_43_43': [3533], 's_45_6': [2386], 's_45_45': [2343], 's_24_24': [3096], 's_11_11': [2211], 's_13_13': [3786], 's_6_6': [2416]}</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0.0003611859838274933</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.000972011157428244</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>{0: [1236, 4101, 4102, 3998, 1535], 1: [3891, 1296, 1295, 3893, 3892], 2: [4146, 4145, 4147, 1116], 4: [3936, 1401, 1400], 6: [3981, 1311, 1309, 1310], 17: [1294, 3786, 1174, 1175, 4100], 19: [1534, 3773, 3651, 3652, 1459, 3772], 20: [1338, 1340, 1339], 21: [3682, 3683, 1595, 1594, 1593], 25: [1506, 1504, 3982, 1505], 27: [4148, 1669, 1670, 1671], 30: [4041, 4043, 4042], 32: [1564, 1445, 1565, 3937], 34: [4085, 1476, 4086, 4087], 45: [3950, 1355, 3952, 3951], 47: [3861, 1266, 1265], 12: [1431, 4071, 4072], 13: [3935, 1220], 28: [3638, 1608, 3818, 1610, 1609], 29: [1145, 1144, 1444, 3667, 3666, 1143], 35: [4012, 1429, 1430], 48: [1251, 3907, 1354, 1250, 3906], 42: [1115, 3698, 3697, 3696, 1114], 37: [1219, 1399, 3801, 3803, 3802], 39: [3920, 3921, 1370, 1369], 5: [1160, 1159, 3771, 3770], 7: [1414, 1415, 3996, 3997], 9: [1579, 3711, 1368, 3713, 3712], 10: [3863, 3862], 11: [4011, 1281], 15: [3876, 1385, 1386, 3877], 18: [4029, 1446, 4026, 4027, 4028], 23: [3846, 3848, 3847, 1460], 36: [1714, 1715, 4059, 4056, 4057, 4058], 43: [1206, 1205, 1204], 44: [3757, 1249, 3756], 26: [1234, 3727, 3726], 40: [1325, 1324, 1323, 3741], 46: [3637, 1264, 3636], 3: [3833, 1384, 3832], 8: [3923, 1474, 1475, 3922], 14: [1548, 1549, 4073, 1550], 22: [3787, 3788], 41: [1626, 3983, 1624, 1625], 16: [1520, 1519], 24: [4088, 3878, 1640, 1641], 33: [3668, 1491, 1490, 1489], 38: [3967, 1235, 3966], 31: [1189, 1280, 3817, 3816]}</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0163656516919867</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.01487954019106612</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>{0: [1236, 4101, 4102, 3998, 1535], 1: [3891, 1296, 1295, 3893, 3892], 2: [4146, 4145, 4147, 1116], 4: [3936, 1401, 1400], 6: [3981, 1311, 1309, 1310], 17: [1294, 3786, 1174, 1175, 4100], 19: [1534, 3773, 3651, 3652, 1459, 3772], 20: [1338, 1340, 1339], 21: [3682, 3683, 1595, 1594, 1593], 25: [1506, 1504, 3982, 1505], 27: [4148, 1669, 1670, 1671], 30: [4041, 4043, 4042], 32: [1564, 1445, 1565, 3937], 34: [4085, 1476, 4086, 4087], 45: [3950, 1355, 3952, 3951], 47: [3861, 1266, 1265], 12: [1431, 4071, 4072], 13: [3935, 1220], 28: [3638, 1608, 3818, 1610, 1609], 29: [1145, 1144, 1444, 3667, 3666, 1143], 35: [4012, 1429, 1430], 48: [1251, 3907, 1354, 1250, 3906], 42: [1115, 3698, 3697, 3696, 1114], 37: [1219, 1399, 3801, 3803, 3802], 39: [3920, 3921, 1370, 1369], 5: [1160, 1159, 3771, 3770], 7: [1414, 1415, 3996, 3997], 9: [1579, 3711, 1368, 3713, 3712], 10: [3863, 3862], 11: [4011, 1281], 15: [3876, 1385, 1386, 3877], 18: [4029, 1446, 4026, 4027, 4028], 23: [3846, 3848, 3847, 1460], 36: [1714, 1715, 4059, 4056, 4057, 4058], 43: [1206, 1205, 1204], 44: [3757, 1249, 3756], 26: [1234, 3727, 3726], 40: [1325, 1324, 1323, 3741], 46: [3637, 1264, 3636], 3: [3833, 1384, 3832], 8: [3923, 1474, 1475, 3922], 14: [1548, 1549, 4073, 1550], 22: [3787, 3788], 41: [1626, 3983, 1624, 1625], 16: [1520, 1519], 24: [4088, 3878, 1640, 1641], 33: [3668, 1491, 1490, 1489], 38: [3967, 1235, 3966], 31: [1189, 1280, 3817, 3816]}</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0.0163656516919867</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.01487954019106612</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>{0: [5137, 1587, 2049, 5138, 1707, 1706, 5139, 5140, 1947, 1946, 1945, 4809, 4810], 1: [5486, 5485, 1873, 5424, 1693, 5423, 4673, 1618, 1617, 1614, 1615, 1616], 's_0_1': [1602], 2: [1975, 1960, 4841, 4840], 's_0_2': [4780], 4: [5122, 5243, 5242, 1299, 1407, 4612, 1404, 1405, 1406], 's_0_4': [1572], 6: [4825, 4662, 4661, 4660, 4659, 4658, 1644, 1645, 5001, 1647, 2079, 1646, 5003, 5002], 's_0_6': [5018], 17: [5106, 1961, 5544, 5107, 5108, 5109, 1903, 1902, 1901, 5110], 's_0_17': [5124], 19: [4977, 1767, 2455, 4993, 4992, 5229, 5230, 5231, 5232, 2353, 2352, 2351], 's_0_19': [5228], 20: [2141, 5077, 5078, 5079, 5082, 5081, 5080], 's_0_20': [1511], 21: [1854, 1855, 5322, 5321, 5320, 1856, 1857, 1858], 's_0_21': [4839], 25: [2230, 2229, 4752, 4747, 4748, 4749, 4750, 2231, 4751], 's_0_25': [1899], 27: [2562, 4811, 2290, 2561, 4903, 4902], 's_0_27': [4781, 2170], 30: [4900, 2019, 2020, 2023, 2022, 2021], 's_0_30': [4705], 32: [1437, 1436, 2067, 2066, 4451, 2213, 2214, 2215, 2216, 5066, 5062, 5063, 5064, 5065], 's_0_32': [1736], 34: [1347, 1346, 2125, 4796, 4795, 4794, 1675, 4838, 4837, 4836, 1345], 's_0_34': [1884], 45: [1599, 1765, 5199, 4913, 1813, 1812, 1600, 1811, 4914], 's_0_45': [5154], 47: [4898, 1542, 1541, 1631, 4976, 4975, 4974, 1540, 4973], 's_0_47': [5273], 's_0_0': [5363], 's_1_4': [4613], 12: [4912, 1435, 1434, 4642, 4643, 4513, 4512, 4511, 4510, 1913, 4644], 's_1_12': [1629], 13: [5410, 1918, 1708, 5514, 5515], 's_1_13': [5378], 's_1_21': [4674], 's_1_25': [4763], 28: [5526, 5527, 5528, 5529, 5530, 5545, 2335, 2336, 2337, 2083, 5292, 5291, 2082], 's_1_28': [1558], 29: [4571, 4570, 4569, 1659, 1664, 1663, 1662, 1661, 1660], 's_1_29': [4703], 35: [1285, 4737, 1284, 4736, 2124, 4630, 4629, 4628, 4626, 4627], 's_1_35': [1749], 's_1_45': [1601], 48: [4597, 2199, 4603, 4602, 4601, 4600, 1794, 1525, 1524, 1523, 4598, 4599], 's_1_48': [1764], 's_1_1': [1619], 's_2_17': [1976], 's_2_25': [2005], 's_2_27': [2185], 's_2_34': [2035], 42: [4871, 1358, 4872, 5006, 2275, 2274, 2273, 4496, 4495, 4494, 4493, 4492, 4491], 's_2_42': [4870], 's_2_2': [4842], 's_4_12': [1464], 's_4_20': [1467], 's_4_25': [1389], 's_4_32': [4957], 's_4_35': [4656], 37: [2008, 5301, 5302, 5188, 5187, 2322, 5307, 5306, 5303, 5304, 5305], 's_4_37': [1557], 39: [1840, 4734, 4733, 1377, 1376, 1375, 1374, 4732], 's_4_39': [4897], 's_4_4': [4611], 5: [4931, 4930, 4929, 4928, 4987, 2006, 1481, 5421, 5422, 1483, 1482], 's_6_5': [1705], 7: [4776, 1719, 4779, 4778, 1392, 1391, 1390, 4777], 's_6_7': [4793], 9: [4718, 5261, 5262, 2427, 2426, 2425, 4719, 4720, 4721, 4722, 2424, 4768, 4769], 's_6_9': [2439], 10: [2321, 4707, 2319, 2320], 's_6_10': [2349], 11: [1888, 4988, 1751, 5409, 1586, 5091, 5092, 5093, 1828, 1827, 1781, 5094], 's_6_11': [5004], 15: [5396, 5395, 5394, 5393, 5392, 5391, 4582, 1314, 1315, 1316, 1317, 1318], 's_6_15': [1301], 's_6_17': [5123], 18: [1944, 4690, 1720, 4692, 4691, 4884, 4885, 4886, 4917, 4916, 2094, 2095], 's_6_18': [4693, 2454, 4798], 's_6_20': [1421], 23: [4762, 4541, 4540, 4539, 4538, 4537, 4536, 1328, 1333, 1332, 1331, 1330, 1329], 's_6_23': [4553], 36: [1870, 4945, 1915, 1916, 1917, 5214, 1632, 1451, 1452, 5212, 5213], 's_6_36': [1914], 43: [4641, 1254, 1554, 1570, 4822, 1359, 1257, 1256, 1255, 4821], 's_6_43': [4688], 44: [4828, 4827, 4826, 5346, 5347, 5348, 1722, 5244, 5245, 5246, 2202, 2201, 2200], 's_6_44': [1648], 's_6_6': [4583], 's_17_5': [4990], 's_17_11': [1829], 's_17_13': [1814], 's_17_19': [1962], 's_17_23': [1556, 5167, 5166], 26: [5050, 2052, 5126, 2051], 's_17_26': [5095], 's_17_29': [5543], 's_17_36': [5155], 40: [5367, 2338, 1393, 1843, 5332, 5333, 5337, 5336, 5335, 5334], 's_17_40': [5379], 's_17_43': [1302, 5076], 's_17_44': [2007], 46: [5411, 2113, 5005, 2112, 2111], 's_17_46': [5111], 's_17_17': [1784], 3: [1978, 5247, 5350, 5351, 2379, 2380, 2381, 5352, 2323, 5382, 2383, 2382], 's_19_3': [5412], 8: [2396, 2397, 1977, 5203, 5202, 1992, 5200, 5201], 's_19_8': [2412], 's_19_10': [4812, 2485, 2486], 14: [5159, 2606, 4964, 2605, 2603, 2604], 's_19_14': [2576], 22: [4738, 4813, 4585, 4586, 4587, 4588, 2532, 2531, 2530, 2545, 2544], 's_19_22': [5008], 's_19_25': [2232], 's_19_27': [2546], 's_19_28': [2247], 's_19_36': [1932], 's_19_40': [1737], 41: [4960, 4962, 4961], 's_19_41': [4963], 's_19_19': [2354], 's_20_10': [5097], 's_20_11': [1571], 's_20_21': [2368, 2367], 's_20_26': [2081], 's_20_36': [1497], 's_20_39': [1361], 's_20_42': [4991], 's_20_44': [5096], 's_20_45': [1842], 's_20_20': [1691], 's_21_3': [5323], 's_21_22': [4615, 1898], 's_21_23': [4554], 's_21_29': [1839], 's_21_30': [4899], 's_21_37': [2203], 's_21_21': [1859], 's_25_7': [1509], 's_25_15': [1418, 1419], 16: [5158, 1824, 1825, 5157, 5156, 2096, 5020, 5019, 1826], 's_25_16': [5142], 24: [5052, 4856, 2307, 2306, 4855, 2305], 's_25_24': [5112], 33: [2157, 2153, 2154, 2156, 2155], 's_25_33': [5021], 's_25_35': [1779], 's_25_41': [5036, 2171], 's_25_44': [5051], 's_25_25': [1300], 's_27_3': [5248], 's_27_8': [2577], 's_27_18': [2259], 's_27_22': [5098], 's_27_24': [2291], 's_27_37': [5173], 's_27_27': [4904], 's_30_13': [1994, 2024, 5440], 's_30_18': [4675], 's_30_24': [2065], 's_30_28': [5426, 5425], 's_30_29': [4555, 1958], 's_30_32': [5215], 's_30_34': [4901], 38: [1288, 5256, 5257, 5260, 5259, 5258], 's_30_38': [2038], 's_30_48': [4645, 2063], 's_30_30': [2018], 's_32_7': [4972], 's_32_8': [2217], 's_32_16': [5049, 1796], 's_32_18': [1721], 's_32_22': [4526, 2093], 's_32_28': [2068], 's_32_29': [4572], 31: [4881, 5152, 1244, 5151, 1243, 5136, 1240, 1241, 1242], 's_32_31': [5061], 's_32_35': [4631], 's_32_37': [2246, 5186], 's_32_38': [1422], 's_32_42': [2168], 's_32_48': [2198], 's_32_32': [2183], 's_34_5': [1510], 's_34_12': [1420], 's_34_15': [5046], 's_34_16': [4764], 's_34_18': [4689, 1734], 's_34_24': [2110], 's_34_29': [4823], 's_34_33': [4946], 's_34_40': [5317], 's_34_45': [4853], 's_34_47': [1690], 's_34_48': [1674], 's_34_34': [4835], 's_45_7': [4808], 's_45_8': [5289, 5290], 's_45_15': [1948, 5364], 's_45_16': [4944], 's_45_18': [4915], 's_45_36': [5198], 's_45_38': [1797], 's_45_40': [1872], 's_45_43': [1555], 's_45_47': [1676], 's_45_48': [4943], 's_45_45': [5274], 's_47_5': [5182], 's_47_11': [4958], 's_47_36': [5197], 's_47_43': [4868], 's_47_44': [5362], 's_47_46': [2036], 's_47_48': [4883, 4882], 's_47_47': [5288], 's_12_14': [2588], 's_12_18': [2409, 2408], 's_12_29': [1868], 's_12_35': [1494], 's_12_36': [1466], 's_12_39': [4792], 's_12_43': [4911], 's_12_12': [2288], 's_13_11': [1723], 's_13_15': [1963, 5470, 5469, 1738], 's_13_29': [5484], 's_13_37': [2009, 5500], 's_13_13': [5453], 's_28_9': [5293], 's_28_10': [4932], 's_28_18': [4947, 2260], 's_28_23': [5541], 's_28_24': [4857], 's_28_31': [1259], 's_28_42': [4782], 's_28_46': [2114], 's_28_28': [1424], 's_29_22': [1928], 's_29_33': [2138], 's_29_36': [5183], 's_29_29': [5558], 's_35_3': [2395], 's_35_7': [1718], 's_35_9': [2365], 's_35_10': [2289], 's_35_15': [4701], 's_35_22': [1883], 's_35_23': [4731], 's_35_31': [4791], 's_35_48': [1508], 's_35_35': [1269, 1268], 's_48_3': [4618], 's_48_5': [1480, 1479], 's_48_10': [4647, 2423], 's_48_15': [1373], 's_48_16': [4614], 's_48_18': [4706], 's_48_33': [2184, 4676], 's_48_39': [4702], 's_48_44': [2529, 4678, 2619], 's_48_48': [4604, 2649], 's_42_3': [4557], 's_42_9': [2350], 's_42_15': [1433], 's_42_23': [1583], 's_42_33': [4481], 's_42_41': [2186], 's_42_43': [1553, 1538], 's_42_46': [2080], 's_42_42': [1838], 's_37_40': [1633], 's_37_5': [1303], 's_37_10': [5022, 5172, 2456], 's_37_16': [2472], 's_37_22': [2547], 's_37_23': [5287], 's_37_31': [1227], 's_37_37': [2636], 's_39_9': [4735], 's_39_7': [5047], 's_39_18': [4869], 's_39_23': [4986], 's_39_43': [4806], 's_39_44': [1362], 's_39_39': [4824], 's_5_26': [1991], 's_5_23': [4927], 's_5_31': [5153], 's_5_36': [1453], 's_5_5': [1198], 's_7_9': [1630], 's_7_15': [5211], 's_7_31': [5031], 's_7_11': [1780], 's_7_16': [4704], 's_7_18': [1795], 's_7_38': [5272], 's_7_7': [1179], 's_9_3': [5217], 's_9_14': [4754], 's_9_22': [4948], 's_9_33': [2139], 's_9_40': [5338], 's_9_43': [1539], 's_9_46': [5276], 's_9_9': [2694], 's_10_24': [5127], 's_10_10': [5007], 's_11_40': [5319, 1783], 's_11_31': [1196], 's_11_36': [5017], 's_11_18': [4959, 1735], 's_11_38': [1782], 's_11_11': [1181], 's_15_3': [2293], 's_15_23': [1403], 's_15_38': [1678], 's_15_15': [2278], 's_18_24': [4887, 2410], 's_18_33': [2140], 's_18_41': [2366], 's_18_18': [2169], 's_23_16': [1809], 's_23_31': [5451], 's_23_33': [4556], 's_23_38': [5376], 's_23_44': [5361], 's_23_23': [4521], 's_36_16': [5034], 's_36_41': [1900], 's_36_36': [5227], 's_43_31': [4866], 's_43_38': [5286], 's_43_43': [4820], 's_44_40': [1753], 's_44_31': [1258], 's_44_14': [2470, 4873], 's_44_44': [4829], 's_26_3': [5365], 's_26_8': [2187], 's_26_33': [5141], 's_26_38': [5275], 's_26_26': [5125], 's_40_3': [2308], 's_40_46': [2188], 's_40_40': [1603], 's_46_8': [2127], 's_46_46': [2233], 's_3_8': [5067], 's_3_3': [2488], 's_8_16': [2142], 's_8_22': [4978], 's_8_33': [5216], 's_8_38': [1993], 's_8_8': [2667], 's_14_16': [2441, 2440, 4888], 's_14_22': [4843], 's_14_14': [4483], 's_22_22': [2468], 's_41_41': [1841], 's_16_24': [4854], 's_16_16': [1823], 's_24_33': [5171], 's_24_24': [4797], 's_33_33': [2152], 's_38_38': [1182], 's_31_31': [5631]}</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.0003450134770889488</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0009553193410254906</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>{0: [5137, 1587, 2049, 5138, 1707, 1706, 5139, 5140, 1947, 1946, 1945, 4809, 4810], 1: [5486, 5485, 1873, 5424, 1693, 5423, 4673, 1618, 1617, 1614, 1615, 1616], 's_0_1': [1602], 2: [1975, 1960, 4841, 4840], 's_0_2': [4780], 4: [5122, 5243, 5242, 1299, 1407, 4612, 1404, 1405, 1406], 's_0_4': [1572], 6: [4825, 4662, 4661, 4660, 4659, 4658, 1644, 1645, 5001, 1647, 2079, 1646, 5003, 5002], 's_0_6': [5018], 17: [5106, 1961, 5544, 5107, 5108, 5109, 1903, 1902, 1901, 5110], 's_0_17': [5124], 19: [4977, 1767, 2455, 4993, 4992, 5229, 5230, 5231, 5232, 2353, 2352, 2351], 's_0_19': [5228], 20: [2141, 5077, 5078, 5079, 5082, 5081, 5080], 's_0_20': [1511], 21: [1854, 1855, 5322, 5321, 5320, 1856, 1857, 1858], 's_0_21': [4839], 25: [2230, 2229, 4752, 4747, 4748, 4749, 4750, 2231, 4751], 's_0_25': [1899], 27: [2562, 4811, 2290, 2561, 4903, 4902], 's_0_27': [4781, 2170], 30: [4900, 2019, 2020, 2023, 2022, 2021], 's_0_30': [4705], 32: [1437, 1436, 2067, 2066, 4451, 2213, 2214, 2215, 2216, 5066, 5062, 5063, 5064, 5065], 's_0_32': [1736], 34: [1347, 1346, 2125, 4796, 4795, 4794, 1675, 4838, 4837, 4836, 1345], 's_0_34': [1884], 45: [1599, 1765, 5199, 4913, 1813, 1812, 1600, 1811, 4914], 's_0_45': [5154], 47: [4898, 1542, 1541, 1631, 4976, 4975, 4974, 1540, 4973], 's_0_47': [5273], 's_0_0': [5363], 's_1_4': [4613], 12: [4912, 1435, 1434, 4642, 4643, 4513, 4512, 4511, 4510, 1913, 4644], 's_1_12': [1629], 13: [5410, 1918, 1708, 5514, 5515], 's_1_13': [5378], 's_1_21': [4674], 's_1_25': [4763], 28: [5526, 5527, 5528, 5529, 5530, 5545, 2335, 2336, 2337, 2083, 5292, 5291, 2082], 's_1_28': [1558], 29: [4571, 4570, 4569, 1659, 1664, 1663, 1662, 1661, 1660], 's_1_29': [4703], 35: [1285, 4737, 1284, 4736, 2124, 4630, 4629, 4628, 4626, 4627], 's_1_35': [1749], 's_1_45': [1601], 48: [4597, 2199, 4603, 4602, 4601, 4600, 1794, 1525, 1524, 1523, 4598, 4599], 's_1_48': [1764], 's_1_1': [1619], 's_2_17': [1976], 's_2_25': [2005], 's_2_27': [2185], 's_2_34': [2035], 42: [4871, 1358, 4872, 5006, 2275, 2274, 2273, 4496, 4495, 4494, 4493, 4492, 4491], 's_2_42': [4870], 's_2_2': [4842], 's_4_12': [1464], 's_4_20': [1467], 's_4_25': [1389], 's_4_32': [4957], 's_4_35': [4656], 37: [2008, 5301, 5302, 5188, 5187, 2322, 5307, 5306, 5303, 5304, 5305], 's_4_37': [1557], 39: [1840, 4734, 4733, 1377, 1376, 1375, 1374, 4732], 's_4_39': [4897], 's_4_4': [4611], 5: [4931, 4930, 4929, 4928, 4987, 2006, 1481, 5421, 5422, 1483, 1482], 's_6_5': [1705], 7: [4776, 1719, 4779, 4778, 1392, 1391, 1390, 4777], 's_6_7': [4793], 9: [4718, 5261, 5262, 2427, 2426, 2425, 4719, 4720, 4721, 4722, 2424, 4768, 4769], 's_6_9': [2439], 10: [2321, 4707, 2319, 2320], 's_6_10': [2349], 11: [1888, 4988, 1751, 5409, 1586, 5091, 5092, 5093, 1828, 1827, 1781, 5094], 's_6_11': [5004], 15: [5396, 5395, 5394, 5393, 5392, 5391, 4582, 1314, 1315, 1316, 1317, 1318], 's_6_15': [1301], 's_6_17': [5123], 18: [1944, 4690, 1720, 4692, 4691, 4884, 4885, 4886, 4917, 4916, 2094, 2095], 's_6_18': [4693, 2454, 4798], 's_6_20': [1421], 23: [4762, 4541, 4540, 4539, 4538, 4537, 4536, 1328, 1333, 1332, 1331, 1330, 1329], 's_6_23': [4553], 36: [1870, 4945, 1915, 1916, 1917, 5214, 1632, 1451, 1452, 5212, 5213], 's_6_36': [1914], 43: [4641, 1254, 1554, 1570, 4822, 1359, 1257, 1256, 1255, 4821], 's_6_43': [4688], 44: [4828, 4827, 4826, 5346, 5347, 5348, 1722, 5244, 5245, 5246, 2202, 2201, 2200], 's_6_44': [1648], 's_6_6': [4583], 's_17_5': [4990], 's_17_11': [1829], 's_17_13': [1814], 's_17_19': [1962], 's_17_23': [1556, 5167, 5166], 26: [5050, 2052, 5126, 2051], 's_17_26': [5095], 's_17_29': [5543], 's_17_36': [5155], 40: [5367, 2338, 1393, 1843, 5332, 5333, 5337, 5336, 5335, 5334], 's_17_40': [5379], 's_17_43': [1302, 5076], 's_17_44': [2007], 46: [5411, 2113, 5005, 2112, 2111], 's_17_46': [5111], 's_17_17': [1784], 3: [1978, 5247, 5350, 5351, 2379, 2380, 2381, 5352, 2323, 5382, 2383, 2382], 's_19_3': [5412], 8: [2396, 2397, 1977, 5203, 5202, 1992, 5200, 5201], 's_19_8': [2412], 's_19_10': [4812, 2485, 2486], 14: [5159, 2606, 4964, 2605, 2603, 2604], 's_19_14': [2576], 22: [4738, 4813, 4585, 4586, 4587, 4588, 2532, 2531, 2530, 2545, 2544], 's_19_22': [5008], 's_19_25': [2232], 's_19_27': [2546], 's_19_28': [2247], 's_19_36': [1932], 's_19_40': [1737], 41: [4960, 4962, 4961], 's_19_41': [4963], 's_19_19': [2354], 's_20_10': [5097], 's_20_11': [1571], 's_20_21': [2368, 2367], 's_20_26': [2081], 's_20_36': [1497], 's_20_39': [1361], 's_20_42': [4991], 's_20_44': [5096], 's_20_45': [1842], 's_20_20': [1691], 's_21_3': [5323], 's_21_22': [4615, 1898], 's_21_23': [4554], 's_21_29': [1839], 's_21_30': [4899], 's_21_37': [2203], 's_21_21': [1859], 's_25_7': [1509], 's_25_15': [1418, 1419], 16: [5158, 1824, 1825, 5157, 5156, 2096, 5020, 5019, 1826], 's_25_16': [5142], 24: [5052, 4856, 2307, 2306, 4855, 2305], 's_25_24': [5112], 33: [2157, 2153, 2154, 2156, 2155], 's_25_33': [5021], 's_25_35': [1779], 's_25_41': [5036, 2171], 's_25_44': [5051], 's_25_25': [1300], 's_27_3': [5248], 's_27_8': [2577], 's_27_18': [2259], 's_27_22': [5098], 's_27_24': [2291], 's_27_37': [5173], 's_27_27': [4904], 's_30_13': [1994, 2024, 5440], 's_30_18': [4675], 's_30_24': [2065], 's_30_28': [5426, 5425], 's_30_29': [4555, 1958], 's_30_32': [5215], 's_30_34': [4901], 38: [1288, 5256, 5257, 5260, 5259, 5258], 's_30_38': [2038], 's_30_48': [4645, 2063], 's_30_30': [2018], 's_32_7': [4972], 's_32_8': [2217], 's_32_16': [5049, 1796], 's_32_18': [1721], 's_32_22': [4526, 2093], 's_32_28': [2068], 's_32_29': [4572], 31: [4881, 5152, 1244, 5151, 1243, 5136, 1240, 1241, 1242], 's_32_31': [5061], 's_32_35': [4631], 's_32_37': [2246, 5186], 's_32_38': [1422], 's_32_42': [2168], 's_32_48': [2198], 's_32_32': [2183], 's_34_5': [1510], 's_34_12': [1420], 's_34_15': [5046], 's_34_16': [4764], 's_34_18': [4689, 1734], 's_34_24': [2110], 's_34_29': [4823], 's_34_33': [4946], 's_34_40': [5317], 's_34_45': [4853], 's_34_47': [1690], 's_34_48': [1674], 's_34_34': [4835], 's_45_7': [4808], 's_45_8': [5289, 5290], 's_45_15': [1948, 5364], 's_45_16': [4944], 's_45_18': [4915], 's_45_36': [5198], 's_45_38': [1797], 's_45_40': [1872], 's_45_43': [1555], 's_45_47': [1676], 's_45_48': [4943], 's_45_45': [5274], 's_47_5': [5182], 's_47_11': [4958], 's_47_36': [5197], 's_47_43': [4868], 's_47_44': [5362], 's_47_46': [2036], 's_47_48': [4883, 4882], 's_47_47': [5288], 's_12_14': [2588], 's_12_18': [2409, 2408], 's_12_29': [1868], 's_12_35': [1494], 's_12_36': [1466], 's_12_39': [4792], 's_12_43': [4911], 's_12_12': [2288], 's_13_11': [1723], 's_13_15': [1963, 5470, 5469, 1738], 's_13_29': [5484], 's_13_37': [2009, 5500], 's_13_13': [5453], 's_28_9': [5293], 's_28_10': [4932], 's_28_18': [4947, 2260], 's_28_23': [5541], 's_28_24': [4857], 's_28_31': [1259], 's_28_42': [4782], 's_28_46': [2114], 's_28_28': [1424], 's_29_22': [1928], 's_29_33': [2138], 's_29_36': [5183], 's_29_29': [5558], 's_35_3': [2395], 's_35_7': [1718], 's_35_9': [2365], 's_35_10': [2289], 's_35_15': [4701], 's_35_22': [1883], 's_35_23': [4731], 's_35_31': [4791], 's_35_48': [1508], 's_35_35': [1269, 1268], 's_48_3': [4618], 's_48_5': [1480, 1479], 's_48_10': [4647, 2423], 's_48_15': [1373], 's_48_16': [4614], 's_48_18': [4706], 's_48_33': [2184, 4676], 's_48_39': [4702], 's_48_44': [2529, 4678, 2619], 's_48_48': [4604, 2649], 's_42_3': [4557], 's_42_9': [2350], 's_42_15': [1433], 's_42_23': [1583], 's_42_33': [4481], 's_42_41': [2186], 's_42_43': [1553, 1538], 's_42_46': [2080], 's_42_42': [1838], 's_37_40': [1633], 's_37_5': [1303], 's_37_10': [5022, 5172, 2456], 's_37_16': [2472], 's_37_22': [2547], 's_37_23': [5287], 's_37_31': [1227], 's_37_37': [2636], 's_39_9': [4735], 's_39_7': [5047], 's_39_18': [4869], 's_39_23': [4986], 's_39_43': [4806], 's_39_44': [1362], 's_39_39': [4824], 's_5_26': [1991], 's_5_23': [4927], 's_5_31': [5153], 's_5_36': [1453], 's_5_5': [1198], 's_7_9': [1630], 's_7_15': [5211], 's_7_31': [5031], 's_7_11': [1780], 's_7_16': [4704], 's_7_18': [1795], 's_7_38': [5272], 's_7_7': [1179], 's_9_3': [5217], 's_9_14': [4754], 's_9_22': [4948], 's_9_33': [2139], 's_9_40': [5338], 's_9_43': [1539], 's_9_46': [5276], 's_9_9': [2694], 's_10_24': [5127], 's_10_10': [5007], 's_11_40': [5319, 1783], 's_11_31': [1196], 's_11_36': [5017], 's_11_18': [4959, 1735], 's_11_38': [1782], 's_11_11': [1181], 's_15_3': [2293], 's_15_23': [1403], 's_15_38': [1678], 's_15_15': [2278], 's_18_24': [4887, 2410], 's_18_33': [2140], 's_18_41': [2366], 's_18_18': [2169], 's_23_16': [1809], 's_23_31': [5451], 's_23_33': [4556], 's_23_38': [5376], 's_23_44': [5361], 's_23_23': [4521], 's_36_16': [5034], 's_36_41': [1900], 's_36_36': [5227], 's_43_31': [4866], 's_43_38': [5286], 's_43_43': [4820], 's_44_40': [1753], 's_44_31': [1258], 's_44_14': [2470, 4873], 's_44_44': [4829], 's_26_3': [5365], 's_26_8': [2187], 's_26_33': [5141], 's_26_38': [5275], 's_26_26': [5125], 's_40_3': [2308], 's_40_46': [2188], 's_40_40': [1603], 's_46_8': [2127], 's_46_46': [2233], 's_3_8': [5067], 's_3_3': [2488], 's_8_16': [2142], 's_8_22': [4978], 's_8_33': [5216], 's_8_38': [1993], 's_8_8': [2667], 's_14_16': [2441, 2440, 4888], 's_14_22': [4843], 's_14_14': [4483], 's_22_22': [2468], 's_41_41': [1841], 's_16_24': [4854], 's_16_16': [1823], 's_24_33': [5171], 's_24_24': [4797], 's_33_33': [2152], 's_38_38': [1182], 's_31_31': [5631]}</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0.0003450134770889488</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.0009553193410254906</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>{0: [2544, 2604, 4707, 4708], 6: [2527, 2530, 2529, 2528], 10: [4498, 4213, 2543, 2542], 16: [4633, 2603, 2602, 4318, 4316, 4317], 17: [2274, 4693, 2349, 4692], 19: [4722, 2259, 2256, 2257, 2258], 20: [4452, 2319, 2317, 2318], 21: [2379, 4496, 2377, 2378, 4497], 35: [4630, 2139, 2304, 4631], 40: [2228, 4588, 4587], 41: [2451, 2454, 2453, 2452], 43: [4602, 2288, 2289], 1: [2408, 4648, 4646, 4647], 3: [2184, 4198, 2183, 4197, 4196, 2182], 14: [2273, 2272, 4363, 4362], 26: [4528, 4558, 2484, 2483], 28: [4333, 2438, 2437], 33: [4736, 2468, 2469, 4737, 4738], 37: [4392, 2467, 4393], 45: [4423, 2227, 4421, 4422], 49: [2242, 2243, 4513, 4512, 4511], 8: [2559, 2558, 4376, 4377, 4378], 9: [4288, 2436, 2302, 4287, 4286], 11: [2512, 4752, 4753, 2513, 2514], 15: [4273, 2212, 2241, 4272, 4271], 34: [4303, 4301, 2482, 4302], 39: [4483, 4481, 4482], 42: [4212, 2199, 2197, 2198], 12: [2137, 4451, 2138], 27: [4723, 2499, 2498], 30: [2406, 4438, 2407], 32: [4617, 4618, 4619], 44: [4436, 2152, 2153], 47: [2572, 2573, 4663, 2574], 7: [4601, 2154, 4676], 22: [4409, 2287, 4408, 2348, 4407], 36: [2303, 4557], 38: [2588, 4542, 4543], 46: [4572, 4573, 2392, 2393, 2394], 18: [4526, 2333, 4527], 24: [2497, 4258, 2347, 4257], 25: [4167, 2423, 2422, 2421], 48: [4437, 2362, 2364, 2363], 13: [4751, 2170, 2167, 2168, 2169], 29: [4348, 4346, 4347], 4: [4661, 4662], 31: [4586, 2093, 4467, 2092, 4465, 4466], 23: [4480, 2122, 2123, 2214, 4541], 5: [2213, 4361], 2: [4332, 4331]}</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.008618899273104882</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.01336690229176919</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>{0: [2544, 2604, 4707, 4708], 6: [2527, 2530, 2529, 2528], 10: [4498, 4213, 2543, 2542], 16: [4633, 2603, 2602, 4318, 4316, 4317], 17: [2274, 4693, 2349, 4692], 19: [4722, 2259, 2256, 2257, 2258], 20: [4452, 2319, 2317, 2318], 21: [2379, 4496, 2377, 2378, 4497], 35: [4630, 2139, 2304, 4631], 40: [2228, 4588, 4587], 41: [2451, 2454, 2453, 2452], 43: [4602, 2288, 2289], 1: [2408, 4648, 4646, 4647], 3: [2184, 4198, 2183, 4197, 4196, 2182], 14: [2273, 2272, 4363, 4362], 26: [4528, 4558, 2484, 2483], 28: [4333, 2438, 2437], 33: [4736, 2468, 2469, 4737, 4738], 37: [4392, 2467, 4393], 45: [4423, 2227, 4421, 4422], 49: [2242, 2243, 4513, 4512, 4511], 8: [2559, 2558, 4376, 4377, 4378], 9: [4288, 2436, 2302, 4287, 4286], 11: [2512, 4752, 4753, 2513, 2514], 15: [4273, 2212, 2241, 4272, 4271], 34: [4303, 4301, 2482, 4302], 39: [4483, 4481, 4482], 42: [4212, 2199, 2197, 2198], 12: [2137, 4451, 2138], 27: [4723, 2499, 2498], 30: [2406, 4438, 2407], 32: [4617, 4618, 4619], 44: [4436, 2152, 2153], 47: [2572, 2573, 4663, 2574], 7: [4601, 2154, 4676], 22: [4409, 2287, 4408, 2348, 4407], 36: [2303, 4557], 38: [2588, 4542, 4543], 46: [4572, 4573, 2392, 2393, 2394], 18: [4526, 2333, 4527], 24: [2497, 4258, 2347, 4257], 25: [4167, 2423, 2422, 2421], 48: [4437, 2362, 2364, 2363], 13: [4751, 2170, 2167, 2168, 2169], 29: [4348, 4346, 4347], 4: [4661, 4662], 31: [4586, 2093, 4467, 2092, 4465, 4466], 23: [4480, 2122, 2123, 2214, 4541], 5: [2213, 4361], 2: [4332, 4331]}</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0.008618899273104882</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.01336690229176919</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>{0: [4022, 4023, 499, 3782, 605, 3846, 604, 950, 3845, 3844, 3843], 6: [575, 500, 4036, 440, 576, 4038, 4037], 's_0_6': [4021], 10: [3032, 630, 634, 633, 631, 632], 's_0_10': [3858], 16: [3827, 782, 3828, 783, 786, 785, 784], 's_0_16': [3859], 17: [438, 3586, 949, 948, 393, 3451, 3452, 3453, 3502, 3501, 3500, 962, 3454], 's_0_17': [3721], 19: [3427, 3426, 3425, 4083, 3424, 932, 933, 934, 935, 3979, 830], 's_0_19': [920], 20: [3995, 527, 1056, 1055, 1054, 1053, 526, 3152, 3153, 1052, 3154, 3155, 1051], 's_0_20': [3860], 21: [4186, 3124, 426, 425, 424, 423, 422, 3436, 392, 391, 3122, 3123], 's_0_21': [3736], 35: [3571, 3437, 601, 3576, 3575, 3574, 858, 3573, 602, 603, 3572], 's_0_35': [859], 40: [996, 994, 995, 990, 991, 992, 993], 's_0_40': [3904], 41: [772, 3170, 3484, 771, 770, 769, 3169, 766, 767, 768], 's_0_41': [755], 43: [3712, 3710, 3711, 1171, 1172, 1174, 1173], 's_0_43': [1204], 1: [4141, 4142, 4143, 4144, 4145, 1216, 1217, 1218, 1219, 3861, 1115, 1116, 4160], 's_6_1': [726], 3: [543, 544, 545, 546, 918, 3589, 3587, 3588, 542, 3707], 's_6_3': [4052], 14: [3560, 331, 332, 1128, 333, 3965, 3963, 3964, 3962, 3961, 1130, 335, 1129, 334], 's_6_14': [275], 26: [3752, 680, 3332, 3333, 679, 678, 677], 's_6_26': [665], 28: [3180, 439, 3826, 301, 302, 303, 304], 's_6_28': [3901], 33: [846, 801, 363, 364, 365, 4114, 4113, 4112, 4111, 366], 's_6_33': [396], 37: [4054, 4053, 3271, 3272, 587, 588, 4068, 591, 590, 589], 's_6_37': [4067], 45: [1022, 1023, 1024, 1025, 3915, 3916, 3917, 3918, 3919], 's_6_45': [710], 49: [3245, 902, 456, 455, 3751, 454, 453, 452, 901, 3244, 451, 3242, 3243], 's_6_49': [470], 8: [3725, 273, 3724, 3691, 889, 3694, 694, 3693, 3692], 's_10_8': [648], 9: [3676, 1248, 722, 3681, 3677, 723, 724, 3678, 3680, 3679], 's_10_9': [3708], 11: [3663, 708, 3513, 3514, 1293, 3517, 3516, 3515], 's_10_11': [647], 15: [4041, 3287, 3288, 1266, 1265, 1263, 1262, 1264, 3291, 3290, 3289], 's_10_15': [646], 's_10_21': [645], 34: [3950, 1070, 1069, 1068, 3530, 736, 737, 738, 3528, 3529], 's_10_34': [3168], 39: [3185, 212, 3184, 3183, 3182, 3316, 3317, 511], 's_10_39': [3197], 42: [4277, 621, 3321, 619, 3322, 617, 3320, 616, 620, 3319, 618, 3318], 's_10_42': [615], 's_10_49': [676, 3227], 's_16_3': [3812], 's_16_8': [709], 's_16_9': [3798], 12: [692, 3465, 3466, 3467, 662, 3470, 3469, 3468], 's_16_12': [3438], 27: [739, 4158, 741, 740], 's_16_27': [4098], 30: [4101, 4100, 1071, 4205, 4201, 4202, 4203, 816, 4204], 's_16_30': [4263], 32: [213, 3540, 1039, 1038, 3541, 3542, 3544, 3543], 's_16_32': [3558], 's_16_34': [3618], 's_16_41': [4039], 44: [3891, 256, 257, 258, 259, 3890, 3889, 3888, 3887, 3886], 's_16_44': [3874], 47: [3512, 3811, 395, 3873, 3617, 3872, 4127, 561, 560, 558, 559], 's_16_47': [4128], 7: [1354, 1351, 1352, 1353], 's_17_7': [3487], 's_17_19': [1397], 's_17_20': [1067], 22: [352, 351, 350, 3768, 3767, 3766, 3346, 347, 348, 349], 's_17_22': [317], 's_17_33': [3616], 36: [3409, 3408, 362, 3406, 3407], 's_17_36': [497], 38: [3212, 3213, 3364, 1006, 1185, 3214, 3215, 1187, 1186], 's_17_38': [961], 's_17_40': [3559], 's_17_41': [3485], 46: [3664, 3784, 3771, 919, 3769, 1145, 1144, 3770], 's_17_46': [3649], 's_17_47': [498], 's_19_3': [4082], 's_19_7': [1367], 's_19_9': [1247], 's_19_12': [872], 's_19_14': [1157], 18: [799, 798, 797, 3336, 3335, 3334, 796], 's_19_18': [1277], 24: [4086, 4085, 4084, 562, 876, 711, 4187, 4189, 4188], 's_19_24': [861], 25: [3125, 4069, 4099, 3695, 4070, 975, 976, 977, 981, 980, 979, 978], 's_19_25': [3274], 's_19_27': [3948], 's_19_34': [1007], 's_19_36': [917], 's_19_37': [815], 's_19_38': [3441], 's_19_49': [931], 's_20_9': [721], 's_20_14': [3151], 's_20_15': [661], 's_20_18': [795], 's_20_26': [3347], 's_20_30': [4190], 's_20_36': [3410], 's_20_37': [586], 's_20_41': [810], 's_20_45': [1040], 48: [412, 411, 410, 407, 408, 3302, 409], 's_20_48': [406], 's_20_49': [450], 's_21_1': [291], 's_21_3': [3482], 's_21_9': [3662], 's_21_12': [437], 13: [3741, 3631, 3632, 3633, 1294, 888, 3636, 3635, 3634], 's_21_13': [3601, 318], 's_21_14': [3256], 's_21_22': [4081], 's_21_24': [4096, 486], 's_21_25': [916, 3259], 's_21_26': [421], 's_21_28': [3391, 3390], 29: [1278, 1279, 3786, 4246, 1249, 1250, 1251, 1252, 4247, 4248, 4249, 4250, 4251], 's_21_29': [4261, 502], 's_21_41': [751], 's_21_49': [3139], 's_35_3': [3647], 4: [3993, 3991, 3722, 528, 529, 3992, 530], 's_35_4': [3602], 's_35_7': [1368], 's_35_11': [1383], 's_35_12': [467], 's_35_13': [1158], 's_35_14': [1113], 31: [1086, 841, 1085, 842, 843, 3817, 3816, 3815, 3814, 845, 844], 's_35_31': [3619], 's_35_36': [512], 's_35_40': [1008], 's_35_43': [1338], 's_35_49': [3257], 23: [1096, 1189, 3455, 3756, 3755, 1097, 1099, 1098], 's_40_23': [3110], 's_40_31': [4009, 951, 4055], 's_40_32': [3605], 's_40_33': [4129], 's_40_36': [3394], 's_40_39': [3199], 's_40_41': [1005], 's_40_45': [4025], 's_41_1': [756], 's_41_3': [753], 's_41_4': [3723], 's_41_8': [3753], 's_41_9': [3273], 's_41_15': [886], 's_41_29': [697, 4308], 's_41_31': [4024], 's_41_32': [812], 's_41_33': [4173], 's_41_38': [871], 's_43_1': [3276], 's_43_7': [3697], 's_43_14': [3531], 's_43_18': [3351], 's_43_23': [3740], 's_43_31': [1429], 's_43_32': [3545], 's_43_38': [3246], 's_43_45': [3920], 's_43_46': [1309], 's_1_11': [3621], 's_1_14': [1114], 's_1_25': [1026], 's_1_30': [441], 's_1_38': [3156], 's_1_39': [1201], 's_1_42': [4157], 's_1_46': [1146], 's_1_47': [606], 's_1_48': [4006, 381], 's_3_42': [4097], 's_3_47': [3932], 's_3_4': [4007], 5: [947, 3380, 3379, 3378, 3375, 3376, 3377], 's_3_5': [3362], 's_3_8': [813], 's_3_13': [828], 's_3_15': [572, 573], 's_3_34': [873], 2: [319, 4172, 4171, 322, 320, 321], 's_14_2': [3706], 's_14_5': [3361], 's_14_8': [3796, 274], 's_14_9': [3661], 's_14_28': [3526], 's_14_31': [3980], 's_14_36': [3331], 's_14_38': [3486], 's_14_39': [346], 's_14_47': [485], 's_14_49': [3211], 's_26_45': [3902], 's_26_4': [3947], 's_26_34': [3423], 's_26_18': [3603], 's_26_32': [3557], 's_26_36': [557], 's_28_39': [3181], 's_28_47': [3842], 's_28_2': [3781], 's_28_8': [3720], 's_28_32': [3570], 's_28_37': [316], 's_28_49': [3750], 's_33_30': [1011], 's_33_13': [3646], 's_33_31': [4115], 's_33_37': [921], 's_33_32': [3511], 's_37_25': [906], 's_37_42': [3977], 's_37_22': [286], 's_37_24': [891], 's_37_5': [271], 's_37_8': [574], 's_37_9': [3303], 's_45_2': [3900], 's_45_12': [1037], 's_45_18': [3903], 's_45_23': [3800], 's_45_27': [725], 's_49_38': [3229], 's_49_39': [571], 's_49_42': [811], 's_49_47': [3497], 's_49_29': [4232], 's_49_15': [481], 's_49_34': [3527], 's_49_31': [856], 's_49_18': [781], 's_8_25': [3799], 's_8_23': [3754], 's_8_31': [3829], 's_8_32': [3585], 's_9_11': [1203], 's_9_48': [394], 's_9_22': [754], 's_9_29': [3591], 's_9_44': [244, 243], 's_9_13': [379], 's_9_15': [3561], 's_9_12': [693], 's_11_13': [663], 's_11_27': [3648], 's_11_29': [1324, 1323, 1322], 's_11_38': [3456], 's_15_25': [4040, 965], 's_15_30': [1190], 's_15_42': [1321], 's_15_46': [4056], 's_15_24': [1267, 4236, 4235, 952], 's_15_29': [3906], 's_15_5': [1127], 's_15_13': [3651], 's_34_25': [3875], 's_34_30': [1175], 's_39_25': [960], 's_39_38': [1126], 's_39_22': [227], 's_39_23': [3200], 's_39_36': [3405], 's_39_44': [3420], 's_42_2': [4262, 577], 's_42_7': [1366], 's_42_18': [1112], 's_42_22': [4276], 's_42_23': [3305], 's_12_44': [3450], 's_12_5': [707], 's_12_18': [3363], 's_12_23': [1083], 's_12_36': [827], 's_27_47': [651], 's_27_24': [636], 's_30_22': [336], 's_30_24': [727], 's_30_31': [4130], 's_30_46': [1160], 's_30_48': [4217], 's_32_46': [3739], 's_32_47': [483], 's_44_48': [3301], 's_44_2': [380, 3856], 's_44_5': [3360], 's_44_18': [649, 3783], 's_44_23': [1100], 's_44_31': [905], 's_47_4': [3797], 's_47_22': [4126], 's_7_13': [3637], 's_7_31': [3832], 's_22_46': [829], 's_22_48': [4306], 's_22_2': [4381], 's_22_5': [377], 's_22_29': [4231], 's_36_48': [3421], 's_36_31': [3393], 's_36_18': [752], 's_38_18': [1141], 's_46_25': [964], 's_46_18': [3709], 's_46_23': [1399], 's_46_29': [3787, 1369], 's_18_13': [887], 's_18_23': [3349, 3350], 's_18_31': [3228], 's_24_25': [966], 's_24_2': [547], 's_24_29': [742], 's_25_31': [3439], 's_48_4': [3857], 's_48_5': [436], 's_48_29': [397], 's_13_29': [3801], 's_29_2': [307], 's_29_23': [1339], 's_29_31': [1087], 's_31_5': [857], 's_31_23': [1084], 's_23_5': [3365]}</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E97" t="n">
         <v>0.0006686217008797654</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F97" t="n">
         <v>0.001424676772785724</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G97" t="n">
         <v>0.001</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>{0: [4022, 4023, 499, 3782, 605, 3846, 604, 950, 3845, 3844, 3843], 6: [575, 500, 4036, 440, 576, 4038, 4037], 's_0_6': [4021], 10: [3032, 630, 634, 633, 631, 632], 's_0_10': [3858], 16: [3827, 782, 3828, 783, 786, 785, 784], 's_0_16': [3859], 17: [438, 3586, 949, 948, 393, 3451, 3452, 3453, 3502, 3501, 3500, 962, 3454], 's_0_17': [3721], 19: [3427, 3426, 3425, 4083, 3424, 932, 933, 934, 935, 3979, 830], 's_0_19': [920], 20: [3995, 527, 1056, 1055, 1054, 1053, 526, 3152, 3153, 1052, 3154, 3155, 1051], 's_0_20': [3860], 21: [4186, 3124, 426, 425, 424, 423, 422, 3436, 392, 391, 3122, 3123], 's_0_21': [3736], 35: [3571, 3437, 601, 3576, 3575, 3574, 858, 3573, 602, 603, 3572], 's_0_35': [859], 40: [996, 994, 995, 990, 991, 992, 993], 's_0_40': [3904], 41: [772, 3170, 3484, 771, 770, 769, 3169, 766, 767, 768], 's_0_41': [755], 43: [3712, 3710, 3711, 1171, 1172, 1174, 1173], 's_0_43': [1204], 1: [4141, 4142, 4143, 4144, 4145, 1216, 1217, 1218, 1219, 3861, 1115, 1116, 4160], 's_6_1': [726], 3: [543, 544, 545, 546, 918, 3589, 3587, 3588, 542, 3707], 's_6_3': [4052], 14: [3560, 331, 332, 1128, 333, 3965, 3963, 3964, 3962, 3961, 1130, 335, 1129, 334], 's_6_14': [275], 26: [3752, 680, 3332, 3333, 679, 678, 677], 's_6_26': [665], 28: [3180, 439, 3826, 301, 302, 303, 304], 's_6_28': [3901], 33: [846, 801, 363, 364, 365, 4114, 4113, 4112, 4111, 366], 's_6_33': [396], 37: [4054, 4053, 3271, 3272, 587, 588, 4068, 591, 590, 589], 's_6_37': [4067], 45: [1022, 1023, 1024, 1025, 3915, 3916, 3917, 3918, 3919], 's_6_45': [710], 49: [3245, 902, 456, 455, 3751, 454, 453, 452, 901, 3244, 451, 3242, 3243], 's_6_49': [470], 8: [3725, 273, 3724, 3691, 889, 3694, 694, 3693, 3692], 's_10_8': [648], 9: [3676, 1248, 722, 3681, 3677, 723, 724, 3678, 3680, 3679], 's_10_9': [3708], 11: [3663, 708, 3513, 3514, 1293, 3517, 3516, 3515], 's_10_11': [647], 15: [4041, 3287, 3288, 1266, 1265, 1263, 1262, 1264, 3291, 3290, 3289], 's_10_15': [646], 's_10_21': [645], 34: [3950, 1070, 1069, 1068, 3530, 736, 737, 738, 3528, 3529], 's_10_34': [3168], 39: [3185, 212, 3184, 3183, 3182, 3316, 3317, 511], 's_10_39': [3197], 42: [4277, 621, 3321, 619, 3322, 617, 3320, 616, 620, 3319, 618, 3318], 's_10_42': [615], 's_10_49': [676, 3227], 's_16_3': [3812], 's_16_8': [709], 's_16_9': [3798], 12: [692, 3465, 3466, 3467, 662, 3470, 3469, 3468], 's_16_12': [3438], 27: [739, 4158, 741, 740], 's_16_27': [4098], 30: [4101, 4100, 1071, 4205, 4201, 4202, 4203, 816, 4204], 's_16_30': [4263], 32: [213, 3540, 1039, 1038, 3541, 3542, 3544, 3543], 's_16_32': [3558], 's_16_34': [3618], 's_16_41': [4039], 44: [3891, 256, 257, 258, 259, 3890, 3889, 3888, 3887, 3886], 's_16_44': [3874], 47: [3512, 3811, 395, 3873, 3617, 3872, 4127, 561, 560, 558, 559], 's_16_47': [4128], 7: [1354, 1351, 1352, 1353], 's_17_7': [3487], 's_17_19': [1397], 's_17_20': [1067], 22: [352, 351, 350, 3768, 3767, 3766, 3346, 347, 348, 349], 's_17_22': [317], 's_17_33': [3616], 36: [3409, 3408, 362, 3406, 3407], 's_17_36': [497], 38: [3212, 3213, 3364, 1006, 1185, 3214, 3215, 1187, 1186], 's_17_38': [961], 's_17_40': [3559], 's_17_41': [3485], 46: [3664, 3784, 3771, 919, 3769, 1145, 1144, 3770], 's_17_46': [3649], 's_17_47': [498], 's_19_3': [4082], 's_19_7': [1367], 's_19_9': [1247], 's_19_12': [872], 's_19_14': [1157], 18: [799, 798, 797, 3336, 3335, 3334, 796], 's_19_18': [1277], 24: [4086, 4085, 4084, 562, 876, 711, 4187, 4189, 4188], 's_19_24': [861], 25: [3125, 4069, 4099, 3695, 4070, 975, 976, 977, 981, 980, 979, 978], 's_19_25': [3274], 's_19_27': [3948], 's_19_34': [1007], 's_19_36': [917], 's_19_37': [815], 's_19_38': [3441], 's_19_49': [931], 's_20_9': [721], 's_20_14': [3151], 's_20_15': [661], 's_20_18': [795], 's_20_26': [3347], 's_20_30': [4190], 's_20_36': [3410], 's_20_37': [586], 's_20_41': [810], 's_20_45': [1040], 48: [412, 411, 410, 407, 408, 3302, 409], 's_20_48': [406], 's_20_49': [450], 's_21_1': [291], 's_21_3': [3482], 's_21_9': [3662], 's_21_12': [437], 13: [3741, 3631, 3632, 3633, 1294, 888, 3636, 3635, 3634], 's_21_13': [3601, 318], 's_21_14': [3256], 's_21_22': [4081], 's_21_24': [4096, 486], 's_21_25': [916, 3259], 's_21_26': [421], 's_21_28': [3391, 3390], 29: [1278, 1279, 3786, 4246, 1249, 1250, 1251, 1252, 4247, 4248, 4249, 4250, 4251], 's_21_29': [4261, 502], 's_21_41': [751], 's_21_49': [3139], 's_35_3': [3647], 4: [3993, 3991, 3722, 528, 529, 3992, 530], 's_35_4': [3602], 's_35_7': [1368], 's_35_11': [1383], 's_35_12': [467], 's_35_13': [1158], 's_35_14': [1113], 31: [1086, 841, 1085, 842, 843, 3817, 3816, 3815, 3814, 845, 844], 's_35_31': [3619], 's_35_36': [512], 's_35_40': [1008], 's_35_43': [1338], 's_35_49': [3257], 23: [1096, 1189, 3455, 3756, 3755, 1097, 1099, 1098], 's_40_23': [3110], 's_40_31': [4009, 951, 4055], 's_40_32': [3605], 's_40_33': [4129], 's_40_36': [3394], 's_40_39': [3199], 's_40_41': [1005], 's_40_45': [4025], 's_41_1': [756], 's_41_3': [753], 's_41_4': [3723], 's_41_8': [3753], 's_41_9': [3273], 's_41_15': [886], 's_41_29': [697, 4308], 's_41_31': [4024], 's_41_32': [812], 's_41_33': [4173], 's_41_38': [871], 's_43_1': [3276], 's_43_7': [3697], 's_43_14': [3531], 's_43_18': [3351], 's_43_23': [3740], 's_43_31': [1429], 's_43_32': [3545], 's_43_38': [3246], 's_43_45': [3920], 's_43_46': [1309], 's_1_11': [3621], 's_1_14': [1114], 's_1_25': [1026], 's_1_30': [441], 's_1_38': [3156], 's_1_39': [1201], 's_1_42': [4157], 's_1_46': [1146], 's_1_47': [606], 's_1_48': [4006, 381], 's_3_42': [4097], 's_3_47': [3932], 's_3_4': [4007], 5: [947, 3380, 3379, 3378, 3375, 3376, 3377], 's_3_5': [3362], 's_3_8': [813], 's_3_13': [828], 's_3_15': [572, 573], 's_3_34': [873], 2: [319, 4172, 4171, 322, 320, 321], 's_14_2': [3706], 's_14_5': [3361], 's_14_8': [3796, 274], 's_14_9': [3661], 's_14_28': [3526], 's_14_31': [3980], 's_14_36': [3331], 's_14_38': [3486], 's_14_39': [346], 's_14_47': [485], 's_14_49': [3211], 's_26_45': [3902], 's_26_4': [3947], 's_26_34': [3423], 's_26_18': [3603], 's_26_32': [3557], 's_26_36': [557], 's_28_39': [3181], 's_28_47': [3842], 's_28_2': [3781], 's_28_8': [3720], 's_28_32': [3570], 's_28_37': [316], 's_28_49': [3750], 's_33_30': [1011], 's_33_13': [3646], 's_33_31': [4115], 's_33_37': [921], 's_33_32': [3511], 's_37_25': [906], 's_37_42': [3977], 's_37_22': [286], 's_37_24': [891], 's_37_5': [271], 's_37_8': [574], 's_37_9': [3303], 's_45_2': [3900], 's_45_12': [1037], 's_45_18': [3903], 's_45_23': [3800], 's_45_27': [725], 's_49_38': [3229], 's_49_39': [571], 's_49_42': [811], 's_49_47': [3497], 's_49_29': [4232], 's_49_15': [481], 's_49_34': [3527], 's_49_31': [856], 's_49_18': [781], 's_8_25': [3799], 's_8_23': [3754], 's_8_31': [3829], 's_8_32': [3585], 's_9_11': [1203], 's_9_48': [394], 's_9_22': [754], 's_9_29': [3591], 's_9_44': [244, 243], 's_9_13': [379], 's_9_15': [3561], 's_9_12': [693], 's_11_13': [663], 's_11_27': [3648], 's_11_29': [1324, 1323, 1322], 's_11_38': [3456], 's_15_25': [4040, 965], 's_15_30': [1190], 's_15_42': [1321], 's_15_46': [4056], 's_15_24': [1267, 4236, 4235, 952], 's_15_29': [3906], 's_15_5': [1127], 's_15_13': [3651], 's_34_25': [3875], 's_34_30': [1175], 's_39_25': [960], 's_39_38': [1126], 's_39_22': [227], 's_39_23': [3200], 's_39_36': [3405], 's_39_44': [3420], 's_42_2': [4262, 577], 's_42_7': [1366], 's_42_18': [1112], 's_42_22': [4276], 's_42_23': [3305], 's_12_44': [3450], 's_12_5': [707], 's_12_18': [3363], 's_12_23': [1083], 's_12_36': [827], 's_27_47': [651], 's_27_24': [636], 's_30_22': [336], 's_30_24': [727], 's_30_31': [4130], 's_30_46': [1160], 's_30_48': [4217], 's_32_46': [3739], 's_32_47': [483], 's_44_48': [3301], 's_44_2': [380, 3856], 's_44_5': [3360], 's_44_18': [649, 3783], 's_44_23': [1100], 's_44_31': [905], 's_47_4': [3797], 's_47_22': [4126], 's_7_13': [3637], 's_7_31': [3832], 's_22_46': [829], 's_22_48': [4306], 's_22_2': [4381], 's_22_5': [377], 's_22_29': [4231], 's_36_48': [3421], 's_36_31': [3393], 's_36_18': [752], 's_38_18': [1141], 's_46_25': [964], 's_46_18': [3709], 's_46_23': [1399], 's_46_29': [3787, 1369], 's_18_13': [887], 's_18_23': [3349, 3350], 's_18_31': [3228], 's_24_25': [966], 's_24_2': [547], 's_24_29': [742], 's_25_31': [3439], 's_48_4': [3857], 's_48_5': [436], 's_48_29': [397], 's_13_29': [3801], 's_29_2': [307], 's_29_23': [1339], 's_29_31': [1087], 's_31_5': [857], 's_31_23': [1084], 's_23_5': [3365]}</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I97" t="n">
         <v>0.0006686217008797654</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J97" t="n">
         <v>0.001424676772785724</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K97" t="n">
         <v>0.001</v>
       </c>
     </row>
